--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,17 +149,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -514,135 +505,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
-    <col min="8" max="10" width="27.25" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -5,14 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comm" sheetId="1" r:id="rId1"/>
+    <sheet name="Property" sheetId="7" r:id="rId2"/>
+    <sheet name="Guild" sheetId="3" r:id="rId3"/>
+    <sheet name="Tip" sheetId="4" r:id="rId4"/>
+    <sheet name="Item" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -83,23 +87,79 @@
     <t>Langage_6</t>
   </si>
   <si>
-    <t>中文_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文_2</t>
-  </si>
-  <si>
-    <t>中文_3</t>
-  </si>
-  <si>
-    <t>中文_4</t>
-  </si>
-  <si>
-    <t>中文_5</t>
+    <t>Langage_Guild_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认要加入这个公会吗？点击确认加入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_Comm_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_Comm_2</t>
+  </si>
+  <si>
+    <t>Langage_Comm_3</t>
+  </si>
+  <si>
+    <t>Langage_Comm_4</t>
+  </si>
+  <si>
+    <t>Langage_Comm_5</t>
+  </si>
+  <si>
+    <t>Langage_Comm_6</t>
   </si>
   <si>
     <t>中文_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_MP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_VP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_MAXHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_MAXMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langage_ATTACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,17 +565,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -531,69 +591,94 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -601,4 +686,283 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,6 +126,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -133,41 +134,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,14 +156,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,54 +178,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,15 +208,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +305,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,13 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,67 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,86 +489,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -498,13 +499,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,9 +600,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +624,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +644,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,171 +691,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,41 +1262,41 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="31.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1201,7 +1307,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1212,7 +1318,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1223,7 +1329,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1233,76 +1339,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="18840" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760">
   <si>
     <t>Id</t>
   </si>
@@ -106,6 +106,2202 @@
   </si>
   <si>
     <t>中文_6</t>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_1</t>
+  </si>
+  <si>
+    <t>小瓶圣水，在一定是内处于无敌状态！</t>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_2</t>
+  </si>
+  <si>
+    <t>中瓶圣水，在一定是内处于无敌状态！</t>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_3</t>
+  </si>
+  <si>
+    <t>大瓶圣水，在一定是内处于无敌状态！</t>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_4</t>
+  </si>
+  <si>
+    <t>超级圣水，在一定是内处于无敌状态！</t>
+  </si>
+  <si>
+    <t>Desc_MP1</t>
+  </si>
+  <si>
+    <t>小瓶魔法药水，增加英雄魔法力！</t>
+  </si>
+  <si>
+    <t>Desc_MP2</t>
+  </si>
+  <si>
+    <t>中瓶魔法药水，增加英雄魔法力！</t>
+  </si>
+  <si>
+    <t>Desc_MP3</t>
+  </si>
+  <si>
+    <t>大瓶魔法药水，增加英雄魔法力！</t>
+  </si>
+  <si>
+    <t>Desc_MP4</t>
+  </si>
+  <si>
+    <t>超级魔法药水，增加英雄魔法力！</t>
+  </si>
+  <si>
+    <t>Desc_HP1</t>
+  </si>
+  <si>
+    <t>小瓶生命药水，增加英雄生命力！</t>
+  </si>
+  <si>
+    <t>Desc_HP2</t>
+  </si>
+  <si>
+    <t>中瓶生命药水，增加英雄生命力！</t>
+  </si>
+  <si>
+    <t>Desc_HP3</t>
+  </si>
+  <si>
+    <t>大瓶生命药水，增加英雄生命力！</t>
+  </si>
+  <si>
+    <t>Desc_HP4</t>
+  </si>
+  <si>
+    <t>超级生命药水，增加英雄生命力！</t>
+  </si>
+  <si>
+    <t>Desc_SP1</t>
+  </si>
+  <si>
+    <t>小瓶体力药水，增加英雄体力！</t>
+  </si>
+  <si>
+    <t>Desc_SP2</t>
+  </si>
+  <si>
+    <t>中瓶体力药水，增加英雄体力！</t>
+  </si>
+  <si>
+    <t>Desc_SP3</t>
+  </si>
+  <si>
+    <t>大瓶体力药水，增加英雄体力！</t>
+  </si>
+  <si>
+    <t>Desc_SP4</t>
+  </si>
+  <si>
+    <t>超级体力药水，增加英雄体力！</t>
+  </si>
+  <si>
+    <t>Desc_EXP1</t>
+  </si>
+  <si>
+    <t>小瓶经验药水，增加英雄经验！</t>
+  </si>
+  <si>
+    <t>Desc_EXP2</t>
+  </si>
+  <si>
+    <t>中瓶经验药水，增加英雄经验！</t>
+  </si>
+  <si>
+    <t>Desc_EXP3</t>
+  </si>
+  <si>
+    <t>大瓶经验药水，增加英雄经验！</t>
+  </si>
+  <si>
+    <t>Desc_EXP4</t>
+  </si>
+  <si>
+    <t>超级经验药水，增加英雄经验！</t>
+  </si>
+  <si>
+    <t>Desc_MONEY1</t>
+  </si>
+  <si>
+    <t>一个金币，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_MONEY2</t>
+  </si>
+  <si>
+    <t>一小包金币，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_MONEY3</t>
+  </si>
+  <si>
+    <t>Desc_MONEY4</t>
+  </si>
+  <si>
+    <t>一大包金币，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_MONEY5</t>
+  </si>
+  <si>
+    <t>一超大包金币，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_1</t>
+  </si>
+  <si>
+    <t>一个钻石，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_2</t>
+  </si>
+  <si>
+    <t>一小包钻石，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_3</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_4</t>
+  </si>
+  <si>
+    <t>一大包钻石，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_5</t>
+  </si>
+  <si>
+    <t>一超大包钻石，可以从商店购买物品！</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_6</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_1</t>
+  </si>
+  <si>
+    <t>新手升级礼包！</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_2</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_3</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_4</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_5</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_6</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_7</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_8</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_9</t>
+  </si>
+  <si>
+    <t>Desc_NoobPack_10</t>
+  </si>
+  <si>
+    <t>Desc_WarPack_1</t>
+  </si>
+  <si>
+    <t>战争奖励礼包！</t>
+  </si>
+  <si>
+    <t>Desc_WarPack_2</t>
+  </si>
+  <si>
+    <t>Desc_WarPack_3</t>
+  </si>
+  <si>
+    <t>Desc_WarPack_4</t>
+  </si>
+  <si>
+    <t>Desc_WarPack_5</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_1</t>
+  </si>
+  <si>
+    <t>一级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_2</t>
+  </si>
+  <si>
+    <t>二级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_3</t>
+  </si>
+  <si>
+    <t>三级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_4</t>
+  </si>
+  <si>
+    <t>四级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_5</t>
+  </si>
+  <si>
+    <t>五级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_6</t>
+  </si>
+  <si>
+    <t>六级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_7</t>
+  </si>
+  <si>
+    <t>七级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_8</t>
+  </si>
+  <si>
+    <t>八级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_9</t>
+  </si>
+  <si>
+    <t>九级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ATK_10</t>
+  </si>
+  <si>
+    <t>十级攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_1</t>
+  </si>
+  <si>
+    <t>一级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_2</t>
+  </si>
+  <si>
+    <t>二级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_3</t>
+  </si>
+  <si>
+    <t>三级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_4</t>
+  </si>
+  <si>
+    <t>四级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_5</t>
+  </si>
+  <si>
+    <t>五级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_6</t>
+  </si>
+  <si>
+    <t>六级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_7</t>
+  </si>
+  <si>
+    <t>七级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_8</t>
+  </si>
+  <si>
+    <t>八级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_9</t>
+  </si>
+  <si>
+    <t>九级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF_10</t>
+  </si>
+  <si>
+    <t>十级防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_1</t>
+  </si>
+  <si>
+    <t>一级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_2</t>
+  </si>
+  <si>
+    <t>二级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_3</t>
+  </si>
+  <si>
+    <t>三级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_4</t>
+  </si>
+  <si>
+    <t>四级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_5</t>
+  </si>
+  <si>
+    <t>五级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_6</t>
+  </si>
+  <si>
+    <t>六级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_7</t>
+  </si>
+  <si>
+    <t>七级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_8</t>
+  </si>
+  <si>
+    <t>八级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_9</t>
+  </si>
+  <si>
+    <t>九级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE_10</t>
+  </si>
+  <si>
+    <t>十级火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_1</t>
+  </si>
+  <si>
+    <t>一级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_2</t>
+  </si>
+  <si>
+    <t>二级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_3</t>
+  </si>
+  <si>
+    <t>三级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_4</t>
+  </si>
+  <si>
+    <t>四级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_5</t>
+  </si>
+  <si>
+    <t>五级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_6</t>
+  </si>
+  <si>
+    <t>六级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_7</t>
+  </si>
+  <si>
+    <t>七级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_8</t>
+  </si>
+  <si>
+    <t>八级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_9</t>
+  </si>
+  <si>
+    <t>九级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT_10</t>
+  </si>
+  <si>
+    <t>十级雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_1</t>
+  </si>
+  <si>
+    <t>一级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_2</t>
+  </si>
+  <si>
+    <t>二级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_3</t>
+  </si>
+  <si>
+    <t>三级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_4</t>
+  </si>
+  <si>
+    <t>四级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_5</t>
+  </si>
+  <si>
+    <t>五级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_6</t>
+  </si>
+  <si>
+    <t>六级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_7</t>
+  </si>
+  <si>
+    <t>七级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_8</t>
+  </si>
+  <si>
+    <t>八级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_9</t>
+  </si>
+  <si>
+    <t>九级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND_10</t>
+  </si>
+  <si>
+    <t>十级风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_1</t>
+  </si>
+  <si>
+    <t>一级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_2</t>
+  </si>
+  <si>
+    <t>二级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_3</t>
+  </si>
+  <si>
+    <t>三级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_4</t>
+  </si>
+  <si>
+    <t>四级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_5</t>
+  </si>
+  <si>
+    <t>五级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_6</t>
+  </si>
+  <si>
+    <t>六级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_7</t>
+  </si>
+  <si>
+    <t>七级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_8</t>
+  </si>
+  <si>
+    <t>八级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_9</t>
+  </si>
+  <si>
+    <t>九级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE_10</t>
+  </si>
+  <si>
+    <t>十级冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_1</t>
+  </si>
+  <si>
+    <t>一级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_2</t>
+  </si>
+  <si>
+    <t>二级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_3</t>
+  </si>
+  <si>
+    <t>三级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_4</t>
+  </si>
+  <si>
+    <t>四级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_5</t>
+  </si>
+  <si>
+    <t>五级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_6</t>
+  </si>
+  <si>
+    <t>六级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_7</t>
+  </si>
+  <si>
+    <t>七级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_8</t>
+  </si>
+  <si>
+    <t>八级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_9</t>
+  </si>
+  <si>
+    <t>九级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON_10</t>
+  </si>
+  <si>
+    <t>十级毒属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_1</t>
+  </si>
+  <si>
+    <t>英雄卡片，使用获得英雄或者增加经验。</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_2</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_3</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_4</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_5</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_6</t>
+  </si>
+  <si>
+    <t>英雄装备，武器。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_1</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_12</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WEAPON_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_1</t>
+  </si>
+  <si>
+    <t>英雄装备，头盔。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_12</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_HELMET_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_1</t>
+  </si>
+  <si>
+    <t>英雄装备，胸甲。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_12</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_ARMOR_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_1</t>
+  </si>
+  <si>
+    <t>英雄装备，护腕。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_12</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_WRIST_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_1</t>
+  </si>
+  <si>
+    <t>英雄装备，裤子。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_12</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_PANT_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_1</t>
+  </si>
+  <si>
+    <t>英雄装备，鞋子。</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_2</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_3</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_4</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_5</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_6</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_7</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_8</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_9</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_10</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_13</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_14</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_15</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_16</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_17</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_18</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_19</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_20</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_21</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_22</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_23</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_24</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_25</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_26</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_27</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_28</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_29</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_30</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_1</t>
+  </si>
+  <si>
+    <t>蓝药</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_2</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_3</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_4</t>
+  </si>
+  <si>
+    <t>NameID_MP1</t>
+  </si>
+  <si>
+    <t>NameID_MP2</t>
+  </si>
+  <si>
+    <t>NameID_MP3</t>
+  </si>
+  <si>
+    <t>NameID_MP4</t>
+  </si>
+  <si>
+    <t>NameID_HP1</t>
+  </si>
+  <si>
+    <t>血药</t>
+  </si>
+  <si>
+    <t>NameID_HP2</t>
+  </si>
+  <si>
+    <t>NameID_HP3</t>
+  </si>
+  <si>
+    <t>NameID_HP4</t>
+  </si>
+  <si>
+    <t>NameID_SP1</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>NameID_SP2</t>
+  </si>
+  <si>
+    <t>NameID_SP3</t>
+  </si>
+  <si>
+    <t>NameID_SP4</t>
+  </si>
+  <si>
+    <t>NameID_EXP1</t>
+  </si>
+  <si>
+    <t>经验药</t>
+  </si>
+  <si>
+    <t>NameID_EXP2</t>
+  </si>
+  <si>
+    <t>NameID_EXP3</t>
+  </si>
+  <si>
+    <t>NameID_EXP4</t>
+  </si>
+  <si>
+    <t>NameID_MONEY1</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>NameID_MONEY2</t>
+  </si>
+  <si>
+    <t>NameID_MONEY3</t>
+  </si>
+  <si>
+    <t>NameID_MONEY4</t>
+  </si>
+  <si>
+    <t>NameID_MONEY5</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_1</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_2</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_3</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_4</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_5</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_6</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_1</t>
+  </si>
+  <si>
+    <t>新手礼包</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_2</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_3</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_4</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_5</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_6</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_7</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_8</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_9</t>
+  </si>
+  <si>
+    <t>NameID_NoobPack_10</t>
+  </si>
+  <si>
+    <t>NameID_WarPack_1</t>
+  </si>
+  <si>
+    <t>战争礼包</t>
+  </si>
+  <si>
+    <t>NameID_WarPack_2</t>
+  </si>
+  <si>
+    <t>NameID_WarPack_3</t>
+  </si>
+  <si>
+    <t>NameID_WarPack_4</t>
+  </si>
+  <si>
+    <t>NameID_WarPack_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_1</t>
+  </si>
+  <si>
+    <t>攻击宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_1</t>
+  </si>
+  <si>
+    <t>防御宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_1</t>
+  </si>
+  <si>
+    <t>火属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_1</t>
+  </si>
+  <si>
+    <t>雷属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_1</t>
+  </si>
+  <si>
+    <t>风属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_1</t>
+  </si>
+  <si>
+    <t>冰属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE_10</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_1</t>
+  </si>
+  <si>
+    <t>毒属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_2</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_3</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_4</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_5</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_6</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_7</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_8</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_9</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON_10</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_1</t>
+  </si>
+  <si>
+    <t>英雄*卡1</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_2</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_3</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_4</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_5</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_1</t>
+  </si>
+  <si>
+    <t>武器*圣剑</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WEAPON_30</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_1</t>
+  </si>
+  <si>
+    <t>头盔*支配头盔</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_HELMET_30</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_1</t>
+  </si>
+  <si>
+    <t>胸甲*强袭装甲</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_ARMOR_30</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_1</t>
+  </si>
+  <si>
+    <t>护腕*迈达斯之手</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_WRIST_30</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_1</t>
+  </si>
+  <si>
+    <t>裤子*达拉斯之裤</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_PANT_30</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_1</t>
+  </si>
+  <si>
+    <t>靴子*精灵皮鞋</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_2</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_3</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_4</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_5</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_6</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_7</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_8</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_9</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_10</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_11</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_12</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_13</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_14</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_15</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_16</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_17</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_18</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_19</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_20</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_21</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_22</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_23</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_24</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_25</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_26</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_27</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_28</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_29</t>
+  </si>
+  <si>
+    <t>NameID_Hero_BOOT_30</t>
   </si>
 </sst>
 </file>
@@ -113,10 +2309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,17 +2344,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +2366,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +2405,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,37 +2443,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,53 +2473,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,7 +2501,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +2621,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +2663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +2675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,25 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,92 +2703,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -544,6 +2758,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -589,26 +2829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,8 +2847,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +2868,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,7 +2896,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,152 +2931,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,28 +3089,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,44 +3520,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="C588" sqref="C588:C617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="31.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1307,7 +3568,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1318,7 +3579,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1329,7 +3590,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1340,76 +3601,4908 @@
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:3">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:3">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:3">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:3">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:3">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="5" customFormat="1" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:3">
+      <c r="A48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="1:3">
+      <c r="A51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" s="7" customFormat="1" spans="1:3">
+      <c r="A52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="1:3">
+      <c r="A53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" s="7" customFormat="1" spans="1:3">
+      <c r="A54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="1:3">
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="1:3">
+      <c r="A56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="1:3">
+      <c r="A57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="1:3">
+      <c r="A58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="1:3">
+      <c r="A61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="1:3">
+      <c r="A62" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" s="7" customFormat="1" spans="1:3">
+      <c r="A63" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" s="7" customFormat="1" spans="1:3">
+      <c r="A64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" s="7" customFormat="1" spans="1:3">
+      <c r="A65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" s="7" customFormat="1" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" s="7" customFormat="1" spans="1:3">
+      <c r="A67" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" s="7" customFormat="1" spans="1:3">
+      <c r="A68" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" s="7" customFormat="1" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="1" spans="1:3">
+      <c r="A70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" s="7" customFormat="1" spans="1:3">
+      <c r="A71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" s="7" customFormat="1" spans="1:3">
+      <c r="A72" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" s="7" customFormat="1" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" s="7" customFormat="1" spans="1:3">
+      <c r="A74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" s="7" customFormat="1" spans="1:3">
+      <c r="A75" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" s="7" customFormat="1" spans="1:3">
+      <c r="A76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" s="7" customFormat="1" spans="1:3">
+      <c r="A77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" s="7" customFormat="1" spans="1:3">
+      <c r="A78" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" s="7" customFormat="1" spans="1:3">
+      <c r="A79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" s="7" customFormat="1" spans="1:3">
+      <c r="A80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" s="7" customFormat="1" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" s="7" customFormat="1" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" s="7" customFormat="1" spans="1:3">
+      <c r="A83" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" s="7" customFormat="1" spans="1:3">
+      <c r="A84" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" s="7" customFormat="1" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" s="7" customFormat="1" spans="1:3">
+      <c r="A86" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" s="7" customFormat="1" spans="1:3">
+      <c r="A87" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" s="7" customFormat="1" spans="1:3">
+      <c r="A88" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" s="7" customFormat="1" spans="1:3">
+      <c r="A89" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" s="7" customFormat="1" spans="1:3">
+      <c r="A90" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" s="7" customFormat="1" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" s="7" customFormat="1" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" s="7" customFormat="1" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" s="7" customFormat="1" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" s="7" customFormat="1" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" s="7" customFormat="1" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" s="7" customFormat="1" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" s="7" customFormat="1" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" s="7" customFormat="1" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" s="7" customFormat="1" spans="1:3">
+      <c r="A100" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" s="7" customFormat="1" spans="1:3">
+      <c r="A101" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" s="7" customFormat="1" spans="1:3">
+      <c r="A102" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" s="7" customFormat="1" spans="1:3">
+      <c r="A103" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" s="7" customFormat="1" spans="1:3">
+      <c r="A104" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" s="7" customFormat="1" spans="1:3">
+      <c r="A105" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" s="7" customFormat="1" spans="1:3">
+      <c r="A106" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" s="7" customFormat="1" spans="1:3">
+      <c r="A107" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" s="7" customFormat="1" spans="1:3">
+      <c r="A108" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" s="7" customFormat="1" spans="1:3">
+      <c r="A109" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" s="7" customFormat="1" spans="1:3">
+      <c r="A110" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" s="7" customFormat="1" spans="1:3">
+      <c r="A111" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" s="7" customFormat="1" spans="1:3">
+      <c r="A112" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" s="7" customFormat="1" spans="1:3">
+      <c r="A113" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" s="7" customFormat="1" spans="1:3">
+      <c r="A114" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" s="7" customFormat="1" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" s="7" customFormat="1" spans="1:3">
+      <c r="A116" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" s="7" customFormat="1" spans="1:3">
+      <c r="A117" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" s="7" customFormat="1" spans="1:3">
+      <c r="A118" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" s="7" customFormat="1" spans="1:3">
+      <c r="A119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" s="7" customFormat="1" spans="1:3">
+      <c r="A120" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" s="7" customFormat="1" spans="1:3">
+      <c r="A121" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" s="7" customFormat="1" spans="1:3">
+      <c r="A122" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" s="7" customFormat="1" spans="1:3">
+      <c r="A123" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" s="7" customFormat="1" spans="1:3">
+      <c r="A124" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" s="7" customFormat="1" spans="1:3">
+      <c r="A125" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" s="7" customFormat="1" spans="1:3">
+      <c r="A126" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" s="7" customFormat="1" spans="1:3">
+      <c r="A127" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" s="7" customFormat="1" spans="1:3">
+      <c r="A128" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" s="7" customFormat="1" spans="1:3">
+      <c r="A129" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" s="7" customFormat="1" spans="1:3">
+      <c r="A130" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" s="7" customFormat="1" spans="1:3">
+      <c r="A131" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" s="7" customFormat="1" spans="1:3">
+      <c r="A132" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" s="7" customFormat="1" spans="1:3">
+      <c r="A133" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" s="7" customFormat="1" spans="1:3">
+      <c r="A134" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" s="7" customFormat="1" spans="1:3">
+      <c r="A135" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" s="7" customFormat="1" spans="1:3">
+      <c r="A136" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" s="7" customFormat="1" spans="1:3">
+      <c r="A137" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" s="7" customFormat="1" spans="1:3">
+      <c r="A138" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" s="7" customFormat="1" spans="1:3">
+      <c r="A139" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" s="7" customFormat="1" spans="1:3">
+      <c r="A140" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" s="7" customFormat="1" spans="1:3">
+      <c r="A141" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" s="7" customFormat="1" spans="1:3">
+      <c r="A142" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" s="7" customFormat="1" spans="1:3">
+      <c r="A143" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" s="7" customFormat="1" spans="1:3">
+      <c r="A144" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" s="7" customFormat="1" spans="1:3">
+      <c r="A145" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" s="7" customFormat="1" spans="1:3">
+      <c r="A146" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" s="7" customFormat="1" spans="1:3">
+      <c r="A147" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="148" s="7" customFormat="1" spans="1:3">
+      <c r="A148" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" s="7" customFormat="1" spans="1:3">
+      <c r="A149" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" s="7" customFormat="1" spans="1:3">
+      <c r="A150" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" s="7" customFormat="1" spans="1:3">
+      <c r="A151" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" s="7" customFormat="1" spans="1:3">
+      <c r="A152" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" s="7" customFormat="1" spans="1:3">
+      <c r="A153" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="154" s="7" customFormat="1" spans="1:3">
+      <c r="A154" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="155" s="7" customFormat="1" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" s="7" customFormat="1" spans="1:3">
+      <c r="A156" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="157" s="7" customFormat="1" spans="1:3">
+      <c r="A157" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="158" s="7" customFormat="1" spans="1:3">
+      <c r="A158" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="159" s="7" customFormat="1" spans="1:3">
+      <c r="A159" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" s="7" customFormat="1" spans="1:3">
+      <c r="A160" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" s="7" customFormat="1" spans="1:3">
+      <c r="A161" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="162" s="7" customFormat="1" spans="1:3">
+      <c r="A162" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" s="7" customFormat="1" spans="1:3">
+      <c r="A163" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="164" s="7" customFormat="1" spans="1:3">
+      <c r="A164" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" s="7" customFormat="1" spans="1:3">
+      <c r="A165" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" s="7" customFormat="1" spans="1:3">
+      <c r="A166" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="167" s="7" customFormat="1" spans="1:3">
+      <c r="A167" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" s="7" customFormat="1" spans="1:3">
+      <c r="A168" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" s="7" customFormat="1" spans="1:3">
+      <c r="A169" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" s="7" customFormat="1" spans="1:3">
+      <c r="A170" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="171" s="7" customFormat="1" spans="1:3">
+      <c r="A171" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" s="7" customFormat="1" spans="1:3">
+      <c r="A172" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="173" s="7" customFormat="1" spans="1:3">
+      <c r="A173" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="174" s="7" customFormat="1" spans="1:3">
+      <c r="A174" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" s="7" customFormat="1" spans="1:3">
+      <c r="A175" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" s="7" customFormat="1" spans="1:3">
+      <c r="A176" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" s="7" customFormat="1" spans="1:3">
+      <c r="A177" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="178" s="7" customFormat="1" spans="1:3">
+      <c r="A178" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="179" s="7" customFormat="1" spans="1:3">
+      <c r="A179" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="180" s="7" customFormat="1" spans="1:3">
+      <c r="A180" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="181" s="7" customFormat="1" spans="1:3">
+      <c r="A181" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="182" s="7" customFormat="1" spans="1:3">
+      <c r="A182" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="183" s="7" customFormat="1" spans="1:3">
+      <c r="A183" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="184" s="7" customFormat="1" spans="1:3">
+      <c r="A184" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="185" s="7" customFormat="1" spans="1:3">
+      <c r="A185" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="186" s="7" customFormat="1" spans="1:3">
+      <c r="A186" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" s="7" customFormat="1" spans="1:3">
+      <c r="A187" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="188" s="7" customFormat="1" spans="1:3">
+      <c r="A188" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" s="7" customFormat="1" spans="1:3">
+      <c r="A189" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="190" s="7" customFormat="1" spans="1:3">
+      <c r="A190" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="191" s="7" customFormat="1" spans="1:3">
+      <c r="A191" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="192" s="7" customFormat="1" spans="1:3">
+      <c r="A192" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="193" s="7" customFormat="1" spans="1:3">
+      <c r="A193" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" s="7" customFormat="1" spans="1:3">
+      <c r="A194" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" s="7" customFormat="1" spans="1:3">
+      <c r="A195" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="196" s="7" customFormat="1" spans="1:3">
+      <c r="A196" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" s="7" customFormat="1" spans="1:3">
+      <c r="A197" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="198" s="7" customFormat="1" spans="1:3">
+      <c r="A198" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" s="7" customFormat="1" spans="1:3">
+      <c r="A199" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" s="7" customFormat="1" spans="1:3">
+      <c r="A200" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" s="7" customFormat="1" spans="1:3">
+      <c r="A201" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" s="7" customFormat="1" spans="1:3">
+      <c r="A202" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" s="7" customFormat="1" spans="1:3">
+      <c r="A203" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" s="7" customFormat="1" spans="1:3">
+      <c r="A204" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" s="7" customFormat="1" spans="1:3">
+      <c r="A205" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" s="7" customFormat="1" spans="1:3">
+      <c r="A206" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="207" s="7" customFormat="1" spans="1:3">
+      <c r="A207" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" s="7" customFormat="1" spans="1:3">
+      <c r="A208" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="209" s="7" customFormat="1" spans="1:3">
+      <c r="A209" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" s="7" customFormat="1" spans="1:3">
+      <c r="A210" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" s="7" customFormat="1" spans="1:3">
+      <c r="A211" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="212" s="7" customFormat="1" spans="1:3">
+      <c r="A212" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" s="7" customFormat="1" spans="1:3">
+      <c r="A213" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="214" s="7" customFormat="1" spans="1:3">
+      <c r="A214" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" s="7" customFormat="1" spans="1:3">
+      <c r="A215" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" s="7" customFormat="1" spans="1:3">
+      <c r="A216" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" s="7" customFormat="1" spans="1:3">
+      <c r="A217" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" s="7" customFormat="1" spans="1:3">
+      <c r="A218" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" s="7" customFormat="1" spans="1:3">
+      <c r="A219" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="220" s="7" customFormat="1" spans="1:3">
+      <c r="A220" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" s="7" customFormat="1" spans="1:3">
+      <c r="A221" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="222" s="7" customFormat="1" spans="1:3">
+      <c r="A222" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="223" s="7" customFormat="1" spans="1:3">
+      <c r="A223" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" s="7" customFormat="1" spans="1:3">
+      <c r="A224" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225" s="7" customFormat="1" spans="1:3">
+      <c r="A225" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" s="7" customFormat="1" spans="1:3">
+      <c r="A226" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="227" s="7" customFormat="1" spans="1:3">
+      <c r="A227" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="228" s="7" customFormat="1" spans="1:3">
+      <c r="A228" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="229" s="7" customFormat="1" spans="1:3">
+      <c r="A229" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230" s="7" customFormat="1" spans="1:3">
+      <c r="A230" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="231" s="7" customFormat="1" spans="1:3">
+      <c r="A231" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="232" s="7" customFormat="1" spans="1:3">
+      <c r="A232" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="233" s="7" customFormat="1" spans="1:3">
+      <c r="A233" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="234" s="7" customFormat="1" spans="1:3">
+      <c r="A234" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="235" s="7" customFormat="1" spans="1:3">
+      <c r="A235" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="236" s="7" customFormat="1" spans="1:3">
+      <c r="A236" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="237" s="7" customFormat="1" spans="1:3">
+      <c r="A237" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="238" s="7" customFormat="1" spans="1:3">
+      <c r="A238" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="239" s="7" customFormat="1" spans="1:3">
+      <c r="A239" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="240" s="7" customFormat="1" spans="1:3">
+      <c r="A240" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="241" s="7" customFormat="1" spans="1:3">
+      <c r="A241" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" s="7" customFormat="1" spans="1:3">
+      <c r="A242" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="243" s="7" customFormat="1" spans="1:3">
+      <c r="A243" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="244" s="7" customFormat="1" spans="1:3">
+      <c r="A244" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="245" s="7" customFormat="1" spans="1:3">
+      <c r="A245" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="246" s="7" customFormat="1" spans="1:3">
+      <c r="A246" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" s="7" customFormat="1" spans="1:3">
+      <c r="A247" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="248" s="7" customFormat="1" spans="1:3">
+      <c r="A248" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="249" s="7" customFormat="1" spans="1:3">
+      <c r="A249" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="250" s="7" customFormat="1" spans="1:3">
+      <c r="A250" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="251" s="7" customFormat="1" spans="1:3">
+      <c r="A251" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="252" s="7" customFormat="1" spans="1:3">
+      <c r="A252" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="253" s="7" customFormat="1" spans="1:3">
+      <c r="A253" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="254" s="7" customFormat="1" spans="1:3">
+      <c r="A254" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="255" s="7" customFormat="1" spans="1:3">
+      <c r="A255" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="256" s="7" customFormat="1" spans="1:3">
+      <c r="A256" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="257" s="7" customFormat="1" spans="1:3">
+      <c r="A257" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="258" s="7" customFormat="1" spans="1:3">
+      <c r="A258" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="259" s="7" customFormat="1" spans="1:3">
+      <c r="A259" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="260" s="7" customFormat="1" spans="1:3">
+      <c r="A260" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" s="7" customFormat="1" spans="1:3">
+      <c r="A261" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="262" s="7" customFormat="1" spans="1:3">
+      <c r="A262" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="263" s="7" customFormat="1" spans="1:3">
+      <c r="A263" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="264" s="7" customFormat="1" spans="1:3">
+      <c r="A264" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="265" s="7" customFormat="1" spans="1:3">
+      <c r="A265" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="266" s="7" customFormat="1" spans="1:3">
+      <c r="A266" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="267" s="7" customFormat="1" spans="1:3">
+      <c r="A267" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="268" s="7" customFormat="1" spans="1:3">
+      <c r="A268" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="269" s="7" customFormat="1" spans="1:3">
+      <c r="A269" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="270" s="7" customFormat="1" spans="1:3">
+      <c r="A270" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="271" s="7" customFormat="1" spans="1:3">
+      <c r="A271" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="272" s="7" customFormat="1" spans="1:3">
+      <c r="A272" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="273" s="7" customFormat="1" spans="1:3">
+      <c r="A273" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="274" s="7" customFormat="1" spans="1:3">
+      <c r="A274" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="275" s="7" customFormat="1" spans="1:3">
+      <c r="A275" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="276" s="7" customFormat="1" spans="1:3">
+      <c r="A276" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" s="7" customFormat="1" spans="1:3">
+      <c r="A277" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="278" s="7" customFormat="1" spans="1:3">
+      <c r="A278" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="279" s="7" customFormat="1" spans="1:3">
+      <c r="A279" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="280" s="7" customFormat="1" spans="1:3">
+      <c r="A280" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="281" s="7" customFormat="1" spans="1:3">
+      <c r="A281" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="282" s="7" customFormat="1" spans="1:3">
+      <c r="A282" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="283" s="7" customFormat="1" spans="1:3">
+      <c r="A283" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="284" s="7" customFormat="1" spans="1:3">
+      <c r="A284" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="285" s="7" customFormat="1" spans="1:3">
+      <c r="A285" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" s="7" customFormat="1" spans="1:3">
+      <c r="A286" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="287" s="7" customFormat="1" spans="1:3">
+      <c r="A287" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="288" s="7" customFormat="1" spans="1:3">
+      <c r="A288" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="289" s="7" customFormat="1" spans="1:3">
+      <c r="A289" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="290" s="7" customFormat="1" spans="1:3">
+      <c r="A290" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="291" s="7" customFormat="1" spans="1:3">
+      <c r="A291" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="292" s="7" customFormat="1" spans="1:3">
+      <c r="A292" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="293" s="7" customFormat="1" spans="1:3">
+      <c r="A293" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="294" s="7" customFormat="1" spans="1:3">
+      <c r="A294" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="295" s="7" customFormat="1" spans="1:3">
+      <c r="A295" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="296" s="7" customFormat="1" spans="1:3">
+      <c r="A296" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="297" s="7" customFormat="1" spans="1:3">
+      <c r="A297" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="298" s="7" customFormat="1" spans="1:3">
+      <c r="A298" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="299" s="7" customFormat="1" spans="1:3">
+      <c r="A299" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="300" s="7" customFormat="1" spans="1:3">
+      <c r="A300" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="301" s="7" customFormat="1" spans="1:3">
+      <c r="A301" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="302" s="7" customFormat="1" spans="1:3">
+      <c r="A302" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="303" s="7" customFormat="1" spans="1:3">
+      <c r="A303" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="304" s="7" customFormat="1" spans="1:3">
+      <c r="A304" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="305" s="7" customFormat="1" spans="1:3">
+      <c r="A305" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="306" s="7" customFormat="1" spans="1:3">
+      <c r="A306" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="307" s="7" customFormat="1" spans="1:3">
+      <c r="A307" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="308" s="7" customFormat="1" spans="1:3">
+      <c r="A308" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="309" s="7" customFormat="1" spans="1:3">
+      <c r="A309" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="310" s="7" customFormat="1" spans="1:3">
+      <c r="A310" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="311" s="7" customFormat="1" spans="1:3">
+      <c r="A311" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="312" s="7" customFormat="1" spans="1:3">
+      <c r="A312" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="313" s="7" customFormat="1" spans="1:3">
+      <c r="A313" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="314" s="7" customFormat="1" spans="1:3">
+      <c r="A314" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="315" s="8" customFormat="1" spans="1:3">
+      <c r="A315" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="316" s="9" customFormat="1" spans="1:3">
+      <c r="A316" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="317" s="9" customFormat="1" spans="1:3">
+      <c r="A317" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="318" s="9" customFormat="1" spans="1:3">
+      <c r="A318" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="319" s="9" customFormat="1" spans="1:3">
+      <c r="A319" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="320" s="9" customFormat="1" spans="1:3">
+      <c r="A320" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="321" s="9" customFormat="1" spans="1:3">
+      <c r="A321" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="322" s="9" customFormat="1" spans="1:3">
+      <c r="A322" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="323" s="9" customFormat="1" spans="1:3">
+      <c r="A323" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="324" s="9" customFormat="1" spans="1:3">
+      <c r="A324" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="325" s="9" customFormat="1" spans="1:3">
+      <c r="A325" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="326" s="9" customFormat="1" spans="1:3">
+      <c r="A326" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="327" s="9" customFormat="1" spans="1:3">
+      <c r="A327" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="328" s="9" customFormat="1" spans="1:3">
+      <c r="A328" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="329" s="9" customFormat="1" spans="1:3">
+      <c r="A329" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" s="9" customFormat="1" spans="1:3">
+      <c r="A330" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="331" s="9" customFormat="1" spans="1:3">
+      <c r="A331" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="332" s="9" customFormat="1" spans="1:3">
+      <c r="A332" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="333" s="9" customFormat="1" spans="1:3">
+      <c r="A333" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="334" s="9" customFormat="1" spans="1:3">
+      <c r="A334" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="335" s="9" customFormat="1" spans="1:3">
+      <c r="A335" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="336" s="9" customFormat="1" spans="1:3">
+      <c r="A336" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="337" s="9" customFormat="1" spans="1:3">
+      <c r="A337" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="338" s="9" customFormat="1" spans="1:3">
+      <c r="A338" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="339" s="9" customFormat="1" spans="1:3">
+      <c r="A339" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" s="9" customFormat="1" spans="1:3">
+      <c r="A340" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" s="9" customFormat="1" spans="1:3">
+      <c r="A341" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="342" s="9" customFormat="1" spans="1:3">
+      <c r="A342" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="343" s="9" customFormat="1" spans="1:3">
+      <c r="A343" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="344" s="9" customFormat="1" spans="1:3">
+      <c r="A344" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="345" s="9" customFormat="1" spans="1:3">
+      <c r="A345" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="346" s="9" customFormat="1" spans="1:3">
+      <c r="A346" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="347" s="9" customFormat="1" spans="1:3">
+      <c r="A347" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="348" s="9" customFormat="1" spans="1:3">
+      <c r="A348" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="349" s="9" customFormat="1" spans="1:3">
+      <c r="A349" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="350" s="9" customFormat="1" spans="1:3">
+      <c r="A350" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="351" s="9" customFormat="1" spans="1:3">
+      <c r="A351" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="352" s="9" customFormat="1" spans="1:3">
+      <c r="A352" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="353" s="9" customFormat="1" spans="1:3">
+      <c r="A353" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="354" s="9" customFormat="1" spans="1:3">
+      <c r="A354" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="355" s="9" customFormat="1" spans="1:3">
+      <c r="A355" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="356" s="9" customFormat="1" spans="1:3">
+      <c r="A356" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="357" s="9" customFormat="1" spans="1:3">
+      <c r="A357" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="358" s="9" customFormat="1" spans="1:3">
+      <c r="A358" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="359" s="9" customFormat="1" spans="1:3">
+      <c r="A359" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="360" s="9" customFormat="1" spans="1:3">
+      <c r="A360" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="361" s="9" customFormat="1" spans="1:3">
+      <c r="A361" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="362" s="9" customFormat="1" spans="1:3">
+      <c r="A362" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="363" s="9" customFormat="1" spans="1:3">
+      <c r="A363" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="364" s="9" customFormat="1" spans="1:3">
+      <c r="A364" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="365" s="9" customFormat="1" spans="1:3">
+      <c r="A365" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="366" s="9" customFormat="1" spans="1:3">
+      <c r="A366" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="367" s="9" customFormat="1" spans="1:3">
+      <c r="A367" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="368" s="9" customFormat="1" spans="1:3">
+      <c r="A368" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="369" s="9" customFormat="1" spans="1:3">
+      <c r="A369" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="370" s="9" customFormat="1" spans="1:3">
+      <c r="A370" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="371" s="9" customFormat="1" spans="1:3">
+      <c r="A371" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="372" s="9" customFormat="1" spans="1:3">
+      <c r="A372" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="373" s="9" customFormat="1" spans="1:3">
+      <c r="A373" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="374" s="9" customFormat="1" spans="1:3">
+      <c r="A374" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="375" s="9" customFormat="1" spans="1:3">
+      <c r="A375" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="376" s="9" customFormat="1" spans="1:3">
+      <c r="A376" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="377" s="9" customFormat="1" spans="1:3">
+      <c r="A377" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="378" s="9" customFormat="1" spans="1:3">
+      <c r="A378" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="379" s="9" customFormat="1" spans="1:3">
+      <c r="A379" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="380" s="9" customFormat="1" spans="1:3">
+      <c r="A380" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="381" s="9" customFormat="1" spans="1:3">
+      <c r="A381" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="382" s="9" customFormat="1" spans="1:3">
+      <c r="A382" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="383" s="9" customFormat="1" spans="1:3">
+      <c r="A383" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="384" s="9" customFormat="1" spans="1:3">
+      <c r="A384" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="385" s="9" customFormat="1" spans="1:3">
+      <c r="A385" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="386" s="9" customFormat="1" spans="1:3">
+      <c r="A386" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="387" s="9" customFormat="1" spans="1:3">
+      <c r="A387" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="388" s="9" customFormat="1" spans="1:3">
+      <c r="A388" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="389" s="9" customFormat="1" spans="1:3">
+      <c r="A389" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="390" s="9" customFormat="1" spans="1:3">
+      <c r="A390" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="391" s="9" customFormat="1" spans="1:3">
+      <c r="A391" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="392" s="9" customFormat="1" spans="1:3">
+      <c r="A392" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="393" s="9" customFormat="1" spans="1:3">
+      <c r="A393" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="394" s="9" customFormat="1" spans="1:3">
+      <c r="A394" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="395" s="9" customFormat="1" spans="1:3">
+      <c r="A395" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="396" s="9" customFormat="1" spans="1:3">
+      <c r="A396" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="397" s="9" customFormat="1" spans="1:3">
+      <c r="A397" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="398" s="9" customFormat="1" spans="1:3">
+      <c r="A398" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="399" s="9" customFormat="1" spans="1:3">
+      <c r="A399" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="400" s="9" customFormat="1" spans="1:3">
+      <c r="A400" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="401" s="9" customFormat="1" spans="1:3">
+      <c r="A401" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="402" s="9" customFormat="1" spans="1:3">
+      <c r="A402" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C402" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="403" s="9" customFormat="1" spans="1:3">
+      <c r="A403" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="404" s="9" customFormat="1" spans="1:3">
+      <c r="A404" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="405" s="9" customFormat="1" spans="1:3">
+      <c r="A405" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="406" s="9" customFormat="1" spans="1:3">
+      <c r="A406" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="407" s="9" customFormat="1" spans="1:3">
+      <c r="A407" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="408" s="9" customFormat="1" spans="1:3">
+      <c r="A408" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="409" s="9" customFormat="1" spans="1:3">
+      <c r="A409" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="410" s="9" customFormat="1" spans="1:3">
+      <c r="A410" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="411" s="9" customFormat="1" spans="1:3">
+      <c r="A411" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="412" s="9" customFormat="1" spans="1:3">
+      <c r="A412" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="413" s="9" customFormat="1" spans="1:3">
+      <c r="A413" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="414" s="9" customFormat="1" spans="1:3">
+      <c r="A414" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C414" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="415" s="9" customFormat="1" spans="1:3">
+      <c r="A415" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="416" s="9" customFormat="1" spans="1:3">
+      <c r="A416" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="417" s="9" customFormat="1" spans="1:3">
+      <c r="A417" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="418" s="9" customFormat="1" spans="1:3">
+      <c r="A418" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="419" s="9" customFormat="1" spans="1:3">
+      <c r="A419" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="420" s="9" customFormat="1" spans="1:3">
+      <c r="A420" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="421" s="9" customFormat="1" spans="1:3">
+      <c r="A421" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="422" s="9" customFormat="1" spans="1:3">
+      <c r="A422" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="423" s="9" customFormat="1" spans="1:3">
+      <c r="A423" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="424" s="9" customFormat="1" spans="1:3">
+      <c r="A424" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="425" s="9" customFormat="1" spans="1:3">
+      <c r="A425" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="426" s="9" customFormat="1" spans="1:3">
+      <c r="A426" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="427" s="9" customFormat="1" spans="1:3">
+      <c r="A427" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="428" s="9" customFormat="1" spans="1:3">
+      <c r="A428" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="429" s="9" customFormat="1" spans="1:3">
+      <c r="A429" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="430" s="9" customFormat="1" spans="1:3">
+      <c r="A430" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="431" s="9" customFormat="1" spans="1:3">
+      <c r="A431" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="432" s="9" customFormat="1" spans="1:3">
+      <c r="A432" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="433" s="9" customFormat="1" spans="1:3">
+      <c r="A433" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="434" s="9" customFormat="1" spans="1:3">
+      <c r="A434" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="435" s="9" customFormat="1" spans="1:3">
+      <c r="A435" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="436" s="9" customFormat="1" spans="1:3">
+      <c r="A436" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="437" s="9" customFormat="1" spans="1:3">
+      <c r="A437" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="438" s="9" customFormat="1" spans="1:3">
+      <c r="A438" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="439" s="9" customFormat="1" spans="1:3">
+      <c r="A439" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="440" s="9" customFormat="1" spans="1:3">
+      <c r="A440" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="441" s="9" customFormat="1" spans="1:3">
+      <c r="A441" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="442" s="9" customFormat="1" spans="1:3">
+      <c r="A442" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C442" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="443" s="9" customFormat="1" spans="1:3">
+      <c r="A443" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="444" s="9" customFormat="1" spans="1:3">
+      <c r="A444" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="445" s="9" customFormat="1" spans="1:3">
+      <c r="A445" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="446" s="9" customFormat="1" spans="1:3">
+      <c r="A446" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="447" s="9" customFormat="1" spans="1:3">
+      <c r="A447" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="448" s="9" customFormat="1" spans="1:3">
+      <c r="A448" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="449" s="9" customFormat="1" spans="1:3">
+      <c r="A449" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="450" s="9" customFormat="1" spans="1:3">
+      <c r="A450" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C450" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="451" s="9" customFormat="1" spans="1:3">
+      <c r="A451" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="452" s="9" customFormat="1" spans="1:3">
+      <c r="A452" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C452" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="453" s="9" customFormat="1" spans="1:3">
+      <c r="A453" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="454" s="9" customFormat="1" spans="1:3">
+      <c r="A454" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="455" s="9" customFormat="1" spans="1:3">
+      <c r="A455" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C455" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="456" s="9" customFormat="1" spans="1:3">
+      <c r="A456" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="457" s="9" customFormat="1" spans="1:3">
+      <c r="A457" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="458" s="9" customFormat="1" spans="1:3">
+      <c r="A458" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="459" s="9" customFormat="1" spans="1:3">
+      <c r="A459" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="460" s="9" customFormat="1" spans="1:3">
+      <c r="A460" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="461" s="9" customFormat="1" spans="1:3">
+      <c r="A461" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="462" s="9" customFormat="1" spans="1:3">
+      <c r="A462" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="463" s="9" customFormat="1" spans="1:3">
+      <c r="A463" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="464" s="9" customFormat="1" spans="1:3">
+      <c r="A464" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="465" s="9" customFormat="1" spans="1:3">
+      <c r="A465" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="466" s="9" customFormat="1" spans="1:3">
+      <c r="A466" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="467" s="9" customFormat="1" spans="1:3">
+      <c r="A467" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="468" s="9" customFormat="1" spans="1:3">
+      <c r="A468" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="469" s="9" customFormat="1" spans="1:3">
+      <c r="A469" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="470" s="9" customFormat="1" spans="1:3">
+      <c r="A470" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="471" s="9" customFormat="1" spans="1:3">
+      <c r="A471" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="472" s="9" customFormat="1" spans="1:3">
+      <c r="A472" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="473" s="9" customFormat="1" spans="1:3">
+      <c r="A473" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="474" s="9" customFormat="1" spans="1:3">
+      <c r="A474" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="475" s="9" customFormat="1" spans="1:3">
+      <c r="A475" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="476" s="9" customFormat="1" spans="1:3">
+      <c r="A476" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="477" s="9" customFormat="1" spans="1:3">
+      <c r="A477" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="478" s="9" customFormat="1" spans="1:3">
+      <c r="A478" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="479" s="9" customFormat="1" spans="1:3">
+      <c r="A479" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="480" s="9" customFormat="1" spans="1:3">
+      <c r="A480" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="481" s="9" customFormat="1" spans="1:3">
+      <c r="A481" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="482" s="9" customFormat="1" spans="1:3">
+      <c r="A482" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="483" s="9" customFormat="1" spans="1:3">
+      <c r="A483" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="484" s="9" customFormat="1" spans="1:3">
+      <c r="A484" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="485" s="9" customFormat="1" spans="1:3">
+      <c r="A485" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="486" s="9" customFormat="1" spans="1:3">
+      <c r="A486" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C486" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="487" s="9" customFormat="1" spans="1:3">
+      <c r="A487" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="488" s="9" customFormat="1" spans="1:3">
+      <c r="A488" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="489" s="9" customFormat="1" spans="1:3">
+      <c r="A489" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="490" s="9" customFormat="1" spans="1:3">
+      <c r="A490" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="491" s="9" customFormat="1" spans="1:3">
+      <c r="A491" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="492" s="9" customFormat="1" spans="1:3">
+      <c r="A492" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C492" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="493" s="9" customFormat="1" spans="1:3">
+      <c r="A493" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C493" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="494" s="9" customFormat="1" spans="1:3">
+      <c r="A494" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="495" s="9" customFormat="1" spans="1:3">
+      <c r="A495" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="496" s="9" customFormat="1" spans="1:3">
+      <c r="A496" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="497" s="9" customFormat="1" spans="1:3">
+      <c r="A497" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="498" s="9" customFormat="1" spans="1:3">
+      <c r="A498" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="499" s="9" customFormat="1" spans="1:3">
+      <c r="A499" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C499" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="500" s="9" customFormat="1" spans="1:3">
+      <c r="A500" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="501" s="9" customFormat="1" spans="1:3">
+      <c r="A501" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C501" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="502" s="9" customFormat="1" spans="1:3">
+      <c r="A502" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C502" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="503" s="9" customFormat="1" spans="1:3">
+      <c r="A503" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="504" s="9" customFormat="1" spans="1:3">
+      <c r="A504" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C504" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="505" s="9" customFormat="1" spans="1:3">
+      <c r="A505" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="506" s="9" customFormat="1" spans="1:3">
+      <c r="A506" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="507" s="9" customFormat="1" spans="1:3">
+      <c r="A507" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="508" s="9" customFormat="1" spans="1:3">
+      <c r="A508" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C508" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="509" s="9" customFormat="1" spans="1:3">
+      <c r="A509" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="510" s="9" customFormat="1" spans="1:3">
+      <c r="A510" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C510" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="511" s="9" customFormat="1" spans="1:3">
+      <c r="A511" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C511" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="512" s="9" customFormat="1" spans="1:3">
+      <c r="A512" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="513" s="9" customFormat="1" spans="1:3">
+      <c r="A513" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="514" s="9" customFormat="1" spans="1:3">
+      <c r="A514" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C514" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="515" s="9" customFormat="1" spans="1:3">
+      <c r="A515" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="516" s="9" customFormat="1" spans="1:3">
+      <c r="A516" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C516" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="517" s="9" customFormat="1" spans="1:3">
+      <c r="A517" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C517" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="518" s="9" customFormat="1" spans="1:3">
+      <c r="A518" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C518" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="519" s="9" customFormat="1" spans="1:3">
+      <c r="A519" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C519" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="520" s="9" customFormat="1" spans="1:3">
+      <c r="A520" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="521" s="9" customFormat="1" spans="1:3">
+      <c r="A521" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="522" s="9" customFormat="1" spans="1:3">
+      <c r="A522" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C522" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="523" s="9" customFormat="1" spans="1:3">
+      <c r="A523" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="524" s="9" customFormat="1" spans="1:3">
+      <c r="A524" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C524" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="525" s="9" customFormat="1" spans="1:3">
+      <c r="A525" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="526" s="9" customFormat="1" spans="1:3">
+      <c r="A526" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="527" s="9" customFormat="1" spans="1:3">
+      <c r="A527" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="528" s="9" customFormat="1" spans="1:3">
+      <c r="A528" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="529" s="9" customFormat="1" spans="1:3">
+      <c r="A529" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="530" s="9" customFormat="1" spans="1:3">
+      <c r="A530" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C530" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="531" s="9" customFormat="1" spans="1:3">
+      <c r="A531" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="532" s="9" customFormat="1" spans="1:3">
+      <c r="A532" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C532" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="533" s="9" customFormat="1" spans="1:3">
+      <c r="A533" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C533" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="534" s="9" customFormat="1" spans="1:3">
+      <c r="A534" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C534" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="535" s="9" customFormat="1" spans="1:3">
+      <c r="A535" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="536" s="9" customFormat="1" spans="1:3">
+      <c r="A536" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="537" s="9" customFormat="1" spans="1:3">
+      <c r="A537" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="538" s="9" customFormat="1" spans="1:3">
+      <c r="A538" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="539" s="9" customFormat="1" spans="1:3">
+      <c r="A539" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C539" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="540" s="9" customFormat="1" spans="1:3">
+      <c r="A540" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="541" s="9" customFormat="1" spans="1:3">
+      <c r="A541" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="542" s="9" customFormat="1" spans="1:3">
+      <c r="A542" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="543" s="9" customFormat="1" spans="1:3">
+      <c r="A543" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="544" s="9" customFormat="1" spans="1:3">
+      <c r="A544" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C544" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="545" s="9" customFormat="1" spans="1:3">
+      <c r="A545" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="546" s="9" customFormat="1" spans="1:3">
+      <c r="A546" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="547" s="9" customFormat="1" spans="1:3">
+      <c r="A547" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="548" s="9" customFormat="1" spans="1:3">
+      <c r="A548" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C548" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="549" s="9" customFormat="1" spans="1:3">
+      <c r="A549" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="550" s="9" customFormat="1" spans="1:3">
+      <c r="A550" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="551" s="9" customFormat="1" spans="1:3">
+      <c r="A551" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="552" s="9" customFormat="1" spans="1:3">
+      <c r="A552" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="553" s="9" customFormat="1" spans="1:3">
+      <c r="A553" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="554" s="9" customFormat="1" spans="1:3">
+      <c r="A554" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="555" s="9" customFormat="1" spans="1:3">
+      <c r="A555" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="556" s="9" customFormat="1" spans="1:3">
+      <c r="A556" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C556" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="557" s="9" customFormat="1" spans="1:3">
+      <c r="A557" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="558" s="9" customFormat="1" spans="1:3">
+      <c r="A558" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C558" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="559" s="9" customFormat="1" spans="1:3">
+      <c r="A559" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C559" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="560" s="9" customFormat="1" spans="1:3">
+      <c r="A560" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="C560" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="561" s="9" customFormat="1" spans="1:3">
+      <c r="A561" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="562" s="9" customFormat="1" spans="1:3">
+      <c r="A562" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C562" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="563" s="9" customFormat="1" spans="1:3">
+      <c r="A563" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C563" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="564" s="9" customFormat="1" spans="1:3">
+      <c r="A564" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C564" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="565" s="9" customFormat="1" spans="1:3">
+      <c r="A565" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="566" s="9" customFormat="1" spans="1:3">
+      <c r="A566" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="567" s="9" customFormat="1" spans="1:3">
+      <c r="A567" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C567" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="568" s="9" customFormat="1" spans="1:3">
+      <c r="A568" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C568" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="569" s="9" customFormat="1" spans="1:3">
+      <c r="A569" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="570" s="9" customFormat="1" spans="1:3">
+      <c r="A570" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="571" s="9" customFormat="1" spans="1:3">
+      <c r="A571" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="572" s="9" customFormat="1" spans="1:3">
+      <c r="A572" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="573" s="9" customFormat="1" spans="1:3">
+      <c r="A573" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="574" s="9" customFormat="1" spans="1:3">
+      <c r="A574" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="575" s="9" customFormat="1" spans="1:3">
+      <c r="A575" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="576" s="9" customFormat="1" spans="1:3">
+      <c r="A576" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C576" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="577" s="9" customFormat="1" spans="1:3">
+      <c r="A577" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="578" s="9" customFormat="1" spans="1:3">
+      <c r="A578" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="579" s="9" customFormat="1" spans="1:3">
+      <c r="A579" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="580" s="9" customFormat="1" spans="1:3">
+      <c r="A580" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="581" s="9" customFormat="1" spans="1:3">
+      <c r="A581" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="582" s="9" customFormat="1" spans="1:3">
+      <c r="A582" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="583" s="9" customFormat="1" spans="1:3">
+      <c r="A583" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="584" s="9" customFormat="1" spans="1:3">
+      <c r="A584" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="585" s="9" customFormat="1" spans="1:3">
+      <c r="A585" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="586" s="9" customFormat="1" spans="1:3">
+      <c r="A586" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="587" s="9" customFormat="1" spans="1:3">
+      <c r="A587" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="588" s="9" customFormat="1" spans="1:3">
+      <c r="A588" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="589" s="9" customFormat="1" spans="1:3">
+      <c r="A589" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="590" s="9" customFormat="1" spans="1:3">
+      <c r="A590" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="591" s="9" customFormat="1" spans="1:3">
+      <c r="A591" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="592" s="9" customFormat="1" spans="1:3">
+      <c r="A592" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C592" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="593" s="9" customFormat="1" spans="1:3">
+      <c r="A593" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="594" s="9" customFormat="1" spans="1:3">
+      <c r="A594" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C594" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="595" s="9" customFormat="1" spans="1:3">
+      <c r="A595" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="596" s="9" customFormat="1" spans="1:3">
+      <c r="A596" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="597" s="9" customFormat="1" spans="1:3">
+      <c r="A597" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="598" s="9" customFormat="1" spans="1:3">
+      <c r="A598" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C598" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="599" s="9" customFormat="1" spans="1:3">
+      <c r="A599" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="600" s="9" customFormat="1" spans="1:3">
+      <c r="A600" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="601" s="9" customFormat="1" spans="1:3">
+      <c r="A601" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="602" s="9" customFormat="1" spans="1:3">
+      <c r="A602" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C602" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="603" s="9" customFormat="1" spans="1:3">
+      <c r="A603" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C603" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="604" s="9" customFormat="1" spans="1:3">
+      <c r="A604" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C604" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="605" s="9" customFormat="1" spans="1:3">
+      <c r="A605" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C605" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="606" s="9" customFormat="1" spans="1:3">
+      <c r="A606" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C606" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="607" s="9" customFormat="1" spans="1:3">
+      <c r="A607" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C607" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="608" s="9" customFormat="1" spans="1:3">
+      <c r="A608" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C608" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="609" s="9" customFormat="1" spans="1:3">
+      <c r="A609" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C609" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="610" s="9" customFormat="1" spans="1:3">
+      <c r="A610" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C610" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="611" s="9" customFormat="1" spans="1:3">
+      <c r="A611" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C611" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="612" s="9" customFormat="1" spans="1:3">
+      <c r="A612" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C612" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="613" s="9" customFormat="1" spans="1:3">
+      <c r="A613" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C613" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="614" s="9" customFormat="1" spans="1:3">
+      <c r="A614" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C614" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="615" s="9" customFormat="1" spans="1:3">
+      <c r="A615" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C615" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="616" s="9" customFormat="1" spans="1:3">
+      <c r="A616" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C616" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="617" s="9" customFormat="1" spans="1:3">
+      <c r="A617" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Cache</t>
   </si>
   <si>
+    <t>Ref</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -1276,6 +1279,9 @@
   </si>
   <si>
     <t>Desc_Hero_BOOT_11</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_12</t>
   </si>
   <si>
     <t>Desc_Hero_BOOT_13</t>
@@ -2309,10 +2315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2330,6 +2336,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2338,82 +2351,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2428,15 +2365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2458,7 +2387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2473,10 +2402,87 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2519,127 +2525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2651,7 +2537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,6 +2555,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2681,7 +2639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,18 +2651,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2752,6 +2758,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2768,19 +2787,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2823,6 +2829,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2844,11 +2863,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2871,8 +2916,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,34 +2940,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2931,152 +2950,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3087,21 +3106,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3123,12 +3145,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3520,44 +3545,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C617"/>
+  <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="C588" sqref="C588:C617"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="31.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -3568,7 +3593,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -3579,7 +3604,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -3590,7 +3615,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -3600,4915 +3625,4926 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="15" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:3">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:3">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:3">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:3">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:3">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:3">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:3">
-      <c r="A11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18" t="s">
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:3">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:3">
-      <c r="A12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18" t="s">
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:3">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="1:3">
-      <c r="A13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:3">
+      <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" s="6" customFormat="1" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="1" spans="1:3">
       <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:3">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" s="7" customFormat="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:3">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" s="7" customFormat="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:3">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" s="7" customFormat="1" spans="1:3">
-      <c r="A19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:3">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7" t="s">
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7" t="s">
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="1:3">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7" t="s">
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" s="7" customFormat="1" spans="1:3">
-      <c r="A24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="1:3">
-      <c r="A25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7" t="s">
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:3">
+      <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" s="7" customFormat="1" spans="1:3">
-      <c r="A26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:3">
+      <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:3">
-      <c r="A27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7" t="s">
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:3">
+      <c r="A28" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:3">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7" t="s">
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:3">
+      <c r="A29" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="1:3">
-      <c r="A29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:3">
+      <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="1:3">
-      <c r="A30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:3">
+      <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7" t="s">
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" s="7" customFormat="1" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7" t="s">
+    </row>
+    <row r="33" s="8" customFormat="1" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="7" t="s">
+    </row>
+    <row r="34" s="8" customFormat="1" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" s="7" customFormat="1" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7" t="s">
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" s="7" customFormat="1" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7" t="s">
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:3">
+      <c r="A36" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" s="7" customFormat="1" spans="1:3">
-      <c r="A37" s="7" t="s">
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="1:3">
-      <c r="A38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:3">
+      <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="1:3">
-      <c r="A39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="7" t="s">
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:3">
+      <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" s="7" customFormat="1" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:3">
+      <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" s="7" customFormat="1" spans="1:3">
-      <c r="A41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" s="7" customFormat="1" spans="1:3">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:3">
+      <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" s="8" customFormat="1" spans="1:3">
+      <c r="A43" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="1:3">
-      <c r="A43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="7" t="s">
+    </row>
+    <row r="44" s="8" customFormat="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="1:3">
-      <c r="A44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:3">
-      <c r="A45" s="7" t="s">
+    </row>
+    <row r="45" s="8" customFormat="1" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="1:3">
+      <c r="A46" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:3">
-      <c r="A46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:3">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" s="8" customFormat="1" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="1:3">
-      <c r="A48" s="7" t="s">
+      <c r="C47" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="1:3">
-      <c r="A49" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" s="7" customFormat="1" spans="1:3">
-      <c r="A50" s="7" t="s">
+      <c r="C49" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" s="7" customFormat="1" spans="1:3">
-      <c r="A51" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" s="7" customFormat="1" spans="1:3">
-      <c r="A52" s="7" t="s">
+      <c r="C51" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" s="7" customFormat="1" spans="1:3">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" spans="1:3">
+      <c r="A53" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" s="7" customFormat="1" spans="1:3">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="1:3">
+      <c r="A54" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="1" spans="1:3">
-      <c r="A55" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" s="8" customFormat="1" spans="1:3">
+      <c r="A55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" s="8" customFormat="1" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" s="7" customFormat="1" spans="1:3">
-      <c r="A56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" s="7" customFormat="1" spans="1:3">
-      <c r="A57" s="7" t="s">
+    </row>
+    <row r="57" s="8" customFormat="1" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" s="7" customFormat="1" spans="1:3">
-      <c r="A58" s="7" t="s">
+      <c r="C57" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:3">
+      <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" s="7" customFormat="1" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="C58" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="1" spans="1:3">
+      <c r="A59" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" s="7" customFormat="1" spans="1:3">
-      <c r="A60" s="7" t="s">
+      <c r="C59" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" s="8" customFormat="1" spans="1:3">
+      <c r="A60" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" s="8" customFormat="1" spans="1:3">
+      <c r="A61" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" s="7" customFormat="1" spans="1:3">
-      <c r="A61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="7" t="s">
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:3">
+      <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" s="7" customFormat="1" spans="1:3">
-      <c r="A62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="7" t="s">
+    </row>
+    <row r="63" s="8" customFormat="1" spans="1:3">
+      <c r="A63" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" s="7" customFormat="1" spans="1:3">
-      <c r="A63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="7" t="s">
+    </row>
+    <row r="64" s="8" customFormat="1" spans="1:3">
+      <c r="A64" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" s="7" customFormat="1" spans="1:3">
-      <c r="A64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="7" t="s">
+    </row>
+    <row r="65" s="8" customFormat="1" spans="1:3">
+      <c r="A65" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" s="7" customFormat="1" spans="1:3">
-      <c r="A65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="7" t="s">
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:3">
+      <c r="A66" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" s="7" customFormat="1" spans="1:3">
-      <c r="A66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="7" t="s">
+    </row>
+    <row r="67" s="8" customFormat="1" spans="1:3">
+      <c r="A67" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" s="7" customFormat="1" spans="1:3">
-      <c r="A67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="7" t="s">
+    </row>
+    <row r="68" s="8" customFormat="1" spans="1:3">
+      <c r="A68" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" s="7" customFormat="1" spans="1:3">
-      <c r="A68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="7" t="s">
+    </row>
+    <row r="69" s="8" customFormat="1" spans="1:3">
+      <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" s="7" customFormat="1" spans="1:3">
-      <c r="A69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="7" t="s">
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:3">
+      <c r="A70" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" s="7" customFormat="1" spans="1:3">
-      <c r="A70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="7" t="s">
+    </row>
+    <row r="71" s="8" customFormat="1" spans="1:3">
+      <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" s="7" customFormat="1" spans="1:3">
-      <c r="A71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="7" t="s">
+    </row>
+    <row r="72" s="8" customFormat="1" spans="1:3">
+      <c r="A72" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" s="7" customFormat="1" spans="1:3">
-      <c r="A72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="7" t="s">
+    </row>
+    <row r="73" s="8" customFormat="1" spans="1:3">
+      <c r="A73" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" s="7" customFormat="1" spans="1:3">
-      <c r="A73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="7" t="s">
+    </row>
+    <row r="74" s="8" customFormat="1" spans="1:3">
+      <c r="A74" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" s="7" customFormat="1" spans="1:3">
-      <c r="A74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="7" t="s">
+    </row>
+    <row r="75" s="8" customFormat="1" spans="1:3">
+      <c r="A75" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" s="7" customFormat="1" spans="1:3">
-      <c r="A75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="7" t="s">
+    </row>
+    <row r="76" s="8" customFormat="1" spans="1:3">
+      <c r="A76" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" s="7" customFormat="1" spans="1:3">
-      <c r="A76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="7" t="s">
+    </row>
+    <row r="77" s="8" customFormat="1" spans="1:3">
+      <c r="A77" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" s="7" customFormat="1" spans="1:3">
-      <c r="A77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="7" t="s">
+    </row>
+    <row r="78" s="8" customFormat="1" spans="1:3">
+      <c r="A78" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="78" s="7" customFormat="1" spans="1:3">
-      <c r="A78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="7" t="s">
+    </row>
+    <row r="79" s="8" customFormat="1" spans="1:3">
+      <c r="A79" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="79" s="7" customFormat="1" spans="1:3">
-      <c r="A79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="7" t="s">
+    </row>
+    <row r="80" s="8" customFormat="1" spans="1:3">
+      <c r="A80" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="80" s="7" customFormat="1" spans="1:3">
-      <c r="A80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="7" t="s">
+    </row>
+    <row r="81" s="8" customFormat="1" spans="1:3">
+      <c r="A81" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="81" s="7" customFormat="1" spans="1:3">
-      <c r="A81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="7" t="s">
+    </row>
+    <row r="82" s="8" customFormat="1" spans="1:3">
+      <c r="A82" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="82" s="7" customFormat="1" spans="1:3">
-      <c r="A82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="7" t="s">
+    </row>
+    <row r="83" s="8" customFormat="1" spans="1:3">
+      <c r="A83" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="83" s="7" customFormat="1" spans="1:3">
-      <c r="A83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="7" t="s">
+    </row>
+    <row r="84" s="8" customFormat="1" spans="1:3">
+      <c r="A84" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="84" s="7" customFormat="1" spans="1:3">
-      <c r="A84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="7" t="s">
+    </row>
+    <row r="85" s="8" customFormat="1" spans="1:3">
+      <c r="A85" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" s="7" customFormat="1" spans="1:3">
-      <c r="A85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="7" t="s">
+    </row>
+    <row r="86" s="8" customFormat="1" spans="1:3">
+      <c r="A86" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="86" s="7" customFormat="1" spans="1:3">
-      <c r="A86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="7" t="s">
+    </row>
+    <row r="87" s="8" customFormat="1" spans="1:3">
+      <c r="A87" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" s="7" customFormat="1" spans="1:3">
-      <c r="A87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="7" t="s">
+    </row>
+    <row r="88" s="8" customFormat="1" spans="1:3">
+      <c r="A88" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="88" s="7" customFormat="1" spans="1:3">
-      <c r="A88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="7" t="s">
+    </row>
+    <row r="89" s="8" customFormat="1" spans="1:3">
+      <c r="A89" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="89" s="7" customFormat="1" spans="1:3">
-      <c r="A89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="7" t="s">
+    </row>
+    <row r="90" s="8" customFormat="1" spans="1:3">
+      <c r="A90" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="90" s="7" customFormat="1" spans="1:3">
-      <c r="A90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C90" s="7" t="s">
+    </row>
+    <row r="91" s="8" customFormat="1" spans="1:3">
+      <c r="A91" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="91" s="7" customFormat="1" spans="1:3">
-      <c r="A91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C91" s="7" t="s">
+    </row>
+    <row r="92" s="8" customFormat="1" spans="1:3">
+      <c r="A92" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="92" s="7" customFormat="1" spans="1:3">
-      <c r="A92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="7" t="s">
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:3">
+      <c r="A93" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="93" s="7" customFormat="1" spans="1:3">
-      <c r="A93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="7" t="s">
+    </row>
+    <row r="94" s="8" customFormat="1" spans="1:3">
+      <c r="A94" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="94" s="7" customFormat="1" spans="1:3">
-      <c r="A94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="7" t="s">
+    </row>
+    <row r="95" s="8" customFormat="1" spans="1:3">
+      <c r="A95" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" s="7" customFormat="1" spans="1:3">
-      <c r="A95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="7" t="s">
+    </row>
+    <row r="96" s="8" customFormat="1" spans="1:3">
+      <c r="A96" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="96" s="7" customFormat="1" spans="1:3">
-      <c r="A96" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C96" s="7" t="s">
+    </row>
+    <row r="97" s="8" customFormat="1" spans="1:3">
+      <c r="A97" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="97" s="7" customFormat="1" spans="1:3">
-      <c r="A97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C97" s="7" t="s">
+    </row>
+    <row r="98" s="8" customFormat="1" spans="1:3">
+      <c r="A98" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="98" s="7" customFormat="1" spans="1:3">
-      <c r="A98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C98" s="7" t="s">
+    </row>
+    <row r="99" s="8" customFormat="1" spans="1:3">
+      <c r="A99" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="99" s="7" customFormat="1" spans="1:3">
-      <c r="A99" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C99" s="7" t="s">
+    </row>
+    <row r="100" s="8" customFormat="1" spans="1:3">
+      <c r="A100" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="100" s="7" customFormat="1" spans="1:3">
-      <c r="A100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="7" t="s">
+    </row>
+    <row r="101" s="8" customFormat="1" spans="1:3">
+      <c r="A101" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="101" s="7" customFormat="1" spans="1:3">
-      <c r="A101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C101" s="7" t="s">
+    </row>
+    <row r="102" s="8" customFormat="1" spans="1:3">
+      <c r="A102" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="102" s="7" customFormat="1" spans="1:3">
-      <c r="A102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C102" s="7" t="s">
+    </row>
+    <row r="103" s="8" customFormat="1" spans="1:3">
+      <c r="A103" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="103" s="7" customFormat="1" spans="1:3">
-      <c r="A103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="7" t="s">
+    </row>
+    <row r="104" s="8" customFormat="1" spans="1:3">
+      <c r="A104" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" s="7" customFormat="1" spans="1:3">
-      <c r="A104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="7" t="s">
+    </row>
+    <row r="105" s="8" customFormat="1" spans="1:3">
+      <c r="A105" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="105" s="7" customFormat="1" spans="1:3">
-      <c r="A105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="7" t="s">
+    </row>
+    <row r="106" s="8" customFormat="1" spans="1:3">
+      <c r="A106" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" s="7" customFormat="1" spans="1:3">
-      <c r="A106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C106" s="7" t="s">
+    </row>
+    <row r="107" s="8" customFormat="1" spans="1:3">
+      <c r="A107" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="107" s="7" customFormat="1" spans="1:3">
-      <c r="A107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="7" t="s">
+    </row>
+    <row r="108" s="8" customFormat="1" spans="1:3">
+      <c r="A108" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="108" s="7" customFormat="1" spans="1:3">
-      <c r="A108" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C108" s="7" t="s">
+    </row>
+    <row r="109" s="8" customFormat="1" spans="1:3">
+      <c r="A109" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="109" s="7" customFormat="1" spans="1:3">
-      <c r="A109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C109" s="7" t="s">
+    </row>
+    <row r="110" s="8" customFormat="1" spans="1:3">
+      <c r="A110" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="110" s="7" customFormat="1" spans="1:3">
-      <c r="A110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C110" s="7" t="s">
+    </row>
+    <row r="111" s="8" customFormat="1" spans="1:3">
+      <c r="A111" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="111" s="7" customFormat="1" spans="1:3">
-      <c r="A111" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C111" s="7" t="s">
+    </row>
+    <row r="112" s="8" customFormat="1" spans="1:3">
+      <c r="A112" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="112" s="7" customFormat="1" spans="1:3">
-      <c r="A112" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C112" s="7" t="s">
+    </row>
+    <row r="113" s="8" customFormat="1" spans="1:3">
+      <c r="A113" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="113" s="7" customFormat="1" spans="1:3">
-      <c r="A113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C113" s="7" t="s">
+    </row>
+    <row r="114" s="8" customFormat="1" spans="1:3">
+      <c r="A114" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="114" s="7" customFormat="1" spans="1:3">
-      <c r="A114" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C114" s="7" t="s">
+    </row>
+    <row r="115" s="8" customFormat="1" spans="1:3">
+      <c r="A115" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" s="7" customFormat="1" spans="1:3">
-      <c r="A115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C115" s="7" t="s">
+    </row>
+    <row r="116" s="8" customFormat="1" spans="1:3">
+      <c r="A116" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" s="7" customFormat="1" spans="1:3">
-      <c r="A116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C116" s="7" t="s">
+    </row>
+    <row r="117" s="8" customFormat="1" spans="1:3">
+      <c r="A117" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="117" s="7" customFormat="1" spans="1:3">
-      <c r="A117" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="7" t="s">
+    </row>
+    <row r="118" s="8" customFormat="1" spans="1:3">
+      <c r="A118" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="118" s="7" customFormat="1" spans="1:3">
-      <c r="A118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C118" s="7" t="s">
+    </row>
+    <row r="119" s="8" customFormat="1" spans="1:3">
+      <c r="A119" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="119" s="7" customFormat="1" spans="1:3">
-      <c r="A119" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="7" t="s">
+    </row>
+    <row r="120" s="8" customFormat="1" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="120" s="7" customFormat="1" spans="1:3">
-      <c r="A120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C120" s="7" t="s">
+    </row>
+    <row r="121" s="8" customFormat="1" spans="1:3">
+      <c r="A121" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="121" s="7" customFormat="1" spans="1:3">
-      <c r="A121" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="7" t="s">
+    </row>
+    <row r="122" s="8" customFormat="1" spans="1:3">
+      <c r="A122" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="122" s="7" customFormat="1" spans="1:3">
-      <c r="A122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="7" t="s">
+    </row>
+    <row r="123" s="8" customFormat="1" spans="1:3">
+      <c r="A123" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="123" s="7" customFormat="1" spans="1:3">
-      <c r="A123" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C123" s="7" t="s">
+    </row>
+    <row r="124" s="8" customFormat="1" spans="1:3">
+      <c r="A124" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="124" s="7" customFormat="1" spans="1:3">
-      <c r="A124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C124" s="7" t="s">
+    </row>
+    <row r="125" s="8" customFormat="1" spans="1:3">
+      <c r="A125" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="125" s="7" customFormat="1" spans="1:3">
-      <c r="A125" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C125" s="7" t="s">
+    </row>
+    <row r="126" s="8" customFormat="1" spans="1:3">
+      <c r="A126" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="126" s="7" customFormat="1" spans="1:3">
-      <c r="A126" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C126" s="7" t="s">
+    </row>
+    <row r="127" s="8" customFormat="1" spans="1:3">
+      <c r="A127" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="127" s="7" customFormat="1" spans="1:3">
-      <c r="A127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="7" t="s">
+    </row>
+    <row r="128" s="8" customFormat="1" spans="1:3">
+      <c r="A128" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="128" s="7" customFormat="1" spans="1:3">
-      <c r="A128" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="7" t="s">
+    </row>
+    <row r="129" s="8" customFormat="1" spans="1:3">
+      <c r="A129" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="129" s="7" customFormat="1" spans="1:3">
-      <c r="A129" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C129" s="7" t="s">
+    </row>
+    <row r="130" s="8" customFormat="1" spans="1:3">
+      <c r="A130" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="130" s="7" customFormat="1" spans="1:3">
-      <c r="A130" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="7" t="s">
+    </row>
+    <row r="131" s="8" customFormat="1" spans="1:3">
+      <c r="A131" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" s="7" customFormat="1" spans="1:3">
-      <c r="A131" s="7" t="s">
+      <c r="C131" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" s="7" customFormat="1" spans="1:3">
-      <c r="A132" s="7" t="s">
+    </row>
+    <row r="132" s="8" customFormat="1" spans="1:3">
+      <c r="A132" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="133" s="7" customFormat="1" spans="1:3">
-      <c r="A133" s="7" t="s">
+      <c r="C132" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" s="8" customFormat="1" spans="1:3">
+      <c r="A133" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" s="7" customFormat="1" spans="1:3">
-      <c r="A134" s="7" t="s">
+      <c r="C133" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" s="8" customFormat="1" spans="1:3">
+      <c r="A134" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135" s="7" customFormat="1" spans="1:3">
-      <c r="A135" s="7" t="s">
+      <c r="C134" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" s="8" customFormat="1" spans="1:3">
+      <c r="A135" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" s="8" customFormat="1" spans="1:3">
+      <c r="A136" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="136" s="7" customFormat="1" spans="1:3">
-      <c r="A136" s="7" t="s">
+      <c r="C136" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" s="7" customFormat="1" spans="1:3">
-      <c r="A137" s="7" t="s">
+    </row>
+    <row r="137" s="8" customFormat="1" spans="1:3">
+      <c r="A137" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" s="7" customFormat="1" spans="1:3">
-      <c r="A138" s="7" t="s">
+      <c r="C137" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" s="8" customFormat="1" spans="1:3">
+      <c r="A138" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="139" s="7" customFormat="1" spans="1:3">
-      <c r="A139" s="7" t="s">
+      <c r="C138" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" s="8" customFormat="1" spans="1:3">
+      <c r="A139" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" s="7" customFormat="1" spans="1:3">
-      <c r="A140" s="7" t="s">
+      <c r="C139" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" s="8" customFormat="1" spans="1:3">
+      <c r="A140" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="141" s="7" customFormat="1" spans="1:3">
-      <c r="A141" s="7" t="s">
+      <c r="C140" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" s="8" customFormat="1" spans="1:3">
+      <c r="A141" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" s="7" customFormat="1" spans="1:3">
-      <c r="A142" s="7" t="s">
+      <c r="C141" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" s="8" customFormat="1" spans="1:3">
+      <c r="A142" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" s="7" customFormat="1" spans="1:3">
-      <c r="A143" s="7" t="s">
+      <c r="C142" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" s="8" customFormat="1" spans="1:3">
+      <c r="A143" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="144" s="7" customFormat="1" spans="1:3">
-      <c r="A144" s="7" t="s">
+      <c r="C143" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" s="8" customFormat="1" spans="1:3">
+      <c r="A144" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" s="7" customFormat="1" spans="1:3">
-      <c r="A145" s="7" t="s">
+      <c r="C144" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" s="8" customFormat="1" spans="1:3">
+      <c r="A145" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="146" s="7" customFormat="1" spans="1:3">
-      <c r="A146" s="7" t="s">
+      <c r="C145" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" s="8" customFormat="1" spans="1:3">
+      <c r="A146" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" s="7" customFormat="1" spans="1:3">
-      <c r="A147" s="7" t="s">
+      <c r="C146" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" s="8" customFormat="1" spans="1:3">
+      <c r="A147" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" s="7" customFormat="1" spans="1:3">
-      <c r="A148" s="7" t="s">
+      <c r="C147" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" s="8" customFormat="1" spans="1:3">
+      <c r="A148" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="149" s="7" customFormat="1" spans="1:3">
-      <c r="A149" s="7" t="s">
+      <c r="C148" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" s="8" customFormat="1" spans="1:3">
+      <c r="A149" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150" s="7" customFormat="1" spans="1:3">
-      <c r="A150" s="7" t="s">
+      <c r="C149" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" s="8" customFormat="1" spans="1:3">
+      <c r="A150" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="151" s="7" customFormat="1" spans="1:3">
-      <c r="A151" s="7" t="s">
+      <c r="C150" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="151" s="8" customFormat="1" spans="1:3">
+      <c r="A151" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="152" s="7" customFormat="1" spans="1:3">
-      <c r="A152" s="7" t="s">
+      <c r="C151" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" s="8" customFormat="1" spans="1:3">
+      <c r="A152" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="153" s="7" customFormat="1" spans="1:3">
-      <c r="A153" s="7" t="s">
+      <c r="C152" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="153" s="8" customFormat="1" spans="1:3">
+      <c r="A153" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="154" s="7" customFormat="1" spans="1:3">
-      <c r="A154" s="7" t="s">
+      <c r="C153" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" s="8" customFormat="1" spans="1:3">
+      <c r="A154" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="155" s="7" customFormat="1" spans="1:3">
-      <c r="A155" s="7" t="s">
+      <c r="C154" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" s="8" customFormat="1" spans="1:3">
+      <c r="A155" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" s="7" customFormat="1" spans="1:3">
-      <c r="A156" s="7" t="s">
+      <c r="C155" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" s="8" customFormat="1" spans="1:3">
+      <c r="A156" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="157" s="7" customFormat="1" spans="1:3">
-      <c r="A157" s="7" t="s">
+      <c r="C156" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" s="8" customFormat="1" spans="1:3">
+      <c r="A157" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="158" s="7" customFormat="1" spans="1:3">
-      <c r="A158" s="7" t="s">
+      <c r="C157" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" s="8" customFormat="1" spans="1:3">
+      <c r="A158" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="159" s="7" customFormat="1" spans="1:3">
-      <c r="A159" s="7" t="s">
+      <c r="C158" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="159" s="8" customFormat="1" spans="1:3">
+      <c r="A159" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="160" s="7" customFormat="1" spans="1:3">
-      <c r="A160" s="7" t="s">
+      <c r="C159" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" s="8" customFormat="1" spans="1:3">
+      <c r="A160" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" s="7" customFormat="1" spans="1:3">
-      <c r="A161" s="7" t="s">
+      <c r="C160" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" s="8" customFormat="1" spans="1:3">
+      <c r="A161" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="162" s="7" customFormat="1" spans="1:3">
-      <c r="A162" s="7" t="s">
+      <c r="C161" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="162" s="8" customFormat="1" spans="1:3">
+      <c r="A162" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="163" s="7" customFormat="1" spans="1:3">
-      <c r="A163" s="7" t="s">
+      <c r="C162" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" s="8" customFormat="1" spans="1:3">
+      <c r="A163" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" s="7" customFormat="1" spans="1:3">
-      <c r="A164" s="7" t="s">
+      <c r="C163" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" s="8" customFormat="1" spans="1:3">
+      <c r="A164" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="165" s="7" customFormat="1" spans="1:3">
-      <c r="A165" s="7" t="s">
+      <c r="C164" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="165" s="8" customFormat="1" spans="1:3">
+      <c r="A165" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="166" s="7" customFormat="1" spans="1:3">
-      <c r="A166" s="7" t="s">
+      <c r="C165" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" s="8" customFormat="1" spans="1:3">
+      <c r="A166" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" s="8" customFormat="1" spans="1:3">
+      <c r="A167" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="167" s="7" customFormat="1" spans="1:3">
-      <c r="A167" s="7" t="s">
+      <c r="C167" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" s="7" customFormat="1" spans="1:3">
-      <c r="A168" s="7" t="s">
+    </row>
+    <row r="168" s="8" customFormat="1" spans="1:3">
+      <c r="A168" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="169" s="7" customFormat="1" spans="1:3">
-      <c r="A169" s="7" t="s">
+      <c r="C168" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" s="8" customFormat="1" spans="1:3">
+      <c r="A169" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="170" s="7" customFormat="1" spans="1:3">
-      <c r="A170" s="7" t="s">
+      <c r="C169" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="170" s="8" customFormat="1" spans="1:3">
+      <c r="A170" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="171" s="7" customFormat="1" spans="1:3">
-      <c r="A171" s="7" t="s">
+      <c r="C170" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" s="8" customFormat="1" spans="1:3">
+      <c r="A171" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="172" s="7" customFormat="1" spans="1:3">
-      <c r="A172" s="7" t="s">
+      <c r="C171" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" s="8" customFormat="1" spans="1:3">
+      <c r="A172" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="173" s="7" customFormat="1" spans="1:3">
-      <c r="A173" s="7" t="s">
+      <c r="C172" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" s="8" customFormat="1" spans="1:3">
+      <c r="A173" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="174" s="7" customFormat="1" spans="1:3">
-      <c r="A174" s="7" t="s">
+      <c r="C173" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" s="8" customFormat="1" spans="1:3">
+      <c r="A174" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="175" s="7" customFormat="1" spans="1:3">
-      <c r="A175" s="7" t="s">
+      <c r="C174" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="175" s="8" customFormat="1" spans="1:3">
+      <c r="A175" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="176" s="7" customFormat="1" spans="1:3">
-      <c r="A176" s="7" t="s">
+      <c r="C175" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" s="8" customFormat="1" spans="1:3">
+      <c r="A176" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="177" s="7" customFormat="1" spans="1:3">
-      <c r="A177" s="7" t="s">
+      <c r="C176" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" s="8" customFormat="1" spans="1:3">
+      <c r="A177" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="178" s="7" customFormat="1" spans="1:3">
-      <c r="A178" s="7" t="s">
+      <c r="C177" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" s="8" customFormat="1" spans="1:3">
+      <c r="A178" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="179" s="7" customFormat="1" spans="1:3">
-      <c r="A179" s="7" t="s">
+      <c r="C178" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" s="8" customFormat="1" spans="1:3">
+      <c r="A179" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="180" s="7" customFormat="1" spans="1:3">
-      <c r="A180" s="7" t="s">
+      <c r="C179" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" s="8" customFormat="1" spans="1:3">
+      <c r="A180" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="181" s="7" customFormat="1" spans="1:3">
-      <c r="A181" s="7" t="s">
+      <c r="C180" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" s="8" customFormat="1" spans="1:3">
+      <c r="A181" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="182" s="7" customFormat="1" spans="1:3">
-      <c r="A182" s="7" t="s">
+      <c r="C181" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" s="8" customFormat="1" spans="1:3">
+      <c r="A182" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="183" s="7" customFormat="1" spans="1:3">
-      <c r="A183" s="7" t="s">
+      <c r="C182" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" s="8" customFormat="1" spans="1:3">
+      <c r="A183" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="184" s="7" customFormat="1" spans="1:3">
-      <c r="A184" s="7" t="s">
+      <c r="C183" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" s="8" customFormat="1" spans="1:3">
+      <c r="A184" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="185" s="7" customFormat="1" spans="1:3">
-      <c r="A185" s="7" t="s">
+      <c r="C184" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" s="8" customFormat="1" spans="1:3">
+      <c r="A185" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="186" s="7" customFormat="1" spans="1:3">
-      <c r="A186" s="7" t="s">
+      <c r="C185" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" s="8" customFormat="1" spans="1:3">
+      <c r="A186" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="187" s="7" customFormat="1" spans="1:3">
-      <c r="A187" s="7" t="s">
+      <c r="C186" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" s="8" customFormat="1" spans="1:3">
+      <c r="A187" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="188" s="7" customFormat="1" spans="1:3">
-      <c r="A188" s="7" t="s">
+      <c r="C187" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" s="8" customFormat="1" spans="1:3">
+      <c r="A188" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="189" s="7" customFormat="1" spans="1:3">
-      <c r="A189" s="7" t="s">
+      <c r="C188" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="189" s="8" customFormat="1" spans="1:3">
+      <c r="A189" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="190" s="7" customFormat="1" spans="1:3">
-      <c r="A190" s="7" t="s">
+      <c r="C189" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" s="8" customFormat="1" spans="1:3">
+      <c r="A190" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="191" s="7" customFormat="1" spans="1:3">
-      <c r="A191" s="7" t="s">
+      <c r="C190" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="191" s="8" customFormat="1" spans="1:3">
+      <c r="A191" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="192" s="7" customFormat="1" spans="1:3">
-      <c r="A192" s="7" t="s">
+      <c r="C191" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" s="8" customFormat="1" spans="1:3">
+      <c r="A192" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="193" s="7" customFormat="1" spans="1:3">
-      <c r="A193" s="7" t="s">
+      <c r="C192" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" s="8" customFormat="1" spans="1:3">
+      <c r="A193" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="194" s="7" customFormat="1" spans="1:3">
-      <c r="A194" s="7" t="s">
+      <c r="C193" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" s="8" customFormat="1" spans="1:3">
+      <c r="A194" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="195" s="7" customFormat="1" spans="1:3">
-      <c r="A195" s="7" t="s">
+      <c r="C194" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="195" s="8" customFormat="1" spans="1:3">
+      <c r="A195" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="196" s="7" customFormat="1" spans="1:3">
-      <c r="A196" s="7" t="s">
+      <c r="C195" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" s="8" customFormat="1" spans="1:3">
+      <c r="A196" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" s="8" customFormat="1" spans="1:3">
+      <c r="A197" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="197" s="7" customFormat="1" spans="1:3">
-      <c r="A197" s="7" t="s">
+      <c r="C197" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="198" s="7" customFormat="1" spans="1:3">
-      <c r="A198" s="7" t="s">
+    </row>
+    <row r="198" s="8" customFormat="1" spans="1:3">
+      <c r="A198" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="199" s="7" customFormat="1" spans="1:3">
-      <c r="A199" s="7" t="s">
+      <c r="C198" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="199" s="8" customFormat="1" spans="1:3">
+      <c r="A199" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="200" s="7" customFormat="1" spans="1:3">
-      <c r="A200" s="7" t="s">
+      <c r="C199" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="200" s="8" customFormat="1" spans="1:3">
+      <c r="A200" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" s="7" customFormat="1" spans="1:3">
-      <c r="A201" s="7" t="s">
+      <c r="C200" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="201" s="8" customFormat="1" spans="1:3">
+      <c r="A201" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="202" s="7" customFormat="1" spans="1:3">
-      <c r="A202" s="7" t="s">
+      <c r="C201" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="202" s="8" customFormat="1" spans="1:3">
+      <c r="A202" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="203" s="7" customFormat="1" spans="1:3">
-      <c r="A203" s="7" t="s">
+      <c r="C202" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="203" s="8" customFormat="1" spans="1:3">
+      <c r="A203" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="204" s="7" customFormat="1" spans="1:3">
-      <c r="A204" s="7" t="s">
+      <c r="C203" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="204" s="8" customFormat="1" spans="1:3">
+      <c r="A204" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C204" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="205" s="7" customFormat="1" spans="1:3">
-      <c r="A205" s="7" t="s">
+      <c r="C204" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" s="8" customFormat="1" spans="1:3">
+      <c r="A205" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="206" s="7" customFormat="1" spans="1:3">
-      <c r="A206" s="7" t="s">
+      <c r="C205" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="206" s="8" customFormat="1" spans="1:3">
+      <c r="A206" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="207" s="7" customFormat="1" spans="1:3">
-      <c r="A207" s="7" t="s">
+      <c r="C206" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="207" s="8" customFormat="1" spans="1:3">
+      <c r="A207" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="208" s="7" customFormat="1" spans="1:3">
-      <c r="A208" s="7" t="s">
+      <c r="C207" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="208" s="8" customFormat="1" spans="1:3">
+      <c r="A208" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="209" s="7" customFormat="1" spans="1:3">
-      <c r="A209" s="7" t="s">
+      <c r="C208" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" s="8" customFormat="1" spans="1:3">
+      <c r="A209" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="210" s="7" customFormat="1" spans="1:3">
-      <c r="A210" s="7" t="s">
+      <c r="C209" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="210" s="8" customFormat="1" spans="1:3">
+      <c r="A210" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="211" s="7" customFormat="1" spans="1:3">
-      <c r="A211" s="7" t="s">
+      <c r="C210" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" s="8" customFormat="1" spans="1:3">
+      <c r="A211" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="212" s="7" customFormat="1" spans="1:3">
-      <c r="A212" s="7" t="s">
+      <c r="C211" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="212" s="8" customFormat="1" spans="1:3">
+      <c r="A212" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="213" s="7" customFormat="1" spans="1:3">
-      <c r="A213" s="7" t="s">
+      <c r="C212" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="213" s="8" customFormat="1" spans="1:3">
+      <c r="A213" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" s="7" customFormat="1" spans="1:3">
-      <c r="A214" s="7" t="s">
+      <c r="C213" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="214" s="8" customFormat="1" spans="1:3">
+      <c r="A214" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" s="7" customFormat="1" spans="1:3">
-      <c r="A215" s="7" t="s">
+      <c r="C214" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="215" s="8" customFormat="1" spans="1:3">
+      <c r="A215" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C215" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="216" s="7" customFormat="1" spans="1:3">
-      <c r="A216" s="7" t="s">
+      <c r="C215" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="216" s="8" customFormat="1" spans="1:3">
+      <c r="A216" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="217" s="7" customFormat="1" spans="1:3">
-      <c r="A217" s="7" t="s">
+      <c r="C216" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" s="8" customFormat="1" spans="1:3">
+      <c r="A217" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="218" s="7" customFormat="1" spans="1:3">
-      <c r="A218" s="7" t="s">
+      <c r="C217" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="218" s="8" customFormat="1" spans="1:3">
+      <c r="A218" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="219" s="7" customFormat="1" spans="1:3">
-      <c r="A219" s="7" t="s">
+      <c r="C218" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="219" s="8" customFormat="1" spans="1:3">
+      <c r="A219" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="220" s="7" customFormat="1" spans="1:3">
-      <c r="A220" s="7" t="s">
+      <c r="C219" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" s="8" customFormat="1" spans="1:3">
+      <c r="A220" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="221" s="7" customFormat="1" spans="1:3">
-      <c r="A221" s="7" t="s">
+      <c r="C220" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="221" s="8" customFormat="1" spans="1:3">
+      <c r="A221" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="222" s="7" customFormat="1" spans="1:3">
-      <c r="A222" s="7" t="s">
+      <c r="C221" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="222" s="8" customFormat="1" spans="1:3">
+      <c r="A222" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="223" s="7" customFormat="1" spans="1:3">
-      <c r="A223" s="7" t="s">
+      <c r="C222" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="223" s="8" customFormat="1" spans="1:3">
+      <c r="A223" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="224" s="7" customFormat="1" spans="1:3">
-      <c r="A224" s="7" t="s">
+      <c r="C223" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="224" s="8" customFormat="1" spans="1:3">
+      <c r="A224" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="225" s="7" customFormat="1" spans="1:3">
-      <c r="A225" s="7" t="s">
+      <c r="C224" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="225" s="8" customFormat="1" spans="1:3">
+      <c r="A225" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="226" s="7" customFormat="1" spans="1:3">
-      <c r="A226" s="7" t="s">
+      <c r="C225" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="226" s="8" customFormat="1" spans="1:3">
+      <c r="A226" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" s="8" customFormat="1" spans="1:3">
+      <c r="A227" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="227" s="7" customFormat="1" spans="1:3">
-      <c r="A227" s="7" t="s">
+      <c r="C227" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="228" s="7" customFormat="1" spans="1:3">
-      <c r="A228" s="7" t="s">
+    </row>
+    <row r="228" s="8" customFormat="1" spans="1:3">
+      <c r="A228" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="229" s="7" customFormat="1" spans="1:3">
-      <c r="A229" s="7" t="s">
+      <c r="C228" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="229" s="8" customFormat="1" spans="1:3">
+      <c r="A229" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C229" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="230" s="7" customFormat="1" spans="1:3">
-      <c r="A230" s="7" t="s">
+      <c r="C229" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="230" s="8" customFormat="1" spans="1:3">
+      <c r="A230" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="231" s="7" customFormat="1" spans="1:3">
-      <c r="A231" s="7" t="s">
+      <c r="C230" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" s="8" customFormat="1" spans="1:3">
+      <c r="A231" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C231" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="232" s="7" customFormat="1" spans="1:3">
-      <c r="A232" s="7" t="s">
+      <c r="C231" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" s="8" customFormat="1" spans="1:3">
+      <c r="A232" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C232" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="233" s="7" customFormat="1" spans="1:3">
-      <c r="A233" s="7" t="s">
+      <c r="C232" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="233" s="8" customFormat="1" spans="1:3">
+      <c r="A233" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="234" s="7" customFormat="1" spans="1:3">
-      <c r="A234" s="7" t="s">
+      <c r="C233" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="234" s="8" customFormat="1" spans="1:3">
+      <c r="A234" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="235" s="7" customFormat="1" spans="1:3">
-      <c r="A235" s="7" t="s">
+      <c r="C234" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" s="8" customFormat="1" spans="1:3">
+      <c r="A235" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="236" s="7" customFormat="1" spans="1:3">
-      <c r="A236" s="7" t="s">
+      <c r="C235" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" s="8" customFormat="1" spans="1:3">
+      <c r="A236" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C236" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="237" s="7" customFormat="1" spans="1:3">
-      <c r="A237" s="7" t="s">
+      <c r="C236" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="237" s="8" customFormat="1" spans="1:3">
+      <c r="A237" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="238" s="7" customFormat="1" spans="1:3">
-      <c r="A238" s="7" t="s">
+      <c r="C237" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="238" s="8" customFormat="1" spans="1:3">
+      <c r="A238" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="239" s="7" customFormat="1" spans="1:3">
-      <c r="A239" s="7" t="s">
+      <c r="C238" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="239" s="8" customFormat="1" spans="1:3">
+      <c r="A239" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="240" s="7" customFormat="1" spans="1:3">
-      <c r="A240" s="7" t="s">
+      <c r="C239" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" s="8" customFormat="1" spans="1:3">
+      <c r="A240" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="241" s="7" customFormat="1" spans="1:3">
-      <c r="A241" s="7" t="s">
+      <c r="C240" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="241" s="8" customFormat="1" spans="1:3">
+      <c r="A241" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="242" s="7" customFormat="1" spans="1:3">
-      <c r="A242" s="7" t="s">
+      <c r="C241" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="242" s="8" customFormat="1" spans="1:3">
+      <c r="A242" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="243" s="7" customFormat="1" spans="1:3">
-      <c r="A243" s="7" t="s">
+      <c r="C242" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="243" s="8" customFormat="1" spans="1:3">
+      <c r="A243" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="244" s="7" customFormat="1" spans="1:3">
-      <c r="A244" s="7" t="s">
+      <c r="C243" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="244" s="8" customFormat="1" spans="1:3">
+      <c r="A244" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C244" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="245" s="7" customFormat="1" spans="1:3">
-      <c r="A245" s="7" t="s">
+      <c r="C244" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="245" s="8" customFormat="1" spans="1:3">
+      <c r="A245" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="246" s="7" customFormat="1" spans="1:3">
-      <c r="A246" s="7" t="s">
+      <c r="C245" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="246" s="8" customFormat="1" spans="1:3">
+      <c r="A246" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="247" s="7" customFormat="1" spans="1:3">
-      <c r="A247" s="7" t="s">
+      <c r="C246" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247" s="8" customFormat="1" spans="1:3">
+      <c r="A247" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="248" s="7" customFormat="1" spans="1:3">
-      <c r="A248" s="7" t="s">
+      <c r="C247" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" s="8" customFormat="1" spans="1:3">
+      <c r="A248" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="249" s="7" customFormat="1" spans="1:3">
-      <c r="A249" s="7" t="s">
+      <c r="C248" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="249" s="8" customFormat="1" spans="1:3">
+      <c r="A249" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="250" s="7" customFormat="1" spans="1:3">
-      <c r="A250" s="7" t="s">
+      <c r="C249" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="250" s="8" customFormat="1" spans="1:3">
+      <c r="A250" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="251" s="7" customFormat="1" spans="1:3">
-      <c r="A251" s="7" t="s">
+      <c r="C250" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="251" s="8" customFormat="1" spans="1:3">
+      <c r="A251" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="252" s="7" customFormat="1" spans="1:3">
-      <c r="A252" s="7" t="s">
+      <c r="C251" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="252" s="8" customFormat="1" spans="1:3">
+      <c r="A252" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="253" s="7" customFormat="1" spans="1:3">
-      <c r="A253" s="7" t="s">
+      <c r="C252" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253" s="8" customFormat="1" spans="1:3">
+      <c r="A253" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C253" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="254" s="7" customFormat="1" spans="1:3">
-      <c r="A254" s="7" t="s">
+      <c r="C253" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="254" s="8" customFormat="1" spans="1:3">
+      <c r="A254" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C254" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="255" s="7" customFormat="1" spans="1:3">
-      <c r="A255" s="7" t="s">
+      <c r="C254" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="255" s="8" customFormat="1" spans="1:3">
+      <c r="A255" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C255" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="256" s="7" customFormat="1" spans="1:3">
-      <c r="A256" s="7" t="s">
+      <c r="C255" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="256" s="8" customFormat="1" spans="1:3">
+      <c r="A256" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="257" s="8" customFormat="1" spans="1:3">
+      <c r="A257" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="257" s="7" customFormat="1" spans="1:3">
-      <c r="A257" s="7" t="s">
+      <c r="C257" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="258" s="7" customFormat="1" spans="1:3">
-      <c r="A258" s="7" t="s">
+    </row>
+    <row r="258" s="8" customFormat="1" spans="1:3">
+      <c r="A258" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="259" s="7" customFormat="1" spans="1:3">
-      <c r="A259" s="7" t="s">
+      <c r="C258" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="259" s="8" customFormat="1" spans="1:3">
+      <c r="A259" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="260" s="7" customFormat="1" spans="1:3">
-      <c r="A260" s="7" t="s">
+      <c r="C259" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="260" s="8" customFormat="1" spans="1:3">
+      <c r="A260" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="261" s="7" customFormat="1" spans="1:3">
-      <c r="A261" s="7" t="s">
+      <c r="C260" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="261" s="8" customFormat="1" spans="1:3">
+      <c r="A261" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C261" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="262" s="7" customFormat="1" spans="1:3">
-      <c r="A262" s="7" t="s">
+      <c r="C261" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="262" s="8" customFormat="1" spans="1:3">
+      <c r="A262" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C262" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="263" s="7" customFormat="1" spans="1:3">
-      <c r="A263" s="7" t="s">
+      <c r="C262" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="263" s="8" customFormat="1" spans="1:3">
+      <c r="A263" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C263" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="264" s="7" customFormat="1" spans="1:3">
-      <c r="A264" s="7" t="s">
+      <c r="C263" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="264" s="8" customFormat="1" spans="1:3">
+      <c r="A264" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="265" s="7" customFormat="1" spans="1:3">
-      <c r="A265" s="7" t="s">
+      <c r="C264" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="265" s="8" customFormat="1" spans="1:3">
+      <c r="A265" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C265" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="266" s="7" customFormat="1" spans="1:3">
-      <c r="A266" s="7" t="s">
+      <c r="C265" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="266" s="8" customFormat="1" spans="1:3">
+      <c r="A266" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C266" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="267" s="7" customFormat="1" spans="1:3">
-      <c r="A267" s="7" t="s">
+      <c r="C266" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="267" s="8" customFormat="1" spans="1:3">
+      <c r="A267" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C267" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="268" s="7" customFormat="1" spans="1:3">
-      <c r="A268" s="7" t="s">
+      <c r="C267" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="268" s="8" customFormat="1" spans="1:3">
+      <c r="A268" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C268" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="269" s="7" customFormat="1" spans="1:3">
-      <c r="A269" s="7" t="s">
+      <c r="C268" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" s="8" customFormat="1" spans="1:3">
+      <c r="A269" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="270" s="7" customFormat="1" spans="1:3">
-      <c r="A270" s="7" t="s">
+      <c r="C269" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="270" s="8" customFormat="1" spans="1:3">
+      <c r="A270" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C270" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="271" s="7" customFormat="1" spans="1:3">
-      <c r="A271" s="7" t="s">
+      <c r="C270" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="271" s="8" customFormat="1" spans="1:3">
+      <c r="A271" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C271" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="272" s="7" customFormat="1" spans="1:3">
-      <c r="A272" s="7" t="s">
+      <c r="C271" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" s="8" customFormat="1" spans="1:3">
+      <c r="A272" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C272" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="273" s="7" customFormat="1" spans="1:3">
-      <c r="A273" s="7" t="s">
+      <c r="C272" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="273" s="8" customFormat="1" spans="1:3">
+      <c r="A273" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="274" s="7" customFormat="1" spans="1:3">
-      <c r="A274" s="7" t="s">
+      <c r="C273" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="274" s="8" customFormat="1" spans="1:3">
+      <c r="A274" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="275" s="7" customFormat="1" spans="1:3">
-      <c r="A275" s="7" t="s">
+      <c r="C274" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="275" s="8" customFormat="1" spans="1:3">
+      <c r="A275" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C275" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="276" s="7" customFormat="1" spans="1:3">
-      <c r="A276" s="7" t="s">
+      <c r="C275" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="276" s="8" customFormat="1" spans="1:3">
+      <c r="A276" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="277" s="7" customFormat="1" spans="1:3">
-      <c r="A277" s="7" t="s">
+      <c r="C276" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="277" s="8" customFormat="1" spans="1:3">
+      <c r="A277" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C277" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="278" s="7" customFormat="1" spans="1:3">
-      <c r="A278" s="7" t="s">
+      <c r="C277" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="278" s="8" customFormat="1" spans="1:3">
+      <c r="A278" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="279" s="7" customFormat="1" spans="1:3">
-      <c r="A279" s="7" t="s">
+      <c r="C278" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="279" s="8" customFormat="1" spans="1:3">
+      <c r="A279" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="280" s="7" customFormat="1" spans="1:3">
-      <c r="A280" s="7" t="s">
+      <c r="C279" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="280" s="8" customFormat="1" spans="1:3">
+      <c r="A280" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="281" s="7" customFormat="1" spans="1:3">
-      <c r="A281" s="7" t="s">
+      <c r="C280" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="281" s="8" customFormat="1" spans="1:3">
+      <c r="A281" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="282" s="7" customFormat="1" spans="1:3">
-      <c r="A282" s="7" t="s">
+      <c r="C281" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="282" s="8" customFormat="1" spans="1:3">
+      <c r="A282" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="283" s="7" customFormat="1" spans="1:3">
-      <c r="A283" s="7" t="s">
+      <c r="C282" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="283" s="8" customFormat="1" spans="1:3">
+      <c r="A283" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="284" s="7" customFormat="1" spans="1:3">
-      <c r="A284" s="7" t="s">
+      <c r="C283" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="284" s="8" customFormat="1" spans="1:3">
+      <c r="A284" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="285" s="7" customFormat="1" spans="1:3">
-      <c r="A285" s="7" t="s">
+      <c r="C284" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="285" s="8" customFormat="1" spans="1:3">
+      <c r="A285" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C285" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="286" s="7" customFormat="1" spans="1:3">
-      <c r="A286" s="7" t="s">
+      <c r="C285" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="286" s="8" customFormat="1" spans="1:3">
+      <c r="A286" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="287" s="8" customFormat="1" spans="1:3">
+      <c r="A287" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="287" s="7" customFormat="1" spans="1:3">
-      <c r="A287" s="7" t="s">
+      <c r="C287" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="288" s="7" customFormat="1" spans="1:3">
-      <c r="A288" s="7" t="s">
+    </row>
+    <row r="288" s="8" customFormat="1" spans="1:3">
+      <c r="A288" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="289" s="7" customFormat="1" spans="1:3">
-      <c r="A289" s="7" t="s">
+      <c r="C288" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="289" s="8" customFormat="1" spans="1:3">
+      <c r="A289" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="290" s="7" customFormat="1" spans="1:3">
-      <c r="A290" s="7" t="s">
+      <c r="C289" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="290" s="8" customFormat="1" spans="1:3">
+      <c r="A290" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="291" s="7" customFormat="1" spans="1:3">
-      <c r="A291" s="7" t="s">
+      <c r="C290" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="291" s="8" customFormat="1" spans="1:3">
+      <c r="A291" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C291" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="292" s="7" customFormat="1" spans="1:3">
-      <c r="A292" s="7" t="s">
+      <c r="C291" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="292" s="8" customFormat="1" spans="1:3">
+      <c r="A292" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="293" s="7" customFormat="1" spans="1:3">
-      <c r="A293" s="7" t="s">
+      <c r="C292" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="293" s="8" customFormat="1" spans="1:3">
+      <c r="A293" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="294" s="7" customFormat="1" spans="1:3">
-      <c r="A294" s="7" t="s">
+      <c r="C293" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="294" s="8" customFormat="1" spans="1:3">
+      <c r="A294" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="295" s="7" customFormat="1" spans="1:3">
-      <c r="A295" s="7" t="s">
+      <c r="C294" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="295" s="8" customFormat="1" spans="1:3">
+      <c r="A295" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="296" s="7" customFormat="1" spans="1:3">
-      <c r="A296" s="7" t="s">
+      <c r="C295" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="296" s="8" customFormat="1" spans="1:3">
+      <c r="A296" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C296" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="297" s="7" customFormat="1" spans="1:3">
-      <c r="A297" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="298" s="7" customFormat="1" spans="1:3">
-      <c r="A298" s="7" t="s">
+      <c r="C296" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="297" s="8" customFormat="1" spans="1:3">
+      <c r="A297" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="299" s="7" customFormat="1" spans="1:3">
-      <c r="A299" s="7" t="s">
+      <c r="C297" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="298" s="8" customFormat="1" spans="1:3">
+      <c r="A298" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C299" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="300" s="7" customFormat="1" spans="1:3">
-      <c r="A300" s="7" t="s">
+      <c r="C298" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="299" s="8" customFormat="1" spans="1:3">
+      <c r="A299" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C300" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="301" s="7" customFormat="1" spans="1:3">
-      <c r="A301" s="7" t="s">
+      <c r="C299" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="300" s="8" customFormat="1" spans="1:3">
+      <c r="A300" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C301" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="302" s="7" customFormat="1" spans="1:3">
-      <c r="A302" s="7" t="s">
+      <c r="C300" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="301" s="8" customFormat="1" spans="1:3">
+      <c r="A301" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C302" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="303" s="7" customFormat="1" spans="1:3">
-      <c r="A303" s="7" t="s">
+      <c r="C301" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="302" s="8" customFormat="1" spans="1:3">
+      <c r="A302" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C303" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="304" s="7" customFormat="1" spans="1:3">
-      <c r="A304" s="7" t="s">
+      <c r="C302" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" s="8" customFormat="1" spans="1:3">
+      <c r="A303" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C304" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="305" s="7" customFormat="1" spans="1:3">
-      <c r="A305" s="7" t="s">
+      <c r="C303" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="304" s="8" customFormat="1" spans="1:3">
+      <c r="A304" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="306" s="7" customFormat="1" spans="1:3">
-      <c r="A306" s="7" t="s">
+      <c r="C304" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="305" s="8" customFormat="1" spans="1:3">
+      <c r="A305" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C306" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="307" s="7" customFormat="1" spans="1:3">
-      <c r="A307" s="7" t="s">
+      <c r="C305" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="306" s="8" customFormat="1" spans="1:3">
+      <c r="A306" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="308" s="7" customFormat="1" spans="1:3">
-      <c r="A308" s="7" t="s">
+      <c r="C306" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="307" s="8" customFormat="1" spans="1:3">
+      <c r="A307" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C308" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="309" s="7" customFormat="1" spans="1:3">
-      <c r="A309" s="7" t="s">
+      <c r="C307" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="308" s="8" customFormat="1" spans="1:3">
+      <c r="A308" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C309" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="310" s="7" customFormat="1" spans="1:3">
-      <c r="A310" s="7" t="s">
+      <c r="C308" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="309" s="8" customFormat="1" spans="1:3">
+      <c r="A309" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="311" s="7" customFormat="1" spans="1:3">
-      <c r="A311" s="7" t="s">
+      <c r="C309" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="310" s="8" customFormat="1" spans="1:3">
+      <c r="A310" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C311" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="312" s="7" customFormat="1" spans="1:3">
-      <c r="A312" s="7" t="s">
+      <c r="C310" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="311" s="8" customFormat="1" spans="1:3">
+      <c r="A311" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C312" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="313" s="7" customFormat="1" spans="1:3">
-      <c r="A313" s="7" t="s">
+      <c r="C311" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="312" s="8" customFormat="1" spans="1:3">
+      <c r="A312" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C313" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="314" s="7" customFormat="1" spans="1:3">
-      <c r="A314" s="7" t="s">
+      <c r="C312" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="313" s="8" customFormat="1" spans="1:3">
+      <c r="A313" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C314" s="7" t="s">
-        <v>407</v>
+      <c r="C313" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="314" s="8" customFormat="1" spans="1:3">
+      <c r="A314" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="315" s="8" customFormat="1" spans="1:3">
       <c r="A315" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>407</v>
+        <v>436</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="316" s="9" customFormat="1" spans="1:3">
       <c r="A316" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C316" s="9" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="317" s="9" customFormat="1" spans="1:3">
-      <c r="A317" s="9" t="s">
+      <c r="C316" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="317" s="10" customFormat="1" spans="1:3">
+      <c r="A317" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C317" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="318" s="9" customFormat="1" spans="1:3">
-      <c r="A318" s="9" t="s">
+      <c r="C317" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C318" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="319" s="9" customFormat="1" spans="1:3">
-      <c r="A319" s="9" t="s">
+    </row>
+    <row r="318" s="10" customFormat="1" spans="1:3">
+      <c r="A318" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C319" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="320" s="9" customFormat="1" spans="1:3">
-      <c r="A320" s="9" t="s">
+      <c r="C318" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="319" s="10" customFormat="1" spans="1:3">
+      <c r="A319" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C320" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="321" s="9" customFormat="1" spans="1:3">
-      <c r="A321" s="9" t="s">
+      <c r="C319" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="320" s="10" customFormat="1" spans="1:3">
+      <c r="A320" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C321" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="322" s="9" customFormat="1" spans="1:3">
-      <c r="A322" s="9" t="s">
+      <c r="C320" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="321" s="10" customFormat="1" spans="1:3">
+      <c r="A321" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C322" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="323" s="9" customFormat="1" spans="1:3">
-      <c r="A323" s="9" t="s">
+      <c r="C321" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="322" s="10" customFormat="1" spans="1:3">
+      <c r="A322" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C323" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="324" s="9" customFormat="1" spans="1:3">
-      <c r="A324" s="9" t="s">
+      <c r="C322" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="323" s="10" customFormat="1" spans="1:3">
+      <c r="A323" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C323" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="324" s="10" customFormat="1" spans="1:3">
+      <c r="A324" s="10" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="325" s="9" customFormat="1" spans="1:3">
-      <c r="A325" s="9" t="s">
+      <c r="C324" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="325" s="10" customFormat="1" spans="1:3">
+      <c r="A325" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C325" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="326" s="9" customFormat="1" spans="1:3">
-      <c r="A326" s="9" t="s">
+      <c r="C325" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C326" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="327" s="9" customFormat="1" spans="1:3">
-      <c r="A327" s="9" t="s">
+    </row>
+    <row r="326" s="10" customFormat="1" spans="1:3">
+      <c r="A326" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="328" s="9" customFormat="1" spans="1:3">
-      <c r="A328" s="9" t="s">
+      <c r="C326" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="327" s="10" customFormat="1" spans="1:3">
+      <c r="A327" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C327" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="328" s="10" customFormat="1" spans="1:3">
+      <c r="A328" s="10" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="329" s="9" customFormat="1" spans="1:3">
-      <c r="A329" s="9" t="s">
+      <c r="C328" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="329" s="10" customFormat="1" spans="1:3">
+      <c r="A329" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C329" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="330" s="9" customFormat="1" spans="1:3">
-      <c r="A330" s="9" t="s">
+      <c r="C329" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C330" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="331" s="9" customFormat="1" spans="1:3">
-      <c r="A331" s="9" t="s">
+    </row>
+    <row r="330" s="10" customFormat="1" spans="1:3">
+      <c r="A330" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C331" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="332" s="9" customFormat="1" spans="1:3">
-      <c r="A332" s="9" t="s">
+      <c r="C330" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="331" s="10" customFormat="1" spans="1:3">
+      <c r="A331" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C331" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" s="10" customFormat="1" spans="1:3">
+      <c r="A332" s="10" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="333" s="9" customFormat="1" spans="1:3">
-      <c r="A333" s="9" t="s">
+      <c r="C332" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="333" s="10" customFormat="1" spans="1:3">
+      <c r="A333" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C333" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="334" s="9" customFormat="1" spans="1:3">
-      <c r="A334" s="9" t="s">
+      <c r="C333" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C334" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="335" s="9" customFormat="1" spans="1:3">
-      <c r="A335" s="9" t="s">
+    </row>
+    <row r="334" s="10" customFormat="1" spans="1:3">
+      <c r="A334" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C335" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="336" s="9" customFormat="1" spans="1:3">
-      <c r="A336" s="9" t="s">
+      <c r="C334" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="335" s="10" customFormat="1" spans="1:3">
+      <c r="A335" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C335" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="336" s="10" customFormat="1" spans="1:3">
+      <c r="A336" s="10" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="337" s="9" customFormat="1" spans="1:3">
-      <c r="A337" s="9" t="s">
+      <c r="C336" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="337" s="10" customFormat="1" spans="1:3">
+      <c r="A337" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C337" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="338" s="9" customFormat="1" spans="1:3">
-      <c r="A338" s="9" t="s">
+      <c r="C337" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C338" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="339" s="9" customFormat="1" spans="1:3">
-      <c r="A339" s="9" t="s">
+    </row>
+    <row r="338" s="10" customFormat="1" spans="1:3">
+      <c r="A338" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C339" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="340" s="9" customFormat="1" spans="1:3">
-      <c r="A340" s="9" t="s">
+      <c r="C338" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="339" s="10" customFormat="1" spans="1:3">
+      <c r="A339" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C340" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="341" s="9" customFormat="1" spans="1:3">
-      <c r="A341" s="9" t="s">
+      <c r="C339" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="340" s="10" customFormat="1" spans="1:3">
+      <c r="A340" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C340" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="341" s="10" customFormat="1" spans="1:3">
+      <c r="A341" s="10" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="342" s="9" customFormat="1" spans="1:3">
-      <c r="A342" s="9" t="s">
+      <c r="C341" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="342" s="10" customFormat="1" spans="1:3">
+      <c r="A342" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C342" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="343" s="9" customFormat="1" spans="1:3">
-      <c r="A343" s="9" t="s">
+      <c r="C342" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C343" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="344" s="9" customFormat="1" spans="1:3">
-      <c r="A344" s="9" t="s">
+    </row>
+    <row r="343" s="10" customFormat="1" spans="1:3">
+      <c r="A343" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C344" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="345" s="9" customFormat="1" spans="1:3">
-      <c r="A345" s="9" t="s">
+      <c r="C343" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="344" s="10" customFormat="1" spans="1:3">
+      <c r="A344" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C345" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="346" s="9" customFormat="1" spans="1:3">
-      <c r="A346" s="9" t="s">
+      <c r="C344" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="345" s="10" customFormat="1" spans="1:3">
+      <c r="A345" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C346" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="347" s="9" customFormat="1" spans="1:3">
-      <c r="A347" s="9" t="s">
+      <c r="C345" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="346" s="10" customFormat="1" spans="1:3">
+      <c r="A346" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C346" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="347" s="10" customFormat="1" spans="1:3">
+      <c r="A347" s="10" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="348" s="9" customFormat="1" spans="1:3">
-      <c r="A348" s="9" t="s">
+      <c r="C347" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="348" s="10" customFormat="1" spans="1:3">
+      <c r="A348" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C348" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="349" s="9" customFormat="1" spans="1:3">
-      <c r="A349" s="9" t="s">
+      <c r="C348" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C349" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="350" s="9" customFormat="1" spans="1:3">
-      <c r="A350" s="9" t="s">
+    </row>
+    <row r="349" s="10" customFormat="1" spans="1:3">
+      <c r="A349" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C350" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="351" s="9" customFormat="1" spans="1:3">
-      <c r="A351" s="9" t="s">
+      <c r="C349" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="350" s="10" customFormat="1" spans="1:3">
+      <c r="A350" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C351" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="352" s="9" customFormat="1" spans="1:3">
-      <c r="A352" s="9" t="s">
+      <c r="C350" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="351" s="10" customFormat="1" spans="1:3">
+      <c r="A351" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C352" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="353" s="9" customFormat="1" spans="1:3">
-      <c r="A353" s="9" t="s">
+      <c r="C351" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="352" s="10" customFormat="1" spans="1:3">
+      <c r="A352" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C353" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="354" s="9" customFormat="1" spans="1:3">
-      <c r="A354" s="9" t="s">
+      <c r="C352" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="353" s="10" customFormat="1" spans="1:3">
+      <c r="A353" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C354" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="355" s="9" customFormat="1" spans="1:3">
-      <c r="A355" s="9" t="s">
+      <c r="C353" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="354" s="10" customFormat="1" spans="1:3">
+      <c r="A354" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C355" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="356" s="9" customFormat="1" spans="1:3">
-      <c r="A356" s="9" t="s">
+      <c r="C354" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="355" s="10" customFormat="1" spans="1:3">
+      <c r="A355" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C356" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="357" s="9" customFormat="1" spans="1:3">
-      <c r="A357" s="9" t="s">
+      <c r="C355" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="356" s="10" customFormat="1" spans="1:3">
+      <c r="A356" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="C356" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="357" s="10" customFormat="1" spans="1:3">
+      <c r="A357" s="10" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="358" s="9" customFormat="1" spans="1:3">
-      <c r="A358" s="9" t="s">
+      <c r="C357" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="358" s="10" customFormat="1" spans="1:3">
+      <c r="A358" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C358" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="359" s="9" customFormat="1" spans="1:3">
-      <c r="A359" s="9" t="s">
+      <c r="C358" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C359" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="360" s="9" customFormat="1" spans="1:3">
-      <c r="A360" s="9" t="s">
+    </row>
+    <row r="359" s="10" customFormat="1" spans="1:3">
+      <c r="A359" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C360" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="361" s="9" customFormat="1" spans="1:3">
-      <c r="A361" s="9" t="s">
+      <c r="C359" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="360" s="10" customFormat="1" spans="1:3">
+      <c r="A360" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C361" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="362" s="9" customFormat="1" spans="1:3">
-      <c r="A362" s="9" t="s">
+      <c r="C360" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="361" s="10" customFormat="1" spans="1:3">
+      <c r="A361" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C361" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="362" s="10" customFormat="1" spans="1:3">
+      <c r="A362" s="10" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="363" s="9" customFormat="1" spans="1:3">
-      <c r="A363" s="9" t="s">
+      <c r="C362" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="363" s="10" customFormat="1" spans="1:3">
+      <c r="A363" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C363" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="364" s="9" customFormat="1" spans="1:3">
-      <c r="A364" s="9" t="s">
+      <c r="C363" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C364" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="365" s="9" customFormat="1" spans="1:3">
-      <c r="A365" s="9" t="s">
+    </row>
+    <row r="364" s="10" customFormat="1" spans="1:3">
+      <c r="A364" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C365" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="366" s="9" customFormat="1" spans="1:3">
-      <c r="A366" s="9" t="s">
+      <c r="C364" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="365" s="10" customFormat="1" spans="1:3">
+      <c r="A365" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C366" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="367" s="9" customFormat="1" spans="1:3">
-      <c r="A367" s="9" t="s">
+      <c r="C365" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="366" s="10" customFormat="1" spans="1:3">
+      <c r="A366" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C367" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="368" s="9" customFormat="1" spans="1:3">
-      <c r="A368" s="9" t="s">
+      <c r="C366" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="367" s="10" customFormat="1" spans="1:3">
+      <c r="A367" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C368" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="369" s="9" customFormat="1" spans="1:3">
-      <c r="A369" s="9" t="s">
+      <c r="C367" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="368" s="10" customFormat="1" spans="1:3">
+      <c r="A368" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C369" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="370" s="9" customFormat="1" spans="1:3">
-      <c r="A370" s="9" t="s">
+      <c r="C368" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="369" s="10" customFormat="1" spans="1:3">
+      <c r="A369" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C370" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="371" s="9" customFormat="1" spans="1:3">
-      <c r="A371" s="9" t="s">
+      <c r="C369" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="370" s="10" customFormat="1" spans="1:3">
+      <c r="A370" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C371" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="372" s="9" customFormat="1" spans="1:3">
-      <c r="A372" s="9" t="s">
+      <c r="C370" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="371" s="10" customFormat="1" spans="1:3">
+      <c r="A371" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C372" s="9" t="s">
+      <c r="C371" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="372" s="10" customFormat="1" spans="1:3">
+      <c r="A372" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="373" s="9" customFormat="1" spans="1:3">
-      <c r="A373" s="9" t="s">
+      <c r="C372" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="373" s="10" customFormat="1" spans="1:3">
+      <c r="A373" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C373" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="374" s="9" customFormat="1" spans="1:3">
-      <c r="A374" s="9" t="s">
+      <c r="C373" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C374" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="375" s="9" customFormat="1" spans="1:3">
-      <c r="A375" s="9" t="s">
+    </row>
+    <row r="374" s="10" customFormat="1" spans="1:3">
+      <c r="A374" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C375" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="376" s="9" customFormat="1" spans="1:3">
-      <c r="A376" s="9" t="s">
+      <c r="C374" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="375" s="10" customFormat="1" spans="1:3">
+      <c r="A375" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C376" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="377" s="9" customFormat="1" spans="1:3">
-      <c r="A377" s="9" t="s">
+      <c r="C375" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="376" s="10" customFormat="1" spans="1:3">
+      <c r="A376" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C377" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="378" s="9" customFormat="1" spans="1:3">
-      <c r="A378" s="9" t="s">
+      <c r="C376" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="377" s="10" customFormat="1" spans="1:3">
+      <c r="A377" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C378" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="379" s="9" customFormat="1" spans="1:3">
-      <c r="A379" s="9" t="s">
+      <c r="C377" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="378" s="10" customFormat="1" spans="1:3">
+      <c r="A378" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C379" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="380" s="9" customFormat="1" spans="1:3">
-      <c r="A380" s="9" t="s">
+      <c r="C378" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="379" s="10" customFormat="1" spans="1:3">
+      <c r="A379" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C380" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="381" s="9" customFormat="1" spans="1:3">
-      <c r="A381" s="9" t="s">
+      <c r="C379" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="380" s="10" customFormat="1" spans="1:3">
+      <c r="A380" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C381" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="382" s="9" customFormat="1" spans="1:3">
-      <c r="A382" s="9" t="s">
+      <c r="C380" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="381" s="10" customFormat="1" spans="1:3">
+      <c r="A381" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C382" s="9" t="s">
+      <c r="C381" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="382" s="10" customFormat="1" spans="1:3">
+      <c r="A382" s="10" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="383" s="9" customFormat="1" spans="1:3">
-      <c r="A383" s="9" t="s">
+      <c r="C382" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="383" s="10" customFormat="1" spans="1:3">
+      <c r="A383" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C383" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="384" s="9" customFormat="1" spans="1:3">
-      <c r="A384" s="9" t="s">
+      <c r="C383" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C384" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="385" s="9" customFormat="1" spans="1:3">
-      <c r="A385" s="9" t="s">
+    </row>
+    <row r="384" s="10" customFormat="1" spans="1:3">
+      <c r="A384" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C385" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="386" s="9" customFormat="1" spans="1:3">
-      <c r="A386" s="9" t="s">
+      <c r="C384" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="385" s="10" customFormat="1" spans="1:3">
+      <c r="A385" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C386" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="387" s="9" customFormat="1" spans="1:3">
-      <c r="A387" s="9" t="s">
+      <c r="C385" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="386" s="10" customFormat="1" spans="1:3">
+      <c r="A386" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C387" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="388" s="9" customFormat="1" spans="1:3">
-      <c r="A388" s="9" t="s">
+      <c r="C386" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="387" s="10" customFormat="1" spans="1:3">
+      <c r="A387" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C388" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="389" s="9" customFormat="1" spans="1:3">
-      <c r="A389" s="9" t="s">
+      <c r="C387" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="388" s="10" customFormat="1" spans="1:3">
+      <c r="A388" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C389" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="390" s="9" customFormat="1" spans="1:3">
-      <c r="A390" s="9" t="s">
+      <c r="C388" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="389" s="10" customFormat="1" spans="1:3">
+      <c r="A389" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C390" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="391" s="9" customFormat="1" spans="1:3">
-      <c r="A391" s="9" t="s">
+      <c r="C389" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="390" s="10" customFormat="1" spans="1:3">
+      <c r="A390" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C391" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="392" s="9" customFormat="1" spans="1:3">
-      <c r="A392" s="9" t="s">
+      <c r="C390" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="391" s="10" customFormat="1" spans="1:3">
+      <c r="A391" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C391" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="392" s="10" customFormat="1" spans="1:3">
+      <c r="A392" s="10" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="393" s="9" customFormat="1" spans="1:3">
-      <c r="A393" s="9" t="s">
+      <c r="C392" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="393" s="10" customFormat="1" spans="1:3">
+      <c r="A393" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C393" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="394" s="9" customFormat="1" spans="1:3">
-      <c r="A394" s="9" t="s">
+      <c r="C393" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C394" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="395" s="9" customFormat="1" spans="1:3">
-      <c r="A395" s="9" t="s">
+    </row>
+    <row r="394" s="10" customFormat="1" spans="1:3">
+      <c r="A394" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C395" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="396" s="9" customFormat="1" spans="1:3">
-      <c r="A396" s="9" t="s">
+      <c r="C394" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="395" s="10" customFormat="1" spans="1:3">
+      <c r="A395" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C396" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="397" s="9" customFormat="1" spans="1:3">
-      <c r="A397" s="9" t="s">
+      <c r="C395" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="396" s="10" customFormat="1" spans="1:3">
+      <c r="A396" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C397" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="398" s="9" customFormat="1" spans="1:3">
-      <c r="A398" s="9" t="s">
+      <c r="C396" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="397" s="10" customFormat="1" spans="1:3">
+      <c r="A397" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C398" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="399" s="9" customFormat="1" spans="1:3">
-      <c r="A399" s="9" t="s">
+      <c r="C397" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="398" s="10" customFormat="1" spans="1:3">
+      <c r="A398" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C399" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="400" s="9" customFormat="1" spans="1:3">
-      <c r="A400" s="9" t="s">
+      <c r="C398" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="399" s="10" customFormat="1" spans="1:3">
+      <c r="A399" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C400" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="401" s="9" customFormat="1" spans="1:3">
-      <c r="A401" s="9" t="s">
+      <c r="C399" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="400" s="10" customFormat="1" spans="1:3">
+      <c r="A400" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C401" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="402" s="9" customFormat="1" spans="1:3">
-      <c r="A402" s="9" t="s">
+      <c r="C400" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="401" s="10" customFormat="1" spans="1:3">
+      <c r="A401" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C402" s="9" t="s">
+      <c r="C401" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="402" s="10" customFormat="1" spans="1:3">
+      <c r="A402" s="10" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="403" s="9" customFormat="1" spans="1:3">
-      <c r="A403" s="9" t="s">
+      <c r="C402" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="403" s="10" customFormat="1" spans="1:3">
+      <c r="A403" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C403" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="404" s="9" customFormat="1" spans="1:3">
-      <c r="A404" s="9" t="s">
+      <c r="C403" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C404" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="405" s="9" customFormat="1" spans="1:3">
-      <c r="A405" s="9" t="s">
+    </row>
+    <row r="404" s="10" customFormat="1" spans="1:3">
+      <c r="A404" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C405" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="406" s="9" customFormat="1" spans="1:3">
-      <c r="A406" s="9" t="s">
+      <c r="C404" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="405" s="10" customFormat="1" spans="1:3">
+      <c r="A405" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C406" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="407" s="9" customFormat="1" spans="1:3">
-      <c r="A407" s="9" t="s">
+      <c r="C405" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="406" s="10" customFormat="1" spans="1:3">
+      <c r="A406" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C407" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="408" s="9" customFormat="1" spans="1:3">
-      <c r="A408" s="9" t="s">
+      <c r="C406" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="407" s="10" customFormat="1" spans="1:3">
+      <c r="A407" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C408" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="409" s="9" customFormat="1" spans="1:3">
-      <c r="A409" s="9" t="s">
+      <c r="C407" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="408" s="10" customFormat="1" spans="1:3">
+      <c r="A408" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C409" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="410" s="9" customFormat="1" spans="1:3">
-      <c r="A410" s="9" t="s">
+      <c r="C408" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="409" s="10" customFormat="1" spans="1:3">
+      <c r="A409" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C410" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="411" s="9" customFormat="1" spans="1:3">
-      <c r="A411" s="9" t="s">
+      <c r="C409" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="410" s="10" customFormat="1" spans="1:3">
+      <c r="A410" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C411" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="412" s="9" customFormat="1" spans="1:3">
-      <c r="A412" s="9" t="s">
+      <c r="C410" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="411" s="10" customFormat="1" spans="1:3">
+      <c r="A411" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C412" s="9" t="s">
+      <c r="C411" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="412" s="10" customFormat="1" spans="1:3">
+      <c r="A412" s="10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="413" s="9" customFormat="1" spans="1:3">
-      <c r="A413" s="9" t="s">
+      <c r="C412" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="413" s="10" customFormat="1" spans="1:3">
+      <c r="A413" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C413" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="414" s="9" customFormat="1" spans="1:3">
-      <c r="A414" s="9" t="s">
+      <c r="C413" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C414" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="415" s="9" customFormat="1" spans="1:3">
-      <c r="A415" s="9" t="s">
+    </row>
+    <row r="414" s="10" customFormat="1" spans="1:3">
+      <c r="A414" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C415" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="416" s="9" customFormat="1" spans="1:3">
-      <c r="A416" s="9" t="s">
+      <c r="C414" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="415" s="10" customFormat="1" spans="1:3">
+      <c r="A415" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C416" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="417" s="9" customFormat="1" spans="1:3">
-      <c r="A417" s="9" t="s">
+      <c r="C415" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="416" s="10" customFormat="1" spans="1:3">
+      <c r="A416" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C417" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="418" s="9" customFormat="1" spans="1:3">
-      <c r="A418" s="9" t="s">
+      <c r="C416" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="417" s="10" customFormat="1" spans="1:3">
+      <c r="A417" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C418" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="419" s="9" customFormat="1" spans="1:3">
-      <c r="A419" s="9" t="s">
+      <c r="C417" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="418" s="10" customFormat="1" spans="1:3">
+      <c r="A418" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C419" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="420" s="9" customFormat="1" spans="1:3">
-      <c r="A420" s="9" t="s">
+      <c r="C418" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="419" s="10" customFormat="1" spans="1:3">
+      <c r="A419" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C420" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="421" s="9" customFormat="1" spans="1:3">
-      <c r="A421" s="9" t="s">
+      <c r="C419" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="420" s="10" customFormat="1" spans="1:3">
+      <c r="A420" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C421" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="422" s="9" customFormat="1" spans="1:3">
-      <c r="A422" s="9" t="s">
+      <c r="C420" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="421" s="10" customFormat="1" spans="1:3">
+      <c r="A421" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C421" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="422" s="10" customFormat="1" spans="1:3">
+      <c r="A422" s="10" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="423" s="9" customFormat="1" spans="1:3">
-      <c r="A423" s="9" t="s">
+      <c r="C422" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="423" s="10" customFormat="1" spans="1:3">
+      <c r="A423" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C423" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="424" s="9" customFormat="1" spans="1:3">
-      <c r="A424" s="9" t="s">
+      <c r="C423" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C424" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="425" s="9" customFormat="1" spans="1:3">
-      <c r="A425" s="9" t="s">
+    </row>
+    <row r="424" s="10" customFormat="1" spans="1:3">
+      <c r="A424" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C425" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="426" s="9" customFormat="1" spans="1:3">
-      <c r="A426" s="9" t="s">
+      <c r="C424" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="425" s="10" customFormat="1" spans="1:3">
+      <c r="A425" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C426" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="427" s="9" customFormat="1" spans="1:3">
-      <c r="A427" s="9" t="s">
+      <c r="C425" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="426" s="10" customFormat="1" spans="1:3">
+      <c r="A426" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C427" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="428" s="9" customFormat="1" spans="1:3">
-      <c r="A428" s="9" t="s">
+      <c r="C426" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="427" s="10" customFormat="1" spans="1:3">
+      <c r="A427" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C428" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="429" s="9" customFormat="1" spans="1:3">
-      <c r="A429" s="9" t="s">
+      <c r="C427" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="428" s="10" customFormat="1" spans="1:3">
+      <c r="A428" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C429" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="430" s="9" customFormat="1" spans="1:3">
-      <c r="A430" s="9" t="s">
+      <c r="C428" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="429" s="10" customFormat="1" spans="1:3">
+      <c r="A429" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C430" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="431" s="9" customFormat="1" spans="1:3">
-      <c r="A431" s="9" t="s">
+      <c r="C429" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="430" s="10" customFormat="1" spans="1:3">
+      <c r="A430" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C431" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="432" s="9" customFormat="1" spans="1:3">
-      <c r="A432" s="9" t="s">
+      <c r="C430" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="431" s="10" customFormat="1" spans="1:3">
+      <c r="A431" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C432" s="9" t="s">
+      <c r="C431" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="432" s="10" customFormat="1" spans="1:3">
+      <c r="A432" s="10" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="433" s="9" customFormat="1" spans="1:3">
-      <c r="A433" s="9" t="s">
+      <c r="C432" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="433" s="10" customFormat="1" spans="1:3">
+      <c r="A433" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C433" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="434" s="9" customFormat="1" spans="1:3">
-      <c r="A434" s="9" t="s">
+      <c r="C433" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C434" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="435" s="9" customFormat="1" spans="1:3">
-      <c r="A435" s="9" t="s">
+    </row>
+    <row r="434" s="10" customFormat="1" spans="1:3">
+      <c r="A434" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C435" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="436" s="9" customFormat="1" spans="1:3">
-      <c r="A436" s="9" t="s">
+      <c r="C434" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="435" s="10" customFormat="1" spans="1:3">
+      <c r="A435" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C436" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="437" s="9" customFormat="1" spans="1:3">
-      <c r="A437" s="9" t="s">
+      <c r="C435" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="436" s="10" customFormat="1" spans="1:3">
+      <c r="A436" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C437" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="438" s="9" customFormat="1" spans="1:3">
-      <c r="A438" s="9" t="s">
+      <c r="C436" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="437" s="10" customFormat="1" spans="1:3">
+      <c r="A437" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C438" s="9" t="s">
+      <c r="C437" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="438" s="10" customFormat="1" spans="1:3">
+      <c r="A438" s="10" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="439" s="9" customFormat="1" spans="1:3">
-      <c r="A439" s="9" t="s">
+      <c r="C438" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="439" s="10" customFormat="1" spans="1:3">
+      <c r="A439" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C439" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="440" s="9" customFormat="1" spans="1:3">
-      <c r="A440" s="9" t="s">
+      <c r="C439" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C440" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="441" s="9" customFormat="1" spans="1:3">
-      <c r="A441" s="9" t="s">
+    </row>
+    <row r="440" s="10" customFormat="1" spans="1:3">
+      <c r="A440" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C441" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="442" s="9" customFormat="1" spans="1:3">
-      <c r="A442" s="9" t="s">
+      <c r="C440" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="441" s="10" customFormat="1" spans="1:3">
+      <c r="A441" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C442" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="443" s="9" customFormat="1" spans="1:3">
-      <c r="A443" s="9" t="s">
+      <c r="C441" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="442" s="10" customFormat="1" spans="1:3">
+      <c r="A442" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C443" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="444" s="9" customFormat="1" spans="1:3">
-      <c r="A444" s="9" t="s">
+      <c r="C442" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="443" s="10" customFormat="1" spans="1:3">
+      <c r="A443" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C444" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="445" s="9" customFormat="1" spans="1:3">
-      <c r="A445" s="9" t="s">
+      <c r="C443" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="444" s="10" customFormat="1" spans="1:3">
+      <c r="A444" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C445" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="446" s="9" customFormat="1" spans="1:3">
-      <c r="A446" s="9" t="s">
+      <c r="C444" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="445" s="10" customFormat="1" spans="1:3">
+      <c r="A445" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C446" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="447" s="9" customFormat="1" spans="1:3">
-      <c r="A447" s="9" t="s">
+      <c r="C445" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="446" s="10" customFormat="1" spans="1:3">
+      <c r="A446" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C447" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="448" s="9" customFormat="1" spans="1:3">
-      <c r="A448" s="9" t="s">
+      <c r="C446" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="447" s="10" customFormat="1" spans="1:3">
+      <c r="A447" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C448" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="449" s="9" customFormat="1" spans="1:3">
-      <c r="A449" s="9" t="s">
+      <c r="C447" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="448" s="10" customFormat="1" spans="1:3">
+      <c r="A448" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C449" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="450" s="9" customFormat="1" spans="1:3">
-      <c r="A450" s="9" t="s">
+      <c r="C448" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="449" s="10" customFormat="1" spans="1:3">
+      <c r="A449" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C450" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="451" s="9" customFormat="1" spans="1:3">
-      <c r="A451" s="9" t="s">
+      <c r="C449" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="450" s="10" customFormat="1" spans="1:3">
+      <c r="A450" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C451" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="452" s="9" customFormat="1" spans="1:3">
-      <c r="A452" s="9" t="s">
+      <c r="C450" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="451" s="10" customFormat="1" spans="1:3">
+      <c r="A451" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="C452" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="453" s="9" customFormat="1" spans="1:3">
-      <c r="A453" s="9" t="s">
+      <c r="C451" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="452" s="10" customFormat="1" spans="1:3">
+      <c r="A452" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C453" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="454" s="9" customFormat="1" spans="1:3">
-      <c r="A454" s="9" t="s">
+      <c r="C452" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="453" s="10" customFormat="1" spans="1:3">
+      <c r="A453" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C454" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="455" s="9" customFormat="1" spans="1:3">
-      <c r="A455" s="9" t="s">
+      <c r="C453" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="454" s="10" customFormat="1" spans="1:3">
+      <c r="A454" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C455" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="456" s="9" customFormat="1" spans="1:3">
-      <c r="A456" s="9" t="s">
+      <c r="C454" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="455" s="10" customFormat="1" spans="1:3">
+      <c r="A455" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="C456" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="457" s="9" customFormat="1" spans="1:3">
-      <c r="A457" s="9" t="s">
+      <c r="C455" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="456" s="10" customFormat="1" spans="1:3">
+      <c r="A456" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C457" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="458" s="9" customFormat="1" spans="1:3">
-      <c r="A458" s="9" t="s">
+      <c r="C456" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="457" s="10" customFormat="1" spans="1:3">
+      <c r="A457" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C458" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="459" s="9" customFormat="1" spans="1:3">
-      <c r="A459" s="9" t="s">
+      <c r="C457" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="458" s="10" customFormat="1" spans="1:3">
+      <c r="A458" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C459" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="460" s="9" customFormat="1" spans="1:3">
-      <c r="A460" s="9" t="s">
+      <c r="C458" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="459" s="10" customFormat="1" spans="1:3">
+      <c r="A459" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C460" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="461" s="9" customFormat="1" spans="1:3">
-      <c r="A461" s="9" t="s">
+      <c r="C459" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="460" s="10" customFormat="1" spans="1:3">
+      <c r="A460" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="C461" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="462" s="9" customFormat="1" spans="1:3">
-      <c r="A462" s="9" t="s">
+      <c r="C460" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="461" s="10" customFormat="1" spans="1:3">
+      <c r="A461" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C462" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="463" s="9" customFormat="1" spans="1:3">
-      <c r="A463" s="9" t="s">
+      <c r="C461" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="462" s="10" customFormat="1" spans="1:3">
+      <c r="A462" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C463" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="464" s="9" customFormat="1" spans="1:3">
-      <c r="A464" s="9" t="s">
+      <c r="C462" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="463" s="10" customFormat="1" spans="1:3">
+      <c r="A463" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C464" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="465" s="9" customFormat="1" spans="1:3">
-      <c r="A465" s="9" t="s">
+      <c r="C463" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="464" s="10" customFormat="1" spans="1:3">
+      <c r="A464" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C465" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="466" s="9" customFormat="1" spans="1:3">
-      <c r="A466" s="9" t="s">
+      <c r="C464" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="465" s="10" customFormat="1" spans="1:3">
+      <c r="A465" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C466" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="467" s="9" customFormat="1" spans="1:3">
-      <c r="A467" s="9" t="s">
+      <c r="C465" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="466" s="10" customFormat="1" spans="1:3">
+      <c r="A466" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C467" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="468" s="9" customFormat="1" spans="1:3">
-      <c r="A468" s="9" t="s">
+      <c r="C466" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="467" s="10" customFormat="1" spans="1:3">
+      <c r="A467" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C468" s="9" t="s">
+      <c r="C467" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="468" s="10" customFormat="1" spans="1:3">
+      <c r="A468" s="10" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="469" s="9" customFormat="1" spans="1:3">
-      <c r="A469" s="9" t="s">
+      <c r="C468" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="469" s="10" customFormat="1" spans="1:3">
+      <c r="A469" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C469" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="470" s="9" customFormat="1" spans="1:3">
-      <c r="A470" s="9" t="s">
+      <c r="C469" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="C470" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="471" s="9" customFormat="1" spans="1:3">
-      <c r="A471" s="9" t="s">
+    </row>
+    <row r="470" s="10" customFormat="1" spans="1:3">
+      <c r="A470" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C471" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="472" s="9" customFormat="1" spans="1:3">
-      <c r="A472" s="9" t="s">
+      <c r="C470" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="471" s="10" customFormat="1" spans="1:3">
+      <c r="A471" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C472" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="473" s="9" customFormat="1" spans="1:3">
-      <c r="A473" s="9" t="s">
+      <c r="C471" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="472" s="10" customFormat="1" spans="1:3">
+      <c r="A472" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C473" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="474" s="9" customFormat="1" spans="1:3">
-      <c r="A474" s="9" t="s">
+      <c r="C472" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="473" s="10" customFormat="1" spans="1:3">
+      <c r="A473" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="C474" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="475" s="9" customFormat="1" spans="1:3">
-      <c r="A475" s="9" t="s">
+      <c r="C473" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="474" s="10" customFormat="1" spans="1:3">
+      <c r="A474" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C475" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="476" s="9" customFormat="1" spans="1:3">
-      <c r="A476" s="9" t="s">
+      <c r="C474" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="475" s="10" customFormat="1" spans="1:3">
+      <c r="A475" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C476" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="477" s="9" customFormat="1" spans="1:3">
-      <c r="A477" s="9" t="s">
+      <c r="C475" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="476" s="10" customFormat="1" spans="1:3">
+      <c r="A476" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C477" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="478" s="9" customFormat="1" spans="1:3">
-      <c r="A478" s="9" t="s">
+      <c r="C476" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="477" s="10" customFormat="1" spans="1:3">
+      <c r="A477" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C478" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="479" s="9" customFormat="1" spans="1:3">
-      <c r="A479" s="9" t="s">
+      <c r="C477" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="478" s="10" customFormat="1" spans="1:3">
+      <c r="A478" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C479" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="480" s="9" customFormat="1" spans="1:3">
-      <c r="A480" s="9" t="s">
+      <c r="C478" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="479" s="10" customFormat="1" spans="1:3">
+      <c r="A479" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C480" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="481" s="9" customFormat="1" spans="1:3">
-      <c r="A481" s="9" t="s">
+      <c r="C479" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="480" s="10" customFormat="1" spans="1:3">
+      <c r="A480" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C481" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="482" s="9" customFormat="1" spans="1:3">
-      <c r="A482" s="9" t="s">
+      <c r="C480" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="481" s="10" customFormat="1" spans="1:3">
+      <c r="A481" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C482" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="483" s="9" customFormat="1" spans="1:3">
-      <c r="A483" s="9" t="s">
+      <c r="C481" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="482" s="10" customFormat="1" spans="1:3">
+      <c r="A482" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C483" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="484" s="9" customFormat="1" spans="1:3">
-      <c r="A484" s="9" t="s">
+      <c r="C482" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="483" s="10" customFormat="1" spans="1:3">
+      <c r="A483" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C484" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="485" s="9" customFormat="1" spans="1:3">
-      <c r="A485" s="9" t="s">
+      <c r="C483" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="484" s="10" customFormat="1" spans="1:3">
+      <c r="A484" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="486" s="9" customFormat="1" spans="1:3">
-      <c r="A486" s="9" t="s">
+      <c r="C484" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="485" s="10" customFormat="1" spans="1:3">
+      <c r="A485" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C486" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="487" s="9" customFormat="1" spans="1:3">
-      <c r="A487" s="9" t="s">
+      <c r="C485" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="486" s="10" customFormat="1" spans="1:3">
+      <c r="A486" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C487" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="488" s="9" customFormat="1" spans="1:3">
-      <c r="A488" s="9" t="s">
+      <c r="C486" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="487" s="10" customFormat="1" spans="1:3">
+      <c r="A487" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="C488" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="489" s="9" customFormat="1" spans="1:3">
-      <c r="A489" s="9" t="s">
+      <c r="C487" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="488" s="10" customFormat="1" spans="1:3">
+      <c r="A488" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C489" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="490" s="9" customFormat="1" spans="1:3">
-      <c r="A490" s="9" t="s">
+      <c r="C488" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="489" s="10" customFormat="1" spans="1:3">
+      <c r="A489" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C490" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="491" s="9" customFormat="1" spans="1:3">
-      <c r="A491" s="9" t="s">
+      <c r="C489" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="490" s="10" customFormat="1" spans="1:3">
+      <c r="A490" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C491" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="492" s="9" customFormat="1" spans="1:3">
-      <c r="A492" s="9" t="s">
+      <c r="C490" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="491" s="10" customFormat="1" spans="1:3">
+      <c r="A491" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C492" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="493" s="9" customFormat="1" spans="1:3">
-      <c r="A493" s="9" t="s">
+      <c r="C491" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="492" s="10" customFormat="1" spans="1:3">
+      <c r="A492" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C493" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="494" s="9" customFormat="1" spans="1:3">
-      <c r="A494" s="9" t="s">
+      <c r="C492" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="493" s="10" customFormat="1" spans="1:3">
+      <c r="A493" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="C494" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="495" s="9" customFormat="1" spans="1:3">
-      <c r="A495" s="9" t="s">
+      <c r="C493" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="494" s="10" customFormat="1" spans="1:3">
+      <c r="A494" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C495" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="496" s="9" customFormat="1" spans="1:3">
-      <c r="A496" s="9" t="s">
+      <c r="C494" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="495" s="10" customFormat="1" spans="1:3">
+      <c r="A495" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C496" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="497" s="9" customFormat="1" spans="1:3">
-      <c r="A497" s="9" t="s">
+      <c r="C495" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="496" s="10" customFormat="1" spans="1:3">
+      <c r="A496" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C497" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="498" s="9" customFormat="1" spans="1:3">
-      <c r="A498" s="9" t="s">
+      <c r="C496" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="497" s="10" customFormat="1" spans="1:3">
+      <c r="A497" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C497" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="498" s="10" customFormat="1" spans="1:3">
+      <c r="A498" s="10" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="499" s="9" customFormat="1" spans="1:3">
-      <c r="A499" s="9" t="s">
+      <c r="C498" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="499" s="10" customFormat="1" spans="1:3">
+      <c r="A499" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C499" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="500" s="9" customFormat="1" spans="1:3">
-      <c r="A500" s="9" t="s">
+      <c r="C499" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="C500" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="501" s="9" customFormat="1" spans="1:3">
-      <c r="A501" s="9" t="s">
+    </row>
+    <row r="500" s="10" customFormat="1" spans="1:3">
+      <c r="A500" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="C501" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="502" s="9" customFormat="1" spans="1:3">
-      <c r="A502" s="9" t="s">
+      <c r="C500" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="501" s="10" customFormat="1" spans="1:3">
+      <c r="A501" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C502" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="503" s="9" customFormat="1" spans="1:3">
-      <c r="A503" s="9" t="s">
+      <c r="C501" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="502" s="10" customFormat="1" spans="1:3">
+      <c r="A502" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C503" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="504" s="9" customFormat="1" spans="1:3">
-      <c r="A504" s="9" t="s">
+      <c r="C502" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="503" s="10" customFormat="1" spans="1:3">
+      <c r="A503" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C504" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="505" s="9" customFormat="1" spans="1:3">
-      <c r="A505" s="9" t="s">
+      <c r="C503" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="504" s="10" customFormat="1" spans="1:3">
+      <c r="A504" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C505" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="506" s="9" customFormat="1" spans="1:3">
-      <c r="A506" s="9" t="s">
+      <c r="C504" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="505" s="10" customFormat="1" spans="1:3">
+      <c r="A505" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C506" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="507" s="9" customFormat="1" spans="1:3">
-      <c r="A507" s="9" t="s">
+      <c r="C505" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="506" s="10" customFormat="1" spans="1:3">
+      <c r="A506" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C507" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="508" s="9" customFormat="1" spans="1:3">
-      <c r="A508" s="9" t="s">
+      <c r="C506" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="507" s="10" customFormat="1" spans="1:3">
+      <c r="A507" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C508" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="509" s="9" customFormat="1" spans="1:3">
-      <c r="A509" s="9" t="s">
+      <c r="C507" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="508" s="10" customFormat="1" spans="1:3">
+      <c r="A508" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="C509" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="510" s="9" customFormat="1" spans="1:3">
-      <c r="A510" s="9" t="s">
+      <c r="C508" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="509" s="10" customFormat="1" spans="1:3">
+      <c r="A509" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C510" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="511" s="9" customFormat="1" spans="1:3">
-      <c r="A511" s="9" t="s">
+      <c r="C509" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="510" s="10" customFormat="1" spans="1:3">
+      <c r="A510" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="C511" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="512" s="9" customFormat="1" spans="1:3">
-      <c r="A512" s="9" t="s">
+      <c r="C510" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="511" s="10" customFormat="1" spans="1:3">
+      <c r="A511" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C512" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="513" s="9" customFormat="1" spans="1:3">
-      <c r="A513" s="9" t="s">
+      <c r="C511" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="512" s="10" customFormat="1" spans="1:3">
+      <c r="A512" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="C513" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="514" s="9" customFormat="1" spans="1:3">
-      <c r="A514" s="9" t="s">
+      <c r="C512" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="513" s="10" customFormat="1" spans="1:3">
+      <c r="A513" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C514" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="515" s="9" customFormat="1" spans="1:3">
-      <c r="A515" s="9" t="s">
+      <c r="C513" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="514" s="10" customFormat="1" spans="1:3">
+      <c r="A514" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="C515" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="516" s="9" customFormat="1" spans="1:3">
-      <c r="A516" s="9" t="s">
+      <c r="C514" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="515" s="10" customFormat="1" spans="1:3">
+      <c r="A515" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C516" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="517" s="9" customFormat="1" spans="1:3">
-      <c r="A517" s="9" t="s">
+      <c r="C515" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="516" s="10" customFormat="1" spans="1:3">
+      <c r="A516" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C517" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="518" s="9" customFormat="1" spans="1:3">
-      <c r="A518" s="9" t="s">
+      <c r="C516" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="517" s="10" customFormat="1" spans="1:3">
+      <c r="A517" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C518" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="519" s="9" customFormat="1" spans="1:3">
-      <c r="A519" s="9" t="s">
+      <c r="C517" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="518" s="10" customFormat="1" spans="1:3">
+      <c r="A518" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="C519" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="520" s="9" customFormat="1" spans="1:3">
-      <c r="A520" s="9" t="s">
+      <c r="C518" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="519" s="10" customFormat="1" spans="1:3">
+      <c r="A519" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C520" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="521" s="9" customFormat="1" spans="1:3">
-      <c r="A521" s="9" t="s">
+      <c r="C519" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="520" s="10" customFormat="1" spans="1:3">
+      <c r="A520" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="C521" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="522" s="9" customFormat="1" spans="1:3">
-      <c r="A522" s="9" t="s">
+      <c r="C520" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="521" s="10" customFormat="1" spans="1:3">
+      <c r="A521" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C522" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="523" s="9" customFormat="1" spans="1:3">
-      <c r="A523" s="9" t="s">
+      <c r="C521" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="522" s="10" customFormat="1" spans="1:3">
+      <c r="A522" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C523" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="524" s="9" customFormat="1" spans="1:3">
-      <c r="A524" s="9" t="s">
+      <c r="C522" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="523" s="10" customFormat="1" spans="1:3">
+      <c r="A523" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C524" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="525" s="9" customFormat="1" spans="1:3">
-      <c r="A525" s="9" t="s">
+      <c r="C523" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="524" s="10" customFormat="1" spans="1:3">
+      <c r="A524" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="C525" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="526" s="9" customFormat="1" spans="1:3">
-      <c r="A526" s="9" t="s">
+      <c r="C524" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="525" s="10" customFormat="1" spans="1:3">
+      <c r="A525" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C526" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="527" s="9" customFormat="1" spans="1:3">
-      <c r="A527" s="9" t="s">
+      <c r="C525" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="526" s="10" customFormat="1" spans="1:3">
+      <c r="A526" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C527" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="528" s="9" customFormat="1" spans="1:3">
-      <c r="A528" s="9" t="s">
+      <c r="C526" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="527" s="10" customFormat="1" spans="1:3">
+      <c r="A527" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C527" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="528" s="10" customFormat="1" spans="1:3">
+      <c r="A528" s="10" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="529" s="9" customFormat="1" spans="1:3">
-      <c r="A529" s="9" t="s">
+      <c r="C528" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="529" s="10" customFormat="1" spans="1:3">
+      <c r="A529" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C529" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="530" s="9" customFormat="1" spans="1:3">
-      <c r="A530" s="9" t="s">
+      <c r="C529" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C530" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="531" s="9" customFormat="1" spans="1:3">
-      <c r="A531" s="9" t="s">
+    </row>
+    <row r="530" s="10" customFormat="1" spans="1:3">
+      <c r="A530" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C531" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="532" s="9" customFormat="1" spans="1:3">
-      <c r="A532" s="9" t="s">
+      <c r="C530" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="531" s="10" customFormat="1" spans="1:3">
+      <c r="A531" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="C532" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="533" s="9" customFormat="1" spans="1:3">
-      <c r="A533" s="9" t="s">
+      <c r="C531" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="532" s="10" customFormat="1" spans="1:3">
+      <c r="A532" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C533" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="534" s="9" customFormat="1" spans="1:3">
-      <c r="A534" s="9" t="s">
+      <c r="C532" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="533" s="10" customFormat="1" spans="1:3">
+      <c r="A533" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="C534" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="535" s="9" customFormat="1" spans="1:3">
-      <c r="A535" s="9" t="s">
+      <c r="C533" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="534" s="10" customFormat="1" spans="1:3">
+      <c r="A534" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C535" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="536" s="9" customFormat="1" spans="1:3">
-      <c r="A536" s="9" t="s">
+      <c r="C534" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="535" s="10" customFormat="1" spans="1:3">
+      <c r="A535" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C536" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="537" s="9" customFormat="1" spans="1:3">
-      <c r="A537" s="9" t="s">
+      <c r="C535" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="536" s="10" customFormat="1" spans="1:3">
+      <c r="A536" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C537" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="538" s="9" customFormat="1" spans="1:3">
-      <c r="A538" s="9" t="s">
+      <c r="C536" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="537" s="10" customFormat="1" spans="1:3">
+      <c r="A537" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C538" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="539" s="9" customFormat="1" spans="1:3">
-      <c r="A539" s="9" t="s">
+      <c r="C537" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="538" s="10" customFormat="1" spans="1:3">
+      <c r="A538" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C539" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="540" s="9" customFormat="1" spans="1:3">
-      <c r="A540" s="9" t="s">
+      <c r="C538" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="539" s="10" customFormat="1" spans="1:3">
+      <c r="A539" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C540" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="541" s="9" customFormat="1" spans="1:3">
-      <c r="A541" s="9" t="s">
+      <c r="C539" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="540" s="10" customFormat="1" spans="1:3">
+      <c r="A540" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C541" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="542" s="9" customFormat="1" spans="1:3">
-      <c r="A542" s="9" t="s">
+      <c r="C540" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="541" s="10" customFormat="1" spans="1:3">
+      <c r="A541" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C542" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="543" s="9" customFormat="1" spans="1:3">
-      <c r="A543" s="9" t="s">
+      <c r="C541" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="542" s="10" customFormat="1" spans="1:3">
+      <c r="A542" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C543" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="544" s="9" customFormat="1" spans="1:3">
-      <c r="A544" s="9" t="s">
+      <c r="C542" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="543" s="10" customFormat="1" spans="1:3">
+      <c r="A543" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C544" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="545" s="9" customFormat="1" spans="1:3">
-      <c r="A545" s="9" t="s">
+      <c r="C543" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="544" s="10" customFormat="1" spans="1:3">
+      <c r="A544" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C545" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="546" s="9" customFormat="1" spans="1:3">
-      <c r="A546" s="9" t="s">
+      <c r="C544" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="545" s="10" customFormat="1" spans="1:3">
+      <c r="A545" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="C546" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="547" s="9" customFormat="1" spans="1:3">
-      <c r="A547" s="9" t="s">
+      <c r="C545" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="546" s="10" customFormat="1" spans="1:3">
+      <c r="A546" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C547" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="548" s="9" customFormat="1" spans="1:3">
-      <c r="A548" s="9" t="s">
+      <c r="C546" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="547" s="10" customFormat="1" spans="1:3">
+      <c r="A547" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="C548" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="549" s="9" customFormat="1" spans="1:3">
-      <c r="A549" s="9" t="s">
+      <c r="C547" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="548" s="10" customFormat="1" spans="1:3">
+      <c r="A548" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C549" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="550" s="9" customFormat="1" spans="1:3">
-      <c r="A550" s="9" t="s">
+      <c r="C548" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="549" s="10" customFormat="1" spans="1:3">
+      <c r="A549" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C550" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="551" s="9" customFormat="1" spans="1:3">
-      <c r="A551" s="9" t="s">
+      <c r="C549" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="550" s="10" customFormat="1" spans="1:3">
+      <c r="A550" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C551" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="552" s="9" customFormat="1" spans="1:3">
-      <c r="A552" s="9" t="s">
+      <c r="C550" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="551" s="10" customFormat="1" spans="1:3">
+      <c r="A551" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C552" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="553" s="9" customFormat="1" spans="1:3">
-      <c r="A553" s="9" t="s">
+      <c r="C551" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="552" s="10" customFormat="1" spans="1:3">
+      <c r="A552" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C553" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="554" s="9" customFormat="1" spans="1:3">
-      <c r="A554" s="9" t="s">
+      <c r="C552" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="553" s="10" customFormat="1" spans="1:3">
+      <c r="A553" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="C554" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="555" s="9" customFormat="1" spans="1:3">
-      <c r="A555" s="9" t="s">
+      <c r="C553" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="554" s="10" customFormat="1" spans="1:3">
+      <c r="A554" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C555" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="556" s="9" customFormat="1" spans="1:3">
-      <c r="A556" s="9" t="s">
+      <c r="C554" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="555" s="10" customFormat="1" spans="1:3">
+      <c r="A555" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C556" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="557" s="9" customFormat="1" spans="1:3">
-      <c r="A557" s="9" t="s">
+      <c r="C555" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="556" s="10" customFormat="1" spans="1:3">
+      <c r="A556" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C557" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="558" s="9" customFormat="1" spans="1:3">
-      <c r="A558" s="9" t="s">
+      <c r="C556" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="557" s="10" customFormat="1" spans="1:3">
+      <c r="A557" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C557" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="558" s="10" customFormat="1" spans="1:3">
+      <c r="A558" s="10" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="559" s="9" customFormat="1" spans="1:3">
-      <c r="A559" s="9" t="s">
+      <c r="C558" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="559" s="10" customFormat="1" spans="1:3">
+      <c r="A559" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="C559" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="560" s="9" customFormat="1" spans="1:3">
-      <c r="A560" s="9" t="s">
+      <c r="C559" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C560" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="561" s="9" customFormat="1" spans="1:3">
-      <c r="A561" s="9" t="s">
+    </row>
+    <row r="560" s="10" customFormat="1" spans="1:3">
+      <c r="A560" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C561" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="562" s="9" customFormat="1" spans="1:3">
-      <c r="A562" s="9" t="s">
+      <c r="C560" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="561" s="10" customFormat="1" spans="1:3">
+      <c r="A561" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C562" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="563" s="9" customFormat="1" spans="1:3">
-      <c r="A563" s="9" t="s">
+      <c r="C561" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="562" s="10" customFormat="1" spans="1:3">
+      <c r="A562" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C563" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="564" s="9" customFormat="1" spans="1:3">
-      <c r="A564" s="9" t="s">
+      <c r="C562" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="563" s="10" customFormat="1" spans="1:3">
+      <c r="A563" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C564" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="565" s="9" customFormat="1" spans="1:3">
-      <c r="A565" s="9" t="s">
+      <c r="C563" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="564" s="10" customFormat="1" spans="1:3">
+      <c r="A564" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C565" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="566" s="9" customFormat="1" spans="1:3">
-      <c r="A566" s="9" t="s">
+      <c r="C564" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="565" s="10" customFormat="1" spans="1:3">
+      <c r="A565" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C566" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="567" s="9" customFormat="1" spans="1:3">
-      <c r="A567" s="9" t="s">
+      <c r="C565" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="566" s="10" customFormat="1" spans="1:3">
+      <c r="A566" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C567" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="568" s="9" customFormat="1" spans="1:3">
-      <c r="A568" s="9" t="s">
+      <c r="C566" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="567" s="10" customFormat="1" spans="1:3">
+      <c r="A567" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C568" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="569" s="9" customFormat="1" spans="1:3">
-      <c r="A569" s="9" t="s">
+      <c r="C567" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="568" s="10" customFormat="1" spans="1:3">
+      <c r="A568" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C569" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="570" s="9" customFormat="1" spans="1:3">
-      <c r="A570" s="9" t="s">
+      <c r="C568" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="569" s="10" customFormat="1" spans="1:3">
+      <c r="A569" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C570" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="571" s="9" customFormat="1" spans="1:3">
-      <c r="A571" s="9" t="s">
+      <c r="C569" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="570" s="10" customFormat="1" spans="1:3">
+      <c r="A570" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="C571" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="572" s="9" customFormat="1" spans="1:3">
-      <c r="A572" s="9" t="s">
+      <c r="C570" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="571" s="10" customFormat="1" spans="1:3">
+      <c r="A571" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="C572" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="573" s="9" customFormat="1" spans="1:3">
-      <c r="A573" s="9" t="s">
+      <c r="C571" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="572" s="10" customFormat="1" spans="1:3">
+      <c r="A572" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C573" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="574" s="9" customFormat="1" spans="1:3">
-      <c r="A574" s="9" t="s">
+      <c r="C572" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="573" s="10" customFormat="1" spans="1:3">
+      <c r="A573" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C574" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="575" s="9" customFormat="1" spans="1:3">
-      <c r="A575" s="9" t="s">
+      <c r="C573" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="574" s="10" customFormat="1" spans="1:3">
+      <c r="A574" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C575" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="576" s="9" customFormat="1" spans="1:3">
-      <c r="A576" s="9" t="s">
+      <c r="C574" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="575" s="10" customFormat="1" spans="1:3">
+      <c r="A575" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C576" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="577" s="9" customFormat="1" spans="1:3">
-      <c r="A577" s="9" t="s">
+      <c r="C575" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="576" s="10" customFormat="1" spans="1:3">
+      <c r="A576" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="C577" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="578" s="9" customFormat="1" spans="1:3">
-      <c r="A578" s="9" t="s">
+      <c r="C576" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="577" s="10" customFormat="1" spans="1:3">
+      <c r="A577" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C578" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="579" s="9" customFormat="1" spans="1:3">
-      <c r="A579" s="9" t="s">
+      <c r="C577" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="578" s="10" customFormat="1" spans="1:3">
+      <c r="A578" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="C579" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="580" s="9" customFormat="1" spans="1:3">
-      <c r="A580" s="9" t="s">
+      <c r="C578" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="579" s="10" customFormat="1" spans="1:3">
+      <c r="A579" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C580" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="581" s="9" customFormat="1" spans="1:3">
-      <c r="A581" s="9" t="s">
+      <c r="C579" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="580" s="10" customFormat="1" spans="1:3">
+      <c r="A580" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C581" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="582" s="9" customFormat="1" spans="1:3">
-      <c r="A582" s="9" t="s">
+      <c r="C580" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="581" s="10" customFormat="1" spans="1:3">
+      <c r="A581" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C582" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="583" s="9" customFormat="1" spans="1:3">
-      <c r="A583" s="9" t="s">
+      <c r="C581" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="582" s="10" customFormat="1" spans="1:3">
+      <c r="A582" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C583" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="584" s="9" customFormat="1" spans="1:3">
-      <c r="A584" s="9" t="s">
+      <c r="C582" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="583" s="10" customFormat="1" spans="1:3">
+      <c r="A583" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C584" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="585" s="9" customFormat="1" spans="1:3">
-      <c r="A585" s="9" t="s">
+      <c r="C583" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="584" s="10" customFormat="1" spans="1:3">
+      <c r="A584" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C585" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="586" s="9" customFormat="1" spans="1:3">
-      <c r="A586" s="9" t="s">
+      <c r="C584" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="585" s="10" customFormat="1" spans="1:3">
+      <c r="A585" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="C586" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="587" s="9" customFormat="1" spans="1:3">
-      <c r="A587" s="9" t="s">
+      <c r="C585" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="586" s="10" customFormat="1" spans="1:3">
+      <c r="A586" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C587" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="588" s="9" customFormat="1" spans="1:3">
-      <c r="A588" s="9" t="s">
+      <c r="C586" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="587" s="10" customFormat="1" spans="1:3">
+      <c r="A587" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C588" s="9" t="s">
+      <c r="C587" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="588" s="10" customFormat="1" spans="1:3">
+      <c r="A588" s="10" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="589" s="9" customFormat="1" spans="1:3">
-      <c r="A589" s="9" t="s">
+      <c r="C588" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="589" s="10" customFormat="1" spans="1:3">
+      <c r="A589" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C589" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="590" s="9" customFormat="1" spans="1:3">
-      <c r="A590" s="9" t="s">
+      <c r="C589" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C590" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="591" s="9" customFormat="1" spans="1:3">
-      <c r="A591" s="9" t="s">
+    </row>
+    <row r="590" s="10" customFormat="1" spans="1:3">
+      <c r="A590" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C591" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="592" s="9" customFormat="1" spans="1:3">
-      <c r="A592" s="9" t="s">
+      <c r="C590" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="591" s="10" customFormat="1" spans="1:3">
+      <c r="A591" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="C592" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="593" s="9" customFormat="1" spans="1:3">
-      <c r="A593" s="9" t="s">
+      <c r="C591" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="592" s="10" customFormat="1" spans="1:3">
+      <c r="A592" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C593" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="594" s="9" customFormat="1" spans="1:3">
-      <c r="A594" s="9" t="s">
+      <c r="C592" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="593" s="10" customFormat="1" spans="1:3">
+      <c r="A593" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="C594" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="595" s="9" customFormat="1" spans="1:3">
-      <c r="A595" s="9" t="s">
+      <c r="C593" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="594" s="10" customFormat="1" spans="1:3">
+      <c r="A594" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C595" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="596" s="9" customFormat="1" spans="1:3">
-      <c r="A596" s="9" t="s">
+      <c r="C594" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="595" s="10" customFormat="1" spans="1:3">
+      <c r="A595" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="C596" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="597" s="9" customFormat="1" spans="1:3">
-      <c r="A597" s="9" t="s">
+      <c r="C595" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="596" s="10" customFormat="1" spans="1:3">
+      <c r="A596" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="C597" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="598" s="9" customFormat="1" spans="1:3">
-      <c r="A598" s="9" t="s">
+      <c r="C596" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="597" s="10" customFormat="1" spans="1:3">
+      <c r="A597" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C598" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="599" s="9" customFormat="1" spans="1:3">
-      <c r="A599" s="9" t="s">
+      <c r="C597" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="598" s="10" customFormat="1" spans="1:3">
+      <c r="A598" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C599" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="600" s="9" customFormat="1" spans="1:3">
-      <c r="A600" s="9" t="s">
+      <c r="C598" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="599" s="10" customFormat="1" spans="1:3">
+      <c r="A599" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="C600" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="601" s="9" customFormat="1" spans="1:3">
-      <c r="A601" s="9" t="s">
+      <c r="C599" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="600" s="10" customFormat="1" spans="1:3">
+      <c r="A600" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C601" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="602" s="9" customFormat="1" spans="1:3">
-      <c r="A602" s="9" t="s">
+      <c r="C600" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="601" s="10" customFormat="1" spans="1:3">
+      <c r="A601" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="C602" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="603" s="9" customFormat="1" spans="1:3">
-      <c r="A603" s="9" t="s">
+      <c r="C601" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="602" s="10" customFormat="1" spans="1:3">
+      <c r="A602" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C603" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="604" s="9" customFormat="1" spans="1:3">
-      <c r="A604" s="9" t="s">
+      <c r="C602" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="603" s="10" customFormat="1" spans="1:3">
+      <c r="A603" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C604" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="605" s="9" customFormat="1" spans="1:3">
-      <c r="A605" s="9" t="s">
+      <c r="C603" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="604" s="10" customFormat="1" spans="1:3">
+      <c r="A604" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C605" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="606" s="9" customFormat="1" spans="1:3">
-      <c r="A606" s="9" t="s">
+      <c r="C604" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="605" s="10" customFormat="1" spans="1:3">
+      <c r="A605" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="C606" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="607" s="9" customFormat="1" spans="1:3">
-      <c r="A607" s="9" t="s">
+      <c r="C605" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="606" s="10" customFormat="1" spans="1:3">
+      <c r="A606" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="C607" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="608" s="9" customFormat="1" spans="1:3">
-      <c r="A608" s="9" t="s">
+      <c r="C606" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="607" s="10" customFormat="1" spans="1:3">
+      <c r="A607" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C608" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="609" s="9" customFormat="1" spans="1:3">
-      <c r="A609" s="9" t="s">
+      <c r="C607" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="608" s="10" customFormat="1" spans="1:3">
+      <c r="A608" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="C609" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="610" s="9" customFormat="1" spans="1:3">
-      <c r="A610" s="9" t="s">
+      <c r="C608" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="609" s="10" customFormat="1" spans="1:3">
+      <c r="A609" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C610" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="611" s="9" customFormat="1" spans="1:3">
-      <c r="A611" s="9" t="s">
+      <c r="C609" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="610" s="10" customFormat="1" spans="1:3">
+      <c r="A610" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="C611" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="612" s="9" customFormat="1" spans="1:3">
-      <c r="A612" s="9" t="s">
+      <c r="C610" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="611" s="10" customFormat="1" spans="1:3">
+      <c r="A611" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="C612" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="613" s="9" customFormat="1" spans="1:3">
-      <c r="A613" s="9" t="s">
+      <c r="C611" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="612" s="10" customFormat="1" spans="1:3">
+      <c r="A612" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="C613" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="614" s="9" customFormat="1" spans="1:3">
-      <c r="A614" s="9" t="s">
+      <c r="C612" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="613" s="10" customFormat="1" spans="1:3">
+      <c r="A613" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="C614" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="615" s="9" customFormat="1" spans="1:3">
-      <c r="A615" s="9" t="s">
+      <c r="C613" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="614" s="10" customFormat="1" spans="1:3">
+      <c r="A614" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C615" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="616" s="9" customFormat="1" spans="1:3">
-      <c r="A616" s="9" t="s">
+      <c r="C614" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="615" s="10" customFormat="1" spans="1:3">
+      <c r="A615" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="C616" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="617" s="9" customFormat="1" spans="1:3">
-      <c r="A617" s="9" t="s">
+      <c r="C615" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="616" s="10" customFormat="1" spans="1:3">
+      <c r="A616" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="C617" s="9" t="s">
-        <v>730</v>
+      <c r="C616" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="617" s="10" customFormat="1" spans="1:3">
+      <c r="A617" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="618" s="10" customFormat="1" spans="1:3">
+      <c r="A618" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\fork\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="761">
   <si>
     <t>Id</t>
   </si>
@@ -2302,19 +2307,17 @@
   </si>
   <si>
     <t>NameID_Hero_BOOT_30</t>
+  </si>
+  <si>
+    <t>Desc_Hero_BOOT_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2329,158 +2332,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2507,204 +2364,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2828,251 +2499,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3135,58 +2564,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3518,23 +2908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="C588" sqref="C588:C617"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" style="10" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +2934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3567,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -3578,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3589,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -3600,14 +2989,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:3">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +3029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
@@ -3651,7 +3040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -3662,7 +3051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
@@ -3673,7 +3062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3689,7 +3078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -3697,7 +3086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -3705,7 +3094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -3713,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -3721,7 +3110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -3729,7 +3118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -3737,7 +3126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -3745,7 +3134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -3753,7 +3142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -3761,7 +3150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -3769,7 +3158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -3777,7 +3166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -3785,7 +3174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -3793,7 +3182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
@@ -3801,7 +3190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
@@ -3809,7 +3198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -3817,7 +3206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
@@ -3825,7 +3214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -3833,7 +3222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -3841,7 +3230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -3849,7 +3238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -3857,7 +3246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>73</v>
       </c>
@@ -3865,7 +3254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>75</v>
       </c>
@@ -3873,7 +3262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:3">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>77</v>
       </c>
@@ -3881,7 +3270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>79</v>
       </c>
@@ -3889,7 +3278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>81</v>
       </c>
@@ -3897,7 +3286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:3">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
@@ -3905,7 +3294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>84</v>
       </c>
@@ -3913,7 +3302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>86</v>
       </c>
@@ -3921,7 +3310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>87</v>
       </c>
@@ -3929,7 +3318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
@@ -3937,7 +3326,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>90</v>
       </c>
@@ -3945,7 +3334,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>91</v>
       </c>
@@ -3953,7 +3342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>92</v>
       </c>
@@ -3961,7 +3350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>93</v>
       </c>
@@ -3969,7 +3358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>94</v>
       </c>
@@ -3977,7 +3366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3985,7 +3374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
@@ -3993,7 +3382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>97</v>
       </c>
@@ -4001,7 +3390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>98</v>
       </c>
@@ -4009,7 +3398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>100</v>
       </c>
@@ -4017,7 +3406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>101</v>
       </c>
@@ -4025,7 +3414,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>102</v>
       </c>
@@ -4033,7 +3422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" spans="1:3">
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>103</v>
       </c>
@@ -4041,7 +3430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" spans="1:3">
+    <row r="60" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
@@ -4049,7 +3438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:3">
+    <row r="61" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
@@ -4057,7 +3446,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:3">
+    <row r="62" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -4065,7 +3454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" spans="1:3">
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>110</v>
       </c>
@@ -4073,7 +3462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" spans="1:3">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>112</v>
       </c>
@@ -4081,7 +3470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:3">
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>114</v>
       </c>
@@ -4089,7 +3478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" spans="1:3">
+    <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>116</v>
       </c>
@@ -4097,7 +3486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:3">
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>118</v>
       </c>
@@ -4105,7 +3494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:3">
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>120</v>
       </c>
@@ -4113,7 +3502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="1" spans="1:3">
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>122</v>
       </c>
@@ -4121,7 +3510,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" spans="1:3">
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
@@ -4129,7 +3518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="1" spans="1:3">
+    <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>126</v>
       </c>
@@ -4137,7 +3526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" s="7" customFormat="1" spans="1:3">
+    <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>128</v>
       </c>
@@ -4145,7 +3534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" s="7" customFormat="1" spans="1:3">
+    <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>130</v>
       </c>
@@ -4153,7 +3542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" s="7" customFormat="1" spans="1:3">
+    <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>132</v>
       </c>
@@ -4161,7 +3550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" s="7" customFormat="1" spans="1:3">
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>134</v>
       </c>
@@ -4169,7 +3558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" spans="1:3">
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>136</v>
       </c>
@@ -4177,7 +3566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" s="7" customFormat="1" spans="1:3">
+    <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>138</v>
       </c>
@@ -4185,7 +3574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" s="7" customFormat="1" spans="1:3">
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>140</v>
       </c>
@@ -4193,7 +3582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" s="7" customFormat="1" spans="1:3">
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>142</v>
       </c>
@@ -4201,7 +3590,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" s="7" customFormat="1" spans="1:3">
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>144</v>
       </c>
@@ -4209,7 +3598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" s="7" customFormat="1" spans="1:3">
+    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>146</v>
       </c>
@@ -4217,7 +3606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" s="7" customFormat="1" spans="1:3">
+    <row r="82" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>148</v>
       </c>
@@ -4225,7 +3614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" s="7" customFormat="1" spans="1:3">
+    <row r="83" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>150</v>
       </c>
@@ -4233,7 +3622,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" s="7" customFormat="1" spans="1:3">
+    <row r="84" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>152</v>
       </c>
@@ -4241,7 +3630,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" s="7" customFormat="1" spans="1:3">
+    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>154</v>
       </c>
@@ -4249,7 +3638,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" s="7" customFormat="1" spans="1:3">
+    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>156</v>
       </c>
@@ -4257,7 +3646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" s="7" customFormat="1" spans="1:3">
+    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>158</v>
       </c>
@@ -4265,7 +3654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" s="7" customFormat="1" spans="1:3">
+    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>160</v>
       </c>
@@ -4273,7 +3662,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" s="7" customFormat="1" spans="1:3">
+    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>162</v>
       </c>
@@ -4281,7 +3670,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" s="7" customFormat="1" spans="1:3">
+    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>164</v>
       </c>
@@ -4289,7 +3678,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" s="7" customFormat="1" spans="1:3">
+    <row r="91" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>166</v>
       </c>
@@ -4297,7 +3686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" s="7" customFormat="1" spans="1:3">
+    <row r="92" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>168</v>
       </c>
@@ -4305,7 +3694,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" s="7" customFormat="1" spans="1:3">
+    <row r="93" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>170</v>
       </c>
@@ -4313,7 +3702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" s="7" customFormat="1" spans="1:3">
+    <row r="94" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>172</v>
       </c>
@@ -4321,7 +3710,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" s="7" customFormat="1" spans="1:3">
+    <row r="95" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>174</v>
       </c>
@@ -4329,7 +3718,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" s="7" customFormat="1" spans="1:3">
+    <row r="96" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>176</v>
       </c>
@@ -4337,7 +3726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" s="7" customFormat="1" spans="1:3">
+    <row r="97" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>178</v>
       </c>
@@ -4345,7 +3734,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" s="7" customFormat="1" spans="1:3">
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>180</v>
       </c>
@@ -4353,7 +3742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" s="7" customFormat="1" spans="1:3">
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>182</v>
       </c>
@@ -4361,7 +3750,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" s="7" customFormat="1" spans="1:3">
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>184</v>
       </c>
@@ -4369,7 +3758,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" s="7" customFormat="1" spans="1:3">
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>186</v>
       </c>
@@ -4377,7 +3766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" s="7" customFormat="1" spans="1:3">
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>188</v>
       </c>
@@ -4385,7 +3774,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" s="7" customFormat="1" spans="1:3">
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>190</v>
       </c>
@@ -4393,7 +3782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" s="7" customFormat="1" spans="1:3">
+    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>192</v>
       </c>
@@ -4401,7 +3790,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" s="7" customFormat="1" spans="1:3">
+    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>194</v>
       </c>
@@ -4409,7 +3798,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" s="7" customFormat="1" spans="1:3">
+    <row r="106" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>196</v>
       </c>
@@ -4417,7 +3806,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" s="7" customFormat="1" spans="1:3">
+    <row r="107" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>198</v>
       </c>
@@ -4425,7 +3814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" s="7" customFormat="1" spans="1:3">
+    <row r="108" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>200</v>
       </c>
@@ -4433,7 +3822,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" s="7" customFormat="1" spans="1:3">
+    <row r="109" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>202</v>
       </c>
@@ -4441,7 +3830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" s="7" customFormat="1" spans="1:3">
+    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>204</v>
       </c>
@@ -4449,7 +3838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" s="7" customFormat="1" spans="1:3">
+    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>206</v>
       </c>
@@ -4457,7 +3846,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="112" s="7" customFormat="1" spans="1:3">
+    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>208</v>
       </c>
@@ -4465,7 +3854,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" s="7" customFormat="1" spans="1:3">
+    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>210</v>
       </c>
@@ -4473,7 +3862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" s="7" customFormat="1" spans="1:3">
+    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>212</v>
       </c>
@@ -4481,7 +3870,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" s="7" customFormat="1" spans="1:3">
+    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>214</v>
       </c>
@@ -4489,7 +3878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" s="7" customFormat="1" spans="1:3">
+    <row r="116" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>216</v>
       </c>
@@ -4497,7 +3886,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" s="7" customFormat="1" spans="1:3">
+    <row r="117" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>218</v>
       </c>
@@ -4505,7 +3894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" s="7" customFormat="1" spans="1:3">
+    <row r="118" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>220</v>
       </c>
@@ -4513,7 +3902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" s="7" customFormat="1" spans="1:3">
+    <row r="119" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>222</v>
       </c>
@@ -4521,7 +3910,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="120" s="7" customFormat="1" spans="1:3">
+    <row r="120" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>224</v>
       </c>
@@ -4529,7 +3918,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" s="7" customFormat="1" spans="1:3">
+    <row r="121" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>226</v>
       </c>
@@ -4537,7 +3926,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" s="7" customFormat="1" spans="1:3">
+    <row r="122" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>228</v>
       </c>
@@ -4545,7 +3934,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" s="7" customFormat="1" spans="1:3">
+    <row r="123" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +3942,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" s="7" customFormat="1" spans="1:3">
+    <row r="124" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>232</v>
       </c>
@@ -4561,7 +3950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="125" s="7" customFormat="1" spans="1:3">
+    <row r="125" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>234</v>
       </c>
@@ -4569,7 +3958,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" s="7" customFormat="1" spans="1:3">
+    <row r="126" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>236</v>
       </c>
@@ -4577,7 +3966,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="127" s="7" customFormat="1" spans="1:3">
+    <row r="127" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>238</v>
       </c>
@@ -4585,7 +3974,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="128" s="7" customFormat="1" spans="1:3">
+    <row r="128" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>240</v>
       </c>
@@ -4593,7 +3982,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" s="7" customFormat="1" spans="1:3">
+    <row r="129" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>242</v>
       </c>
@@ -4601,7 +3990,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" s="7" customFormat="1" spans="1:3">
+    <row r="130" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>244</v>
       </c>
@@ -4609,7 +3998,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="131" s="7" customFormat="1" spans="1:3">
+    <row r="131" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>246</v>
       </c>
@@ -4617,7 +4006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="132" s="7" customFormat="1" spans="1:3">
+    <row r="132" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>247</v>
       </c>
@@ -4625,7 +4014,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" s="7" customFormat="1" spans="1:3">
+    <row r="133" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>248</v>
       </c>
@@ -4633,7 +4022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="134" s="7" customFormat="1" spans="1:3">
+    <row r="134" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>249</v>
       </c>
@@ -4641,7 +4030,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" s="7" customFormat="1" spans="1:3">
+    <row r="135" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>250</v>
       </c>
@@ -4649,7 +4038,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" s="7" customFormat="1" spans="1:3">
+    <row r="136" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>252</v>
       </c>
@@ -4657,7 +4046,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" s="7" customFormat="1" spans="1:3">
+    <row r="137" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>253</v>
       </c>
@@ -4665,7 +4054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" s="7" customFormat="1" spans="1:3">
+    <row r="138" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>254</v>
       </c>
@@ -4673,7 +4062,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" s="7" customFormat="1" spans="1:3">
+    <row r="139" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>255</v>
       </c>
@@ -4681,7 +4070,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" s="7" customFormat="1" spans="1:3">
+    <row r="140" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>256</v>
       </c>
@@ -4689,7 +4078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" s="7" customFormat="1" spans="1:3">
+    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>257</v>
       </c>
@@ -4697,7 +4086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" s="7" customFormat="1" spans="1:3">
+    <row r="142" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>258</v>
       </c>
@@ -4705,7 +4094,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" s="7" customFormat="1" spans="1:3">
+    <row r="143" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>259</v>
       </c>
@@ -4713,7 +4102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" s="7" customFormat="1" spans="1:3">
+    <row r="144" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>260</v>
       </c>
@@ -4721,7 +4110,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" s="7" customFormat="1" spans="1:3">
+    <row r="145" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>261</v>
       </c>
@@ -4729,7 +4118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" s="7" customFormat="1" spans="1:3">
+    <row r="146" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>262</v>
       </c>
@@ -4737,7 +4126,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147" s="7" customFormat="1" spans="1:3">
+    <row r="147" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>263</v>
       </c>
@@ -4745,7 +4134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="148" s="7" customFormat="1" spans="1:3">
+    <row r="148" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>264</v>
       </c>
@@ -4753,7 +4142,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" s="7" customFormat="1" spans="1:3">
+    <row r="149" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>265</v>
       </c>
@@ -4761,7 +4150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" s="7" customFormat="1" spans="1:3">
+    <row r="150" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>266</v>
       </c>
@@ -4769,7 +4158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" s="7" customFormat="1" spans="1:3">
+    <row r="151" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>267</v>
       </c>
@@ -4777,7 +4166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" s="7" customFormat="1" spans="1:3">
+    <row r="152" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>268</v>
       </c>
@@ -4785,7 +4174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" s="7" customFormat="1" spans="1:3">
+    <row r="153" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>269</v>
       </c>
@@ -4793,7 +4182,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="154" s="7" customFormat="1" spans="1:3">
+    <row r="154" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>270</v>
       </c>
@@ -4801,7 +4190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" s="7" customFormat="1" spans="1:3">
+    <row r="155" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>271</v>
       </c>
@@ -4809,7 +4198,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="156" s="7" customFormat="1" spans="1:3">
+    <row r="156" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>272</v>
       </c>
@@ -4817,7 +4206,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" s="7" customFormat="1" spans="1:3">
+    <row r="157" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>273</v>
       </c>
@@ -4825,7 +4214,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" s="7" customFormat="1" spans="1:3">
+    <row r="158" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>274</v>
       </c>
@@ -4833,7 +4222,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="159" s="7" customFormat="1" spans="1:3">
+    <row r="159" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>275</v>
       </c>
@@ -4841,7 +4230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="160" s="7" customFormat="1" spans="1:3">
+    <row r="160" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>276</v>
       </c>
@@ -4849,7 +4238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" s="7" customFormat="1" spans="1:3">
+    <row r="161" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>277</v>
       </c>
@@ -4857,7 +4246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" s="7" customFormat="1" spans="1:3">
+    <row r="162" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>278</v>
       </c>
@@ -4865,7 +4254,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" s="7" customFormat="1" spans="1:3">
+    <row r="163" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>279</v>
       </c>
@@ -4873,7 +4262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" s="7" customFormat="1" spans="1:3">
+    <row r="164" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>280</v>
       </c>
@@ -4881,7 +4270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" s="7" customFormat="1" spans="1:3">
+    <row r="165" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>281</v>
       </c>
@@ -4889,7 +4278,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" s="7" customFormat="1" spans="1:3">
+    <row r="166" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>282</v>
       </c>
@@ -4897,7 +4286,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" s="7" customFormat="1" spans="1:3">
+    <row r="167" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>284</v>
       </c>
@@ -4905,7 +4294,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="168" s="7" customFormat="1" spans="1:3">
+    <row r="168" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>285</v>
       </c>
@@ -4913,7 +4302,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="169" s="7" customFormat="1" spans="1:3">
+    <row r="169" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>286</v>
       </c>
@@ -4921,7 +4310,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="170" s="7" customFormat="1" spans="1:3">
+    <row r="170" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>287</v>
       </c>
@@ -4929,7 +4318,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="171" s="7" customFormat="1" spans="1:3">
+    <row r="171" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>288</v>
       </c>
@@ -4937,7 +4326,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" s="7" customFormat="1" spans="1:3">
+    <row r="172" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>289</v>
       </c>
@@ -4945,7 +4334,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="173" s="7" customFormat="1" spans="1:3">
+    <row r="173" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>290</v>
       </c>
@@ -4953,7 +4342,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="174" s="7" customFormat="1" spans="1:3">
+    <row r="174" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>291</v>
       </c>
@@ -4961,7 +4350,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="175" s="7" customFormat="1" spans="1:3">
+    <row r="175" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>292</v>
       </c>
@@ -4969,7 +4358,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="176" s="7" customFormat="1" spans="1:3">
+    <row r="176" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>293</v>
       </c>
@@ -4977,7 +4366,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="177" s="7" customFormat="1" spans="1:3">
+    <row r="177" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>294</v>
       </c>
@@ -4985,7 +4374,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" s="7" customFormat="1" spans="1:3">
+    <row r="178" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>295</v>
       </c>
@@ -4993,7 +4382,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="179" s="7" customFormat="1" spans="1:3">
+    <row r="179" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>296</v>
       </c>
@@ -5001,7 +4390,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="180" s="7" customFormat="1" spans="1:3">
+    <row r="180" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>297</v>
       </c>
@@ -5009,7 +4398,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="181" s="7" customFormat="1" spans="1:3">
+    <row r="181" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>298</v>
       </c>
@@ -5017,7 +4406,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="182" s="7" customFormat="1" spans="1:3">
+    <row r="182" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>299</v>
       </c>
@@ -5025,7 +4414,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="183" s="7" customFormat="1" spans="1:3">
+    <row r="183" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>300</v>
       </c>
@@ -5033,7 +4422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="184" s="7" customFormat="1" spans="1:3">
+    <row r="184" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>301</v>
       </c>
@@ -5041,7 +4430,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="185" s="7" customFormat="1" spans="1:3">
+    <row r="185" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>302</v>
       </c>
@@ -5049,7 +4438,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="186" s="7" customFormat="1" spans="1:3">
+    <row r="186" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>303</v>
       </c>
@@ -5057,7 +4446,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" s="7" customFormat="1" spans="1:3">
+    <row r="187" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>304</v>
       </c>
@@ -5065,7 +4454,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="188" s="7" customFormat="1" spans="1:3">
+    <row r="188" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>305</v>
       </c>
@@ -5073,7 +4462,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="189" s="7" customFormat="1" spans="1:3">
+    <row r="189" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>306</v>
       </c>
@@ -5081,7 +4470,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="190" s="7" customFormat="1" spans="1:3">
+    <row r="190" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>307</v>
       </c>
@@ -5089,7 +4478,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="191" s="7" customFormat="1" spans="1:3">
+    <row r="191" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>308</v>
       </c>
@@ -5097,7 +4486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="192" s="7" customFormat="1" spans="1:3">
+    <row r="192" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>309</v>
       </c>
@@ -5105,7 +4494,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="193" s="7" customFormat="1" spans="1:3">
+    <row r="193" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>310</v>
       </c>
@@ -5113,7 +4502,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" s="7" customFormat="1" spans="1:3">
+    <row r="194" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>311</v>
       </c>
@@ -5121,7 +4510,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="195" s="7" customFormat="1" spans="1:3">
+    <row r="195" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>312</v>
       </c>
@@ -5129,7 +4518,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="196" s="7" customFormat="1" spans="1:3">
+    <row r="196" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>313</v>
       </c>
@@ -5137,7 +4526,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="197" s="7" customFormat="1" spans="1:3">
+    <row r="197" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>315</v>
       </c>
@@ -5145,7 +4534,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="198" s="7" customFormat="1" spans="1:3">
+    <row r="198" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>316</v>
       </c>
@@ -5153,7 +4542,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" s="7" customFormat="1" spans="1:3">
+    <row r="199" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>317</v>
       </c>
@@ -5161,7 +4550,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="200" s="7" customFormat="1" spans="1:3">
+    <row r="200" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>318</v>
       </c>
@@ -5169,7 +4558,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="201" s="7" customFormat="1" spans="1:3">
+    <row r="201" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>319</v>
       </c>
@@ -5177,7 +4566,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="202" s="7" customFormat="1" spans="1:3">
+    <row r="202" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>320</v>
       </c>
@@ -5185,7 +4574,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" s="7" customFormat="1" spans="1:3">
+    <row r="203" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>321</v>
       </c>
@@ -5193,7 +4582,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="204" s="7" customFormat="1" spans="1:3">
+    <row r="204" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>322</v>
       </c>
@@ -5201,7 +4590,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" s="7" customFormat="1" spans="1:3">
+    <row r="205" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>323</v>
       </c>
@@ -5209,7 +4598,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="206" s="7" customFormat="1" spans="1:3">
+    <row r="206" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>324</v>
       </c>
@@ -5217,7 +4606,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="207" s="7" customFormat="1" spans="1:3">
+    <row r="207" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>325</v>
       </c>
@@ -5225,7 +4614,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="208" s="7" customFormat="1" spans="1:3">
+    <row r="208" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>326</v>
       </c>
@@ -5233,7 +4622,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="209" s="7" customFormat="1" spans="1:3">
+    <row r="209" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>327</v>
       </c>
@@ -5241,7 +4630,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" s="7" customFormat="1" spans="1:3">
+    <row r="210" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>328</v>
       </c>
@@ -5249,7 +4638,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" s="7" customFormat="1" spans="1:3">
+    <row r="211" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>329</v>
       </c>
@@ -5257,7 +4646,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" s="7" customFormat="1" spans="1:3">
+    <row r="212" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>330</v>
       </c>
@@ -5265,7 +4654,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" s="7" customFormat="1" spans="1:3">
+    <row r="213" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>331</v>
       </c>
@@ -5273,7 +4662,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="214" s="7" customFormat="1" spans="1:3">
+    <row r="214" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>332</v>
       </c>
@@ -5281,7 +4670,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" s="7" customFormat="1" spans="1:3">
+    <row r="215" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>333</v>
       </c>
@@ -5289,7 +4678,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="216" s="7" customFormat="1" spans="1:3">
+    <row r="216" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>334</v>
       </c>
@@ -5297,7 +4686,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="217" s="7" customFormat="1" spans="1:3">
+    <row r="217" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>335</v>
       </c>
@@ -5305,7 +4694,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="1:3">
+    <row r="218" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>336</v>
       </c>
@@ -5313,7 +4702,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="219" s="7" customFormat="1" spans="1:3">
+    <row r="219" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>337</v>
       </c>
@@ -5321,7 +4710,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="220" s="7" customFormat="1" spans="1:3">
+    <row r="220" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>338</v>
       </c>
@@ -5329,7 +4718,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="221" s="7" customFormat="1" spans="1:3">
+    <row r="221" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>339</v>
       </c>
@@ -5337,7 +4726,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="1" spans="1:3">
+    <row r="222" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>340</v>
       </c>
@@ -5345,7 +4734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="223" s="7" customFormat="1" spans="1:3">
+    <row r="223" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>341</v>
       </c>
@@ -5353,7 +4742,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="224" s="7" customFormat="1" spans="1:3">
+    <row r="224" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>342</v>
       </c>
@@ -5361,7 +4750,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="225" s="7" customFormat="1" spans="1:3">
+    <row r="225" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>343</v>
       </c>
@@ -5369,7 +4758,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="226" s="7" customFormat="1" spans="1:3">
+    <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>344</v>
       </c>
@@ -5377,7 +4766,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="227" s="7" customFormat="1" spans="1:3">
+    <row r="227" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>346</v>
       </c>
@@ -5385,7 +4774,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="228" s="7" customFormat="1" spans="1:3">
+    <row r="228" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>347</v>
       </c>
@@ -5393,7 +4782,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="229" s="7" customFormat="1" spans="1:3">
+    <row r="229" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>348</v>
       </c>
@@ -5401,7 +4790,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="230" s="7" customFormat="1" spans="1:3">
+    <row r="230" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>349</v>
       </c>
@@ -5409,7 +4798,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="231" s="7" customFormat="1" spans="1:3">
+    <row r="231" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>350</v>
       </c>
@@ -5417,7 +4806,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="232" s="7" customFormat="1" spans="1:3">
+    <row r="232" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>351</v>
       </c>
@@ -5425,7 +4814,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="233" s="7" customFormat="1" spans="1:3">
+    <row r="233" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>352</v>
       </c>
@@ -5433,7 +4822,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="234" s="7" customFormat="1" spans="1:3">
+    <row r="234" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>353</v>
       </c>
@@ -5441,7 +4830,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="235" s="7" customFormat="1" spans="1:3">
+    <row r="235" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>354</v>
       </c>
@@ -5449,7 +4838,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="236" s="7" customFormat="1" spans="1:3">
+    <row r="236" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>355</v>
       </c>
@@ -5457,7 +4846,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="1" spans="1:3">
+    <row r="237" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>356</v>
       </c>
@@ -5465,7 +4854,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="238" s="7" customFormat="1" spans="1:3">
+    <row r="238" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>357</v>
       </c>
@@ -5473,7 +4862,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="239" s="7" customFormat="1" spans="1:3">
+    <row r="239" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>358</v>
       </c>
@@ -5481,7 +4870,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="240" s="7" customFormat="1" spans="1:3">
+    <row r="240" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>359</v>
       </c>
@@ -5489,7 +4878,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="241" s="7" customFormat="1" spans="1:3">
+    <row r="241" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>360</v>
       </c>
@@ -5497,7 +4886,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="242" s="7" customFormat="1" spans="1:3">
+    <row r="242" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>361</v>
       </c>
@@ -5505,7 +4894,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="243" s="7" customFormat="1" spans="1:3">
+    <row r="243" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>362</v>
       </c>
@@ -5513,7 +4902,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="244" s="7" customFormat="1" spans="1:3">
+    <row r="244" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>363</v>
       </c>
@@ -5521,7 +4910,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="245" s="7" customFormat="1" spans="1:3">
+    <row r="245" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>364</v>
       </c>
@@ -5529,7 +4918,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="246" s="7" customFormat="1" spans="1:3">
+    <row r="246" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>365</v>
       </c>
@@ -5537,7 +4926,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="247" s="7" customFormat="1" spans="1:3">
+    <row r="247" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>366</v>
       </c>
@@ -5545,7 +4934,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="248" s="7" customFormat="1" spans="1:3">
+    <row r="248" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>367</v>
       </c>
@@ -5553,7 +4942,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="249" s="7" customFormat="1" spans="1:3">
+    <row r="249" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>368</v>
       </c>
@@ -5561,7 +4950,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="250" s="7" customFormat="1" spans="1:3">
+    <row r="250" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>369</v>
       </c>
@@ -5569,7 +4958,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="251" s="7" customFormat="1" spans="1:3">
+    <row r="251" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>370</v>
       </c>
@@ -5577,7 +4966,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="252" s="7" customFormat="1" spans="1:3">
+    <row r="252" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>371</v>
       </c>
@@ -5585,7 +4974,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="253" s="7" customFormat="1" spans="1:3">
+    <row r="253" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>372</v>
       </c>
@@ -5593,7 +4982,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="254" s="7" customFormat="1" spans="1:3">
+    <row r="254" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>373</v>
       </c>
@@ -5601,7 +4990,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="255" s="7" customFormat="1" spans="1:3">
+    <row r="255" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>374</v>
       </c>
@@ -5609,7 +4998,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="256" s="7" customFormat="1" spans="1:3">
+    <row r="256" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>375</v>
       </c>
@@ -5617,7 +5006,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="257" s="7" customFormat="1" spans="1:3">
+    <row r="257" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>377</v>
       </c>
@@ -5625,7 +5014,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="258" s="7" customFormat="1" spans="1:3">
+    <row r="258" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>378</v>
       </c>
@@ -5633,7 +5022,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="259" s="7" customFormat="1" spans="1:3">
+    <row r="259" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>379</v>
       </c>
@@ -5641,7 +5030,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="260" s="7" customFormat="1" spans="1:3">
+    <row r="260" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>380</v>
       </c>
@@ -5649,7 +5038,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="261" s="7" customFormat="1" spans="1:3">
+    <row r="261" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>381</v>
       </c>
@@ -5657,7 +5046,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="262" s="7" customFormat="1" spans="1:3">
+    <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>382</v>
       </c>
@@ -5665,7 +5054,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="263" s="7" customFormat="1" spans="1:3">
+    <row r="263" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>383</v>
       </c>
@@ -5673,7 +5062,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="264" s="7" customFormat="1" spans="1:3">
+    <row r="264" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>384</v>
       </c>
@@ -5681,7 +5070,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="265" s="7" customFormat="1" spans="1:3">
+    <row r="265" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>385</v>
       </c>
@@ -5689,7 +5078,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="266" s="7" customFormat="1" spans="1:3">
+    <row r="266" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>386</v>
       </c>
@@ -5697,7 +5086,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="267" s="7" customFormat="1" spans="1:3">
+    <row r="267" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>387</v>
       </c>
@@ -5705,7 +5094,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="268" s="7" customFormat="1" spans="1:3">
+    <row r="268" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>388</v>
       </c>
@@ -5713,7 +5102,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="269" s="7" customFormat="1" spans="1:3">
+    <row r="269" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>389</v>
       </c>
@@ -5721,7 +5110,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="270" s="7" customFormat="1" spans="1:3">
+    <row r="270" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>390</v>
       </c>
@@ -5729,7 +5118,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="271" s="7" customFormat="1" spans="1:3">
+    <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>391</v>
       </c>
@@ -5737,7 +5126,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="272" s="7" customFormat="1" spans="1:3">
+    <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>392</v>
       </c>
@@ -5745,7 +5134,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="273" s="7" customFormat="1" spans="1:3">
+    <row r="273" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>393</v>
       </c>
@@ -5753,7 +5142,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="274" s="7" customFormat="1" spans="1:3">
+    <row r="274" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>394</v>
       </c>
@@ -5761,7 +5150,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="275" s="7" customFormat="1" spans="1:3">
+    <row r="275" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>395</v>
       </c>
@@ -5769,7 +5158,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="276" s="7" customFormat="1" spans="1:3">
+    <row r="276" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>396</v>
       </c>
@@ -5777,7 +5166,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="277" s="7" customFormat="1" spans="1:3">
+    <row r="277" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>397</v>
       </c>
@@ -5785,7 +5174,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="278" s="7" customFormat="1" spans="1:3">
+    <row r="278" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>398</v>
       </c>
@@ -5793,7 +5182,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="279" s="7" customFormat="1" spans="1:3">
+    <row r="279" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>399</v>
       </c>
@@ -5801,7 +5190,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="280" s="7" customFormat="1" spans="1:3">
+    <row r="280" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>400</v>
       </c>
@@ -5809,7 +5198,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="281" s="7" customFormat="1" spans="1:3">
+    <row r="281" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>401</v>
       </c>
@@ -5817,7 +5206,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="282" s="7" customFormat="1" spans="1:3">
+    <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>402</v>
       </c>
@@ -5825,7 +5214,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" spans="1:3">
+    <row r="283" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>403</v>
       </c>
@@ -5833,7 +5222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:3">
+    <row r="284" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>404</v>
       </c>
@@ -5841,7 +5230,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" spans="1:3">
+    <row r="285" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>405</v>
       </c>
@@ -5849,7 +5238,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:3">
+    <row r="286" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>406</v>
       </c>
@@ -5857,7 +5246,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:3">
+    <row r="287" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>408</v>
       </c>
@@ -5865,7 +5254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="288" s="7" customFormat="1" spans="1:3">
+    <row r="288" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>409</v>
       </c>
@@ -5873,7 +5262,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:3">
+    <row r="289" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>410</v>
       </c>
@@ -5881,7 +5270,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:3">
+    <row r="290" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>411</v>
       </c>
@@ -5889,7 +5278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:3">
+    <row r="291" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>412</v>
       </c>
@@ -5897,7 +5286,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:3">
+    <row r="292" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>413</v>
       </c>
@@ -5905,7 +5294,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:3">
+    <row r="293" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>414</v>
       </c>
@@ -5913,7 +5302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:3">
+    <row r="294" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>415</v>
       </c>
@@ -5921,7 +5310,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:3">
+    <row r="295" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>416</v>
       </c>
@@ -5929,7 +5318,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="296" s="7" customFormat="1" spans="1:3">
+    <row r="296" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>417</v>
       </c>
@@ -5937,15 +5326,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="297" s="7" customFormat="1" spans="1:3">
+    <row r="297" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>387</v>
+        <v>760</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="298" s="7" customFormat="1" spans="1:3">
+    <row r="298" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>418</v>
       </c>
@@ -5953,7 +5342,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="299" s="7" customFormat="1" spans="1:3">
+    <row r="299" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>419</v>
       </c>
@@ -5961,7 +5350,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="300" s="7" customFormat="1" spans="1:3">
+    <row r="300" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>420</v>
       </c>
@@ -5969,7 +5358,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="301" s="7" customFormat="1" spans="1:3">
+    <row r="301" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>421</v>
       </c>
@@ -5977,7 +5366,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="302" s="7" customFormat="1" spans="1:3">
+    <row r="302" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>422</v>
       </c>
@@ -5985,7 +5374,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="303" s="7" customFormat="1" spans="1:3">
+    <row r="303" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>423</v>
       </c>
@@ -5993,7 +5382,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="304" s="7" customFormat="1" spans="1:3">
+    <row r="304" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>424</v>
       </c>
@@ -6001,7 +5390,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="305" s="7" customFormat="1" spans="1:3">
+    <row r="305" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>425</v>
       </c>
@@ -6009,7 +5398,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="306" s="7" customFormat="1" spans="1:3">
+    <row r="306" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>426</v>
       </c>
@@ -6017,7 +5406,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="307" s="7" customFormat="1" spans="1:3">
+    <row r="307" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>427</v>
       </c>
@@ -6025,7 +5414,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="308" s="7" customFormat="1" spans="1:3">
+    <row r="308" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>428</v>
       </c>
@@ -6033,7 +5422,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="309" s="7" customFormat="1" spans="1:3">
+    <row r="309" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>429</v>
       </c>
@@ -6041,7 +5430,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="310" s="7" customFormat="1" spans="1:3">
+    <row r="310" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>430</v>
       </c>
@@ -6049,7 +5438,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" s="7" customFormat="1" spans="1:3">
+    <row r="311" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>431</v>
       </c>
@@ -6057,7 +5446,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="312" s="7" customFormat="1" spans="1:3">
+    <row r="312" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>432</v>
       </c>
@@ -6065,7 +5454,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="313" s="7" customFormat="1" spans="1:3">
+    <row r="313" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>433</v>
       </c>
@@ -6073,7 +5462,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="314" s="7" customFormat="1" spans="1:3">
+    <row r="314" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>434</v>
       </c>
@@ -6081,7 +5470,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="315" s="8" customFormat="1" spans="1:3">
+    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>435</v>
       </c>
@@ -6089,7 +5478,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="316" s="9" customFormat="1" spans="1:3">
+    <row r="316" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>436</v>
       </c>
@@ -6097,7 +5486,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="317" s="9" customFormat="1" spans="1:3">
+    <row r="317" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>438</v>
       </c>
@@ -6105,7 +5494,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="318" s="9" customFormat="1" spans="1:3">
+    <row r="318" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>439</v>
       </c>
@@ -6113,7 +5502,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="319" s="9" customFormat="1" spans="1:3">
+    <row r="319" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>440</v>
       </c>
@@ -6121,7 +5510,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="320" s="9" customFormat="1" spans="1:3">
+    <row r="320" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>441</v>
       </c>
@@ -6129,7 +5518,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="321" s="9" customFormat="1" spans="1:3">
+    <row r="321" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>442</v>
       </c>
@@ -6137,7 +5526,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="322" s="9" customFormat="1" spans="1:3">
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>443</v>
       </c>
@@ -6145,7 +5534,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="323" s="9" customFormat="1" spans="1:3">
+    <row r="323" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>444</v>
       </c>
@@ -6153,7 +5542,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="324" s="9" customFormat="1" spans="1:3">
+    <row r="324" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>445</v>
       </c>
@@ -6161,7 +5550,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="325" s="9" customFormat="1" spans="1:3">
+    <row r="325" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>447</v>
       </c>
@@ -6169,7 +5558,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="326" s="9" customFormat="1" spans="1:3">
+    <row r="326" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>448</v>
       </c>
@@ -6177,7 +5566,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" spans="1:3">
+    <row r="327" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>449</v>
       </c>
@@ -6185,7 +5574,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="328" s="9" customFormat="1" spans="1:3">
+    <row r="328" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>450</v>
       </c>
@@ -6193,7 +5582,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="329" s="9" customFormat="1" spans="1:3">
+    <row r="329" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>452</v>
       </c>
@@ -6201,7 +5590,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="330" s="9" customFormat="1" spans="1:3">
+    <row r="330" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>453</v>
       </c>
@@ -6209,7 +5598,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="331" s="9" customFormat="1" spans="1:3">
+    <row r="331" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>454</v>
       </c>
@@ -6217,7 +5606,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="332" s="9" customFormat="1" spans="1:3">
+    <row r="332" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>455</v>
       </c>
@@ -6225,7 +5614,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="333" s="9" customFormat="1" spans="1:3">
+    <row r="333" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>457</v>
       </c>
@@ -6233,7 +5622,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="334" s="9" customFormat="1" spans="1:3">
+    <row r="334" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>458</v>
       </c>
@@ -6241,7 +5630,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="335" s="9" customFormat="1" spans="1:3">
+    <row r="335" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>459</v>
       </c>
@@ -6249,7 +5638,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="336" s="9" customFormat="1" spans="1:3">
+    <row r="336" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>460</v>
       </c>
@@ -6257,7 +5646,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="337" s="9" customFormat="1" spans="1:3">
+    <row r="337" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>462</v>
       </c>
@@ -6265,7 +5654,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="338" s="9" customFormat="1" spans="1:3">
+    <row r="338" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>463</v>
       </c>
@@ -6273,7 +5662,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="339" s="9" customFormat="1" spans="1:3">
+    <row r="339" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>464</v>
       </c>
@@ -6281,7 +5670,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="340" s="9" customFormat="1" spans="1:3">
+    <row r="340" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>465</v>
       </c>
@@ -6289,7 +5678,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="341" s="9" customFormat="1" spans="1:3">
+    <row r="341" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>466</v>
       </c>
@@ -6297,7 +5686,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="1:3">
+    <row r="342" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>468</v>
       </c>
@@ -6305,7 +5694,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="343" s="9" customFormat="1" spans="1:3">
+    <row r="343" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>469</v>
       </c>
@@ -6313,7 +5702,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="344" s="9" customFormat="1" spans="1:3">
+    <row r="344" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>470</v>
       </c>
@@ -6321,7 +5710,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="345" s="9" customFormat="1" spans="1:3">
+    <row r="345" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>471</v>
       </c>
@@ -6329,7 +5718,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="346" s="9" customFormat="1" spans="1:3">
+    <row r="346" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>472</v>
       </c>
@@ -6337,7 +5726,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="347" s="9" customFormat="1" spans="1:3">
+    <row r="347" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>473</v>
       </c>
@@ -6345,7 +5734,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="348" s="9" customFormat="1" spans="1:3">
+    <row r="348" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>475</v>
       </c>
@@ -6353,7 +5742,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="349" s="9" customFormat="1" spans="1:3">
+    <row r="349" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>476</v>
       </c>
@@ -6361,7 +5750,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="350" s="9" customFormat="1" spans="1:3">
+    <row r="350" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>477</v>
       </c>
@@ -6369,7 +5758,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="351" s="9" customFormat="1" spans="1:3">
+    <row r="351" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>478</v>
       </c>
@@ -6377,7 +5766,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="352" s="9" customFormat="1" spans="1:3">
+    <row r="352" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>479</v>
       </c>
@@ -6385,7 +5774,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="353" s="9" customFormat="1" spans="1:3">
+    <row r="353" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>480</v>
       </c>
@@ -6393,7 +5782,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="354" s="9" customFormat="1" spans="1:3">
+    <row r="354" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>481</v>
       </c>
@@ -6401,7 +5790,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="355" s="9" customFormat="1" spans="1:3">
+    <row r="355" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>482</v>
       </c>
@@ -6409,7 +5798,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="356" s="9" customFormat="1" spans="1:3">
+    <row r="356" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>483</v>
       </c>
@@ -6417,7 +5806,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="357" s="9" customFormat="1" spans="1:3">
+    <row r="357" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>484</v>
       </c>
@@ -6425,7 +5814,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="358" s="9" customFormat="1" spans="1:3">
+    <row r="358" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>486</v>
       </c>
@@ -6433,7 +5822,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="359" s="9" customFormat="1" spans="1:3">
+    <row r="359" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>487</v>
       </c>
@@ -6441,7 +5830,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="360" s="9" customFormat="1" spans="1:3">
+    <row r="360" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>488</v>
       </c>
@@ -6449,7 +5838,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="361" s="9" customFormat="1" spans="1:3">
+    <row r="361" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>489</v>
       </c>
@@ -6457,7 +5846,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="362" s="9" customFormat="1" spans="1:3">
+    <row r="362" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>490</v>
       </c>
@@ -6465,7 +5854,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="363" s="9" customFormat="1" spans="1:3">
+    <row r="363" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>492</v>
       </c>
@@ -6473,7 +5862,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="364" s="9" customFormat="1" spans="1:3">
+    <row r="364" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>493</v>
       </c>
@@ -6481,7 +5870,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="365" s="9" customFormat="1" spans="1:3">
+    <row r="365" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>494</v>
       </c>
@@ -6489,7 +5878,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" s="9" customFormat="1" spans="1:3">
+    <row r="366" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>495</v>
       </c>
@@ -6497,7 +5886,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="367" s="9" customFormat="1" spans="1:3">
+    <row r="367" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>496</v>
       </c>
@@ -6505,7 +5894,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="368" s="9" customFormat="1" spans="1:3">
+    <row r="368" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>497</v>
       </c>
@@ -6513,7 +5902,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="369" s="9" customFormat="1" spans="1:3">
+    <row r="369" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>498</v>
       </c>
@@ -6521,7 +5910,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="370" s="9" customFormat="1" spans="1:3">
+    <row r="370" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>499</v>
       </c>
@@ -6529,7 +5918,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="371" s="9" customFormat="1" spans="1:3">
+    <row r="371" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>500</v>
       </c>
@@ -6537,7 +5926,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="372" s="9" customFormat="1" spans="1:3">
+    <row r="372" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>501</v>
       </c>
@@ -6545,7 +5934,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="373" s="9" customFormat="1" spans="1:3">
+    <row r="373" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>503</v>
       </c>
@@ -6553,7 +5942,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="374" s="9" customFormat="1" spans="1:3">
+    <row r="374" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>504</v>
       </c>
@@ -6561,7 +5950,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="375" s="9" customFormat="1" spans="1:3">
+    <row r="375" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>505</v>
       </c>
@@ -6569,7 +5958,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="376" s="9" customFormat="1" spans="1:3">
+    <row r="376" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>506</v>
       </c>
@@ -6577,7 +5966,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="377" s="9" customFormat="1" spans="1:3">
+    <row r="377" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>507</v>
       </c>
@@ -6585,7 +5974,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="378" s="9" customFormat="1" spans="1:3">
+    <row r="378" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>508</v>
       </c>
@@ -6593,7 +5982,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="379" s="9" customFormat="1" spans="1:3">
+    <row r="379" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>509</v>
       </c>
@@ -6601,7 +5990,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="380" s="9" customFormat="1" spans="1:3">
+    <row r="380" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>510</v>
       </c>
@@ -6609,7 +5998,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="381" s="9" customFormat="1" spans="1:3">
+    <row r="381" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>511</v>
       </c>
@@ -6617,7 +6006,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="382" s="9" customFormat="1" spans="1:3">
+    <row r="382" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>512</v>
       </c>
@@ -6625,7 +6014,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="383" s="9" customFormat="1" spans="1:3">
+    <row r="383" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>514</v>
       </c>
@@ -6633,7 +6022,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="384" s="9" customFormat="1" spans="1:3">
+    <row r="384" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>515</v>
       </c>
@@ -6641,7 +6030,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="385" s="9" customFormat="1" spans="1:3">
+    <row r="385" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>516</v>
       </c>
@@ -6649,7 +6038,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="386" s="9" customFormat="1" spans="1:3">
+    <row r="386" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>517</v>
       </c>
@@ -6657,7 +6046,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="387" s="9" customFormat="1" spans="1:3">
+    <row r="387" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>518</v>
       </c>
@@ -6665,7 +6054,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="388" s="9" customFormat="1" spans="1:3">
+    <row r="388" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>519</v>
       </c>
@@ -6673,7 +6062,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="389" s="9" customFormat="1" spans="1:3">
+    <row r="389" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>520</v>
       </c>
@@ -6681,7 +6070,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="390" s="9" customFormat="1" spans="1:3">
+    <row r="390" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>521</v>
       </c>
@@ -6689,7 +6078,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="391" s="9" customFormat="1" spans="1:3">
+    <row r="391" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>522</v>
       </c>
@@ -6697,7 +6086,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="392" s="9" customFormat="1" spans="1:3">
+    <row r="392" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>523</v>
       </c>
@@ -6705,7 +6094,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="393" s="9" customFormat="1" spans="1:3">
+    <row r="393" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>525</v>
       </c>
@@ -6713,7 +6102,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="394" s="9" customFormat="1" spans="1:3">
+    <row r="394" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>526</v>
       </c>
@@ -6721,7 +6110,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="395" s="9" customFormat="1" spans="1:3">
+    <row r="395" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>527</v>
       </c>
@@ -6729,7 +6118,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="396" s="9" customFormat="1" spans="1:3">
+    <row r="396" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>528</v>
       </c>
@@ -6737,7 +6126,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="397" s="9" customFormat="1" spans="1:3">
+    <row r="397" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>529</v>
       </c>
@@ -6745,7 +6134,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="398" s="9" customFormat="1" spans="1:3">
+    <row r="398" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>530</v>
       </c>
@@ -6753,7 +6142,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="399" s="9" customFormat="1" spans="1:3">
+    <row r="399" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>531</v>
       </c>
@@ -6761,7 +6150,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="400" s="9" customFormat="1" spans="1:3">
+    <row r="400" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>532</v>
       </c>
@@ -6769,7 +6158,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="401" s="9" customFormat="1" spans="1:3">
+    <row r="401" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>533</v>
       </c>
@@ -6777,7 +6166,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="402" s="9" customFormat="1" spans="1:3">
+    <row r="402" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>534</v>
       </c>
@@ -6785,7 +6174,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="403" s="9" customFormat="1" spans="1:3">
+    <row r="403" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>536</v>
       </c>
@@ -6793,7 +6182,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="404" s="9" customFormat="1" spans="1:3">
+    <row r="404" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>537</v>
       </c>
@@ -6801,7 +6190,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="405" s="9" customFormat="1" spans="1:3">
+    <row r="405" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
         <v>538</v>
       </c>
@@ -6809,7 +6198,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="406" s="9" customFormat="1" spans="1:3">
+    <row r="406" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
         <v>539</v>
       </c>
@@ -6817,7 +6206,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="407" s="9" customFormat="1" spans="1:3">
+    <row r="407" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>540</v>
       </c>
@@ -6825,7 +6214,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="408" s="9" customFormat="1" spans="1:3">
+    <row r="408" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
         <v>541</v>
       </c>
@@ -6833,7 +6222,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="409" s="9" customFormat="1" spans="1:3">
+    <row r="409" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>542</v>
       </c>
@@ -6841,7 +6230,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="410" s="9" customFormat="1" spans="1:3">
+    <row r="410" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>543</v>
       </c>
@@ -6849,7 +6238,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="411" s="9" customFormat="1" spans="1:3">
+    <row r="411" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
         <v>544</v>
       </c>
@@ -6857,7 +6246,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="412" s="9" customFormat="1" spans="1:3">
+    <row r="412" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
         <v>545</v>
       </c>
@@ -6865,7 +6254,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="413" s="9" customFormat="1" spans="1:3">
+    <row r="413" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>547</v>
       </c>
@@ -6873,7 +6262,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="414" s="9" customFormat="1" spans="1:3">
+    <row r="414" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>548</v>
       </c>
@@ -6881,7 +6270,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="415" s="9" customFormat="1" spans="1:3">
+    <row r="415" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>549</v>
       </c>
@@ -6889,7 +6278,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="416" s="9" customFormat="1" spans="1:3">
+    <row r="416" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>550</v>
       </c>
@@ -6897,7 +6286,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="417" s="9" customFormat="1" spans="1:3">
+    <row r="417" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>551</v>
       </c>
@@ -6905,7 +6294,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="418" s="9" customFormat="1" spans="1:3">
+    <row r="418" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>552</v>
       </c>
@@ -6913,7 +6302,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="419" s="9" customFormat="1" spans="1:3">
+    <row r="419" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>553</v>
       </c>
@@ -6921,7 +6310,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="420" s="9" customFormat="1" spans="1:3">
+    <row r="420" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>554</v>
       </c>
@@ -6929,7 +6318,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="421" s="9" customFormat="1" spans="1:3">
+    <row r="421" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>555</v>
       </c>
@@ -6937,7 +6326,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="422" s="9" customFormat="1" spans="1:3">
+    <row r="422" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>556</v>
       </c>
@@ -6945,7 +6334,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="423" s="9" customFormat="1" spans="1:3">
+    <row r="423" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>558</v>
       </c>
@@ -6953,7 +6342,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="424" s="9" customFormat="1" spans="1:3">
+    <row r="424" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>559</v>
       </c>
@@ -6961,7 +6350,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="425" s="9" customFormat="1" spans="1:3">
+    <row r="425" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>560</v>
       </c>
@@ -6969,7 +6358,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="426" s="9" customFormat="1" spans="1:3">
+    <row r="426" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>561</v>
       </c>
@@ -6977,7 +6366,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="427" s="9" customFormat="1" spans="1:3">
+    <row r="427" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>562</v>
       </c>
@@ -6985,7 +6374,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="428" s="9" customFormat="1" spans="1:3">
+    <row r="428" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>563</v>
       </c>
@@ -6993,7 +6382,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="429" s="9" customFormat="1" spans="1:3">
+    <row r="429" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>564</v>
       </c>
@@ -7001,7 +6390,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="430" s="9" customFormat="1" spans="1:3">
+    <row r="430" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>565</v>
       </c>
@@ -7009,7 +6398,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="431" s="9" customFormat="1" spans="1:3">
+    <row r="431" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>566</v>
       </c>
@@ -7017,7 +6406,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="432" s="9" customFormat="1" spans="1:3">
+    <row r="432" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>567</v>
       </c>
@@ -7025,7 +6414,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="433" s="9" customFormat="1" spans="1:3">
+    <row r="433" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>569</v>
       </c>
@@ -7033,7 +6422,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="434" s="9" customFormat="1" spans="1:3">
+    <row r="434" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>570</v>
       </c>
@@ -7041,7 +6430,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="435" s="9" customFormat="1" spans="1:3">
+    <row r="435" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>571</v>
       </c>
@@ -7049,7 +6438,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="436" s="9" customFormat="1" spans="1:3">
+    <row r="436" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>572</v>
       </c>
@@ -7057,7 +6446,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="437" s="9" customFormat="1" spans="1:3">
+    <row r="437" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>573</v>
       </c>
@@ -7065,7 +6454,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="438" s="9" customFormat="1" spans="1:3">
+    <row r="438" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>574</v>
       </c>
@@ -7073,7 +6462,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="439" s="9" customFormat="1" spans="1:3">
+    <row r="439" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>576</v>
       </c>
@@ -7081,7 +6470,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="440" s="9" customFormat="1" spans="1:3">
+    <row r="440" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>577</v>
       </c>
@@ -7089,7 +6478,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="441" s="9" customFormat="1" spans="1:3">
+    <row r="441" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>578</v>
       </c>
@@ -7097,7 +6486,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="442" s="9" customFormat="1" spans="1:3">
+    <row r="442" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>579</v>
       </c>
@@ -7105,7 +6494,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="443" s="9" customFormat="1" spans="1:3">
+    <row r="443" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>580</v>
       </c>
@@ -7113,7 +6502,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="444" s="9" customFormat="1" spans="1:3">
+    <row r="444" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>581</v>
       </c>
@@ -7121,7 +6510,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="445" s="9" customFormat="1" spans="1:3">
+    <row r="445" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>582</v>
       </c>
@@ -7129,7 +6518,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="446" s="9" customFormat="1" spans="1:3">
+    <row r="446" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>583</v>
       </c>
@@ -7137,7 +6526,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="447" s="9" customFormat="1" spans="1:3">
+    <row r="447" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>584</v>
       </c>
@@ -7145,7 +6534,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="448" s="9" customFormat="1" spans="1:3">
+    <row r="448" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>585</v>
       </c>
@@ -7153,7 +6542,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="449" s="9" customFormat="1" spans="1:3">
+    <row r="449" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>586</v>
       </c>
@@ -7161,7 +6550,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="450" s="9" customFormat="1" spans="1:3">
+    <row r="450" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>587</v>
       </c>
@@ -7169,7 +6558,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="451" s="9" customFormat="1" spans="1:3">
+    <row r="451" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>588</v>
       </c>
@@ -7177,7 +6566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="452" s="9" customFormat="1" spans="1:3">
+    <row r="452" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>589</v>
       </c>
@@ -7185,7 +6574,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="453" s="9" customFormat="1" spans="1:3">
+    <row r="453" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>590</v>
       </c>
@@ -7193,7 +6582,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="454" s="9" customFormat="1" spans="1:3">
+    <row r="454" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>591</v>
       </c>
@@ -7201,7 +6590,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="455" s="9" customFormat="1" spans="1:3">
+    <row r="455" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>592</v>
       </c>
@@ -7209,7 +6598,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="456" s="9" customFormat="1" spans="1:3">
+    <row r="456" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>593</v>
       </c>
@@ -7217,7 +6606,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="457" s="9" customFormat="1" spans="1:3">
+    <row r="457" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>594</v>
       </c>
@@ -7225,7 +6614,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="458" s="9" customFormat="1" spans="1:3">
+    <row r="458" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>595</v>
       </c>
@@ -7233,7 +6622,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="459" s="9" customFormat="1" spans="1:3">
+    <row r="459" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>596</v>
       </c>
@@ -7241,7 +6630,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="460" s="9" customFormat="1" spans="1:3">
+    <row r="460" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>597</v>
       </c>
@@ -7249,7 +6638,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="461" s="9" customFormat="1" spans="1:3">
+    <row r="461" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>598</v>
       </c>
@@ -7257,7 +6646,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="462" s="9" customFormat="1" spans="1:3">
+    <row r="462" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>599</v>
       </c>
@@ -7265,7 +6654,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="463" s="9" customFormat="1" spans="1:3">
+    <row r="463" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>600</v>
       </c>
@@ -7273,7 +6662,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="464" s="9" customFormat="1" spans="1:3">
+    <row r="464" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>601</v>
       </c>
@@ -7281,7 +6670,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="465" s="9" customFormat="1" spans="1:3">
+    <row r="465" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>602</v>
       </c>
@@ -7289,7 +6678,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="466" s="9" customFormat="1" spans="1:3">
+    <row r="466" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>603</v>
       </c>
@@ -7297,7 +6686,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="467" s="9" customFormat="1" spans="1:3">
+    <row r="467" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>604</v>
       </c>
@@ -7305,7 +6694,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="468" s="9" customFormat="1" spans="1:3">
+    <row r="468" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>605</v>
       </c>
@@ -7313,7 +6702,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="469" s="9" customFormat="1" spans="1:3">
+    <row r="469" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>607</v>
       </c>
@@ -7321,7 +6710,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="470" s="9" customFormat="1" spans="1:3">
+    <row r="470" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>608</v>
       </c>
@@ -7329,7 +6718,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="471" s="9" customFormat="1" spans="1:3">
+    <row r="471" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>609</v>
       </c>
@@ -7337,7 +6726,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="472" s="9" customFormat="1" spans="1:3">
+    <row r="472" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>610</v>
       </c>
@@ -7345,7 +6734,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="473" s="9" customFormat="1" spans="1:3">
+    <row r="473" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>611</v>
       </c>
@@ -7353,7 +6742,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="474" s="9" customFormat="1" spans="1:3">
+    <row r="474" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>612</v>
       </c>
@@ -7361,7 +6750,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="475" s="9" customFormat="1" spans="1:3">
+    <row r="475" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>613</v>
       </c>
@@ -7369,7 +6758,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="476" s="9" customFormat="1" spans="1:3">
+    <row r="476" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>614</v>
       </c>
@@ -7377,7 +6766,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="477" s="9" customFormat="1" spans="1:3">
+    <row r="477" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>615</v>
       </c>
@@ -7385,7 +6774,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="478" s="9" customFormat="1" spans="1:3">
+    <row r="478" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>616</v>
       </c>
@@ -7393,7 +6782,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="479" s="9" customFormat="1" spans="1:3">
+    <row r="479" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>617</v>
       </c>
@@ -7401,7 +6790,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="480" s="9" customFormat="1" spans="1:3">
+    <row r="480" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>618</v>
       </c>
@@ -7409,7 +6798,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="481" s="9" customFormat="1" spans="1:3">
+    <row r="481" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>619</v>
       </c>
@@ -7417,7 +6806,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="482" s="9" customFormat="1" spans="1:3">
+    <row r="482" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>620</v>
       </c>
@@ -7425,7 +6814,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="483" s="9" customFormat="1" spans="1:3">
+    <row r="483" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>621</v>
       </c>
@@ -7433,7 +6822,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="484" s="9" customFormat="1" spans="1:3">
+    <row r="484" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>622</v>
       </c>
@@ -7441,7 +6830,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="485" s="9" customFormat="1" spans="1:3">
+    <row r="485" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>623</v>
       </c>
@@ -7449,7 +6838,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="486" s="9" customFormat="1" spans="1:3">
+    <row r="486" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>624</v>
       </c>
@@ -7457,7 +6846,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="487" s="9" customFormat="1" spans="1:3">
+    <row r="487" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>625</v>
       </c>
@@ -7465,7 +6854,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="488" s="9" customFormat="1" spans="1:3">
+    <row r="488" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>626</v>
       </c>
@@ -7473,7 +6862,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="489" s="9" customFormat="1" spans="1:3">
+    <row r="489" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>627</v>
       </c>
@@ -7481,7 +6870,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="490" s="9" customFormat="1" spans="1:3">
+    <row r="490" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>628</v>
       </c>
@@ -7489,7 +6878,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="491" s="9" customFormat="1" spans="1:3">
+    <row r="491" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>629</v>
       </c>
@@ -7497,7 +6886,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="492" s="9" customFormat="1" spans="1:3">
+    <row r="492" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
         <v>630</v>
       </c>
@@ -7505,7 +6894,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="493" s="9" customFormat="1" spans="1:3">
+    <row r="493" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>631</v>
       </c>
@@ -7513,7 +6902,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="494" s="9" customFormat="1" spans="1:3">
+    <row r="494" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
         <v>632</v>
       </c>
@@ -7521,7 +6910,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="495" s="9" customFormat="1" spans="1:3">
+    <row r="495" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
         <v>633</v>
       </c>
@@ -7529,7 +6918,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="496" s="9" customFormat="1" spans="1:3">
+    <row r="496" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
         <v>634</v>
       </c>
@@ -7537,7 +6926,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="497" s="9" customFormat="1" spans="1:3">
+    <row r="497" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
         <v>635</v>
       </c>
@@ -7545,7 +6934,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="498" s="9" customFormat="1" spans="1:3">
+    <row r="498" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>636</v>
       </c>
@@ -7553,7 +6942,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="499" s="9" customFormat="1" spans="1:3">
+    <row r="499" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
         <v>638</v>
       </c>
@@ -7561,7 +6950,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="500" s="9" customFormat="1" spans="1:3">
+    <row r="500" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>639</v>
       </c>
@@ -7569,7 +6958,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="501" s="9" customFormat="1" spans="1:3">
+    <row r="501" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
         <v>640</v>
       </c>
@@ -7577,7 +6966,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="502" s="9" customFormat="1" spans="1:3">
+    <row r="502" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
         <v>641</v>
       </c>
@@ -7585,7 +6974,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="503" s="9" customFormat="1" spans="1:3">
+    <row r="503" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>642</v>
       </c>
@@ -7593,7 +6982,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="504" s="9" customFormat="1" spans="1:3">
+    <row r="504" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
         <v>643</v>
       </c>
@@ -7601,7 +6990,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="505" s="9" customFormat="1" spans="1:3">
+    <row r="505" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
         <v>644</v>
       </c>
@@ -7609,7 +6998,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="506" s="9" customFormat="1" spans="1:3">
+    <row r="506" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
         <v>645</v>
       </c>
@@ -7617,7 +7006,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="507" s="9" customFormat="1" spans="1:3">
+    <row r="507" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
         <v>646</v>
       </c>
@@ -7625,7 +7014,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="508" s="9" customFormat="1" spans="1:3">
+    <row r="508" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
         <v>647</v>
       </c>
@@ -7633,7 +7022,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="509" s="9" customFormat="1" spans="1:3">
+    <row r="509" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
         <v>648</v>
       </c>
@@ -7641,7 +7030,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="510" s="9" customFormat="1" spans="1:3">
+    <row r="510" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
         <v>649</v>
       </c>
@@ -7649,7 +7038,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="511" s="9" customFormat="1" spans="1:3">
+    <row r="511" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
         <v>650</v>
       </c>
@@ -7657,7 +7046,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="512" s="9" customFormat="1" spans="1:3">
+    <row r="512" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
         <v>651</v>
       </c>
@@ -7665,7 +7054,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="513" s="9" customFormat="1" spans="1:3">
+    <row r="513" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
         <v>652</v>
       </c>
@@ -7673,7 +7062,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="514" s="9" customFormat="1" spans="1:3">
+    <row r="514" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
         <v>653</v>
       </c>
@@ -7681,7 +7070,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="515" s="9" customFormat="1" spans="1:3">
+    <row r="515" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
         <v>654</v>
       </c>
@@ -7689,7 +7078,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="516" s="9" customFormat="1" spans="1:3">
+    <row r="516" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
         <v>655</v>
       </c>
@@ -7697,7 +7086,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="517" s="9" customFormat="1" spans="1:3">
+    <row r="517" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
         <v>656</v>
       </c>
@@ -7705,7 +7094,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="518" s="9" customFormat="1" spans="1:3">
+    <row r="518" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
         <v>657</v>
       </c>
@@ -7713,7 +7102,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="519" s="9" customFormat="1" spans="1:3">
+    <row r="519" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
         <v>658</v>
       </c>
@@ -7721,7 +7110,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="520" s="9" customFormat="1" spans="1:3">
+    <row r="520" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
         <v>659</v>
       </c>
@@ -7729,7 +7118,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="521" s="9" customFormat="1" spans="1:3">
+    <row r="521" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
         <v>660</v>
       </c>
@@ -7737,7 +7126,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="522" s="9" customFormat="1" spans="1:3">
+    <row r="522" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
         <v>661</v>
       </c>
@@ -7745,7 +7134,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="523" s="9" customFormat="1" spans="1:3">
+    <row r="523" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
         <v>662</v>
       </c>
@@ -7753,7 +7142,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="524" s="9" customFormat="1" spans="1:3">
+    <row r="524" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
         <v>663</v>
       </c>
@@ -7761,7 +7150,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="525" s="9" customFormat="1" spans="1:3">
+    <row r="525" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
         <v>664</v>
       </c>
@@ -7769,7 +7158,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="526" s="9" customFormat="1" spans="1:3">
+    <row r="526" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
         <v>665</v>
       </c>
@@ -7777,7 +7166,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="527" s="9" customFormat="1" spans="1:3">
+    <row r="527" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
         <v>666</v>
       </c>
@@ -7785,7 +7174,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="528" s="9" customFormat="1" spans="1:3">
+    <row r="528" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="s">
         <v>667</v>
       </c>
@@ -7793,7 +7182,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="529" s="9" customFormat="1" spans="1:3">
+    <row r="529" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
         <v>669</v>
       </c>
@@ -7801,7 +7190,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="530" s="9" customFormat="1" spans="1:3">
+    <row r="530" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
         <v>670</v>
       </c>
@@ -7809,7 +7198,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="531" s="9" customFormat="1" spans="1:3">
+    <row r="531" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
         <v>671</v>
       </c>
@@ -7817,7 +7206,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="532" s="9" customFormat="1" spans="1:3">
+    <row r="532" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
         <v>672</v>
       </c>
@@ -7825,7 +7214,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="533" s="9" customFormat="1" spans="1:3">
+    <row r="533" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
         <v>673</v>
       </c>
@@ -7833,7 +7222,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="534" s="9" customFormat="1" spans="1:3">
+    <row r="534" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
         <v>674</v>
       </c>
@@ -7841,7 +7230,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="535" s="9" customFormat="1" spans="1:3">
+    <row r="535" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
         <v>675</v>
       </c>
@@ -7849,7 +7238,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="536" s="9" customFormat="1" spans="1:3">
+    <row r="536" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
         <v>676</v>
       </c>
@@ -7857,7 +7246,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="537" s="9" customFormat="1" spans="1:3">
+    <row r="537" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
         <v>677</v>
       </c>
@@ -7865,7 +7254,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="538" s="9" customFormat="1" spans="1:3">
+    <row r="538" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
         <v>678</v>
       </c>
@@ -7873,7 +7262,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="539" s="9" customFormat="1" spans="1:3">
+    <row r="539" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
         <v>679</v>
       </c>
@@ -7881,7 +7270,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="540" s="9" customFormat="1" spans="1:3">
+    <row r="540" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
         <v>680</v>
       </c>
@@ -7889,7 +7278,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="541" s="9" customFormat="1" spans="1:3">
+    <row r="541" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
         <v>681</v>
       </c>
@@ -7897,7 +7286,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="542" s="9" customFormat="1" spans="1:3">
+    <row r="542" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
         <v>682</v>
       </c>
@@ -7905,7 +7294,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="543" s="9" customFormat="1" spans="1:3">
+    <row r="543" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
         <v>683</v>
       </c>
@@ -7913,7 +7302,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="544" s="9" customFormat="1" spans="1:3">
+    <row r="544" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
         <v>684</v>
       </c>
@@ -7921,7 +7310,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="545" s="9" customFormat="1" spans="1:3">
+    <row r="545" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
         <v>685</v>
       </c>
@@ -7929,7 +7318,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="546" s="9" customFormat="1" spans="1:3">
+    <row r="546" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
         <v>686</v>
       </c>
@@ -7937,7 +7326,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="547" s="9" customFormat="1" spans="1:3">
+    <row r="547" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
         <v>687</v>
       </c>
@@ -7945,7 +7334,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="548" s="9" customFormat="1" spans="1:3">
+    <row r="548" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
         <v>688</v>
       </c>
@@ -7953,7 +7342,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="549" s="9" customFormat="1" spans="1:3">
+    <row r="549" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
         <v>689</v>
       </c>
@@ -7961,7 +7350,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="550" s="9" customFormat="1" spans="1:3">
+    <row r="550" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
         <v>690</v>
       </c>
@@ -7969,7 +7358,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="551" s="9" customFormat="1" spans="1:3">
+    <row r="551" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
         <v>691</v>
       </c>
@@ -7977,7 +7366,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="552" s="9" customFormat="1" spans="1:3">
+    <row r="552" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
         <v>692</v>
       </c>
@@ -7985,7 +7374,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="553" s="9" customFormat="1" spans="1:3">
+    <row r="553" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
         <v>693</v>
       </c>
@@ -7993,7 +7382,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="554" s="9" customFormat="1" spans="1:3">
+    <row r="554" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
         <v>694</v>
       </c>
@@ -8001,7 +7390,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="555" s="9" customFormat="1" spans="1:3">
+    <row r="555" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
         <v>695</v>
       </c>
@@ -8009,7 +7398,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="556" s="9" customFormat="1" spans="1:3">
+    <row r="556" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
         <v>696</v>
       </c>
@@ -8017,7 +7406,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="557" s="9" customFormat="1" spans="1:3">
+    <row r="557" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
         <v>697</v>
       </c>
@@ -8025,7 +7414,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="558" s="9" customFormat="1" spans="1:3">
+    <row r="558" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
         <v>698</v>
       </c>
@@ -8033,7 +7422,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="559" s="9" customFormat="1" spans="1:3">
+    <row r="559" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
         <v>700</v>
       </c>
@@ -8041,7 +7430,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="560" s="9" customFormat="1" spans="1:3">
+    <row r="560" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
         <v>701</v>
       </c>
@@ -8049,7 +7438,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="561" s="9" customFormat="1" spans="1:3">
+    <row r="561" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
         <v>702</v>
       </c>
@@ -8057,7 +7446,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="562" s="9" customFormat="1" spans="1:3">
+    <row r="562" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
         <v>703</v>
       </c>
@@ -8065,7 +7454,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="563" s="9" customFormat="1" spans="1:3">
+    <row r="563" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
         <v>704</v>
       </c>
@@ -8073,7 +7462,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="564" s="9" customFormat="1" spans="1:3">
+    <row r="564" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
         <v>705</v>
       </c>
@@ -8081,7 +7470,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="565" s="9" customFormat="1" spans="1:3">
+    <row r="565" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
         <v>706</v>
       </c>
@@ -8089,7 +7478,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="566" s="9" customFormat="1" spans="1:3">
+    <row r="566" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
         <v>707</v>
       </c>
@@ -8097,7 +7486,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="567" s="9" customFormat="1" spans="1:3">
+    <row r="567" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
         <v>708</v>
       </c>
@@ -8105,7 +7494,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="568" s="9" customFormat="1" spans="1:3">
+    <row r="568" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
         <v>709</v>
       </c>
@@ -8113,7 +7502,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="569" s="9" customFormat="1" spans="1:3">
+    <row r="569" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
         <v>710</v>
       </c>
@@ -8121,7 +7510,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="570" s="9" customFormat="1" spans="1:3">
+    <row r="570" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
         <v>711</v>
       </c>
@@ -8129,7 +7518,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="571" s="9" customFormat="1" spans="1:3">
+    <row r="571" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
         <v>712</v>
       </c>
@@ -8137,7 +7526,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="572" s="9" customFormat="1" spans="1:3">
+    <row r="572" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
         <v>713</v>
       </c>
@@ -8145,7 +7534,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="573" s="9" customFormat="1" spans="1:3">
+    <row r="573" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
         <v>714</v>
       </c>
@@ -8153,7 +7542,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="574" s="9" customFormat="1" spans="1:3">
+    <row r="574" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
         <v>715</v>
       </c>
@@ -8161,7 +7550,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="575" s="9" customFormat="1" spans="1:3">
+    <row r="575" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
         <v>716</v>
       </c>
@@ -8169,7 +7558,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="576" s="9" customFormat="1" spans="1:3">
+    <row r="576" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
         <v>717</v>
       </c>
@@ -8177,7 +7566,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="577" s="9" customFormat="1" spans="1:3">
+    <row r="577" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
         <v>718</v>
       </c>
@@ -8185,7 +7574,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="578" s="9" customFormat="1" spans="1:3">
+    <row r="578" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
         <v>719</v>
       </c>
@@ -8193,7 +7582,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="579" s="9" customFormat="1" spans="1:3">
+    <row r="579" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
         <v>720</v>
       </c>
@@ -8201,7 +7590,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="580" s="9" customFormat="1" spans="1:3">
+    <row r="580" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
         <v>721</v>
       </c>
@@ -8209,7 +7598,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="581" s="9" customFormat="1" spans="1:3">
+    <row r="581" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
         <v>722</v>
       </c>
@@ -8217,7 +7606,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="582" s="9" customFormat="1" spans="1:3">
+    <row r="582" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
         <v>723</v>
       </c>
@@ -8225,7 +7614,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="583" s="9" customFormat="1" spans="1:3">
+    <row r="583" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
         <v>724</v>
       </c>
@@ -8233,7 +7622,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="584" s="9" customFormat="1" spans="1:3">
+    <row r="584" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
         <v>725</v>
       </c>
@@ -8241,7 +7630,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="585" s="9" customFormat="1" spans="1:3">
+    <row r="585" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
         <v>726</v>
       </c>
@@ -8249,7 +7638,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="586" s="9" customFormat="1" spans="1:3">
+    <row r="586" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
         <v>727</v>
       </c>
@@ -8257,7 +7646,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="587" s="9" customFormat="1" spans="1:3">
+    <row r="587" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
         <v>728</v>
       </c>
@@ -8265,7 +7654,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="588" s="9" customFormat="1" spans="1:3">
+    <row r="588" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
         <v>729</v>
       </c>
@@ -8273,7 +7662,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="589" s="9" customFormat="1" spans="1:3">
+    <row r="589" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
         <v>731</v>
       </c>
@@ -8281,7 +7670,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="590" s="9" customFormat="1" spans="1:3">
+    <row r="590" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
         <v>732</v>
       </c>
@@ -8289,7 +7678,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="591" s="9" customFormat="1" spans="1:3">
+    <row r="591" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
         <v>733</v>
       </c>
@@ -8297,7 +7686,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="592" s="9" customFormat="1" spans="1:3">
+    <row r="592" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
         <v>734</v>
       </c>
@@ -8305,7 +7694,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="593" s="9" customFormat="1" spans="1:3">
+    <row r="593" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
         <v>735</v>
       </c>
@@ -8313,7 +7702,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="594" s="9" customFormat="1" spans="1:3">
+    <row r="594" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
         <v>736</v>
       </c>
@@ -8321,7 +7710,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="595" s="9" customFormat="1" spans="1:3">
+    <row r="595" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
         <v>737</v>
       </c>
@@ -8329,7 +7718,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="596" s="9" customFormat="1" spans="1:3">
+    <row r="596" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
         <v>738</v>
       </c>
@@ -8337,7 +7726,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="597" s="9" customFormat="1" spans="1:3">
+    <row r="597" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
         <v>739</v>
       </c>
@@ -8345,7 +7734,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="598" s="9" customFormat="1" spans="1:3">
+    <row r="598" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
         <v>740</v>
       </c>
@@ -8353,7 +7742,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="599" s="9" customFormat="1" spans="1:3">
+    <row r="599" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
         <v>741</v>
       </c>
@@ -8361,7 +7750,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="600" s="9" customFormat="1" spans="1:3">
+    <row r="600" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
         <v>742</v>
       </c>
@@ -8369,7 +7758,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="601" s="9" customFormat="1" spans="1:3">
+    <row r="601" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
         <v>743</v>
       </c>
@@ -8377,7 +7766,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="602" s="9" customFormat="1" spans="1:3">
+    <row r="602" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
         <v>744</v>
       </c>
@@ -8385,7 +7774,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="603" s="9" customFormat="1" spans="1:3">
+    <row r="603" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
         <v>745</v>
       </c>
@@ -8393,7 +7782,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="604" s="9" customFormat="1" spans="1:3">
+    <row r="604" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
         <v>746</v>
       </c>
@@ -8401,7 +7790,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="605" s="9" customFormat="1" spans="1:3">
+    <row r="605" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
         <v>747</v>
       </c>
@@ -8409,7 +7798,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="606" s="9" customFormat="1" spans="1:3">
+    <row r="606" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
         <v>748</v>
       </c>
@@ -8417,7 +7806,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="607" s="9" customFormat="1" spans="1:3">
+    <row r="607" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
         <v>749</v>
       </c>
@@ -8425,7 +7814,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="608" s="9" customFormat="1" spans="1:3">
+    <row r="608" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
         <v>750</v>
       </c>
@@ -8433,7 +7822,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="609" s="9" customFormat="1" spans="1:3">
+    <row r="609" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
         <v>751</v>
       </c>
@@ -8441,7 +7830,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="610" s="9" customFormat="1" spans="1:3">
+    <row r="610" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
         <v>752</v>
       </c>
@@ -8449,7 +7838,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="611" s="9" customFormat="1" spans="1:3">
+    <row r="611" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
         <v>753</v>
       </c>
@@ -8457,7 +7846,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="612" s="9" customFormat="1" spans="1:3">
+    <row r="612" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
         <v>754</v>
       </c>
@@ -8465,7 +7854,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="613" s="9" customFormat="1" spans="1:3">
+    <row r="613" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
         <v>755</v>
       </c>
@@ -8473,7 +7862,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="614" s="9" customFormat="1" spans="1:3">
+    <row r="614" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
         <v>756</v>
       </c>
@@ -8481,7 +7870,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="615" s="9" customFormat="1" spans="1:3">
+    <row r="615" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
         <v>757</v>
       </c>
@@ -8489,7 +7878,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="616" s="9" customFormat="1" spans="1:3">
+    <row r="616" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
         <v>758</v>
       </c>
@@ -8497,7 +7886,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="617" s="9" customFormat="1" spans="1:3">
+    <row r="617" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
         <v>759</v>
       </c>
@@ -8506,13 +7895,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="762">
   <si>
     <t>Id</t>
   </si>
@@ -2313,14 +2326,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2334,159 +2341,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2513,204 +2369,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2847,251 +2517,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3160,58 +2588,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3543,23 +2929,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -3581,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -3592,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -3603,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3614,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3625,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -3636,14 +3022,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:3">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
@@ -3676,7 +3062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -3687,7 +3073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
@@ -3709,7 +3095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -3717,7 +3103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -3725,7 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
@@ -3733,7 +3119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -3741,7 +3127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -3749,7 +3135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
@@ -3757,7 +3143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
@@ -3765,7 +3151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
@@ -3773,7 +3159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
@@ -3781,7 +3167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
@@ -3789,7 +3175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -3797,7 +3183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
@@ -3805,7 +3191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -3813,7 +3199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>55</v>
       </c>
@@ -3821,7 +3207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>57</v>
       </c>
@@ -3829,7 +3215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
@@ -3837,7 +3223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -3845,7 +3231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
@@ -3853,7 +3239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -3861,7 +3247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>67</v>
       </c>
@@ -3869,7 +3255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +3263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>71</v>
       </c>
@@ -3885,7 +3271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
@@ -3893,7 +3279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3901,7 +3287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:3">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -3909,7 +3295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
@@ -3917,7 +3303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -3925,7 +3311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" spans="1:3">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
@@ -3933,7 +3319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>83</v>
       </c>
@@ -3941,7 +3327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
@@ -3949,7 +3335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" s="8" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>87</v>
       </c>
@@ -3957,7 +3343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" s="8" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>88</v>
       </c>
@@ -3965,7 +3351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" s="8" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>90</v>
       </c>
@@ -3973,7 +3359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>91</v>
       </c>
@@ -3981,7 +3367,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" s="8" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>92</v>
       </c>
@@ -3989,7 +3375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" s="8" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
@@ -3997,7 +3383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" s="8" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>94</v>
       </c>
@@ -4005,7 +3391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" s="8" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
@@ -4013,7 +3399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>96</v>
       </c>
@@ -4021,7 +3407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" s="8" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>97</v>
       </c>
@@ -4029,7 +3415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" s="8" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>98</v>
       </c>
@@ -4037,7 +3423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" s="8" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>99</v>
       </c>
@@ -4045,7 +3431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" s="8" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>101</v>
       </c>
@@ -4053,7 +3439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" s="8" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
@@ -4061,7 +3447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" s="8" customFormat="1" spans="1:3">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>103</v>
       </c>
@@ -4069,7 +3455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" s="8" customFormat="1" spans="1:3">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>104</v>
       </c>
@@ -4077,7 +3463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" s="8" customFormat="1" spans="1:3">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>105</v>
       </c>
@@ -4085,7 +3471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" s="8" customFormat="1" spans="1:3">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
@@ -4093,7 +3479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" s="8" customFormat="1" spans="1:3">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>109</v>
       </c>
@@ -4101,7 +3487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" s="8" customFormat="1" spans="1:3">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>111</v>
       </c>
@@ -4109,7 +3495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" s="8" customFormat="1" spans="1:3">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>113</v>
       </c>
@@ -4117,7 +3503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" s="8" customFormat="1" spans="1:3">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>115</v>
       </c>
@@ -4125,7 +3511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" s="8" customFormat="1" spans="1:3">
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>117</v>
       </c>
@@ -4133,7 +3519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" s="8" customFormat="1" spans="1:3">
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>119</v>
       </c>
@@ -4141,7 +3527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" s="8" customFormat="1" spans="1:3">
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
@@ -4149,7 +3535,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" s="8" customFormat="1" spans="1:3">
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>123</v>
       </c>
@@ -4157,7 +3543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" s="8" customFormat="1" spans="1:3">
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
@@ -4165,7 +3551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" s="8" customFormat="1" spans="1:3">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
         <v>127</v>
       </c>
@@ -4173,7 +3559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" s="8" customFormat="1" spans="1:3">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>129</v>
       </c>
@@ -4181,7 +3567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" s="8" customFormat="1" spans="1:3">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
         <v>131</v>
       </c>
@@ -4189,7 +3575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" s="8" customFormat="1" spans="1:3">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>133</v>
       </c>
@@ -4197,7 +3583,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" s="8" customFormat="1" spans="1:3">
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
         <v>135</v>
       </c>
@@ -4205,7 +3591,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" s="8" customFormat="1" spans="1:3">
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>137</v>
       </c>
@@ -4213,7 +3599,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" s="8" customFormat="1" spans="1:3">
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>139</v>
       </c>
@@ -4221,7 +3607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" s="8" customFormat="1" spans="1:3">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>141</v>
       </c>
@@ -4229,7 +3615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" s="8" customFormat="1" spans="1:3">
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>143</v>
       </c>
@@ -4237,7 +3623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" s="8" customFormat="1" spans="1:3">
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>145</v>
       </c>
@@ -4245,7 +3631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" s="8" customFormat="1" spans="1:3">
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>147</v>
       </c>
@@ -4253,7 +3639,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" s="8" customFormat="1" spans="1:3">
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
         <v>149</v>
       </c>
@@ -4261,7 +3647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" s="8" customFormat="1" spans="1:3">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>151</v>
       </c>
@@ -4269,7 +3655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" s="8" customFormat="1" spans="1:3">
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>153</v>
       </c>
@@ -4277,7 +3663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" s="8" customFormat="1" spans="1:3">
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>155</v>
       </c>
@@ -4285,7 +3671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:3">
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>157</v>
       </c>
@@ -4293,7 +3679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" s="8" customFormat="1" spans="1:3">
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
         <v>159</v>
       </c>
@@ -4301,7 +3687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" s="8" customFormat="1" spans="1:3">
+    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>161</v>
       </c>
@@ -4309,7 +3695,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" s="8" customFormat="1" spans="1:3">
+    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>163</v>
       </c>
@@ -4317,7 +3703,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" s="8" customFormat="1" spans="1:3">
+    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
         <v>165</v>
       </c>
@@ -4325,7 +3711,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" s="8" customFormat="1" spans="1:3">
+    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>167</v>
       </c>
@@ -4333,7 +3719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:3">
+    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
         <v>169</v>
       </c>
@@ -4341,7 +3727,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:3">
+    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
         <v>171</v>
       </c>
@@ -4349,7 +3735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:3">
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
         <v>173</v>
       </c>
@@ -4357,7 +3743,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:3">
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
         <v>175</v>
       </c>
@@ -4365,7 +3751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" spans="1:3">
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
         <v>177</v>
       </c>
@@ -4373,7 +3759,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" spans="1:3">
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>179</v>
       </c>
@@ -4381,7 +3767,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" s="8" customFormat="1" spans="1:3">
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
         <v>181</v>
       </c>
@@ -4389,7 +3775,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" s="8" customFormat="1" spans="1:3">
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>183</v>
       </c>
@@ -4397,7 +3783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" s="8" customFormat="1" spans="1:3">
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
         <v>185</v>
       </c>
@@ -4405,7 +3791,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" s="8" customFormat="1" spans="1:3">
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
         <v>187</v>
       </c>
@@ -4413,7 +3799,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" s="8" customFormat="1" spans="1:3">
+    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
         <v>189</v>
       </c>
@@ -4421,7 +3807,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" s="8" customFormat="1" spans="1:3">
+    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>191</v>
       </c>
@@ -4429,7 +3815,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" s="8" customFormat="1" spans="1:3">
+    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
         <v>193</v>
       </c>
@@ -4437,7 +3823,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" s="8" customFormat="1" spans="1:3">
+    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>195</v>
       </c>
@@ -4445,7 +3831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" s="8" customFormat="1" spans="1:3">
+    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
         <v>197</v>
       </c>
@@ -4453,7 +3839,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:3">
+    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>199</v>
       </c>
@@ -4461,7 +3847,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" s="8" customFormat="1" spans="1:3">
+    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
         <v>201</v>
       </c>
@@ -4469,7 +3855,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" s="8" customFormat="1" spans="1:3">
+    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>203</v>
       </c>
@@ -4477,7 +3863,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" s="8" customFormat="1" spans="1:3">
+    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
         <v>205</v>
       </c>
@@ -4485,7 +3871,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" s="8" customFormat="1" spans="1:3">
+    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
         <v>207</v>
       </c>
@@ -4493,7 +3879,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" s="8" customFormat="1" spans="1:3">
+    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
         <v>209</v>
       </c>
@@ -4501,7 +3887,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" s="8" customFormat="1" spans="1:3">
+    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
         <v>211</v>
       </c>
@@ -4509,7 +3895,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" s="8" customFormat="1" spans="1:3">
+    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
         <v>213</v>
       </c>
@@ -4517,7 +3903,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" s="8" customFormat="1" spans="1:3">
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4525,7 +3911,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" s="8" customFormat="1" spans="1:3">
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
         <v>217</v>
       </c>
@@ -4533,7 +3919,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="118" s="8" customFormat="1" spans="1:3">
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
         <v>219</v>
       </c>
@@ -4541,7 +3927,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" s="8" customFormat="1" spans="1:3">
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
         <v>221</v>
       </c>
@@ -4549,7 +3935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="120" s="8" customFormat="1" spans="1:3">
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +3943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" s="8" customFormat="1" spans="1:3">
+    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
         <v>225</v>
       </c>
@@ -4565,7 +3951,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" s="8" customFormat="1" spans="1:3">
+    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8" t="s">
         <v>227</v>
       </c>
@@ -4573,7 +3959,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="123" s="8" customFormat="1" spans="1:3">
+    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
         <v>229</v>
       </c>
@@ -4581,7 +3967,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" s="8" customFormat="1" spans="1:3">
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
         <v>231</v>
       </c>
@@ -4589,7 +3975,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="125" s="8" customFormat="1" spans="1:3">
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8" t="s">
         <v>233</v>
       </c>
@@ -4597,7 +3983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" s="8" customFormat="1" spans="1:3">
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="8" t="s">
         <v>235</v>
       </c>
@@ -4605,7 +3991,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="127" s="8" customFormat="1" spans="1:3">
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="8" t="s">
         <v>237</v>
       </c>
@@ -4613,7 +3999,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="128" s="8" customFormat="1" spans="1:3">
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="8" t="s">
         <v>239</v>
       </c>
@@ -4621,7 +4007,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="129" s="8" customFormat="1" spans="1:3">
+    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="8" t="s">
         <v>241</v>
       </c>
@@ -4629,7 +4015,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" s="8" customFormat="1" spans="1:3">
+    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8" t="s">
         <v>243</v>
       </c>
@@ -4637,7 +4023,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" s="8" customFormat="1" spans="1:3">
+    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8" t="s">
         <v>245</v>
       </c>
@@ -4645,7 +4031,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="132" s="8" customFormat="1" spans="1:3">
+    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="8" t="s">
         <v>247</v>
       </c>
@@ -4653,7 +4039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" s="8" customFormat="1" spans="1:3">
+    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="8" t="s">
         <v>248</v>
       </c>
@@ -4661,7 +4047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" s="8" customFormat="1" spans="1:3">
+    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="8" t="s">
         <v>249</v>
       </c>
@@ -4669,7 +4055,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" s="8" customFormat="1" spans="1:3">
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8" t="s">
         <v>250</v>
       </c>
@@ -4677,7 +4063,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" s="8" customFormat="1" spans="1:3">
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="8" t="s">
         <v>251</v>
       </c>
@@ -4685,7 +4071,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" s="8" customFormat="1" spans="1:3">
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
         <v>253</v>
       </c>
@@ -4693,7 +4079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" s="8" customFormat="1" spans="1:3">
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="8" t="s">
         <v>254</v>
       </c>
@@ -4701,7 +4087,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" s="8" customFormat="1" spans="1:3">
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8" t="s">
         <v>255</v>
       </c>
@@ -4709,7 +4095,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="140" s="8" customFormat="1" spans="1:3">
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8" t="s">
         <v>256</v>
       </c>
@@ -4717,7 +4103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="141" s="8" customFormat="1" spans="1:3">
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
         <v>257</v>
       </c>
@@ -4725,7 +4111,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="142" s="8" customFormat="1" spans="1:3">
+    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
         <v>258</v>
       </c>
@@ -4733,7 +4119,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" s="8" customFormat="1" spans="1:3">
+    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
         <v>259</v>
       </c>
@@ -4741,7 +4127,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="144" s="8" customFormat="1" spans="1:3">
+    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
         <v>260</v>
       </c>
@@ -4749,7 +4135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" s="8" customFormat="1" spans="1:3">
+    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
         <v>261</v>
       </c>
@@ -4757,7 +4143,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="146" s="8" customFormat="1" spans="1:3">
+    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="8" t="s">
         <v>262</v>
       </c>
@@ -4765,7 +4151,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="147" s="8" customFormat="1" spans="1:3">
+    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="8" t="s">
         <v>263</v>
       </c>
@@ -4773,7 +4159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="148" s="8" customFormat="1" spans="1:3">
+    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="8" t="s">
         <v>264</v>
       </c>
@@ -4781,7 +4167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="149" s="8" customFormat="1" spans="1:3">
+    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="8" t="s">
         <v>265</v>
       </c>
@@ -4789,7 +4175,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" s="8" customFormat="1" spans="1:3">
+    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
         <v>266</v>
       </c>
@@ -4797,7 +4183,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" s="8" customFormat="1" spans="1:3">
+    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
         <v>267</v>
       </c>
@@ -4805,7 +4191,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" s="8" customFormat="1" spans="1:3">
+    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
         <v>268</v>
       </c>
@@ -4813,7 +4199,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="153" s="8" customFormat="1" spans="1:3">
+    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
         <v>269</v>
       </c>
@@ -4821,7 +4207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" s="8" customFormat="1" spans="1:3">
+    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
         <v>270</v>
       </c>
@@ -4829,7 +4215,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" s="8" customFormat="1" spans="1:3">
+    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
         <v>271</v>
       </c>
@@ -4837,7 +4223,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" s="8" customFormat="1" spans="1:3">
+    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
         <v>272</v>
       </c>
@@ -4845,7 +4231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="157" s="8" customFormat="1" spans="1:3">
+    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
         <v>273</v>
       </c>
@@ -4853,7 +4239,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="158" s="8" customFormat="1" spans="1:3">
+    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="8" t="s">
         <v>274</v>
       </c>
@@ -4861,7 +4247,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="159" s="8" customFormat="1" spans="1:3">
+    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8" t="s">
         <v>275</v>
       </c>
@@ -4869,7 +4255,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="160" s="8" customFormat="1" spans="1:3">
+    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8" t="s">
         <v>276</v>
       </c>
@@ -4877,7 +4263,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="161" s="8" customFormat="1" spans="1:3">
+    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8" t="s">
         <v>277</v>
       </c>
@@ -4885,7 +4271,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="162" s="8" customFormat="1" spans="1:3">
+    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="8" t="s">
         <v>278</v>
       </c>
@@ -4893,7 +4279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" s="8" customFormat="1" spans="1:3">
+    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8" t="s">
         <v>279</v>
       </c>
@@ -4901,7 +4287,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="164" s="8" customFormat="1" spans="1:3">
+    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="8" t="s">
         <v>280</v>
       </c>
@@ -4909,7 +4295,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="165" s="8" customFormat="1" spans="1:3">
+    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8" t="s">
         <v>281</v>
       </c>
@@ -4917,7 +4303,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" s="8" customFormat="1" spans="1:3">
+    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="8" t="s">
         <v>282</v>
       </c>
@@ -4925,7 +4311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" s="8" customFormat="1" spans="1:3">
+    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8" t="s">
         <v>283</v>
       </c>
@@ -4933,7 +4319,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" s="8" customFormat="1" spans="1:3">
+    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="8" t="s">
         <v>285</v>
       </c>
@@ -4941,7 +4327,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="169" s="8" customFormat="1" spans="1:3">
+    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8" t="s">
         <v>286</v>
       </c>
@@ -4949,7 +4335,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170" s="8" customFormat="1" spans="1:3">
+    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="8" t="s">
         <v>287</v>
       </c>
@@ -4957,7 +4343,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="171" s="8" customFormat="1" spans="1:3">
+    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8" t="s">
         <v>288</v>
       </c>
@@ -4965,7 +4351,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172" s="8" customFormat="1" spans="1:3">
+    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="8" t="s">
         <v>289</v>
       </c>
@@ -4973,7 +4359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" s="8" customFormat="1" spans="1:3">
+    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8" t="s">
         <v>290</v>
       </c>
@@ -4981,7 +4367,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" s="8" customFormat="1" spans="1:3">
+    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="8" t="s">
         <v>291</v>
       </c>
@@ -4989,7 +4375,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="175" s="8" customFormat="1" spans="1:3">
+    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8" t="s">
         <v>292</v>
       </c>
@@ -4997,7 +4383,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="176" s="8" customFormat="1" spans="1:3">
+    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="8" t="s">
         <v>293</v>
       </c>
@@ -5005,7 +4391,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" s="8" customFormat="1" spans="1:3">
+    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8" t="s">
         <v>294</v>
       </c>
@@ -5013,7 +4399,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" s="8" customFormat="1" spans="1:3">
+    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="8" t="s">
         <v>295</v>
       </c>
@@ -5021,7 +4407,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="179" s="8" customFormat="1" spans="1:3">
+    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8" t="s">
         <v>296</v>
       </c>
@@ -5029,7 +4415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="180" s="8" customFormat="1" spans="1:3">
+    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="8" t="s">
         <v>297</v>
       </c>
@@ -5037,7 +4423,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="181" s="8" customFormat="1" spans="1:3">
+    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8" t="s">
         <v>298</v>
       </c>
@@ -5045,7 +4431,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="182" s="8" customFormat="1" spans="1:3">
+    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="8" t="s">
         <v>299</v>
       </c>
@@ -5053,7 +4439,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="183" s="8" customFormat="1" spans="1:3">
+    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8" t="s">
         <v>300</v>
       </c>
@@ -5061,7 +4447,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="184" s="8" customFormat="1" spans="1:3">
+    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="8" t="s">
         <v>301</v>
       </c>
@@ -5069,7 +4455,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" s="8" customFormat="1" spans="1:3">
+    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8" t="s">
         <v>302</v>
       </c>
@@ -5077,7 +4463,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" s="8" customFormat="1" spans="1:3">
+    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="8" t="s">
         <v>303</v>
       </c>
@@ -5085,7 +4471,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="187" s="8" customFormat="1" spans="1:3">
+    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="8" t="s">
         <v>304</v>
       </c>
@@ -5093,7 +4479,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" s="8" customFormat="1" spans="1:3">
+    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="8" t="s">
         <v>305</v>
       </c>
@@ -5101,7 +4487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="189" s="8" customFormat="1" spans="1:3">
+    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="8" t="s">
         <v>306</v>
       </c>
@@ -5109,7 +4495,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="190" s="8" customFormat="1" spans="1:3">
+    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="8" t="s">
         <v>307</v>
       </c>
@@ -5117,7 +4503,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" s="8" customFormat="1" spans="1:3">
+    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
         <v>308</v>
       </c>
@@ -5125,7 +4511,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="192" s="8" customFormat="1" spans="1:3">
+    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="8" t="s">
         <v>309</v>
       </c>
@@ -5133,7 +4519,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="193" s="8" customFormat="1" spans="1:3">
+    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="8" t="s">
         <v>310</v>
       </c>
@@ -5141,7 +4527,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="194" s="8" customFormat="1" spans="1:3">
+    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="8" t="s">
         <v>311</v>
       </c>
@@ -5149,7 +4535,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="195" s="8" customFormat="1" spans="1:3">
+    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="8" t="s">
         <v>312</v>
       </c>
@@ -5157,7 +4543,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="196" s="8" customFormat="1" spans="1:3">
+    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="8" t="s">
         <v>313</v>
       </c>
@@ -5165,7 +4551,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="197" s="8" customFormat="1" spans="1:3">
+    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="8" t="s">
         <v>314</v>
       </c>
@@ -5173,7 +4559,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" s="8" customFormat="1" spans="1:3">
+    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="8" t="s">
         <v>316</v>
       </c>
@@ -5181,7 +4567,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="199" s="8" customFormat="1" spans="1:3">
+    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="8" t="s">
         <v>317</v>
       </c>
@@ -5189,7 +4575,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="200" s="8" customFormat="1" spans="1:3">
+    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="8" t="s">
         <v>318</v>
       </c>
@@ -5197,7 +4583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="201" s="8" customFormat="1" spans="1:3">
+    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="8" t="s">
         <v>319</v>
       </c>
@@ -5205,7 +4591,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="202" s="8" customFormat="1" spans="1:3">
+    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="8" t="s">
         <v>320</v>
       </c>
@@ -5213,7 +4599,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="203" s="8" customFormat="1" spans="1:3">
+    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="8" t="s">
         <v>321</v>
       </c>
@@ -5221,7 +4607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="204" s="8" customFormat="1" spans="1:3">
+    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="8" t="s">
         <v>322</v>
       </c>
@@ -5229,7 +4615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="205" s="8" customFormat="1" spans="1:3">
+    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="8" t="s">
         <v>323</v>
       </c>
@@ -5237,7 +4623,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="206" s="8" customFormat="1" spans="1:3">
+    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="8" t="s">
         <v>324</v>
       </c>
@@ -5245,7 +4631,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" spans="1:3">
+    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="8" t="s">
         <v>325</v>
       </c>
@@ -5253,7 +4639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="208" s="8" customFormat="1" spans="1:3">
+    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="8" t="s">
         <v>326</v>
       </c>
@@ -5261,7 +4647,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="209" s="8" customFormat="1" spans="1:3">
+    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="8" t="s">
         <v>327</v>
       </c>
@@ -5269,7 +4655,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="210" s="8" customFormat="1" spans="1:3">
+    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="8" t="s">
         <v>328</v>
       </c>
@@ -5277,7 +4663,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="211" s="8" customFormat="1" spans="1:3">
+    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="8" t="s">
         <v>329</v>
       </c>
@@ -5285,7 +4671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="212" s="8" customFormat="1" spans="1:3">
+    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="8" t="s">
         <v>330</v>
       </c>
@@ -5293,7 +4679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="213" s="8" customFormat="1" spans="1:3">
+    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="8" t="s">
         <v>331</v>
       </c>
@@ -5301,7 +4687,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="214" s="8" customFormat="1" spans="1:3">
+    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="8" t="s">
         <v>332</v>
       </c>
@@ -5309,7 +4695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="215" s="8" customFormat="1" spans="1:3">
+    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="8" t="s">
         <v>333</v>
       </c>
@@ -5317,7 +4703,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="216" s="8" customFormat="1" spans="1:3">
+    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="8" t="s">
         <v>334</v>
       </c>
@@ -5325,7 +4711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" s="8" customFormat="1" spans="1:3">
+    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="8" t="s">
         <v>335</v>
       </c>
@@ -5333,7 +4719,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="218" s="8" customFormat="1" spans="1:3">
+    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="8" t="s">
         <v>336</v>
       </c>
@@ -5341,7 +4727,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="1" spans="1:3">
+    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="8" t="s">
         <v>337</v>
       </c>
@@ -5349,7 +4735,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="1:3">
+    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="8" t="s">
         <v>338</v>
       </c>
@@ -5357,7 +4743,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="221" s="8" customFormat="1" spans="1:3">
+    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="8" t="s">
         <v>339</v>
       </c>
@@ -5365,7 +4751,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="222" s="8" customFormat="1" spans="1:3">
+    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="8" t="s">
         <v>340</v>
       </c>
@@ -5373,7 +4759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="223" s="8" customFormat="1" spans="1:3">
+    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="8" t="s">
         <v>341</v>
       </c>
@@ -5381,7 +4767,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="224" s="8" customFormat="1" spans="1:3">
+    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="8" t="s">
         <v>342</v>
       </c>
@@ -5389,7 +4775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="225" s="8" customFormat="1" spans="1:3">
+    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="8" t="s">
         <v>343</v>
       </c>
@@ -5397,7 +4783,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="226" s="8" customFormat="1" spans="1:3">
+    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="8" t="s">
         <v>344</v>
       </c>
@@ -5405,7 +4791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="227" s="8" customFormat="1" spans="1:3">
+    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="8" t="s">
         <v>345</v>
       </c>
@@ -5413,7 +4799,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="228" s="8" customFormat="1" spans="1:3">
+    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="8" t="s">
         <v>347</v>
       </c>
@@ -5421,7 +4807,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="229" s="8" customFormat="1" spans="1:3">
+    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="8" t="s">
         <v>348</v>
       </c>
@@ -5429,7 +4815,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="230" s="8" customFormat="1" spans="1:3">
+    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="8" t="s">
         <v>349</v>
       </c>
@@ -5437,7 +4823,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="231" s="8" customFormat="1" spans="1:3">
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="8" t="s">
         <v>350</v>
       </c>
@@ -5445,7 +4831,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="232" s="8" customFormat="1" spans="1:3">
+    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="8" t="s">
         <v>351</v>
       </c>
@@ -5453,7 +4839,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="233" s="8" customFormat="1" spans="1:3">
+    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="8" t="s">
         <v>352</v>
       </c>
@@ -5461,7 +4847,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="234" s="8" customFormat="1" spans="1:3">
+    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="8" t="s">
         <v>353</v>
       </c>
@@ -5469,7 +4855,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="235" s="8" customFormat="1" spans="1:3">
+    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="8" t="s">
         <v>354</v>
       </c>
@@ -5477,7 +4863,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="236" s="8" customFormat="1" spans="1:3">
+    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="8" t="s">
         <v>355</v>
       </c>
@@ -5485,7 +4871,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="237" s="8" customFormat="1" spans="1:3">
+    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="8" t="s">
         <v>356</v>
       </c>
@@ -5493,7 +4879,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="238" s="8" customFormat="1" spans="1:3">
+    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="8" t="s">
         <v>357</v>
       </c>
@@ -5501,7 +4887,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="239" s="8" customFormat="1" spans="1:3">
+    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="8" t="s">
         <v>358</v>
       </c>
@@ -5509,7 +4895,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="240" s="8" customFormat="1" spans="1:3">
+    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="8" t="s">
         <v>359</v>
       </c>
@@ -5517,7 +4903,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="241" s="8" customFormat="1" spans="1:3">
+    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
         <v>360</v>
       </c>
@@ -5525,7 +4911,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="242" s="8" customFormat="1" spans="1:3">
+    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="8" t="s">
         <v>361</v>
       </c>
@@ -5533,7 +4919,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" s="8" customFormat="1" spans="1:3">
+    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
         <v>362</v>
       </c>
@@ -5541,7 +4927,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="244" s="8" customFormat="1" spans="1:3">
+    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="8" t="s">
         <v>363</v>
       </c>
@@ -5549,7 +4935,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="245" s="8" customFormat="1" spans="1:3">
+    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
         <v>364</v>
       </c>
@@ -5557,7 +4943,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="1" spans="1:3">
+    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="8" t="s">
         <v>365</v>
       </c>
@@ -5565,7 +4951,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="247" s="8" customFormat="1" spans="1:3">
+    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="8" t="s">
         <v>366</v>
       </c>
@@ -5573,7 +4959,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" s="8" customFormat="1" spans="1:3">
+    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="8" t="s">
         <v>367</v>
       </c>
@@ -5581,7 +4967,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="249" s="8" customFormat="1" spans="1:3">
+    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
         <v>368</v>
       </c>
@@ -5589,7 +4975,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="250" s="8" customFormat="1" spans="1:3">
+    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
         <v>369</v>
       </c>
@@ -5597,7 +4983,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="251" s="8" customFormat="1" spans="1:3">
+    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
         <v>370</v>
       </c>
@@ -5605,7 +4991,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="252" s="8" customFormat="1" spans="1:3">
+    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="8" t="s">
         <v>371</v>
       </c>
@@ -5613,7 +4999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="253" s="8" customFormat="1" spans="1:3">
+    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
         <v>372</v>
       </c>
@@ -5621,7 +5007,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="254" s="8" customFormat="1" spans="1:3">
+    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="8" t="s">
         <v>373</v>
       </c>
@@ -5629,7 +5015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="255" s="8" customFormat="1" spans="1:3">
+    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="8" t="s">
         <v>374</v>
       </c>
@@ -5637,7 +5023,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="256" s="8" customFormat="1" spans="1:3">
+    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="8" t="s">
         <v>375</v>
       </c>
@@ -5645,7 +5031,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="257" s="8" customFormat="1" spans="1:3">
+    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="8" t="s">
         <v>376</v>
       </c>
@@ -5653,7 +5039,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" s="8" customFormat="1" spans="1:3">
+    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A258" s="8" t="s">
         <v>378</v>
       </c>
@@ -5661,7 +5047,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="259" s="8" customFormat="1" spans="1:3">
+    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A259" s="8" t="s">
         <v>379</v>
       </c>
@@ -5669,7 +5055,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="260" s="8" customFormat="1" spans="1:3">
+    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="8" t="s">
         <v>380</v>
       </c>
@@ -5677,7 +5063,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="261" s="8" customFormat="1" spans="1:3">
+    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="8" t="s">
         <v>381</v>
       </c>
@@ -5685,7 +5071,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="262" s="8" customFormat="1" spans="1:3">
+    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="8" t="s">
         <v>382</v>
       </c>
@@ -5693,7 +5079,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="263" s="8" customFormat="1" spans="1:3">
+    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="8" t="s">
         <v>383</v>
       </c>
@@ -5701,7 +5087,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="264" s="8" customFormat="1" spans="1:3">
+    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="8" t="s">
         <v>384</v>
       </c>
@@ -5709,7 +5095,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="265" s="8" customFormat="1" spans="1:3">
+    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="8" t="s">
         <v>385</v>
       </c>
@@ -5717,7 +5103,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="266" s="8" customFormat="1" spans="1:3">
+    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A266" s="8" t="s">
         <v>386</v>
       </c>
@@ -5725,7 +5111,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="267" s="8" customFormat="1" spans="1:3">
+    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A267" s="8" t="s">
         <v>387</v>
       </c>
@@ -5733,7 +5119,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="268" s="8" customFormat="1" spans="1:3">
+    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="8" t="s">
         <v>388</v>
       </c>
@@ -5741,7 +5127,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="269" s="8" customFormat="1" spans="1:3">
+    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="8" t="s">
         <v>389</v>
       </c>
@@ -5749,7 +5135,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="270" s="8" customFormat="1" spans="1:3">
+    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A270" s="8" t="s">
         <v>390</v>
       </c>
@@ -5757,7 +5143,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="271" s="8" customFormat="1" spans="1:3">
+    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A271" s="8" t="s">
         <v>391</v>
       </c>
@@ -5765,7 +5151,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="272" s="8" customFormat="1" spans="1:3">
+    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="8" t="s">
         <v>392</v>
       </c>
@@ -5773,7 +5159,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="273" s="8" customFormat="1" spans="1:3">
+    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="8" t="s">
         <v>393</v>
       </c>
@@ -5781,7 +5167,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="274" s="8" customFormat="1" spans="1:3">
+    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="8" t="s">
         <v>394</v>
       </c>
@@ -5789,7 +5175,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="275" s="8" customFormat="1" spans="1:3">
+    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="8" t="s">
         <v>395</v>
       </c>
@@ -5797,7 +5183,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="276" s="8" customFormat="1" spans="1:3">
+    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="8" t="s">
         <v>396</v>
       </c>
@@ -5805,7 +5191,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="277" s="8" customFormat="1" spans="1:3">
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="8" t="s">
         <v>397</v>
       </c>
@@ -5813,7 +5199,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="278" s="8" customFormat="1" spans="1:3">
+    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="8" t="s">
         <v>398</v>
       </c>
@@ -5821,7 +5207,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="279" s="8" customFormat="1" spans="1:3">
+    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="8" t="s">
         <v>399</v>
       </c>
@@ -5829,7 +5215,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="280" s="8" customFormat="1" spans="1:3">
+    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="8" t="s">
         <v>400</v>
       </c>
@@ -5837,7 +5223,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="281" s="8" customFormat="1" spans="1:3">
+    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="8" t="s">
         <v>401</v>
       </c>
@@ -5845,7 +5231,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="282" s="8" customFormat="1" spans="1:3">
+    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="8" t="s">
         <v>402</v>
       </c>
@@ -5853,7 +5239,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="283" s="8" customFormat="1" spans="1:3">
+    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="8" t="s">
         <v>403</v>
       </c>
@@ -5861,7 +5247,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="284" s="8" customFormat="1" spans="1:3">
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="8" t="s">
         <v>404</v>
       </c>
@@ -5869,7 +5255,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="285" s="8" customFormat="1" spans="1:3">
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="8" t="s">
         <v>405</v>
       </c>
@@ -5877,7 +5263,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="286" s="8" customFormat="1" spans="1:3">
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="8" t="s">
         <v>406</v>
       </c>
@@ -5885,7 +5271,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" spans="1:3">
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="8" t="s">
         <v>407</v>
       </c>
@@ -5893,7 +5279,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="288" s="8" customFormat="1" spans="1:3">
+    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="8" t="s">
         <v>409</v>
       </c>
@@ -5901,7 +5287,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="289" s="8" customFormat="1" spans="1:3">
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="8" t="s">
         <v>410</v>
       </c>
@@ -5909,7 +5295,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="290" s="8" customFormat="1" spans="1:3">
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="8" t="s">
         <v>411</v>
       </c>
@@ -5917,7 +5303,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="291" s="8" customFormat="1" spans="1:3">
+    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="8" t="s">
         <v>412</v>
       </c>
@@ -5925,7 +5311,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="292" s="8" customFormat="1" spans="1:3">
+    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="8" t="s">
         <v>413</v>
       </c>
@@ -5933,7 +5319,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="293" s="8" customFormat="1" spans="1:3">
+    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="8" t="s">
         <v>414</v>
       </c>
@@ -5941,7 +5327,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="294" s="8" customFormat="1" spans="1:3">
+    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="8" t="s">
         <v>415</v>
       </c>
@@ -5949,7 +5335,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="295" s="8" customFormat="1" spans="1:3">
+    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="8" t="s">
         <v>416</v>
       </c>
@@ -5957,7 +5343,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="296" s="8" customFormat="1" spans="1:3">
+    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="8" t="s">
         <v>417</v>
       </c>
@@ -5965,7 +5351,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="297" s="8" customFormat="1" spans="1:3">
+    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="8" t="s">
         <v>418</v>
       </c>
@@ -5973,7 +5359,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="298" s="8" customFormat="1" spans="1:3">
+    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="8" t="s">
         <v>419</v>
       </c>
@@ -5981,7 +5367,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="299" s="8" customFormat="1" spans="1:3">
+    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="8" t="s">
         <v>420</v>
       </c>
@@ -5989,7 +5375,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="300" s="8" customFormat="1" spans="1:3">
+    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="8" t="s">
         <v>421</v>
       </c>
@@ -5997,7 +5383,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="301" s="8" customFormat="1" spans="1:3">
+    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="8" t="s">
         <v>422</v>
       </c>
@@ -6005,7 +5391,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="302" s="8" customFormat="1" spans="1:3">
+    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="8" t="s">
         <v>423</v>
       </c>
@@ -6013,7 +5399,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="303" s="8" customFormat="1" spans="1:3">
+    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="8" t="s">
         <v>424</v>
       </c>
@@ -6021,7 +5407,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="304" s="8" customFormat="1" spans="1:3">
+    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="8" t="s">
         <v>425</v>
       </c>
@@ -6029,7 +5415,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="305" s="8" customFormat="1" spans="1:3">
+    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A305" s="8" t="s">
         <v>426</v>
       </c>
@@ -6037,7 +5423,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="306" s="8" customFormat="1" spans="1:3">
+    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="8" t="s">
         <v>427</v>
       </c>
@@ -6045,7 +5431,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="307" s="8" customFormat="1" spans="1:3">
+    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="8" t="s">
         <v>428</v>
       </c>
@@ -6053,7 +5439,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="308" s="8" customFormat="1" spans="1:3">
+    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="8" t="s">
         <v>429</v>
       </c>
@@ -6061,7 +5447,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="309" s="8" customFormat="1" spans="1:3">
+    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="8" t="s">
         <v>430</v>
       </c>
@@ -6069,7 +5455,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="310" s="8" customFormat="1" spans="1:3">
+    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="8" t="s">
         <v>431</v>
       </c>
@@ -6077,7 +5463,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="311" s="8" customFormat="1" spans="1:3">
+    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="8" t="s">
         <v>432</v>
       </c>
@@ -6085,7 +5471,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="1:3">
+    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A312" s="8" t="s">
         <v>433</v>
       </c>
@@ -6093,7 +5479,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="1:3">
+    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A313" s="8" t="s">
         <v>434</v>
       </c>
@@ -6101,7 +5487,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="1:3">
+    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="8" t="s">
         <v>435</v>
       </c>
@@ -6109,7 +5495,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="315" s="8" customFormat="1" spans="1:3">
+    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="8" t="s">
         <v>436</v>
       </c>
@@ -6117,7 +5503,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="316" s="9" customFormat="1" spans="1:3">
+    <row r="316" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>437</v>
       </c>
@@ -6125,7 +5511,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="317" s="10" customFormat="1" spans="1:3">
+    <row r="317" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A317" s="10" t="s">
         <v>438</v>
       </c>
@@ -6133,7 +5519,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="318" s="10" customFormat="1" spans="1:3">
+    <row r="318" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A318" s="10" t="s">
         <v>440</v>
       </c>
@@ -6141,7 +5527,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="319" s="10" customFormat="1" spans="1:3">
+    <row r="319" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A319" s="10" t="s">
         <v>441</v>
       </c>
@@ -6149,7 +5535,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="320" s="10" customFormat="1" spans="1:3">
+    <row r="320" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A320" s="10" t="s">
         <v>442</v>
       </c>
@@ -6157,7 +5543,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="321" s="10" customFormat="1" spans="1:3">
+    <row r="321" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A321" s="10" t="s">
         <v>443</v>
       </c>
@@ -6165,7 +5551,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="322" s="10" customFormat="1" spans="1:3">
+    <row r="322" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A322" s="10" t="s">
         <v>444</v>
       </c>
@@ -6173,7 +5559,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="323" s="10" customFormat="1" spans="1:3">
+    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A323" s="10" t="s">
         <v>445</v>
       </c>
@@ -6181,7 +5567,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="324" s="10" customFormat="1" spans="1:3">
+    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A324" s="10" t="s">
         <v>446</v>
       </c>
@@ -6189,7 +5575,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="325" s="10" customFormat="1" spans="1:3">
+    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A325" s="10" t="s">
         <v>447</v>
       </c>
@@ -6197,7 +5583,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="326" s="10" customFormat="1" spans="1:3">
+    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A326" s="10" t="s">
         <v>449</v>
       </c>
@@ -6205,7 +5591,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="327" s="10" customFormat="1" spans="1:3">
+    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="10" t="s">
         <v>450</v>
       </c>
@@ -6213,7 +5599,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="328" s="10" customFormat="1" spans="1:3">
+    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="10" t="s">
         <v>451</v>
       </c>
@@ -6221,7 +5607,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="329" s="10" customFormat="1" spans="1:3">
+    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A329" s="10" t="s">
         <v>452</v>
       </c>
@@ -6229,7 +5615,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="330" s="10" customFormat="1" spans="1:3">
+    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A330" s="10" t="s">
         <v>454</v>
       </c>
@@ -6237,7 +5623,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="331" s="10" customFormat="1" spans="1:3">
+    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A331" s="10" t="s">
         <v>455</v>
       </c>
@@ -6245,7 +5631,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="332" s="10" customFormat="1" spans="1:3">
+    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A332" s="10" t="s">
         <v>456</v>
       </c>
@@ -6253,7 +5639,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" s="10" customFormat="1" spans="1:3">
+    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A333" s="10" t="s">
         <v>457</v>
       </c>
@@ -6261,7 +5647,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="334" s="10" customFormat="1" spans="1:3">
+    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="10" t="s">
         <v>459</v>
       </c>
@@ -6269,7 +5655,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="335" s="10" customFormat="1" spans="1:3">
+    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A335" s="10" t="s">
         <v>460</v>
       </c>
@@ -6277,7 +5663,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="336" s="10" customFormat="1" spans="1:3">
+    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A336" s="10" t="s">
         <v>461</v>
       </c>
@@ -6285,7 +5671,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="337" s="10" customFormat="1" spans="1:3">
+    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337" s="10" t="s">
         <v>462</v>
       </c>
@@ -6293,7 +5679,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="338" s="10" customFormat="1" spans="1:3">
+    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338" s="10" t="s">
         <v>464</v>
       </c>
@@ -6301,7 +5687,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="339" s="10" customFormat="1" spans="1:3">
+    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="10" t="s">
         <v>465</v>
       </c>
@@ -6309,7 +5695,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="340" s="10" customFormat="1" spans="1:3">
+    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A340" s="10" t="s">
         <v>466</v>
       </c>
@@ -6317,7 +5703,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="341" s="10" customFormat="1" spans="1:3">
+    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="10" t="s">
         <v>467</v>
       </c>
@@ -6325,7 +5711,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="1" spans="1:3">
+    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="10" t="s">
         <v>468</v>
       </c>
@@ -6333,7 +5719,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="1" spans="1:3">
+    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="10" t="s">
         <v>470</v>
       </c>
@@ -6341,7 +5727,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="344" s="10" customFormat="1" spans="1:3">
+    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344" s="10" t="s">
         <v>471</v>
       </c>
@@ -6349,7 +5735,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="345" s="10" customFormat="1" spans="1:3">
+    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A345" s="10" t="s">
         <v>472</v>
       </c>
@@ -6357,7 +5743,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="346" s="10" customFormat="1" spans="1:3">
+    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="10" t="s">
         <v>473</v>
       </c>
@@ -6365,7 +5751,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="347" s="10" customFormat="1" spans="1:3">
+    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="10" t="s">
         <v>474</v>
       </c>
@@ -6373,7 +5759,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="1" spans="1:3">
+    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="10" t="s">
         <v>475</v>
       </c>
@@ -6381,7 +5767,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="349" s="10" customFormat="1" spans="1:3">
+    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="10" t="s">
         <v>477</v>
       </c>
@@ -6389,7 +5775,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="350" s="10" customFormat="1" spans="1:3">
+    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350" s="10" t="s">
         <v>478</v>
       </c>
@@ -6397,7 +5783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="351" s="10" customFormat="1" spans="1:3">
+    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351" s="10" t="s">
         <v>479</v>
       </c>
@@ -6405,7 +5791,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="352" s="10" customFormat="1" spans="1:3">
+    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="10" t="s">
         <v>480</v>
       </c>
@@ -6413,7 +5799,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="353" s="10" customFormat="1" spans="1:3">
+    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="10" t="s">
         <v>481</v>
       </c>
@@ -6421,7 +5807,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="354" s="10" customFormat="1" spans="1:3">
+    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A354" s="10" t="s">
         <v>482</v>
       </c>
@@ -6429,7 +5815,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="355" s="10" customFormat="1" spans="1:3">
+    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="10" t="s">
         <v>483</v>
       </c>
@@ -6437,7 +5823,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="356" s="10" customFormat="1" spans="1:3">
+    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A356" s="10" t="s">
         <v>484</v>
       </c>
@@ -6445,7 +5831,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="357" s="10" customFormat="1" spans="1:3">
+    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="10" t="s">
         <v>485</v>
       </c>
@@ -6453,7 +5839,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="358" s="10" customFormat="1" spans="1:3">
+    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="10" t="s">
         <v>486</v>
       </c>
@@ -6461,7 +5847,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="359" s="10" customFormat="1" spans="1:3">
+    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A359" s="10" t="s">
         <v>488</v>
       </c>
@@ -6469,7 +5855,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="360" s="10" customFormat="1" spans="1:3">
+    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A360" s="10" t="s">
         <v>489</v>
       </c>
@@ -6477,7 +5863,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="361" s="10" customFormat="1" spans="1:3">
+    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361" s="10" t="s">
         <v>490</v>
       </c>
@@ -6485,7 +5871,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="362" s="10" customFormat="1" spans="1:3">
+    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A362" s="10" t="s">
         <v>491</v>
       </c>
@@ -6493,7 +5879,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="363" s="10" customFormat="1" spans="1:3">
+    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A363" s="10" t="s">
         <v>492</v>
       </c>
@@ -6501,7 +5887,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="364" s="10" customFormat="1" spans="1:3">
+    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A364" s="10" t="s">
         <v>494</v>
       </c>
@@ -6509,7 +5895,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="365" s="10" customFormat="1" spans="1:3">
+    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A365" s="10" t="s">
         <v>495</v>
       </c>
@@ -6517,7 +5903,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="366" s="10" customFormat="1" spans="1:3">
+    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="10" t="s">
         <v>496</v>
       </c>
@@ -6525,7 +5911,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="367" s="10" customFormat="1" spans="1:3">
+    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A367" s="10" t="s">
         <v>497</v>
       </c>
@@ -6533,7 +5919,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="368" s="10" customFormat="1" spans="1:3">
+    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A368" s="10" t="s">
         <v>498</v>
       </c>
@@ -6541,7 +5927,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="369" s="10" customFormat="1" spans="1:3">
+    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="10" t="s">
         <v>499</v>
       </c>
@@ -6549,7 +5935,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="370" s="10" customFormat="1" spans="1:3">
+    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="10" t="s">
         <v>500</v>
       </c>
@@ -6557,7 +5943,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="371" s="10" customFormat="1" spans="1:3">
+    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="10" t="s">
         <v>501</v>
       </c>
@@ -6565,7 +5951,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="372" s="10" customFormat="1" spans="1:3">
+    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A372" s="10" t="s">
         <v>502</v>
       </c>
@@ -6573,7 +5959,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="373" s="10" customFormat="1" spans="1:3">
+    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="10" t="s">
         <v>503</v>
       </c>
@@ -6581,7 +5967,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="374" s="10" customFormat="1" spans="1:3">
+    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="10" t="s">
         <v>505</v>
       </c>
@@ -6589,7 +5975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="375" s="10" customFormat="1" spans="1:3">
+    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A375" s="10" t="s">
         <v>506</v>
       </c>
@@ -6597,7 +5983,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="376" s="10" customFormat="1" spans="1:3">
+    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="10" t="s">
         <v>507</v>
       </c>
@@ -6605,7 +5991,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="377" s="10" customFormat="1" spans="1:3">
+    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A377" s="10" t="s">
         <v>508</v>
       </c>
@@ -6613,7 +5999,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="378" s="10" customFormat="1" spans="1:3">
+    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A378" s="10" t="s">
         <v>509</v>
       </c>
@@ -6621,7 +6007,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="379" s="10" customFormat="1" spans="1:3">
+    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A379" s="10" t="s">
         <v>510</v>
       </c>
@@ -6629,7 +6015,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="380" s="10" customFormat="1" spans="1:3">
+    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="10" t="s">
         <v>511</v>
       </c>
@@ -6637,7 +6023,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="381" s="10" customFormat="1" spans="1:3">
+    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A381" s="10" t="s">
         <v>512</v>
       </c>
@@ -6645,7 +6031,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="382" s="10" customFormat="1" spans="1:3">
+    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A382" s="10" t="s">
         <v>513</v>
       </c>
@@ -6653,7 +6039,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="383" s="10" customFormat="1" spans="1:3">
+    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A383" s="10" t="s">
         <v>514</v>
       </c>
@@ -6661,7 +6047,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="384" s="10" customFormat="1" spans="1:3">
+    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="10" t="s">
         <v>516</v>
       </c>
@@ -6669,7 +6055,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="385" s="10" customFormat="1" spans="1:3">
+    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A385" s="10" t="s">
         <v>517</v>
       </c>
@@ -6677,7 +6063,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="386" s="10" customFormat="1" spans="1:3">
+    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A386" s="10" t="s">
         <v>518</v>
       </c>
@@ -6685,7 +6071,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="387" s="10" customFormat="1" spans="1:3">
+    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A387" s="10" t="s">
         <v>519</v>
       </c>
@@ -6693,7 +6079,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="388" s="10" customFormat="1" spans="1:3">
+    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="10" t="s">
         <v>520</v>
       </c>
@@ -6701,7 +6087,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="389" s="10" customFormat="1" spans="1:3">
+    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="10" t="s">
         <v>521</v>
       </c>
@@ -6709,7 +6095,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="390" s="10" customFormat="1" spans="1:3">
+    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A390" s="10" t="s">
         <v>522</v>
       </c>
@@ -6717,7 +6103,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="391" s="10" customFormat="1" spans="1:3">
+    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A391" s="10" t="s">
         <v>523</v>
       </c>
@@ -6725,7 +6111,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="392" s="10" customFormat="1" spans="1:3">
+    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="10" t="s">
         <v>524</v>
       </c>
@@ -6733,7 +6119,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="393" s="10" customFormat="1" spans="1:3">
+    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A393" s="10" t="s">
         <v>525</v>
       </c>
@@ -6741,7 +6127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="394" s="10" customFormat="1" spans="1:3">
+    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="10" t="s">
         <v>527</v>
       </c>
@@ -6749,7 +6135,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="395" s="10" customFormat="1" spans="1:3">
+    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="10" t="s">
         <v>528</v>
       </c>
@@ -6757,7 +6143,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="396" s="10" customFormat="1" spans="1:3">
+    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A396" s="10" t="s">
         <v>529</v>
       </c>
@@ -6765,7 +6151,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="397" s="10" customFormat="1" spans="1:3">
+    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A397" s="10" t="s">
         <v>530</v>
       </c>
@@ -6773,7 +6159,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="398" s="10" customFormat="1" spans="1:3">
+    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A398" s="10" t="s">
         <v>531</v>
       </c>
@@ -6781,7 +6167,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="399" s="10" customFormat="1" spans="1:3">
+    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A399" s="10" t="s">
         <v>532</v>
       </c>
@@ -6789,7 +6175,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="400" s="10" customFormat="1" spans="1:3">
+    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A400" s="10" t="s">
         <v>533</v>
       </c>
@@ -6797,7 +6183,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="401" s="10" customFormat="1" spans="1:3">
+    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A401" s="10" t="s">
         <v>534</v>
       </c>
@@ -6805,7 +6191,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="402" s="10" customFormat="1" spans="1:3">
+    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="10" t="s">
         <v>535</v>
       </c>
@@ -6813,7 +6199,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="403" s="10" customFormat="1" spans="1:3">
+    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A403" s="10" t="s">
         <v>536</v>
       </c>
@@ -6821,7 +6207,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="404" s="10" customFormat="1" spans="1:3">
+    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A404" s="10" t="s">
         <v>538</v>
       </c>
@@ -6829,7 +6215,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="405" s="10" customFormat="1" spans="1:3">
+    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A405" s="10" t="s">
         <v>539</v>
       </c>
@@ -6837,7 +6223,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="406" s="10" customFormat="1" spans="1:3">
+    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="10" t="s">
         <v>540</v>
       </c>
@@ -6845,7 +6231,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="407" s="10" customFormat="1" spans="1:3">
+    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="10" t="s">
         <v>541</v>
       </c>
@@ -6853,7 +6239,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="408" s="10" customFormat="1" spans="1:3">
+    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A408" s="10" t="s">
         <v>542</v>
       </c>
@@ -6861,7 +6247,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="409" s="10" customFormat="1" spans="1:3">
+    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A409" s="10" t="s">
         <v>543</v>
       </c>
@@ -6869,7 +6255,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="410" s="10" customFormat="1" spans="1:3">
+    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A410" s="10" t="s">
         <v>544</v>
       </c>
@@ -6877,7 +6263,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="411" s="10" customFormat="1" spans="1:3">
+    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A411" s="10" t="s">
         <v>545</v>
       </c>
@@ -6885,7 +6271,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="412" s="10" customFormat="1" spans="1:3">
+    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A412" s="10" t="s">
         <v>546</v>
       </c>
@@ -6893,7 +6279,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="413" s="10" customFormat="1" spans="1:3">
+    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A413" s="10" t="s">
         <v>547</v>
       </c>
@@ -6901,7 +6287,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="414" s="10" customFormat="1" spans="1:3">
+    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A414" s="10" t="s">
         <v>549</v>
       </c>
@@ -6909,7 +6295,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="415" s="10" customFormat="1" spans="1:3">
+    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A415" s="10" t="s">
         <v>550</v>
       </c>
@@ -6917,7 +6303,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="416" s="10" customFormat="1" spans="1:3">
+    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A416" s="10" t="s">
         <v>551</v>
       </c>
@@ -6925,7 +6311,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="417" s="10" customFormat="1" spans="1:3">
+    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A417" s="10" t="s">
         <v>552</v>
       </c>
@@ -6933,7 +6319,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="418" s="10" customFormat="1" spans="1:3">
+    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A418" s="10" t="s">
         <v>553</v>
       </c>
@@ -6941,7 +6327,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="419" s="10" customFormat="1" spans="1:3">
+    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A419" s="10" t="s">
         <v>554</v>
       </c>
@@ -6949,7 +6335,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="420" s="10" customFormat="1" spans="1:3">
+    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A420" s="10" t="s">
         <v>555</v>
       </c>
@@ -6957,7 +6343,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="421" s="10" customFormat="1" spans="1:3">
+    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A421" s="10" t="s">
         <v>556</v>
       </c>
@@ -6965,7 +6351,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="422" s="10" customFormat="1" spans="1:3">
+    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A422" s="10" t="s">
         <v>557</v>
       </c>
@@ -6973,7 +6359,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="423" s="10" customFormat="1" spans="1:3">
+    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A423" s="10" t="s">
         <v>558</v>
       </c>
@@ -6981,7 +6367,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="424" s="10" customFormat="1" spans="1:3">
+    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A424" s="10" t="s">
         <v>560</v>
       </c>
@@ -6989,7 +6375,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="425" s="10" customFormat="1" spans="1:3">
+    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A425" s="10" t="s">
         <v>561</v>
       </c>
@@ -6997,7 +6383,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="426" s="10" customFormat="1" spans="1:3">
+    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A426" s="10" t="s">
         <v>562</v>
       </c>
@@ -7005,7 +6391,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="427" s="10" customFormat="1" spans="1:3">
+    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A427" s="10" t="s">
         <v>563</v>
       </c>
@@ -7013,7 +6399,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="428" s="10" customFormat="1" spans="1:3">
+    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A428" s="10" t="s">
         <v>564</v>
       </c>
@@ -7021,7 +6407,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="429" s="10" customFormat="1" spans="1:3">
+    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A429" s="10" t="s">
         <v>565</v>
       </c>
@@ -7029,7 +6415,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="430" s="10" customFormat="1" spans="1:3">
+    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A430" s="10" t="s">
         <v>566</v>
       </c>
@@ -7037,7 +6423,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="431" s="10" customFormat="1" spans="1:3">
+    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A431" s="10" t="s">
         <v>567</v>
       </c>
@@ -7045,7 +6431,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="432" s="10" customFormat="1" spans="1:3">
+    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A432" s="10" t="s">
         <v>568</v>
       </c>
@@ -7053,7 +6439,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="433" s="10" customFormat="1" spans="1:3">
+    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A433" s="10" t="s">
         <v>569</v>
       </c>
@@ -7061,7 +6447,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="434" s="10" customFormat="1" spans="1:3">
+    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A434" s="10" t="s">
         <v>571</v>
       </c>
@@ -7069,7 +6455,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="435" s="10" customFormat="1" spans="1:3">
+    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A435" s="10" t="s">
         <v>572</v>
       </c>
@@ -7077,7 +6463,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="436" s="10" customFormat="1" spans="1:3">
+    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A436" s="10" t="s">
         <v>573</v>
       </c>
@@ -7085,7 +6471,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="437" s="10" customFormat="1" spans="1:3">
+    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A437" s="10" t="s">
         <v>574</v>
       </c>
@@ -7093,7 +6479,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="438" s="10" customFormat="1" spans="1:3">
+    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A438" s="10" t="s">
         <v>575</v>
       </c>
@@ -7101,7 +6487,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="439" s="10" customFormat="1" spans="1:3">
+    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A439" s="10" t="s">
         <v>576</v>
       </c>
@@ -7109,7 +6495,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="440" s="10" customFormat="1" spans="1:3">
+    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A440" s="10" t="s">
         <v>578</v>
       </c>
@@ -7117,7 +6503,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="441" s="10" customFormat="1" spans="1:3">
+    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A441" s="10" t="s">
         <v>579</v>
       </c>
@@ -7125,7 +6511,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="442" s="10" customFormat="1" spans="1:3">
+    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A442" s="10" t="s">
         <v>580</v>
       </c>
@@ -7133,7 +6519,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="443" s="10" customFormat="1" spans="1:3">
+    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A443" s="10" t="s">
         <v>581</v>
       </c>
@@ -7141,7 +6527,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="444" s="10" customFormat="1" spans="1:3">
+    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A444" s="10" t="s">
         <v>582</v>
       </c>
@@ -7149,7 +6535,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="445" s="10" customFormat="1" spans="1:3">
+    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A445" s="10" t="s">
         <v>583</v>
       </c>
@@ -7157,7 +6543,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="446" s="10" customFormat="1" spans="1:3">
+    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A446" s="10" t="s">
         <v>584</v>
       </c>
@@ -7165,7 +6551,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="447" s="10" customFormat="1" spans="1:3">
+    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A447" s="10" t="s">
         <v>585</v>
       </c>
@@ -7173,7 +6559,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="448" s="10" customFormat="1" spans="1:3">
+    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A448" s="10" t="s">
         <v>586</v>
       </c>
@@ -7181,7 +6567,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="449" s="10" customFormat="1" spans="1:3">
+    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A449" s="10" t="s">
         <v>587</v>
       </c>
@@ -7189,7 +6575,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="450" s="10" customFormat="1" spans="1:3">
+    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="10" t="s">
         <v>588</v>
       </c>
@@ -7197,7 +6583,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="451" s="10" customFormat="1" spans="1:3">
+    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A451" s="10" t="s">
         <v>589</v>
       </c>
@@ -7205,7 +6591,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="452" s="10" customFormat="1" spans="1:3">
+    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A452" s="10" t="s">
         <v>590</v>
       </c>
@@ -7213,7 +6599,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="453" s="10" customFormat="1" spans="1:3">
+    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A453" s="10" t="s">
         <v>591</v>
       </c>
@@ -7221,7 +6607,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="454" s="10" customFormat="1" spans="1:3">
+    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A454" s="10" t="s">
         <v>592</v>
       </c>
@@ -7229,7 +6615,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="455" s="10" customFormat="1" spans="1:3">
+    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A455" s="10" t="s">
         <v>593</v>
       </c>
@@ -7237,7 +6623,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="456" s="10" customFormat="1" spans="1:3">
+    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A456" s="10" t="s">
         <v>594</v>
       </c>
@@ -7245,7 +6631,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="457" s="10" customFormat="1" spans="1:3">
+    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A457" s="10" t="s">
         <v>595</v>
       </c>
@@ -7253,7 +6639,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="458" s="10" customFormat="1" spans="1:3">
+    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A458" s="10" t="s">
         <v>596</v>
       </c>
@@ -7261,7 +6647,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="459" s="10" customFormat="1" spans="1:3">
+    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A459" s="10" t="s">
         <v>597</v>
       </c>
@@ -7269,7 +6655,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="460" s="10" customFormat="1" spans="1:3">
+    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A460" s="10" t="s">
         <v>598</v>
       </c>
@@ -7277,7 +6663,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="461" s="10" customFormat="1" spans="1:3">
+    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A461" s="10" t="s">
         <v>599</v>
       </c>
@@ -7285,7 +6671,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="462" s="10" customFormat="1" spans="1:3">
+    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A462" s="10" t="s">
         <v>600</v>
       </c>
@@ -7293,7 +6679,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="463" s="10" customFormat="1" spans="1:3">
+    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A463" s="10" t="s">
         <v>601</v>
       </c>
@@ -7301,7 +6687,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="464" s="10" customFormat="1" spans="1:3">
+    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A464" s="10" t="s">
         <v>602</v>
       </c>
@@ -7309,7 +6695,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="465" s="10" customFormat="1" spans="1:3">
+    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A465" s="10" t="s">
         <v>603</v>
       </c>
@@ -7317,7 +6703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="466" s="10" customFormat="1" spans="1:3">
+    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A466" s="10" t="s">
         <v>604</v>
       </c>
@@ -7325,7 +6711,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="467" s="10" customFormat="1" spans="1:3">
+    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A467" s="10" t="s">
         <v>605</v>
       </c>
@@ -7333,7 +6719,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="468" s="10" customFormat="1" spans="1:3">
+    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A468" s="10" t="s">
         <v>606</v>
       </c>
@@ -7341,7 +6727,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="469" s="10" customFormat="1" spans="1:3">
+    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A469" s="10" t="s">
         <v>607</v>
       </c>
@@ -7349,7 +6735,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="470" s="10" customFormat="1" spans="1:3">
+    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A470" s="10" t="s">
         <v>609</v>
       </c>
@@ -7357,7 +6743,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="471" s="10" customFormat="1" spans="1:3">
+    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A471" s="10" t="s">
         <v>610</v>
       </c>
@@ -7365,7 +6751,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="472" s="10" customFormat="1" spans="1:3">
+    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A472" s="10" t="s">
         <v>611</v>
       </c>
@@ -7373,7 +6759,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="473" s="10" customFormat="1" spans="1:3">
+    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A473" s="10" t="s">
         <v>612</v>
       </c>
@@ -7381,7 +6767,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="474" s="10" customFormat="1" spans="1:3">
+    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A474" s="10" t="s">
         <v>613</v>
       </c>
@@ -7389,7 +6775,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="475" s="10" customFormat="1" spans="1:3">
+    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A475" s="10" t="s">
         <v>614</v>
       </c>
@@ -7397,7 +6783,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="476" s="10" customFormat="1" spans="1:3">
+    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A476" s="10" t="s">
         <v>615</v>
       </c>
@@ -7405,7 +6791,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="477" s="10" customFormat="1" spans="1:3">
+    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A477" s="10" t="s">
         <v>616</v>
       </c>
@@ -7413,7 +6799,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="478" s="10" customFormat="1" spans="1:3">
+    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A478" s="10" t="s">
         <v>617</v>
       </c>
@@ -7421,7 +6807,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="479" s="10" customFormat="1" spans="1:3">
+    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A479" s="10" t="s">
         <v>618</v>
       </c>
@@ -7429,7 +6815,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="480" s="10" customFormat="1" spans="1:3">
+    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A480" s="10" t="s">
         <v>619</v>
       </c>
@@ -7437,7 +6823,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="481" s="10" customFormat="1" spans="1:3">
+    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A481" s="10" t="s">
         <v>620</v>
       </c>
@@ -7445,7 +6831,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="482" s="10" customFormat="1" spans="1:3">
+    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A482" s="10" t="s">
         <v>621</v>
       </c>
@@ -7453,7 +6839,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="483" s="10" customFormat="1" spans="1:3">
+    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A483" s="10" t="s">
         <v>622</v>
       </c>
@@ -7461,7 +6847,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="484" s="10" customFormat="1" spans="1:3">
+    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A484" s="10" t="s">
         <v>623</v>
       </c>
@@ -7469,7 +6855,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="485" s="10" customFormat="1" spans="1:3">
+    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A485" s="10" t="s">
         <v>624</v>
       </c>
@@ -7477,7 +6863,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="486" s="10" customFormat="1" spans="1:3">
+    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A486" s="10" t="s">
         <v>625</v>
       </c>
@@ -7485,7 +6871,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="487" s="10" customFormat="1" spans="1:3">
+    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A487" s="10" t="s">
         <v>626</v>
       </c>
@@ -7493,7 +6879,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="488" s="10" customFormat="1" spans="1:3">
+    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A488" s="10" t="s">
         <v>627</v>
       </c>
@@ -7501,7 +6887,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="489" s="10" customFormat="1" spans="1:3">
+    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A489" s="10" t="s">
         <v>628</v>
       </c>
@@ -7509,7 +6895,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="490" s="10" customFormat="1" spans="1:3">
+    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A490" s="10" t="s">
         <v>629</v>
       </c>
@@ -7517,7 +6903,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="491" s="10" customFormat="1" spans="1:3">
+    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A491" s="10" t="s">
         <v>630</v>
       </c>
@@ -7525,7 +6911,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="492" s="10" customFormat="1" spans="1:3">
+    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A492" s="10" t="s">
         <v>631</v>
       </c>
@@ -7533,7 +6919,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="493" s="10" customFormat="1" spans="1:3">
+    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A493" s="10" t="s">
         <v>632</v>
       </c>
@@ -7541,7 +6927,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="494" s="10" customFormat="1" spans="1:3">
+    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A494" s="10" t="s">
         <v>633</v>
       </c>
@@ -7549,7 +6935,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="495" s="10" customFormat="1" spans="1:3">
+    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A495" s="10" t="s">
         <v>634</v>
       </c>
@@ -7557,7 +6943,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" s="10" customFormat="1" spans="1:3">
+    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A496" s="10" t="s">
         <v>635</v>
       </c>
@@ -7565,7 +6951,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="497" s="10" customFormat="1" spans="1:3">
+    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A497" s="10" t="s">
         <v>636</v>
       </c>
@@ -7573,7 +6959,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="498" s="10" customFormat="1" spans="1:3">
+    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A498" s="10" t="s">
         <v>637</v>
       </c>
@@ -7581,7 +6967,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="499" s="10" customFormat="1" spans="1:3">
+    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A499" s="10" t="s">
         <v>638</v>
       </c>
@@ -7589,7 +6975,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="500" s="10" customFormat="1" spans="1:3">
+    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A500" s="10" t="s">
         <v>640</v>
       </c>
@@ -7597,7 +6983,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="501" s="10" customFormat="1" spans="1:3">
+    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A501" s="10" t="s">
         <v>641</v>
       </c>
@@ -7605,7 +6991,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="502" s="10" customFormat="1" spans="1:3">
+    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A502" s="10" t="s">
         <v>642</v>
       </c>
@@ -7613,7 +6999,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="503" s="10" customFormat="1" spans="1:3">
+    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A503" s="10" t="s">
         <v>643</v>
       </c>
@@ -7621,7 +7007,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="504" s="10" customFormat="1" spans="1:3">
+    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A504" s="10" t="s">
         <v>644</v>
       </c>
@@ -7629,7 +7015,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="505" s="10" customFormat="1" spans="1:3">
+    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A505" s="10" t="s">
         <v>645</v>
       </c>
@@ -7637,7 +7023,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="506" s="10" customFormat="1" spans="1:3">
+    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A506" s="10" t="s">
         <v>646</v>
       </c>
@@ -7645,7 +7031,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="507" s="10" customFormat="1" spans="1:3">
+    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A507" s="10" t="s">
         <v>647</v>
       </c>
@@ -7653,7 +7039,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="508" s="10" customFormat="1" spans="1:3">
+    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A508" s="10" t="s">
         <v>648</v>
       </c>
@@ -7661,7 +7047,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="509" s="10" customFormat="1" spans="1:3">
+    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A509" s="10" t="s">
         <v>649</v>
       </c>
@@ -7669,7 +7055,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="510" s="10" customFormat="1" spans="1:3">
+    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A510" s="10" t="s">
         <v>650</v>
       </c>
@@ -7677,7 +7063,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="511" s="10" customFormat="1" spans="1:3">
+    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A511" s="10" t="s">
         <v>651</v>
       </c>
@@ -7685,7 +7071,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="512" s="10" customFormat="1" spans="1:3">
+    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A512" s="10" t="s">
         <v>652</v>
       </c>
@@ -7693,7 +7079,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="513" s="10" customFormat="1" spans="1:3">
+    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A513" s="10" t="s">
         <v>653</v>
       </c>
@@ -7701,7 +7087,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="514" s="10" customFormat="1" spans="1:3">
+    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A514" s="10" t="s">
         <v>654</v>
       </c>
@@ -7709,7 +7095,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="515" s="10" customFormat="1" spans="1:3">
+    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A515" s="10" t="s">
         <v>655</v>
       </c>
@@ -7717,7 +7103,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="516" s="10" customFormat="1" spans="1:3">
+    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A516" s="10" t="s">
         <v>656</v>
       </c>
@@ -7725,7 +7111,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="517" s="10" customFormat="1" spans="1:3">
+    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A517" s="10" t="s">
         <v>657</v>
       </c>
@@ -7733,7 +7119,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="518" s="10" customFormat="1" spans="1:3">
+    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A518" s="10" t="s">
         <v>658</v>
       </c>
@@ -7741,7 +7127,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="519" s="10" customFormat="1" spans="1:3">
+    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A519" s="10" t="s">
         <v>659</v>
       </c>
@@ -7749,7 +7135,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="520" s="10" customFormat="1" spans="1:3">
+    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A520" s="10" t="s">
         <v>660</v>
       </c>
@@ -7757,7 +7143,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="521" s="10" customFormat="1" spans="1:3">
+    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A521" s="10" t="s">
         <v>661</v>
       </c>
@@ -7765,7 +7151,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="522" s="10" customFormat="1" spans="1:3">
+    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A522" s="10" t="s">
         <v>662</v>
       </c>
@@ -7773,7 +7159,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="523" s="10" customFormat="1" spans="1:3">
+    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A523" s="10" t="s">
         <v>663</v>
       </c>
@@ -7781,7 +7167,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="524" s="10" customFormat="1" spans="1:3">
+    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A524" s="10" t="s">
         <v>664</v>
       </c>
@@ -7789,7 +7175,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="525" s="10" customFormat="1" spans="1:3">
+    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A525" s="10" t="s">
         <v>665</v>
       </c>
@@ -7797,7 +7183,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="526" s="10" customFormat="1" spans="1:3">
+    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A526" s="10" t="s">
         <v>666</v>
       </c>
@@ -7805,7 +7191,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="527" s="10" customFormat="1" spans="1:3">
+    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A527" s="10" t="s">
         <v>667</v>
       </c>
@@ -7813,7 +7199,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="528" s="10" customFormat="1" spans="1:3">
+    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A528" s="10" t="s">
         <v>668</v>
       </c>
@@ -7821,7 +7207,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="529" s="10" customFormat="1" spans="1:3">
+    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A529" s="10" t="s">
         <v>669</v>
       </c>
@@ -7829,7 +7215,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="530" s="10" customFormat="1" spans="1:3">
+    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A530" s="10" t="s">
         <v>671</v>
       </c>
@@ -7837,7 +7223,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="531" s="10" customFormat="1" spans="1:3">
+    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A531" s="10" t="s">
         <v>672</v>
       </c>
@@ -7845,7 +7231,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="532" s="10" customFormat="1" spans="1:3">
+    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A532" s="10" t="s">
         <v>673</v>
       </c>
@@ -7853,7 +7239,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="533" s="10" customFormat="1" spans="1:3">
+    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A533" s="10" t="s">
         <v>674</v>
       </c>
@@ -7861,7 +7247,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="534" s="10" customFormat="1" spans="1:3">
+    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A534" s="10" t="s">
         <v>675</v>
       </c>
@@ -7869,7 +7255,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="535" s="10" customFormat="1" spans="1:3">
+    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A535" s="10" t="s">
         <v>676</v>
       </c>
@@ -7877,7 +7263,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="536" s="10" customFormat="1" spans="1:3">
+    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A536" s="10" t="s">
         <v>677</v>
       </c>
@@ -7885,7 +7271,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="537" s="10" customFormat="1" spans="1:3">
+    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A537" s="10" t="s">
         <v>678</v>
       </c>
@@ -7893,7 +7279,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="538" s="10" customFormat="1" spans="1:3">
+    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A538" s="10" t="s">
         <v>679</v>
       </c>
@@ -7901,7 +7287,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="539" s="10" customFormat="1" spans="1:3">
+    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A539" s="10" t="s">
         <v>680</v>
       </c>
@@ -7909,7 +7295,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="540" s="10" customFormat="1" spans="1:3">
+    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A540" s="10" t="s">
         <v>681</v>
       </c>
@@ -7917,7 +7303,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="541" s="10" customFormat="1" spans="1:3">
+    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A541" s="10" t="s">
         <v>682</v>
       </c>
@@ -7925,7 +7311,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="542" s="10" customFormat="1" spans="1:3">
+    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A542" s="10" t="s">
         <v>683</v>
       </c>
@@ -7933,7 +7319,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="543" s="10" customFormat="1" spans="1:3">
+    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A543" s="10" t="s">
         <v>684</v>
       </c>
@@ -7941,7 +7327,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="544" s="10" customFormat="1" spans="1:3">
+    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A544" s="10" t="s">
         <v>685</v>
       </c>
@@ -7949,7 +7335,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="545" s="10" customFormat="1" spans="1:3">
+    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A545" s="10" t="s">
         <v>686</v>
       </c>
@@ -7957,7 +7343,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="546" s="10" customFormat="1" spans="1:3">
+    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A546" s="10" t="s">
         <v>687</v>
       </c>
@@ -7965,7 +7351,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="547" s="10" customFormat="1" spans="1:3">
+    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A547" s="10" t="s">
         <v>688</v>
       </c>
@@ -7973,7 +7359,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="548" s="10" customFormat="1" spans="1:3">
+    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A548" s="10" t="s">
         <v>689</v>
       </c>
@@ -7981,7 +7367,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="549" s="10" customFormat="1" spans="1:3">
+    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A549" s="10" t="s">
         <v>690</v>
       </c>
@@ -7989,7 +7375,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="550" s="10" customFormat="1" spans="1:3">
+    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A550" s="10" t="s">
         <v>691</v>
       </c>
@@ -7997,7 +7383,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="551" s="10" customFormat="1" spans="1:3">
+    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A551" s="10" t="s">
         <v>692</v>
       </c>
@@ -8005,7 +7391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="552" s="10" customFormat="1" spans="1:3">
+    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A552" s="10" t="s">
         <v>693</v>
       </c>
@@ -8013,7 +7399,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="553" s="10" customFormat="1" spans="1:3">
+    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A553" s="10" t="s">
         <v>694</v>
       </c>
@@ -8021,7 +7407,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="554" s="10" customFormat="1" spans="1:3">
+    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A554" s="10" t="s">
         <v>695</v>
       </c>
@@ -8029,7 +7415,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="555" s="10" customFormat="1" spans="1:3">
+    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A555" s="10" t="s">
         <v>696</v>
       </c>
@@ -8037,7 +7423,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="556" s="10" customFormat="1" spans="1:3">
+    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A556" s="10" t="s">
         <v>697</v>
       </c>
@@ -8045,7 +7431,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="557" s="10" customFormat="1" spans="1:3">
+    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A557" s="10" t="s">
         <v>698</v>
       </c>
@@ -8053,7 +7439,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="558" s="10" customFormat="1" spans="1:3">
+    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A558" s="10" t="s">
         <v>699</v>
       </c>
@@ -8061,7 +7447,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="559" s="10" customFormat="1" spans="1:3">
+    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A559" s="10" t="s">
         <v>700</v>
       </c>
@@ -8069,7 +7455,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="560" s="10" customFormat="1" spans="1:3">
+    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A560" s="10" t="s">
         <v>702</v>
       </c>
@@ -8077,7 +7463,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="561" s="10" customFormat="1" spans="1:3">
+    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A561" s="10" t="s">
         <v>703</v>
       </c>
@@ -8085,7 +7471,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="562" s="10" customFormat="1" spans="1:3">
+    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A562" s="10" t="s">
         <v>704</v>
       </c>
@@ -8093,7 +7479,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="563" s="10" customFormat="1" spans="1:3">
+    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A563" s="10" t="s">
         <v>705</v>
       </c>
@@ -8101,7 +7487,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="564" s="10" customFormat="1" spans="1:3">
+    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A564" s="10" t="s">
         <v>706</v>
       </c>
@@ -8109,7 +7495,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="565" s="10" customFormat="1" spans="1:3">
+    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A565" s="10" t="s">
         <v>707</v>
       </c>
@@ -8117,7 +7503,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="566" s="10" customFormat="1" spans="1:3">
+    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A566" s="10" t="s">
         <v>708</v>
       </c>
@@ -8125,7 +7511,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="567" s="10" customFormat="1" spans="1:3">
+    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A567" s="10" t="s">
         <v>709</v>
       </c>
@@ -8133,7 +7519,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="568" s="10" customFormat="1" spans="1:3">
+    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A568" s="10" t="s">
         <v>710</v>
       </c>
@@ -8141,7 +7527,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="569" s="10" customFormat="1" spans="1:3">
+    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A569" s="10" t="s">
         <v>711</v>
       </c>
@@ -8149,7 +7535,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="570" s="10" customFormat="1" spans="1:3">
+    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A570" s="10" t="s">
         <v>712</v>
       </c>
@@ -8157,7 +7543,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="571" s="10" customFormat="1" spans="1:3">
+    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A571" s="10" t="s">
         <v>713</v>
       </c>
@@ -8165,7 +7551,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="572" s="10" customFormat="1" spans="1:3">
+    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A572" s="10" t="s">
         <v>714</v>
       </c>
@@ -8173,7 +7559,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="573" s="10" customFormat="1" spans="1:3">
+    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A573" s="10" t="s">
         <v>715</v>
       </c>
@@ -8181,7 +7567,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="574" s="10" customFormat="1" spans="1:3">
+    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A574" s="10" t="s">
         <v>716</v>
       </c>
@@ -8189,7 +7575,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="575" s="10" customFormat="1" spans="1:3">
+    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A575" s="10" t="s">
         <v>717</v>
       </c>
@@ -8197,7 +7583,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="576" s="10" customFormat="1" spans="1:3">
+    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A576" s="10" t="s">
         <v>718</v>
       </c>
@@ -8205,7 +7591,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="577" s="10" customFormat="1" spans="1:3">
+    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A577" s="10" t="s">
         <v>719</v>
       </c>
@@ -8213,7 +7599,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="578" s="10" customFormat="1" spans="1:3">
+    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A578" s="10" t="s">
         <v>720</v>
       </c>
@@ -8221,7 +7607,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="579" s="10" customFormat="1" spans="1:3">
+    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A579" s="10" t="s">
         <v>721</v>
       </c>
@@ -8229,7 +7615,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="580" s="10" customFormat="1" spans="1:3">
+    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A580" s="10" t="s">
         <v>722</v>
       </c>
@@ -8237,7 +7623,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="581" s="10" customFormat="1" spans="1:3">
+    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A581" s="10" t="s">
         <v>723</v>
       </c>
@@ -8245,7 +7631,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="582" s="10" customFormat="1" spans="1:3">
+    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A582" s="10" t="s">
         <v>724</v>
       </c>
@@ -8253,7 +7639,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="583" s="10" customFormat="1" spans="1:3">
+    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A583" s="10" t="s">
         <v>725</v>
       </c>
@@ -8261,7 +7647,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="584" s="10" customFormat="1" spans="1:3">
+    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A584" s="10" t="s">
         <v>726</v>
       </c>
@@ -8269,7 +7655,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="585" s="10" customFormat="1" spans="1:3">
+    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A585" s="10" t="s">
         <v>727</v>
       </c>
@@ -8277,7 +7663,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="586" s="10" customFormat="1" spans="1:3">
+    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A586" s="10" t="s">
         <v>728</v>
       </c>
@@ -8285,7 +7671,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="587" s="10" customFormat="1" spans="1:3">
+    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A587" s="10" t="s">
         <v>729</v>
       </c>
@@ -8293,7 +7679,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="588" s="10" customFormat="1" spans="1:3">
+    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A588" s="10" t="s">
         <v>730</v>
       </c>
@@ -8301,7 +7687,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="589" s="10" customFormat="1" spans="1:3">
+    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A589" s="10" t="s">
         <v>731</v>
       </c>
@@ -8309,7 +7695,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="590" s="10" customFormat="1" spans="1:3">
+    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A590" s="10" t="s">
         <v>733</v>
       </c>
@@ -8317,7 +7703,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="591" s="10" customFormat="1" spans="1:3">
+    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A591" s="10" t="s">
         <v>734</v>
       </c>
@@ -8325,7 +7711,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="592" s="10" customFormat="1" spans="1:3">
+    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A592" s="10" t="s">
         <v>735</v>
       </c>
@@ -8333,7 +7719,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="593" s="10" customFormat="1" spans="1:3">
+    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A593" s="10" t="s">
         <v>736</v>
       </c>
@@ -8341,7 +7727,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="594" s="10" customFormat="1" spans="1:3">
+    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A594" s="10" t="s">
         <v>737</v>
       </c>
@@ -8349,7 +7735,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="595" s="10" customFormat="1" spans="1:3">
+    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A595" s="10" t="s">
         <v>738</v>
       </c>
@@ -8357,7 +7743,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="596" s="10" customFormat="1" spans="1:3">
+    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A596" s="10" t="s">
         <v>739</v>
       </c>
@@ -8365,7 +7751,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="597" s="10" customFormat="1" spans="1:3">
+    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A597" s="10" t="s">
         <v>740</v>
       </c>
@@ -8373,7 +7759,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="598" s="10" customFormat="1" spans="1:3">
+    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A598" s="10" t="s">
         <v>741</v>
       </c>
@@ -8381,7 +7767,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="599" s="10" customFormat="1" spans="1:3">
+    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A599" s="10" t="s">
         <v>742</v>
       </c>
@@ -8389,7 +7775,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="600" s="10" customFormat="1" spans="1:3">
+    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A600" s="10" t="s">
         <v>743</v>
       </c>
@@ -8397,7 +7783,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="601" s="10" customFormat="1" spans="1:3">
+    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A601" s="10" t="s">
         <v>744</v>
       </c>
@@ -8405,7 +7791,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="602" s="10" customFormat="1" spans="1:3">
+    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A602" s="10" t="s">
         <v>745</v>
       </c>
@@ -8413,7 +7799,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="603" s="10" customFormat="1" spans="1:3">
+    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A603" s="10" t="s">
         <v>746</v>
       </c>
@@ -8421,7 +7807,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="604" s="10" customFormat="1" spans="1:3">
+    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A604" s="10" t="s">
         <v>747</v>
       </c>
@@ -8429,7 +7815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="605" s="10" customFormat="1" spans="1:3">
+    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A605" s="10" t="s">
         <v>748</v>
       </c>
@@ -8437,7 +7823,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="606" s="10" customFormat="1" spans="1:3">
+    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A606" s="10" t="s">
         <v>749</v>
       </c>
@@ -8445,7 +7831,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="607" s="10" customFormat="1" spans="1:3">
+    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A607" s="10" t="s">
         <v>750</v>
       </c>
@@ -8453,7 +7839,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="608" s="10" customFormat="1" spans="1:3">
+    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A608" s="10" t="s">
         <v>751</v>
       </c>
@@ -8461,7 +7847,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="609" s="10" customFormat="1" spans="1:3">
+    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A609" s="10" t="s">
         <v>752</v>
       </c>
@@ -8469,7 +7855,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="610" s="10" customFormat="1" spans="1:3">
+    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A610" s="10" t="s">
         <v>753</v>
       </c>
@@ -8477,7 +7863,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="611" s="10" customFormat="1" spans="1:3">
+    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A611" s="10" t="s">
         <v>754</v>
       </c>
@@ -8485,7 +7871,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="612" s="10" customFormat="1" spans="1:3">
+    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A612" s="10" t="s">
         <v>755</v>
       </c>
@@ -8493,7 +7879,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="613" s="10" customFormat="1" spans="1:3">
+    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A613" s="10" t="s">
         <v>756</v>
       </c>
@@ -8501,7 +7887,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="614" s="10" customFormat="1" spans="1:3">
+    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A614" s="10" t="s">
         <v>757</v>
       </c>
@@ -8509,7 +7895,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="615" s="10" customFormat="1" spans="1:3">
+    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A615" s="10" t="s">
         <v>758</v>
       </c>
@@ -8517,7 +7903,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="616" s="10" customFormat="1" spans="1:3">
+    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A616" s="10" t="s">
         <v>759</v>
       </c>
@@ -8525,7 +7911,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="617" s="10" customFormat="1" spans="1:3">
+    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A617" s="10" t="s">
         <v>760</v>
       </c>
@@ -8533,7 +7919,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="618" s="10" customFormat="1" spans="1:3">
+    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A618" s="10" t="s">
         <v>761</v>
       </c>
@@ -8548,7 +7934,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="763">
   <si>
     <t>Id</t>
   </si>
@@ -2321,13 +2321,17 @@
   </si>
   <si>
     <t>NameID_Hero_BOOT_30</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2338,6 +2342,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2589,13 +2598,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2930,22 +2942,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C618"/>
+  <dimension ref="A1:C619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -3022,4915 +3034,4927 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="8" t="s">
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="8" t="s">
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="8" t="s">
+    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="8" t="s">
+    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="8" t="s">
+    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="8" t="s">
+    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="8" t="s">
+    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="8" t="s">
+    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="8" t="s">
+    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="8" t="s">
+    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="8" t="s">
+    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="8" t="s">
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="8" t="s">
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="8" t="s">
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="8" t="s">
+    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="8" t="s">
+    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="8" t="s">
+    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="8" t="s">
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="8" t="s">
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="8" t="s">
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="8" t="s">
+    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="8" t="s">
+    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
+    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="9" t="s">
-        <v>437</v>
+    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="10" t="s">
+    <row r="317" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="C318" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C319" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C320" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C321" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C323" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C327" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C328" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="C330" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C331" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C332" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="C333" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="10" t="s">
-        <v>459</v>
       </c>
       <c r="C334" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="C338" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C339" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C341" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C342" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="C343" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C344" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C345" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C346" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C347" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C348" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="10" t="s">
-        <v>477</v>
       </c>
       <c r="C349" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C350" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C351" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C352" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C353" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C354" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C355" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C356" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C357" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="C358" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="C359" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C360" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C361" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C362" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="10" t="s">
-        <v>494</v>
       </c>
       <c r="C364" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C365" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C366" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C367" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C368" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C369" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C371" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C372" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="C373" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="10" t="s">
-        <v>505</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C375" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C376" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C377" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C379" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C380" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C381" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="C383" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="C384" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C385" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C387" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C388" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C389" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C390" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C391" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C392" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="10" t="s">
         <v>525</v>
-      </c>
-      <c r="C393" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C395" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C396" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C397" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C398" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C399" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C400" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C401" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C402" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="C403" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="C404" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C405" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C407" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C408" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C409" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C410" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C411" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C412" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="C413" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="10" t="s">
-        <v>549</v>
       </c>
       <c r="C414" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C415" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C416" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C417" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C418" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C419" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C420" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C421" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C422" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="C423" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="C424" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C425" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C426" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C427" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C428" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C429" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C430" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C431" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C432" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="10" t="s">
-        <v>571</v>
       </c>
       <c r="C434" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C435" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C436" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C437" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="C439" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="C440" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C441" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C442" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C444" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C445" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C446" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C447" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C448" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C449" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C451" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C452" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C453" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C454" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C455" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C456" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C457" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C458" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C459" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C460" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C461" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C462" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C463" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C464" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C465" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C466" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C467" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C468" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="C469" s="10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="C470" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C471" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C472" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C475" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C476" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C477" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C478" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C479" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C480" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C481" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C482" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C483" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C484" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C485" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C486" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C488" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C489" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C490" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C491" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C492" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C493" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C494" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C495" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C496" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C497" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C498" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
         <v>638</v>
-      </c>
-      <c r="C499" s="10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="10" t="s">
-        <v>640</v>
       </c>
       <c r="C500" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C501" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C502" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C503" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C504" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C505" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C506" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C507" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C508" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C509" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C510" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C512" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C513" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C514" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C515" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C516" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C517" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C518" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C519" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C520" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C521" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C522" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C523" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C524" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C525" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C526" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C527" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C528" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="C529" s="10" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="10" t="s">
-        <v>671</v>
       </c>
       <c r="C530" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C531" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C532" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C533" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C534" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C535" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C536" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C537" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C538" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C539" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C540" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C541" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C542" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C543" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C544" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C545" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C546" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C547" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C548" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C549" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C550" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C551" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C552" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C553" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C554" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C555" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C557" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C558" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="C559" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="10" t="s">
-        <v>702</v>
       </c>
       <c r="C560" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C561" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C562" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C563" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C564" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C565" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C566" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C567" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C568" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C569" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C570" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C571" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C572" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C573" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C574" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C575" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C576" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C577" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C578" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C579" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C580" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C581" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C582" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C583" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C584" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C585" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C586" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C587" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C588" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="10" t="s">
         <v>731</v>
-      </c>
-      <c r="C589" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="10" t="s">
-        <v>733</v>
       </c>
       <c r="C590" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C591" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C592" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C593" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C594" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C595" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C596" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C597" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C598" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C599" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C600" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C601" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C602" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C603" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C604" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C605" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C606" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C607" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C608" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C609" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C610" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C611" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C612" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C613" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C614" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C615" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C616" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C617" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C618" s="10" t="s">
         <v>732</v>
       </c>
     </row>
+    <row r="619" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27580" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="760">
   <si>
     <t>Id</t>
   </si>
@@ -127,27 +127,15 @@
     <t>Desc_HOLY_WATER_1</t>
   </si>
   <si>
-    <t>小瓶圣水，在一定是内处于无敌状态！</t>
-  </si>
-  <si>
     <t>Desc_HOLY_WATER_2</t>
   </si>
   <si>
-    <t>中瓶圣水，在一定是内处于无敌状态！</t>
-  </si>
-  <si>
     <t>Desc_HOLY_WATER_3</t>
   </si>
   <si>
-    <t>大瓶圣水，在一定是内处于无敌状态！</t>
-  </si>
-  <si>
     <t>Desc_HOLY_WATER_4</t>
   </si>
   <si>
-    <t>超级圣水，在一定是内处于无敌状态！</t>
-  </si>
-  <si>
     <t>Desc_MP1</t>
   </si>
   <si>
@@ -196,111 +184,6 @@
     <t>超级生命药水，增加英雄生命力！</t>
   </si>
   <si>
-    <t>Desc_SP1</t>
-  </si>
-  <si>
-    <t>小瓶体力药水，增加英雄体力！</t>
-  </si>
-  <si>
-    <t>Desc_SP2</t>
-  </si>
-  <si>
-    <t>中瓶体力药水，增加英雄体力！</t>
-  </si>
-  <si>
-    <t>Desc_SP3</t>
-  </si>
-  <si>
-    <t>大瓶体力药水，增加英雄体力！</t>
-  </si>
-  <si>
-    <t>Desc_SP4</t>
-  </si>
-  <si>
-    <t>超级体力药水，增加英雄体力！</t>
-  </si>
-  <si>
-    <t>Desc_EXP1</t>
-  </si>
-  <si>
-    <t>小瓶经验药水，增加英雄经验！</t>
-  </si>
-  <si>
-    <t>Desc_EXP2</t>
-  </si>
-  <si>
-    <t>中瓶经验药水，增加英雄经验！</t>
-  </si>
-  <si>
-    <t>Desc_EXP3</t>
-  </si>
-  <si>
-    <t>大瓶经验药水，增加英雄经验！</t>
-  </si>
-  <si>
-    <t>Desc_EXP4</t>
-  </si>
-  <si>
-    <t>超级经验药水，增加英雄经验！</t>
-  </si>
-  <si>
-    <t>Desc_MONEY1</t>
-  </si>
-  <si>
-    <t>一个金币，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_MONEY2</t>
-  </si>
-  <si>
-    <t>一小包金币，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_MONEY3</t>
-  </si>
-  <si>
-    <t>Desc_MONEY4</t>
-  </si>
-  <si>
-    <t>一大包金币，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_MONEY5</t>
-  </si>
-  <si>
-    <t>一超大包金币，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_1</t>
-  </si>
-  <si>
-    <t>一个钻石，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_2</t>
-  </si>
-  <si>
-    <t>一小包钻石，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_3</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_4</t>
-  </si>
-  <si>
-    <t>一大包钻石，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_5</t>
-  </si>
-  <si>
-    <t>一超大包钻石，可以从商店购买物品！</t>
-  </si>
-  <si>
-    <t>Desc_Diamond_6</t>
-  </si>
-  <si>
     <t>Desc_NoobPack_1</t>
   </si>
   <si>
@@ -1391,75 +1274,6 @@
   </si>
   <si>
     <t>NameID_HP4</t>
-  </si>
-  <si>
-    <t>NameID_SP1</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>NameID_SP2</t>
-  </si>
-  <si>
-    <t>NameID_SP3</t>
-  </si>
-  <si>
-    <t>NameID_SP4</t>
-  </si>
-  <si>
-    <t>NameID_EXP1</t>
-  </si>
-  <si>
-    <t>经验药</t>
-  </si>
-  <si>
-    <t>NameID_EXP2</t>
-  </si>
-  <si>
-    <t>NameID_EXP3</t>
-  </si>
-  <si>
-    <t>NameID_EXP4</t>
-  </si>
-  <si>
-    <t>NameID_MONEY1</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>NameID_MONEY2</t>
-  </si>
-  <si>
-    <t>NameID_MONEY3</t>
-  </si>
-  <si>
-    <t>NameID_MONEY4</t>
-  </si>
-  <si>
-    <t>NameID_MONEY5</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_1</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_2</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_3</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_4</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_5</t>
-  </si>
-  <si>
-    <t>NameID_Diamond_6</t>
   </si>
   <si>
     <t>NameID_NoobPack_1</t>
@@ -2325,12 +2139,189 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_5</t>
+  </si>
+  <si>
+    <t>Desc_HOLY_WATER_6</t>
+  </si>
+  <si>
+    <t>Desc_MP5</t>
+  </si>
+  <si>
+    <t>Desc_MP6</t>
+  </si>
+  <si>
+    <t>Desc_HP5</t>
+  </si>
+  <si>
+    <t>Desc_HP6</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_1</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_2</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_3</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_4</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_5</t>
+  </si>
+  <si>
+    <t>Desc_Atk_Water_6</t>
+  </si>
+  <si>
+    <t>攻击药水，在一定时间内攻击翻倍！</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_1</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_2</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_3</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_4</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_5</t>
+  </si>
+  <si>
+    <t>Desc_Avoid_Def_Water_6</t>
+  </si>
+  <si>
+    <t>在一定时间内，无视对方防御！</t>
+  </si>
+  <si>
+    <t>进入范围内的英雄，自动丢蓝！</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_1</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_2</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_3</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_4</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_5</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_6</t>
+  </si>
+  <si>
+    <t>小瓶圣水，在一定时间内防御翻倍！</t>
+  </si>
+  <si>
+    <t>中瓶圣水，在一定时间内防御翻倍！</t>
+  </si>
+  <si>
+    <t>大瓶圣水，在一定时间内防御翻倍！</t>
+  </si>
+  <si>
+    <t>超级圣水，在一定时间内防御翻倍！</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_5</t>
+  </si>
+  <si>
+    <t>NameID_HOLY_WATER_6</t>
+  </si>
+  <si>
+    <t>圣水</t>
+  </si>
+  <si>
+    <t>NameID_MP5</t>
+  </si>
+  <si>
+    <t>NameID_MP6</t>
+  </si>
+  <si>
+    <t>NameID_HP5</t>
+  </si>
+  <si>
+    <t>NameID_HP6</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_6</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_1</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_2</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_3</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_4</t>
+  </si>
+  <si>
+    <t>NameID_Atk_Water_5</t>
+  </si>
+  <si>
+    <t>攻击药水</t>
+  </si>
+  <si>
+    <t>防御药水</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_1</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_2</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_3</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_4</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_5</t>
+  </si>
+  <si>
+    <t>NameID_Avoid_Def_Water_6</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_1</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_2</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_3</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_4</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_5</t>
+  </si>
+  <si>
+    <t>NameID_Damange_MP_Water_6</t>
+  </si>
+  <si>
+    <t>消魔药水</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2598,7 +2589,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2942,22 +2933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C619"/>
+  <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="9" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2990,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3023,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -3034,9 +3025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>762</v>
+        <v>700</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -3045,14 +3036,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3085,7 +3076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -3107,7 +3098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -3118,4836 +3109,4916 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C53" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="C54" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C55" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="C56" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C57" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="C58" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C59" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="C63" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C64" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="C65" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="8" t="s">
+    </row>
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="8" t="s">
+    </row>
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="8" t="s">
+    </row>
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="8" t="s">
+    </row>
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    </row>
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    </row>
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    </row>
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    </row>
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    </row>
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    </row>
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+    </row>
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="8" t="s">
+    </row>
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="8" t="s">
+    </row>
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="8" t="s">
+    </row>
+    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="8" t="s">
+    </row>
+    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="8" t="s">
+    </row>
+    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="8" t="s">
+    </row>
+    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="8" t="s">
+    </row>
+    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="8" t="s">
+    </row>
+    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="8" t="s">
+    </row>
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="8" t="s">
+    </row>
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="8" t="s">
+    </row>
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="8" t="s">
+    </row>
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="8" t="s">
+    </row>
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="8" t="s">
+    </row>
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="8" t="s">
+    </row>
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="8" t="s">
+    </row>
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="8" t="s">
+    </row>
+    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="8" t="s">
+    </row>
+    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="8" t="s">
+    </row>
+    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="8" t="s">
+    </row>
+    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="8" t="s">
+    </row>
+    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="8" t="s">
+    </row>
+    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="8" t="s">
+    </row>
+    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="8" t="s">
+    </row>
+    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="8" t="s">
+    </row>
+    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="8" t="s">
+    </row>
+    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="8" t="s">
+    </row>
+    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="8" t="s">
+    </row>
+    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="8" t="s">
+    </row>
+    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="8" t="s">
+    </row>
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="8" t="s">
+    </row>
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="8" t="s">
+    </row>
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="8" t="s">
+    </row>
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C95" s="8" t="s">
+    </row>
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="8" t="s">
+    </row>
+    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="8" t="s">
+    </row>
+    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="8" t="s">
+    </row>
+    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C99" s="8" t="s">
+    </row>
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="8" t="s">
+    </row>
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C101" s="8" t="s">
+    </row>
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C102" s="8" t="s">
+    </row>
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="8" t="s">
+    </row>
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="8" t="s">
+    </row>
+    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="8" t="s">
+    </row>
+    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C106" s="8" t="s">
+    </row>
+    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C107" s="8" t="s">
+    </row>
+    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="8" t="s">
+    </row>
+    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="8" t="s">
+    </row>
+    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="8" t="s">
+    </row>
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="8" t="s">
+    </row>
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="C136" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="8" t="s">
+    </row>
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C113" s="8" t="s">
+    </row>
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="C138" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C139" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="C140" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C141" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C116" s="8" t="s">
+    </row>
+    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="C143" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C144" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="C145" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C146" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="C147" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C148" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="C149" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C150" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="C151" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C152" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="C153" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C154" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="C155" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C156" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="C157" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C158" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="C159" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C160" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="C161" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C162" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="C163" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C164" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="C165" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C166" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="C167" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C168" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="C169" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C170" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="C171" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C172" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
+      <c r="C173" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="8" t="s">
+    </row>
+    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="C174" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
+      <c r="C175" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="C176" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="C177" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="C178" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C179" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="C180" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+      <c r="C181" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="C182" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="C183" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="C184" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+      <c r="C185" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
+      <c r="C186" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
+      <c r="C187" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="C188" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="C189" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="C190" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="C191" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
+      <c r="C192" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="C193" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="C194" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="C195" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+      <c r="C196" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
+      <c r="C197" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
+      <c r="C198" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
+      <c r="C199" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
+      <c r="C200" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="C201" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="C202" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="C203" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+    </row>
+    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="C204" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="C205" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="C206" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+      <c r="C207" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
+      <c r="C208" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
+      <c r="C209" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C210" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+      <c r="C211" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
+      <c r="C212" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+      <c r="C213" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="C214" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
+      <c r="C215" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+      <c r="C216" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
+      <c r="C217" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="C218" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+      <c r="C219" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="C220" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="C221" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+      <c r="C222" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="C223" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
+      <c r="C224" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
+      <c r="C225" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
+      <c r="C226" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
+      <c r="C227" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+      <c r="C228" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="C229" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
+      <c r="C230" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
+      <c r="C231" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="C232" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+      <c r="C233" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C191" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
+    </row>
+    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
+      <c r="C234" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
+      <c r="C235" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="C236" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
+      <c r="C237" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
+      <c r="C238" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+      <c r="C239" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C240" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+      <c r="C241" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+      <c r="C242" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+      <c r="C243" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
+      <c r="C244" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+      <c r="C245" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
+      <c r="C246" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+      <c r="C247" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+      <c r="C248" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
+      <c r="C249" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8" t="s">
+      <c r="C250" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8" t="s">
+      <c r="C251" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8" t="s">
+      <c r="C252" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
+      <c r="C253" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8" t="s">
+      <c r="C254" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C212" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="C255" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
+      <c r="C256" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
+      <c r="C257" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
+      <c r="C258" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="8" t="s">
+      <c r="C259" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8" t="s">
+      <c r="C260" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C218" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
+      <c r="C261" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
+      <c r="C262" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C220" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+      <c r="C263" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C221" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8" t="s">
+    </row>
+    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C222" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
+      <c r="C264" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C223" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
+      <c r="C265" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C224" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="s">
+      <c r="C266" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C225" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+      <c r="C267" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C226" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
+      <c r="C268" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
+      <c r="C269" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C270" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
+      <c r="C271" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C229" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
+      <c r="C272" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C230" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
+      <c r="C273" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
+      <c r="C274" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C232" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
+      <c r="C275" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C233" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
+      <c r="C276" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
+      <c r="C277" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C235" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="C278" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="C279" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C237" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
+      <c r="C280" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="C281" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
+      <c r="C282" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C240" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+      <c r="C283" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C241" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="C284" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C242" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="C285" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
+      <c r="C286" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
+      <c r="C287" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="8" t="s">
+      <c r="C288" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C246" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
+      <c r="C289" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C247" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="8" t="s">
+      <c r="C290" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C248" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="s">
+      <c r="C291" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8" t="s">
+      <c r="C292" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C250" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
+      <c r="C293" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C251" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+    </row>
+    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C252" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8" t="s">
+      <c r="C294" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C253" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8" t="s">
+      <c r="C295" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C254" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="s">
+      <c r="C296" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C255" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
+      <c r="C297" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C256" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
+      <c r="C298" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C257" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8" t="s">
+      <c r="C299" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C300" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="8" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
+      <c r="C301" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
+      <c r="C302" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C260" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
+      <c r="C303" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8" t="s">
+      <c r="C304" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C262" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
+      <c r="C305" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C263" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
+      <c r="C306" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C264" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="C307" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8" t="s">
+      <c r="C308" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C266" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8" t="s">
+      <c r="C309" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C267" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
+      <c r="C310" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C268" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8" t="s">
+      <c r="C311" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C269" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="8" t="s">
+      <c r="C312" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8" t="s">
+      <c r="C313" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C271" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8" t="s">
+      <c r="C314" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C272" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="s">
+      <c r="C315" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C273" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8" t="s">
+      <c r="C316" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C274" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
+      <c r="C317" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C275" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
+      <c r="C318" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C276" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
+      <c r="C319" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C277" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
+      <c r="C320" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C278" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
+      <c r="C321" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C279" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8" t="s">
+      <c r="C322" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C280" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="C323" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C329" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C281" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
+    </row>
+    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C286" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="s">
+      <c r="C330" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C287" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
+      <c r="C331" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C332" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="10" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="s">
+      <c r="C335" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C289" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8" t="s">
+    </row>
+    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C290" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="C336" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C291" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8" t="s">
+      <c r="C337" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C292" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8" t="s">
+      <c r="C338" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C344" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C293" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8" t="s">
+      <c r="C359" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C294" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8" t="s">
+    </row>
+    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C295" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="8" t="s">
+      <c r="C360" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="8" t="s">
+      <c r="C361" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C297" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8" t="s">
+      <c r="C362" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C298" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="s">
+      <c r="C363" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C299" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="8" t="s">
+      <c r="C364" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C300" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+      <c r="C365" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C301" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8" t="s">
+      <c r="C366" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C302" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8" t="s">
+      <c r="C367" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C303" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8" t="s">
+      <c r="C368" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C304" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="8" t="s">
+      <c r="C369" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C305" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="8" t="s">
+    </row>
+    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C306" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="8" t="s">
+      <c r="C370" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C307" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="8" t="s">
+      <c r="C371" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C308" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="8" t="s">
+      <c r="C372" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C309" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8" t="s">
+      <c r="C373" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C310" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="8" t="s">
+      <c r="C374" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C311" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="8" t="s">
+    </row>
+    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C312" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8" t="s">
+      <c r="C375" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C313" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="8" t="s">
+      <c r="C376" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C314" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="8" t="s">
+      <c r="C377" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C315" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="8" t="s">
+      <c r="C378" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C316" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="9" t="s">
+      <c r="C379" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C317" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
+      <c r="C380" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="C381" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="10" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="10" t="s">
+      <c r="C382" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C319" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
+      <c r="C383" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C320" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10" t="s">
+      <c r="C384" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C321" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="10" t="s">
+    </row>
+    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C322" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
+      <c r="C385" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C323" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
+      <c r="C386" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C324" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="10" t="s">
+      <c r="C387" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C325" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="10" t="s">
+      <c r="C388" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C389" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
+      <c r="C390" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+      <c r="C391" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C328" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
+      <c r="C392" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C329" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10" t="s">
+      <c r="C393" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="C394" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10" t="s">
+    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C395" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10" t="s">
+    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C332" s="10" t="s">
+      <c r="C396" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="10" t="s">
+    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C333" s="10" t="s">
+      <c r="C397" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
+    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C334" s="10" t="s">
+      <c r="C398" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="10" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
+      <c r="C399" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C335" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="10" t="s">
+      <c r="C400" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C336" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
+      <c r="C401" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C337" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="10" t="s">
+      <c r="C402" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C338" s="10" t="s">
+      <c r="C403" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="10" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="10" t="s">
+      <c r="C404" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C339" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="10" t="s">
+    </row>
+    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C340" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10" t="s">
+      <c r="C405" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C341" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="10" t="s">
+      <c r="C406" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C342" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="10" t="s">
+      <c r="C407" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C343" s="10" t="s">
+      <c r="C408" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="10" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="10" t="s">
+      <c r="C409" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C344" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="10" t="s">
+      <c r="C410" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C345" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="10" t="s">
+      <c r="C411" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C346" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="10" t="s">
+      <c r="C412" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C347" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="10" t="s">
+      <c r="C413" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C348" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="10" t="s">
+      <c r="C414" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C349" s="10" t="s">
+    </row>
+    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="10" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="10" t="s">
+      <c r="C415" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C350" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="10" t="s">
+      <c r="C416" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C351" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="10" t="s">
+      <c r="C417" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C352" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
+      <c r="C418" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C353" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
+      <c r="C419" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C354" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="10" t="s">
+      <c r="C420" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C355" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
+      <c r="C421" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C356" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
+      <c r="C422" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C357" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="10" t="s">
+      <c r="C423" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C358" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="10" t="s">
+      <c r="C424" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C359" s="10" t="s">
+    </row>
+    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="10" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
+      <c r="C425" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C360" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="10" t="s">
+      <c r="C426" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C361" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="10" t="s">
+      <c r="C427" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C362" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="10" t="s">
+      <c r="C428" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C363" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
+      <c r="C429" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C364" s="10" t="s">
+      <c r="C430" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="10" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
+      <c r="C431" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C365" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
+      <c r="C432" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C366" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
+      <c r="C433" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C367" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
+      <c r="C434" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C368" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
+    </row>
+    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C369" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
+      <c r="C435" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C370" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
+      <c r="C436" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C371" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10" t="s">
+      <c r="C437" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C372" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="10" t="s">
+      <c r="C438" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C373" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="10" t="s">
+      <c r="C439" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C374" s="10" t="s">
+      <c r="C440" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="10" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="10" t="s">
+      <c r="C441" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C375" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="10" t="s">
+      <c r="C442" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C376" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="10" t="s">
+      <c r="C443" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C377" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="10" t="s">
+      <c r="C444" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C378" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="10" t="s">
+    </row>
+    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C379" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="10" t="s">
+      <c r="C445" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C380" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10" t="s">
+      <c r="C446" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C381" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="10" t="s">
+      <c r="C447" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C382" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="10" t="s">
+      <c r="C448" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C383" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="10" t="s">
+      <c r="C449" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C384" s="10" t="s">
+      <c r="C450" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="10" t="s">
+    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C385" s="10" t="s">
+      <c r="C451" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="10" t="s">
+    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C386" s="10" t="s">
+      <c r="C452" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="10" t="s">
+    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C387" s="10" t="s">
+      <c r="C453" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="10" t="s">
+    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C388" s="10" t="s">
+      <c r="C454" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
+    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C389" s="10" t="s">
+      <c r="C455" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10" t="s">
+    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C390" s="10" t="s">
+      <c r="C456" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10" t="s">
+    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C391" s="10" t="s">
+      <c r="C457" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="10" t="s">
+    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C392" s="10" t="s">
+      <c r="C458" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="10" t="s">
+    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C393" s="10" t="s">
+      <c r="C459" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="10" t="s">
+    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C394" s="10" t="s">
+      <c r="C460" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="10" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="10" t="s">
+      <c r="C461" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C395" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="10" t="s">
+      <c r="C462" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C396" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="10" t="s">
+      <c r="C463" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C397" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="10" t="s">
+      <c r="C464" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C398" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="10" t="s">
+      <c r="C465" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C399" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="10" t="s">
+      <c r="C466" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C400" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="10" t="s">
+      <c r="C467" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C401" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="10" t="s">
+      <c r="C468" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C402" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="10" t="s">
+      <c r="C469" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C403" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="10" t="s">
+      <c r="C470" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C404" s="10" t="s">
+      <c r="C471" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="10" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="10" t="s">
+      <c r="C472" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C405" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="10" t="s">
+      <c r="C473" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C406" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="10" t="s">
+      <c r="C474" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C407" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="10" t="s">
+      <c r="C475" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C408" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="10" t="s">
+      <c r="C476" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C409" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="10" t="s">
+      <c r="C477" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C410" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="10" t="s">
+      <c r="C478" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C411" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="10" t="s">
+      <c r="C479" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C412" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="10" t="s">
+      <c r="C480" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C413" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="10" t="s">
+    </row>
+    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C481" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="10" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="10" t="s">
+      <c r="C482" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C415" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="10" t="s">
+      <c r="C483" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C416" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="10" t="s">
+      <c r="C484" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C417" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="10" t="s">
+      <c r="C485" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C418" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="10" t="s">
+      <c r="C486" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C419" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="10" t="s">
+      <c r="C487" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C420" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="10" t="s">
+      <c r="C488" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C421" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="10" t="s">
+      <c r="C489" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C422" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="10" t="s">
+      <c r="C490" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C423" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="10" t="s">
+      <c r="C491" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C424" s="10" t="s">
+      <c r="C492" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="10" t="s">
+      <c r="C493" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C425" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="10" t="s">
+      <c r="C494" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C426" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="10" t="s">
+      <c r="C495" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C427" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="10" t="s">
+      <c r="C496" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C428" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="10" t="s">
+      <c r="C497" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C429" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="10" t="s">
+      <c r="C498" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C430" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="10" t="s">
+      <c r="C499" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C431" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="10" t="s">
+      <c r="C500" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C432" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="10" t="s">
+      <c r="C501" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C433" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="10" t="s">
+      <c r="C502" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C434" s="10" t="s">
+      <c r="C503" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="10" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="10" t="s">
+      <c r="C504" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C435" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="10" t="s">
+      <c r="C505" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C436" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="10" t="s">
+      <c r="C506" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C437" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="10" t="s">
+      <c r="C507" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C438" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="10" t="s">
+      <c r="C508" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C439" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="10" t="s">
+      <c r="C509" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C440" s="10" t="s">
+      <c r="C510" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="10" t="s">
+    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C441" s="10" t="s">
+      <c r="C511" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="10" t="s">
+    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C442" s="10" t="s">
+      <c r="C512" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="10" t="s">
+    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C443" s="10" t="s">
+      <c r="C513" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="10" t="s">
+    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C444" s="10" t="s">
+      <c r="C514" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="10" t="s">
+    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C445" s="10" t="s">
+      <c r="C515" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="10" t="s">
+    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C446" s="10" t="s">
+      <c r="C516" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="10" t="s">
+    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C447" s="10" t="s">
+      <c r="C517" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="10" t="s">
+    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C448" s="10" t="s">
+      <c r="C518" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="10" t="s">
+    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C449" s="10" t="s">
+      <c r="C519" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="10" t="s">
+    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C450" s="10" t="s">
+      <c r="C520" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="10" t="s">
+    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C451" s="10" t="s">
+      <c r="C521" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="10" t="s">
+    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="C452" s="10" t="s">
+      <c r="C522" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="10" t="s">
+    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C453" s="10" t="s">
+      <c r="C523" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="10" t="s">
+    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C454" s="10" t="s">
+      <c r="C524" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="10" t="s">
+    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C455" s="10" t="s">
+      <c r="C525" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="10" t="s">
+    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="C456" s="10" t="s">
+      <c r="C526" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="10" t="s">
+    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C457" s="10" t="s">
+      <c r="C527" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="10" t="s">
+    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C458" s="10" t="s">
+      <c r="C528" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="10" t="s">
+    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C459" s="10" t="s">
+      <c r="C529" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="10" t="s">
+    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C460" s="10" t="s">
+      <c r="C530" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="10" t="s">
+    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="C461" s="10" t="s">
+      <c r="C531" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="10" t="s">
+    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C462" s="10" t="s">
+      <c r="C532" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="10" t="s">
+    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C463" s="10" t="s">
+      <c r="C533" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="10" t="s">
+    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C464" s="10" t="s">
+      <c r="C534" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="10" t="s">
+    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C465" s="10" t="s">
+      <c r="C535" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="10" t="s">
+    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C466" s="10" t="s">
+      <c r="C536" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="10" t="s">
+    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C467" s="10" t="s">
+      <c r="C537" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="10" t="s">
+    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C468" s="10" t="s">
+      <c r="C538" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="10" t="s">
+    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="C469" s="10" t="s">
+      <c r="C539" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="10" t="s">
+    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C470" s="10" t="s">
+      <c r="C540" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="10" t="s">
+    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C471" s="10" t="s">
+      <c r="C541" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="10" t="s">
+    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C472" s="10" t="s">
+      <c r="C542" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="10" t="s">
+    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C473" s="10" t="s">
+      <c r="C543" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="10" t="s">
+    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="C474" s="10" t="s">
+      <c r="C544" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="10" t="s">
+    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C475" s="10" t="s">
+      <c r="C545" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="10" t="s">
+    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C476" s="10" t="s">
+      <c r="C546" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="10" t="s">
+    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C477" s="10" t="s">
+      <c r="C547" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="10" t="s">
+    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C478" s="10" t="s">
+      <c r="C548" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="10" t="s">
+    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C479" s="10" t="s">
+      <c r="C549" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="10" t="s">
+    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C480" s="10" t="s">
+      <c r="C550" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="10" t="s">
+    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C481" s="10" t="s">
+      <c r="C551" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="10" t="s">
+    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C482" s="10" t="s">
+      <c r="C552" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="10" t="s">
+    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C483" s="10" t="s">
+      <c r="C553" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="10" t="s">
+    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C484" s="10" t="s">
+      <c r="C554" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="10" t="s">
+    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="10" t="s">
+      <c r="C555" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="10" t="s">
+    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C486" s="10" t="s">
+      <c r="C556" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="10" t="s">
+    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C487" s="10" t="s">
+      <c r="C557" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="10" t="s">
+    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="C488" s="10" t="s">
+      <c r="C558" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="10" t="s">
+    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C489" s="10" t="s">
+      <c r="C559" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="10" t="s">
+    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C490" s="10" t="s">
+      <c r="C560" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="10" t="s">
+    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C491" s="10" t="s">
+      <c r="C561" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="10" t="s">
+    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C492" s="10" t="s">
+      <c r="C562" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="10" t="s">
+    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C493" s="10" t="s">
+      <c r="C563" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="10" t="s">
+    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="C494" s="10" t="s">
+      <c r="C564" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="10" t="s">
+    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C495" s="10" t="s">
+      <c r="C565" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="10" t="s">
+    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C496" s="10" t="s">
+      <c r="C566" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="10" t="s">
+    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C497" s="10" t="s">
+      <c r="C567" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="10" t="s">
+    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C498" s="10" t="s">
+      <c r="C568" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="10" t="s">
+    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C499" s="10" t="s">
+      <c r="C569" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="10" t="s">
+    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C500" s="10" t="s">
+      <c r="C570" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="10" t="s">
+    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="C501" s="10" t="s">
+      <c r="C571" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="10" t="s">
+    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C502" s="10" t="s">
+      <c r="C572" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="10" t="s">
+    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C503" s="10" t="s">
+      <c r="C573" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="10" t="s">
+    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C504" s="10" t="s">
+      <c r="C574" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="10" t="s">
+    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C505" s="10" t="s">
+      <c r="C575" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="10" t="s">
+    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C506" s="10" t="s">
+      <c r="C576" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="10" t="s">
+    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C507" s="10" t="s">
+      <c r="C577" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="10" t="s">
+    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C508" s="10" t="s">
+      <c r="C578" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="10" t="s">
+    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="C509" s="10" t="s">
+      <c r="C579" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="10" t="s">
+    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C510" s="10" t="s">
+      <c r="C580" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="10" t="s">
+    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="C511" s="10" t="s">
+      <c r="C581" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="10" t="s">
+    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C512" s="10" t="s">
+      <c r="C582" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="10" t="s">
+    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="C513" s="10" t="s">
+      <c r="C583" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="10" t="s">
+    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C514" s="10" t="s">
+      <c r="C584" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="10" t="s">
+    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="C515" s="10" t="s">
+      <c r="C585" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="10" t="s">
+    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C516" s="10" t="s">
+      <c r="C586" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="10" t="s">
+    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C517" s="10" t="s">
+      <c r="C587" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="10" t="s">
+    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C518" s="10" t="s">
+      <c r="C588" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="10" t="s">
+    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="C519" s="10" t="s">
+      <c r="C589" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="10" t="s">
+    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C520" s="10" t="s">
+      <c r="C590" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="10" t="s">
+    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="C521" s="10" t="s">
+      <c r="C591" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="10" t="s">
+    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C522" s="10" t="s">
+      <c r="C592" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="10" t="s">
+    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C523" s="10" t="s">
+      <c r="C593" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="10" t="s">
+    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C524" s="10" t="s">
+      <c r="C594" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="10" t="s">
+    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="C525" s="10" t="s">
+      <c r="C595" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="10" t="s">
+    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C526" s="10" t="s">
+      <c r="C596" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="10" t="s">
+    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C527" s="10" t="s">
+      <c r="C597" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="10" t="s">
+    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="C528" s="10" t="s">
+      <c r="C598" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="10" t="s">
+    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C529" s="10" t="s">
+      <c r="C599" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="10" t="s">
+    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C530" s="10" t="s">
+      <c r="C600" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="10" t="s">
+    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C531" s="10" t="s">
+      <c r="C601" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="10" t="s">
+    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="C532" s="10" t="s">
+      <c r="C602" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="10" t="s">
+    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C533" s="10" t="s">
+      <c r="C603" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="10" t="s">
+    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="C534" s="10" t="s">
+      <c r="C604" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="10" t="s">
+    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C535" s="10" t="s">
+      <c r="C605" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="10" t="s">
+    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C536" s="10" t="s">
+      <c r="C606" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="10" t="s">
+    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C537" s="10" t="s">
+      <c r="C607" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="10" t="s">
+    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C538" s="10" t="s">
+      <c r="C608" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="10" t="s">
+    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C539" s="10" t="s">
+      <c r="C609" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="10" t="s">
+    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C540" s="10" t="s">
+      <c r="C610" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="10" t="s">
+    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C541" s="10" t="s">
+      <c r="C611" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="10" t="s">
+    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C542" s="10" t="s">
+      <c r="C612" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="10" t="s">
+    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C543" s="10" t="s">
+      <c r="C613" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="10" t="s">
+    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C544" s="10" t="s">
+      <c r="C614" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="10" t="s">
+    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C545" s="10" t="s">
+      <c r="C615" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="10" t="s">
+    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="C546" s="10" t="s">
+      <c r="C616" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="10" t="s">
+    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C547" s="10" t="s">
+      <c r="C617" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="10" t="s">
+    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="C548" s="10" t="s">
+      <c r="C618" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="10" t="s">
+    <row r="619" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C549" s="10" t="s">
+      <c r="C619" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="10" t="s">
+    <row r="620" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C550" s="10" t="s">
+      <c r="C620" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="10" t="s">
+    <row r="621" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C551" s="10" t="s">
+      <c r="C621" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="10" t="s">
+    <row r="622" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C552" s="10" t="s">
+      <c r="C622" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="10" t="s">
+    <row r="623" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C553" s="10" t="s">
+      <c r="C623" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="10" t="s">
+    <row r="624" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="C554" s="10" t="s">
+      <c r="C624" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="10" t="s">
+    <row r="625" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A625" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C555" s="10" t="s">
+      <c r="C625" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="10" t="s">
+    <row r="626" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A626" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C556" s="10" t="s">
+      <c r="C626" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="10" t="s">
+    <row r="627" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A627" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C557" s="10" t="s">
+      <c r="C627" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="10" t="s">
+    <row r="628" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A628" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C558" s="10" t="s">
+      <c r="C628" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="10" t="s">
+    <row r="629" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A629" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C559" s="10" t="s">
+      <c r="C629" s="10" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C560" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="C561" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C562" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C563" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="C564" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C565" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="C566" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="C567" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C568" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C569" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="C570" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C571" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="C572" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="C573" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C574" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="C575" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="C576" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C577" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C578" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="C579" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C580" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C581" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="C582" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C583" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="C584" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="C585" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C586" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C587" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="C588" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C589" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C590" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C591" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="C592" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C593" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C594" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="C595" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="C596" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C597" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C598" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="C599" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="C600" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C601" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="C602" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="C603" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C604" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="C605" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C606" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C607" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="C608" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C609" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="C610" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C611" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C612" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C613" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="C614" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C615" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="C616" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="C617" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C618" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C619" s="10" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27580" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -2159,24 +2159,6 @@
     <t>Desc_HP6</t>
   </si>
   <si>
-    <t>Desc_Atk_Water_1</t>
-  </si>
-  <si>
-    <t>Desc_Atk_Water_2</t>
-  </si>
-  <si>
-    <t>Desc_Atk_Water_3</t>
-  </si>
-  <si>
-    <t>Desc_Atk_Water_4</t>
-  </si>
-  <si>
-    <t>Desc_Atk_Water_5</t>
-  </si>
-  <si>
-    <t>Desc_Atk_Water_6</t>
-  </si>
-  <si>
     <t>攻击药水，在一定时间内攻击翻倍！</t>
   </si>
   <si>
@@ -2316,6 +2298,24 @@
   </si>
   <si>
     <t>消魔药水</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_1</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_2</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_3</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_4</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_5</t>
+  </si>
+  <si>
+    <t>Desc_ATK_Water_6</t>
   </si>
 </sst>
 </file>
@@ -2936,8 +2936,8 @@
   <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
+      <pane ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3114,7 +3114,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3122,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3130,7 +3130,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3146,7 +3146,7 @@
         <v>701</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3154,7 +3154,7 @@
         <v>702</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3255,146 +3255,146 @@
     </row>
     <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>707</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>708</v>
+        <v>755</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -5570,7 +5570,7 @@
         <v>399</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -5578,7 +5578,7 @@
         <v>401</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -5586,7 +5586,7 @@
         <v>402</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -5594,23 +5594,23 @@
         <v>403</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="10" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="10" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -5647,7 +5647,7 @@
     </row>
     <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A333" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C333" s="10" t="s">
         <v>400</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C334" s="10" t="s">
         <v>400</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="10" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C339" s="10" t="s">
         <v>409</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A340" s="10" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>409</v>
@@ -5711,146 +5711,146 @@
     </row>
     <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="10" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="10" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="10" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344" s="10" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A345" s="10" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C346" s="10" t="s">
         <v>739</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="10" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="10" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="10" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350" s="10" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351" s="10" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="10" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C353" s="10" t="s">
         <v>753</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A354" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="10" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A356" s="10" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="10" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="10" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16350" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="841">
   <si>
     <t>Id</t>
   </si>
@@ -2302,19 +2316,256 @@
   </si>
   <si>
     <t>NameID_Hero_BOOT_30</t>
+  </si>
+  <si>
+    <t>Langage_7</t>
+  </si>
+  <si>
+    <t>Langage_8</t>
+  </si>
+  <si>
+    <t>Langage_9</t>
+  </si>
+  <si>
+    <t>Langage_10</t>
+  </si>
+  <si>
+    <t>Langage_11</t>
+  </si>
+  <si>
+    <t>Langage_12</t>
+  </si>
+  <si>
+    <t>Langage_13</t>
+  </si>
+  <si>
+    <t>Langage_14</t>
+  </si>
+  <si>
+    <t>Langage_15</t>
+  </si>
+  <si>
+    <t>Langage_16</t>
+  </si>
+  <si>
+    <t>Langage_17</t>
+  </si>
+  <si>
+    <t>Langage_18</t>
+  </si>
+  <si>
+    <t>Langage_19</t>
+  </si>
+  <si>
+    <t>Langage_20</t>
+  </si>
+  <si>
+    <t>Langage_21</t>
+  </si>
+  <si>
+    <t>Langage_22</t>
+  </si>
+  <si>
+    <t>Langage_23</t>
+  </si>
+  <si>
+    <t>Langage_24</t>
+  </si>
+  <si>
+    <t>Langage_25</t>
+  </si>
+  <si>
+    <t>Langage_26</t>
+  </si>
+  <si>
+    <t>Langage_27</t>
+  </si>
+  <si>
+    <t>Langage_28</t>
+  </si>
+  <si>
+    <t>Langage_29</t>
+  </si>
+  <si>
+    <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>魔法免疫开关</t>
+  </si>
+  <si>
+    <t>物理免疫开关</t>
+  </si>
+  <si>
+    <t>技能开关</t>
+  </si>
+  <si>
+    <t>移动开关</t>
+  </si>
+  <si>
+    <t>眩晕开关</t>
+  </si>
+  <si>
+    <t>体力回复</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>法力</t>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>魔法回复</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>火攻</t>
+  </si>
+  <si>
+    <t>雷攻</t>
+  </si>
+  <si>
+    <t>土攻</t>
+  </si>
+  <si>
+    <t>冰攻</t>
+  </si>
+  <si>
+    <t>毒攻</t>
+  </si>
+  <si>
+    <t>火防</t>
+  </si>
+  <si>
+    <t>雷防</t>
+  </si>
+  <si>
+    <t>土防</t>
+  </si>
+  <si>
+    <t>冰防</t>
+  </si>
+  <si>
+    <t>毒防</t>
+  </si>
+  <si>
+    <t>LPID_SUCKBLOOD</t>
+  </si>
+  <si>
+    <t>LPID_REFLECTDAMAGE</t>
+  </si>
+  <si>
+    <t>LPID_CRITICAL</t>
+  </si>
+  <si>
+    <t>LPID_MAXHP</t>
+  </si>
+  <si>
+    <t>LPID_MAXMP</t>
+  </si>
+  <si>
+    <t>LPID_MAXSP</t>
+  </si>
+  <si>
+    <t>LPID_HPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_SPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_MPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_ATK_VALUE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_VALUE</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>LPID_ATK_SPEED</t>
+  </si>
+  <si>
+    <t>LPID_ATK_FIRE</t>
+  </si>
+  <si>
+    <t>LPID_ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>LPID_ATK_WIND</t>
+  </si>
+  <si>
+    <t>LPID_ATK_ICE</t>
+  </si>
+  <si>
+    <t>LPID_ATK_POISON</t>
+  </si>
+  <si>
+    <t>LPID_DEF_FIRE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>LPID_DEF_WIND</t>
+  </si>
+  <si>
+    <t>LPID_DEF_ICE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_POISON</t>
+  </si>
+  <si>
+    <t>LPID_DIZZY_GATE</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_GATE</t>
+  </si>
+  <si>
+    <t>LPID_SKILL_GATE</t>
+  </si>
+  <si>
+    <t>LPID_PHYSICAL_GATE</t>
+  </si>
+  <si>
+    <t>LPID_MAGIC_GATE</t>
+  </si>
+  <si>
+    <t>LPID_BUFF_GATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2328,159 +2579,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2507,204 +2607,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2841,255 +2755,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3153,59 +2825,23 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3537,25 +3173,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C629"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B358" sqref="B358"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.6666666666667" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -3599,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3621,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
@@ -3643,14 +3277,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
@@ -3672,7 +3306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
@@ -3683,7 +3317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
@@ -3705,7 +3339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -3716,7 +3350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -3724,7 +3358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
@@ -3732,7 +3366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -3740,7 +3374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -3748,7 +3382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -3756,7 +3390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
@@ -3764,7 +3398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
@@ -3772,7 +3406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -3780,7 +3414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -3788,7 +3422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -3796,7 +3430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
@@ -3804,7 +3438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
@@ -3812,7 +3446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
@@ -3820,7 +3454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -3828,7 +3462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +3470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -3844,7 +3478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -3852,7 +3486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -3860,7 +3494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>60</v>
       </c>
@@ -3868,7 +3502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>62</v>
       </c>
@@ -3876,7 +3510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
@@ -3884,7 +3518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>64</v>
       </c>
@@ -3892,7 +3526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>65</v>
       </c>
@@ -3900,7 +3534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:3">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>66</v>
       </c>
@@ -3908,7 +3542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
@@ -3916,7 +3550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>69</v>
       </c>
@@ -3924,7 +3558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" spans="1:3">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>70</v>
       </c>
@@ -3932,7 +3566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>71</v>
       </c>
@@ -3940,7 +3574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>72</v>
       </c>
@@ -3948,7 +3582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" s="8" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>73</v>
       </c>
@@ -3956,7 +3590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="8" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>74</v>
       </c>
@@ -3964,7 +3598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" s="8" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>76</v>
       </c>
@@ -3972,7 +3606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>77</v>
       </c>
@@ -3980,7 +3614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="8" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>78</v>
       </c>
@@ -3988,7 +3622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="8" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>79</v>
       </c>
@@ -3996,7 +3630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" s="8" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>80</v>
       </c>
@@ -4004,7 +3638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" s="8" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>81</v>
       </c>
@@ -4012,7 +3646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>83</v>
       </c>
@@ -4020,7 +3654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" s="8" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>84</v>
       </c>
@@ -4028,7 +3662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" s="8" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>85</v>
       </c>
@@ -4036,7 +3670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" s="8" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>86</v>
       </c>
@@ -4044,7 +3678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" s="8" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>87</v>
       </c>
@@ -4052,7 +3686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" s="8" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>88</v>
       </c>
@@ -4060,7 +3694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" s="8" customFormat="1" spans="1:3">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>89</v>
       </c>
@@ -4068,7 +3702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" s="8" customFormat="1" spans="1:3">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>90</v>
       </c>
@@ -4076,7 +3710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" s="8" customFormat="1" spans="1:3">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>91</v>
       </c>
@@ -4084,7 +3718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" s="8" customFormat="1" spans="1:3">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>92</v>
       </c>
@@ -4092,7 +3726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" s="8" customFormat="1" spans="1:3">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -4100,7 +3734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" s="8" customFormat="1" spans="1:3">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>95</v>
       </c>
@@ -4108,7 +3742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" s="8" customFormat="1" spans="1:3">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>96</v>
       </c>
@@ -4116,7 +3750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" s="8" customFormat="1" spans="1:3">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>97</v>
       </c>
@@ -4124,7 +3758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" s="8" customFormat="1" spans="1:3">
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
@@ -4132,7 +3766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" s="8" customFormat="1" spans="1:3">
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>100</v>
       </c>
@@ -4140,7 +3774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" s="8" customFormat="1" spans="1:3">
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>102</v>
       </c>
@@ -4148,7 +3782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" s="8" customFormat="1" spans="1:3">
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -4156,7 +3790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" s="8" customFormat="1" spans="1:3">
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>106</v>
       </c>
@@ -4164,7 +3798,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" s="8" customFormat="1" spans="1:3">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
         <v>108</v>
       </c>
@@ -4172,7 +3806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" s="8" customFormat="1" spans="1:3">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>110</v>
       </c>
@@ -4180,7 +3814,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" s="8" customFormat="1" spans="1:3">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
         <v>112</v>
       </c>
@@ -4188,7 +3822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" s="8" customFormat="1" spans="1:3">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>114</v>
       </c>
@@ -4196,7 +3830,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" s="8" customFormat="1" spans="1:3">
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
         <v>116</v>
       </c>
@@ -4204,7 +3838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" s="8" customFormat="1" spans="1:3">
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>118</v>
       </c>
@@ -4212,7 +3846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" s="8" customFormat="1" spans="1:3">
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>120</v>
       </c>
@@ -4220,7 +3854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" s="8" customFormat="1" spans="1:3">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>122</v>
       </c>
@@ -4228,7 +3862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" s="8" customFormat="1" spans="1:3">
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>124</v>
       </c>
@@ -4236,7 +3870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" s="8" customFormat="1" spans="1:3">
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>126</v>
       </c>
@@ -4244,7 +3878,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" s="8" customFormat="1" spans="1:3">
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>128</v>
       </c>
@@ -4252,7 +3886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" s="8" customFormat="1" spans="1:3">
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
         <v>130</v>
       </c>
@@ -4260,7 +3894,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" s="8" customFormat="1" spans="1:3">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
@@ -4268,7 +3902,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" s="8" customFormat="1" spans="1:3">
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>134</v>
       </c>
@@ -4276,7 +3910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" s="8" customFormat="1" spans="1:3">
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>136</v>
       </c>
@@ -4284,7 +3918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:3">
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>138</v>
       </c>
@@ -4292,7 +3926,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" s="8" customFormat="1" spans="1:3">
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
         <v>140</v>
       </c>
@@ -4300,7 +3934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" s="8" customFormat="1" spans="1:3">
+    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>142</v>
       </c>
@@ -4308,7 +3942,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" s="8" customFormat="1" spans="1:3">
+    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>144</v>
       </c>
@@ -4316,7 +3950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" s="8" customFormat="1" spans="1:3">
+    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
         <v>146</v>
       </c>
@@ -4324,7 +3958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" s="8" customFormat="1" spans="1:3">
+    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>148</v>
       </c>
@@ -4332,7 +3966,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:3">
+    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
         <v>150</v>
       </c>
@@ -4340,7 +3974,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:3">
+    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
         <v>152</v>
       </c>
@@ -4348,7 +3982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:3">
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
         <v>154</v>
       </c>
@@ -4356,7 +3990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:3">
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
         <v>156</v>
       </c>
@@ -4364,7 +3998,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" spans="1:3">
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
         <v>158</v>
       </c>
@@ -4372,7 +4006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" spans="1:3">
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>160</v>
       </c>
@@ -4380,7 +4014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" s="8" customFormat="1" spans="1:3">
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
         <v>162</v>
       </c>
@@ -4388,7 +4022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" s="8" customFormat="1" spans="1:3">
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>164</v>
       </c>
@@ -4396,7 +4030,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" s="8" customFormat="1" spans="1:3">
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
         <v>166</v>
       </c>
@@ -4404,7 +4038,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" s="8" customFormat="1" spans="1:3">
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
         <v>168</v>
       </c>
@@ -4412,7 +4046,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" s="8" customFormat="1" spans="1:3">
+    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
         <v>170</v>
       </c>
@@ -4420,7 +4054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="104" s="8" customFormat="1" spans="1:3">
+    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>172</v>
       </c>
@@ -4428,7 +4062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" s="8" customFormat="1" spans="1:3">
+    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
         <v>174</v>
       </c>
@@ -4436,7 +4070,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" s="8" customFormat="1" spans="1:3">
+    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>176</v>
       </c>
@@ -4444,7 +4078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" s="8" customFormat="1" spans="1:3">
+    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
         <v>178</v>
       </c>
@@ -4452,7 +4086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:3">
+    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>180</v>
       </c>
@@ -4460,7 +4094,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" s="8" customFormat="1" spans="1:3">
+    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
         <v>182</v>
       </c>
@@ -4468,7 +4102,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" s="8" customFormat="1" spans="1:3">
+    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>184</v>
       </c>
@@ -4476,7 +4110,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" s="8" customFormat="1" spans="1:3">
+    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
         <v>186</v>
       </c>
@@ -4484,7 +4118,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" s="8" customFormat="1" spans="1:3">
+    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
         <v>188</v>
       </c>
@@ -4492,7 +4126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" s="8" customFormat="1" spans="1:3">
+    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
         <v>190</v>
       </c>
@@ -4500,7 +4134,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" s="8" customFormat="1" spans="1:3">
+    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4508,7 +4142,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="115" s="8" customFormat="1" spans="1:3">
+    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
         <v>194</v>
       </c>
@@ -4516,7 +4150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" s="8" customFormat="1" spans="1:3">
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
         <v>196</v>
       </c>
@@ -4524,7 +4158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" s="8" customFormat="1" spans="1:3">
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
         <v>198</v>
       </c>
@@ -4532,7 +4166,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" s="8" customFormat="1" spans="1:3">
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
         <v>200</v>
       </c>
@@ -4540,7 +4174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" s="8" customFormat="1" spans="1:3">
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
         <v>202</v>
       </c>
@@ -4548,7 +4182,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" s="8" customFormat="1" spans="1:3">
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
         <v>204</v>
       </c>
@@ -4556,7 +4190,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" s="8" customFormat="1" spans="1:3">
+    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
         <v>206</v>
       </c>
@@ -4564,7 +4198,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" s="8" customFormat="1" spans="1:3">
+    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8" t="s">
         <v>208</v>
       </c>
@@ -4572,7 +4206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" s="8" customFormat="1" spans="1:3">
+    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
         <v>210</v>
       </c>
@@ -4580,7 +4214,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" s="8" customFormat="1" spans="1:3">
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
         <v>212</v>
       </c>
@@ -4588,7 +4222,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" s="8" customFormat="1" spans="1:3">
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8" t="s">
         <v>214</v>
       </c>
@@ -4596,7 +4230,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" s="8" customFormat="1" spans="1:3">
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="8" t="s">
         <v>216</v>
       </c>
@@ -4604,7 +4238,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" s="8" customFormat="1" spans="1:3">
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="8" t="s">
         <v>218</v>
       </c>
@@ -4612,7 +4246,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" s="8" customFormat="1" spans="1:3">
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="8" t="s">
         <v>220</v>
       </c>
@@ -4620,7 +4254,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" s="8" customFormat="1" spans="1:3">
+    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="8" t="s">
         <v>222</v>
       </c>
@@ -4628,7 +4262,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="130" s="8" customFormat="1" spans="1:3">
+    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8" t="s">
         <v>224</v>
       </c>
@@ -4636,7 +4270,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" s="8" customFormat="1" spans="1:3">
+    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8" t="s">
         <v>226</v>
       </c>
@@ -4644,7 +4278,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="132" s="8" customFormat="1" spans="1:3">
+    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="8" t="s">
         <v>228</v>
       </c>
@@ -4652,7 +4286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" s="8" customFormat="1" spans="1:3">
+    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="8" t="s">
         <v>230</v>
       </c>
@@ -4660,7 +4294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="134" s="8" customFormat="1" spans="1:3">
+    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="8" t="s">
         <v>232</v>
       </c>
@@ -4668,7 +4302,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" s="8" customFormat="1" spans="1:3">
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8" t="s">
         <v>234</v>
       </c>
@@ -4676,7 +4310,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" s="8" customFormat="1" spans="1:3">
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="8" t="s">
         <v>236</v>
       </c>
@@ -4684,7 +4318,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" s="8" customFormat="1" spans="1:3">
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
         <v>238</v>
       </c>
@@ -4692,7 +4326,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" s="8" customFormat="1" spans="1:3">
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="8" t="s">
         <v>240</v>
       </c>
@@ -4700,7 +4334,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" s="8" customFormat="1" spans="1:3">
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8" t="s">
         <v>241</v>
       </c>
@@ -4708,7 +4342,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="140" s="8" customFormat="1" spans="1:3">
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8" t="s">
         <v>242</v>
       </c>
@@ -4716,7 +4350,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" s="8" customFormat="1" spans="1:3">
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
         <v>243</v>
       </c>
@@ -4724,7 +4358,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" s="8" customFormat="1" spans="1:3">
+    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
         <v>244</v>
       </c>
@@ -4732,7 +4366,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="143" s="8" customFormat="1" spans="1:3">
+    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
         <v>246</v>
       </c>
@@ -4740,7 +4374,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="144" s="8" customFormat="1" spans="1:3">
+    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
         <v>247</v>
       </c>
@@ -4748,7 +4382,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="145" s="8" customFormat="1" spans="1:3">
+    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
         <v>248</v>
       </c>
@@ -4756,7 +4390,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" s="8" customFormat="1" spans="1:3">
+    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="8" t="s">
         <v>249</v>
       </c>
@@ -4764,7 +4398,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" s="8" customFormat="1" spans="1:3">
+    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="8" t="s">
         <v>250</v>
       </c>
@@ -4772,7 +4406,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="148" s="8" customFormat="1" spans="1:3">
+    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="8" t="s">
         <v>251</v>
       </c>
@@ -4780,7 +4414,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" s="8" customFormat="1" spans="1:3">
+    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="8" t="s">
         <v>252</v>
       </c>
@@ -4788,7 +4422,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" s="8" customFormat="1" spans="1:3">
+    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
         <v>253</v>
       </c>
@@ -4796,7 +4430,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="151" s="8" customFormat="1" spans="1:3">
+    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
         <v>254</v>
       </c>
@@ -4804,7 +4438,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="152" s="8" customFormat="1" spans="1:3">
+    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
         <v>255</v>
       </c>
@@ -4812,7 +4446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="153" s="8" customFormat="1" spans="1:3">
+    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
         <v>256</v>
       </c>
@@ -4820,7 +4454,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="154" s="8" customFormat="1" spans="1:3">
+    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
         <v>257</v>
       </c>
@@ -4828,7 +4462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="155" s="8" customFormat="1" spans="1:3">
+    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
         <v>258</v>
       </c>
@@ -4836,7 +4470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="156" s="8" customFormat="1" spans="1:3">
+    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
         <v>259</v>
       </c>
@@ -4844,7 +4478,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" s="8" customFormat="1" spans="1:3">
+    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
         <v>260</v>
       </c>
@@ -4852,7 +4486,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="158" s="8" customFormat="1" spans="1:3">
+    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="8" t="s">
         <v>261</v>
       </c>
@@ -4860,7 +4494,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" s="8" customFormat="1" spans="1:3">
+    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8" t="s">
         <v>262</v>
       </c>
@@ -4868,7 +4502,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="160" s="8" customFormat="1" spans="1:3">
+    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8" t="s">
         <v>263</v>
       </c>
@@ -4876,7 +4510,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="161" s="8" customFormat="1" spans="1:3">
+    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8" t="s">
         <v>264</v>
       </c>
@@ -4884,7 +4518,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="162" s="8" customFormat="1" spans="1:3">
+    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="8" t="s">
         <v>265</v>
       </c>
@@ -4892,7 +4526,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="163" s="8" customFormat="1" spans="1:3">
+    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8" t="s">
         <v>266</v>
       </c>
@@ -4900,7 +4534,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="164" s="8" customFormat="1" spans="1:3">
+    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="8" t="s">
         <v>267</v>
       </c>
@@ -4908,7 +4542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="165" s="8" customFormat="1" spans="1:3">
+    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8" t="s">
         <v>268</v>
       </c>
@@ -4916,7 +4550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="166" s="8" customFormat="1" spans="1:3">
+    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="8" t="s">
         <v>269</v>
       </c>
@@ -4924,7 +4558,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="167" s="8" customFormat="1" spans="1:3">
+    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8" t="s">
         <v>270</v>
       </c>
@@ -4932,7 +4566,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" s="8" customFormat="1" spans="1:3">
+    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="8" t="s">
         <v>271</v>
       </c>
@@ -4940,7 +4574,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="169" s="8" customFormat="1" spans="1:3">
+    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8" t="s">
         <v>272</v>
       </c>
@@ -4948,7 +4582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="170" s="8" customFormat="1" spans="1:3">
+    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="8" t="s">
         <v>273</v>
       </c>
@@ -4956,7 +4590,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" s="8" customFormat="1" spans="1:3">
+    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8" t="s">
         <v>274</v>
       </c>
@@ -4964,7 +4598,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="172" s="8" customFormat="1" spans="1:3">
+    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="8" t="s">
         <v>275</v>
       </c>
@@ -4972,7 +4606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="173" s="8" customFormat="1" spans="1:3">
+    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8" t="s">
         <v>276</v>
       </c>
@@ -4980,7 +4614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" s="8" customFormat="1" spans="1:3">
+    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="8" t="s">
         <v>278</v>
       </c>
@@ -4988,7 +4622,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" s="8" customFormat="1" spans="1:3">
+    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8" t="s">
         <v>279</v>
       </c>
@@ -4996,7 +4630,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" s="8" customFormat="1" spans="1:3">
+    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="8" t="s">
         <v>280</v>
       </c>
@@ -5004,7 +4638,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="177" s="8" customFormat="1" spans="1:3">
+    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8" t="s">
         <v>281</v>
       </c>
@@ -5012,7 +4646,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="178" s="8" customFormat="1" spans="1:3">
+    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="8" t="s">
         <v>282</v>
       </c>
@@ -5020,7 +4654,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="179" s="8" customFormat="1" spans="1:3">
+    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8" t="s">
         <v>283</v>
       </c>
@@ -5028,7 +4662,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="180" s="8" customFormat="1" spans="1:3">
+    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="8" t="s">
         <v>284</v>
       </c>
@@ -5036,7 +4670,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" s="8" customFormat="1" spans="1:3">
+    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8" t="s">
         <v>285</v>
       </c>
@@ -5044,7 +4678,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="182" s="8" customFormat="1" spans="1:3">
+    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="8" t="s">
         <v>286</v>
       </c>
@@ -5052,7 +4686,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" s="8" customFormat="1" spans="1:3">
+    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8" t="s">
         <v>287</v>
       </c>
@@ -5060,7 +4694,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" s="8" customFormat="1" spans="1:3">
+    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="8" t="s">
         <v>288</v>
       </c>
@@ -5068,7 +4702,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" s="8" customFormat="1" spans="1:3">
+    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8" t="s">
         <v>289</v>
       </c>
@@ -5076,7 +4710,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" s="8" customFormat="1" spans="1:3">
+    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="8" t="s">
         <v>290</v>
       </c>
@@ -5084,7 +4718,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="187" s="8" customFormat="1" spans="1:3">
+    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="8" t="s">
         <v>291</v>
       </c>
@@ -5092,7 +4726,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" s="8" customFormat="1" spans="1:3">
+    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="8" t="s">
         <v>292</v>
       </c>
@@ -5100,7 +4734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="189" s="8" customFormat="1" spans="1:3">
+    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="8" t="s">
         <v>293</v>
       </c>
@@ -5108,7 +4742,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" s="8" customFormat="1" spans="1:3">
+    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="8" t="s">
         <v>294</v>
       </c>
@@ -5116,7 +4750,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" s="8" customFormat="1" spans="1:3">
+    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
         <v>295</v>
       </c>
@@ -5124,7 +4758,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="192" s="8" customFormat="1" spans="1:3">
+    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="8" t="s">
         <v>296</v>
       </c>
@@ -5132,7 +4766,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="193" s="8" customFormat="1" spans="1:3">
+    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="8" t="s">
         <v>297</v>
       </c>
@@ -5140,7 +4774,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="194" s="8" customFormat="1" spans="1:3">
+    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="8" t="s">
         <v>298</v>
       </c>
@@ -5148,7 +4782,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="195" s="8" customFormat="1" spans="1:3">
+    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="8" t="s">
         <v>299</v>
       </c>
@@ -5156,7 +4790,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="196" s="8" customFormat="1" spans="1:3">
+    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="8" t="s">
         <v>300</v>
       </c>
@@ -5164,7 +4798,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="197" s="8" customFormat="1" spans="1:3">
+    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="8" t="s">
         <v>301</v>
       </c>
@@ -5172,7 +4806,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="198" s="8" customFormat="1" spans="1:3">
+    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="8" t="s">
         <v>302</v>
       </c>
@@ -5180,7 +4814,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="199" s="8" customFormat="1" spans="1:3">
+    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="8" t="s">
         <v>303</v>
       </c>
@@ -5188,7 +4822,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="200" s="8" customFormat="1" spans="1:3">
+    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="8" t="s">
         <v>304</v>
       </c>
@@ -5196,7 +4830,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="201" s="8" customFormat="1" spans="1:3">
+    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="8" t="s">
         <v>305</v>
       </c>
@@ -5204,7 +4838,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" s="8" customFormat="1" spans="1:3">
+    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="8" t="s">
         <v>306</v>
       </c>
@@ -5212,7 +4846,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="203" s="8" customFormat="1" spans="1:3">
+    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="8" t="s">
         <v>307</v>
       </c>
@@ -5220,7 +4854,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="204" s="8" customFormat="1" spans="1:3">
+    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="8" t="s">
         <v>309</v>
       </c>
@@ -5228,7 +4862,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="205" s="8" customFormat="1" spans="1:3">
+    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="8" t="s">
         <v>310</v>
       </c>
@@ -5236,7 +4870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="206" s="8" customFormat="1" spans="1:3">
+    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="8" t="s">
         <v>311</v>
       </c>
@@ -5244,7 +4878,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" spans="1:3">
+    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="8" t="s">
         <v>312</v>
       </c>
@@ -5252,7 +4886,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="208" s="8" customFormat="1" spans="1:3">
+    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="8" t="s">
         <v>313</v>
       </c>
@@ -5260,7 +4894,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="209" s="8" customFormat="1" spans="1:3">
+    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="8" t="s">
         <v>314</v>
       </c>
@@ -5268,7 +4902,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" s="8" customFormat="1" spans="1:3">
+    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="8" t="s">
         <v>315</v>
       </c>
@@ -5276,7 +4910,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="211" s="8" customFormat="1" spans="1:3">
+    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="8" t="s">
         <v>316</v>
       </c>
@@ -5284,7 +4918,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" s="8" customFormat="1" spans="1:3">
+    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="8" t="s">
         <v>317</v>
       </c>
@@ -5292,7 +4926,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="213" s="8" customFormat="1" spans="1:3">
+    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="8" t="s">
         <v>318</v>
       </c>
@@ -5300,7 +4934,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="214" s="8" customFormat="1" spans="1:3">
+    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="8" t="s">
         <v>319</v>
       </c>
@@ -5308,7 +4942,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="215" s="8" customFormat="1" spans="1:3">
+    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="8" t="s">
         <v>320</v>
       </c>
@@ -5316,7 +4950,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="216" s="8" customFormat="1" spans="1:3">
+    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="8" t="s">
         <v>321</v>
       </c>
@@ -5324,7 +4958,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="217" s="8" customFormat="1" spans="1:3">
+    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="8" t="s">
         <v>322</v>
       </c>
@@ -5332,7 +4966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="218" s="8" customFormat="1" spans="1:3">
+    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="8" t="s">
         <v>323</v>
       </c>
@@ -5340,7 +4974,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="1" spans="1:3">
+    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="8" t="s">
         <v>324</v>
       </c>
@@ -5348,7 +4982,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="1:3">
+    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="8" t="s">
         <v>325</v>
       </c>
@@ -5356,7 +4990,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="221" s="8" customFormat="1" spans="1:3">
+    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="8" t="s">
         <v>326</v>
       </c>
@@ -5364,7 +4998,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="222" s="8" customFormat="1" spans="1:3">
+    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="8" t="s">
         <v>327</v>
       </c>
@@ -5372,7 +5006,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="223" s="8" customFormat="1" spans="1:3">
+    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="8" t="s">
         <v>328</v>
       </c>
@@ -5380,7 +5014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="224" s="8" customFormat="1" spans="1:3">
+    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="8" t="s">
         <v>329</v>
       </c>
@@ -5388,7 +5022,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="225" s="8" customFormat="1" spans="1:3">
+    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="8" t="s">
         <v>330</v>
       </c>
@@ -5396,7 +5030,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="226" s="8" customFormat="1" spans="1:3">
+    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="8" t="s">
         <v>331</v>
       </c>
@@ -5404,7 +5038,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="227" s="8" customFormat="1" spans="1:3">
+    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="8" t="s">
         <v>332</v>
       </c>
@@ -5412,7 +5046,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" s="8" customFormat="1" spans="1:3">
+    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="8" t="s">
         <v>333</v>
       </c>
@@ -5420,7 +5054,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="229" s="8" customFormat="1" spans="1:3">
+    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="8" t="s">
         <v>334</v>
       </c>
@@ -5428,7 +5062,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="230" s="8" customFormat="1" spans="1:3">
+    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="8" t="s">
         <v>335</v>
       </c>
@@ -5436,7 +5070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="231" s="8" customFormat="1" spans="1:3">
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="8" t="s">
         <v>336</v>
       </c>
@@ -5444,7 +5078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="232" s="8" customFormat="1" spans="1:3">
+    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="8" t="s">
         <v>337</v>
       </c>
@@ -5452,7 +5086,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="233" s="8" customFormat="1" spans="1:3">
+    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="8" t="s">
         <v>338</v>
       </c>
@@ -5460,7 +5094,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="234" s="8" customFormat="1" spans="1:3">
+    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="8" t="s">
         <v>340</v>
       </c>
@@ -5468,7 +5102,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="235" s="8" customFormat="1" spans="1:3">
+    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="8" t="s">
         <v>341</v>
       </c>
@@ -5476,7 +5110,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="236" s="8" customFormat="1" spans="1:3">
+    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="8" t="s">
         <v>342</v>
       </c>
@@ -5484,7 +5118,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="237" s="8" customFormat="1" spans="1:3">
+    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="8" t="s">
         <v>343</v>
       </c>
@@ -5492,7 +5126,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="238" s="8" customFormat="1" spans="1:3">
+    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="8" t="s">
         <v>344</v>
       </c>
@@ -5500,7 +5134,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="239" s="8" customFormat="1" spans="1:3">
+    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="8" t="s">
         <v>345</v>
       </c>
@@ -5508,7 +5142,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="240" s="8" customFormat="1" spans="1:3">
+    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="8" t="s">
         <v>346</v>
       </c>
@@ -5516,7 +5150,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" s="8" customFormat="1" spans="1:3">
+    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
         <v>347</v>
       </c>
@@ -5524,7 +5158,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="242" s="8" customFormat="1" spans="1:3">
+    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="8" t="s">
         <v>348</v>
       </c>
@@ -5532,7 +5166,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" s="8" customFormat="1" spans="1:3">
+    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
         <v>349</v>
       </c>
@@ -5540,7 +5174,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="244" s="8" customFormat="1" spans="1:3">
+    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="8" t="s">
         <v>350</v>
       </c>
@@ -5548,7 +5182,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="245" s="8" customFormat="1" spans="1:3">
+    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
         <v>351</v>
       </c>
@@ -5556,7 +5190,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="1" spans="1:3">
+    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="8" t="s">
         <v>352</v>
       </c>
@@ -5564,7 +5198,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="247" s="8" customFormat="1" spans="1:3">
+    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="8" t="s">
         <v>353</v>
       </c>
@@ -5572,7 +5206,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="248" s="8" customFormat="1" spans="1:3">
+    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="8" t="s">
         <v>354</v>
       </c>
@@ -5580,7 +5214,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="249" s="8" customFormat="1" spans="1:3">
+    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
         <v>355</v>
       </c>
@@ -5588,7 +5222,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="250" s="8" customFormat="1" spans="1:3">
+    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
         <v>356</v>
       </c>
@@ -5596,7 +5230,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="251" s="8" customFormat="1" spans="1:3">
+    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
         <v>357</v>
       </c>
@@ -5604,7 +5238,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="252" s="8" customFormat="1" spans="1:3">
+    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="8" t="s">
         <v>358</v>
       </c>
@@ -5612,7 +5246,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="253" s="8" customFormat="1" spans="1:3">
+    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
         <v>359</v>
       </c>
@@ -5620,7 +5254,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="254" s="8" customFormat="1" spans="1:3">
+    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="8" t="s">
         <v>360</v>
       </c>
@@ -5628,7 +5262,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="255" s="8" customFormat="1" spans="1:3">
+    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="8" t="s">
         <v>361</v>
       </c>
@@ -5636,7 +5270,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="256" s="8" customFormat="1" spans="1:3">
+    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="8" t="s">
         <v>362</v>
       </c>
@@ -5644,7 +5278,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="257" s="8" customFormat="1" spans="1:3">
+    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="8" t="s">
         <v>363</v>
       </c>
@@ -5652,7 +5286,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="258" s="8" customFormat="1" spans="1:3">
+    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A258" s="8" t="s">
         <v>364</v>
       </c>
@@ -5660,7 +5294,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="259" s="8" customFormat="1" spans="1:3">
+    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A259" s="8" t="s">
         <v>365</v>
       </c>
@@ -5668,7 +5302,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="260" s="8" customFormat="1" spans="1:3">
+    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="8" t="s">
         <v>366</v>
       </c>
@@ -5676,7 +5310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="261" s="8" customFormat="1" spans="1:3">
+    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="8" t="s">
         <v>367</v>
       </c>
@@ -5684,7 +5318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="262" s="8" customFormat="1" spans="1:3">
+    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="8" t="s">
         <v>368</v>
       </c>
@@ -5692,7 +5326,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="263" s="8" customFormat="1" spans="1:3">
+    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="8" t="s">
         <v>369</v>
       </c>
@@ -5700,7 +5334,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="264" s="8" customFormat="1" spans="1:3">
+    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="8" t="s">
         <v>371</v>
       </c>
@@ -5708,7 +5342,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="265" s="8" customFormat="1" spans="1:3">
+    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="8" t="s">
         <v>372</v>
       </c>
@@ -5716,7 +5350,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="266" s="8" customFormat="1" spans="1:3">
+    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A266" s="8" t="s">
         <v>373</v>
       </c>
@@ -5724,7 +5358,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="267" s="8" customFormat="1" spans="1:3">
+    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A267" s="8" t="s">
         <v>374</v>
       </c>
@@ -5732,7 +5366,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="268" s="8" customFormat="1" spans="1:3">
+    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="8" t="s">
         <v>375</v>
       </c>
@@ -5740,7 +5374,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="269" s="8" customFormat="1" spans="1:3">
+    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="8" t="s">
         <v>376</v>
       </c>
@@ -5748,7 +5382,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="270" s="8" customFormat="1" spans="1:3">
+    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A270" s="8" t="s">
         <v>377</v>
       </c>
@@ -5756,7 +5390,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="271" s="8" customFormat="1" spans="1:3">
+    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A271" s="8" t="s">
         <v>378</v>
       </c>
@@ -5764,7 +5398,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="272" s="8" customFormat="1" spans="1:3">
+    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="8" t="s">
         <v>379</v>
       </c>
@@ -5772,7 +5406,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="273" s="8" customFormat="1" spans="1:3">
+    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="8" t="s">
         <v>380</v>
       </c>
@@ -5780,7 +5414,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="274" s="8" customFormat="1" spans="1:3">
+    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="8" t="s">
         <v>381</v>
       </c>
@@ -5788,7 +5422,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="275" s="8" customFormat="1" spans="1:3">
+    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="8" t="s">
         <v>382</v>
       </c>
@@ -5796,7 +5430,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="276" s="8" customFormat="1" spans="1:3">
+    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="8" t="s">
         <v>383</v>
       </c>
@@ -5804,7 +5438,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" s="8" customFormat="1" spans="1:3">
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="8" t="s">
         <v>384</v>
       </c>
@@ -5812,7 +5446,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="278" s="8" customFormat="1" spans="1:3">
+    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="8" t="s">
         <v>385</v>
       </c>
@@ -5820,7 +5454,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="279" s="8" customFormat="1" spans="1:3">
+    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="8" t="s">
         <v>386</v>
       </c>
@@ -5828,7 +5462,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="280" s="8" customFormat="1" spans="1:3">
+    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="8" t="s">
         <v>387</v>
       </c>
@@ -5836,7 +5470,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" s="8" customFormat="1" spans="1:3">
+    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="8" t="s">
         <v>388</v>
       </c>
@@ -5844,7 +5478,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="282" s="8" customFormat="1" spans="1:3">
+    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="8" t="s">
         <v>389</v>
       </c>
@@ -5852,7 +5486,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="283" s="8" customFormat="1" spans="1:3">
+    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="8" t="s">
         <v>390</v>
       </c>
@@ -5860,7 +5494,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="284" s="8" customFormat="1" spans="1:3">
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="8" t="s">
         <v>391</v>
       </c>
@@ -5868,7 +5502,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="285" s="8" customFormat="1" spans="1:3">
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="8" t="s">
         <v>392</v>
       </c>
@@ -5876,7 +5510,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="286" s="8" customFormat="1" spans="1:3">
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="8" t="s">
         <v>393</v>
       </c>
@@ -5884,7 +5518,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" spans="1:3">
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="8" t="s">
         <v>394</v>
       </c>
@@ -5892,7 +5526,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="288" s="8" customFormat="1" spans="1:3">
+    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="8" t="s">
         <v>395</v>
       </c>
@@ -5900,7 +5534,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="289" s="8" customFormat="1" spans="1:3">
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="8" t="s">
         <v>396</v>
       </c>
@@ -5908,7 +5542,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="290" s="8" customFormat="1" spans="1:3">
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="8" t="s">
         <v>397</v>
       </c>
@@ -5916,7 +5550,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="291" s="8" customFormat="1" spans="1:3">
+    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="8" t="s">
         <v>398</v>
       </c>
@@ -5924,7 +5558,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="292" s="8" customFormat="1" spans="1:3">
+    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="8" t="s">
         <v>399</v>
       </c>
@@ -5932,7 +5566,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="293" s="8" customFormat="1" spans="1:3">
+    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="8" t="s">
         <v>400</v>
       </c>
@@ -5940,7 +5574,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="294" s="8" customFormat="1" spans="1:3">
+    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="8" t="s">
         <v>402</v>
       </c>
@@ -5948,7 +5582,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" s="8" customFormat="1" spans="1:3">
+    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="8" t="s">
         <v>403</v>
       </c>
@@ -5956,7 +5590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="296" s="8" customFormat="1" spans="1:3">
+    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="8" t="s">
         <v>404</v>
       </c>
@@ -5964,7 +5598,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="297" s="8" customFormat="1" spans="1:3">
+    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="8" t="s">
         <v>405</v>
       </c>
@@ -5972,7 +5606,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="298" s="8" customFormat="1" spans="1:3">
+    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="8" t="s">
         <v>406</v>
       </c>
@@ -5980,7 +5614,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="299" s="8" customFormat="1" spans="1:3">
+    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="8" t="s">
         <v>407</v>
       </c>
@@ -5988,7 +5622,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="300" s="8" customFormat="1" spans="1:3">
+    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="8" t="s">
         <v>408</v>
       </c>
@@ -5996,7 +5630,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="301" s="8" customFormat="1" spans="1:3">
+    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="8" t="s">
         <v>409</v>
       </c>
@@ -6004,7 +5638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="302" s="8" customFormat="1" spans="1:3">
+    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="8" t="s">
         <v>410</v>
       </c>
@@ -6012,7 +5646,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="303" s="8" customFormat="1" spans="1:3">
+    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="8" t="s">
         <v>411</v>
       </c>
@@ -6020,7 +5654,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="304" s="8" customFormat="1" spans="1:3">
+    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="8" t="s">
         <v>412</v>
       </c>
@@ -6028,7 +5662,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" s="8" customFormat="1" spans="1:3">
+    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A305" s="8" t="s">
         <v>413</v>
       </c>
@@ -6036,7 +5670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="306" s="8" customFormat="1" spans="1:3">
+    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="8" t="s">
         <v>414</v>
       </c>
@@ -6044,7 +5678,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="307" s="8" customFormat="1" spans="1:3">
+    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="8" t="s">
         <v>415</v>
       </c>
@@ -6052,7 +5686,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="308" s="8" customFormat="1" spans="1:3">
+    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="8" t="s">
         <v>416</v>
       </c>
@@ -6060,7 +5694,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="309" s="8" customFormat="1" spans="1:3">
+    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="8" t="s">
         <v>417</v>
       </c>
@@ -6068,7 +5702,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="310" s="8" customFormat="1" spans="1:3">
+    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="8" t="s">
         <v>418</v>
       </c>
@@ -6076,7 +5710,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="311" s="8" customFormat="1" spans="1:3">
+    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="8" t="s">
         <v>419</v>
       </c>
@@ -6084,7 +5718,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="1:3">
+    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A312" s="8" t="s">
         <v>420</v>
       </c>
@@ -6092,7 +5726,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="1:3">
+    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A313" s="8" t="s">
         <v>421</v>
       </c>
@@ -6100,7 +5734,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="1:3">
+    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="8" t="s">
         <v>422</v>
       </c>
@@ -6108,7 +5742,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="315" s="8" customFormat="1" spans="1:3">
+    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="8" t="s">
         <v>423</v>
       </c>
@@ -6116,7 +5750,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="316" s="8" customFormat="1" spans="1:3">
+    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="8" t="s">
         <v>424</v>
       </c>
@@ -6124,7 +5758,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="317" s="8" customFormat="1" spans="1:3">
+    <row r="317" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A317" s="8" t="s">
         <v>425</v>
       </c>
@@ -6132,7 +5766,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="318" s="8" customFormat="1" spans="1:3">
+    <row r="318" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A318" s="8" t="s">
         <v>426</v>
       </c>
@@ -6140,7 +5774,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="319" s="8" customFormat="1" spans="1:3">
+    <row r="319" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A319" s="8" t="s">
         <v>427</v>
       </c>
@@ -6148,7 +5782,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="320" s="8" customFormat="1" spans="1:3">
+    <row r="320" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A320" s="8" t="s">
         <v>428</v>
       </c>
@@ -6156,7 +5790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="321" s="8" customFormat="1" spans="1:3">
+    <row r="321" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A321" s="8" t="s">
         <v>429</v>
       </c>
@@ -6164,7 +5798,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="322" s="9" customFormat="1" spans="1:3">
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>430</v>
       </c>
@@ -6172,7 +5806,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="323" s="10" customFormat="1" spans="1:3">
+    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A323" s="10" t="s">
         <v>431</v>
       </c>
@@ -6180,7 +5814,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="324" s="10" customFormat="1" spans="1:3">
+    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A324" s="10" t="s">
         <v>433</v>
       </c>
@@ -6188,7 +5822,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="325" s="10" customFormat="1" spans="1:3">
+    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A325" s="10" t="s">
         <v>434</v>
       </c>
@@ -6196,7 +5830,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" s="10" customFormat="1" spans="1:3">
+    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A326" s="10" t="s">
         <v>435</v>
       </c>
@@ -6204,7 +5838,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" s="10" customFormat="1" spans="1:3">
+    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="10" t="s">
         <v>436</v>
       </c>
@@ -6212,7 +5846,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" s="10" customFormat="1" spans="1:3">
+    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="10" t="s">
         <v>437</v>
       </c>
@@ -6220,7 +5854,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="329" s="10" customFormat="1" spans="1:3">
+    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A329" s="10" t="s">
         <v>438</v>
       </c>
@@ -6228,7 +5862,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="330" s="10" customFormat="1" spans="1:3">
+    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A330" s="10" t="s">
         <v>440</v>
       </c>
@@ -6236,7 +5870,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="331" s="10" customFormat="1" spans="1:3">
+    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A331" s="10" t="s">
         <v>441</v>
       </c>
@@ -6244,7 +5878,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="332" s="10" customFormat="1" spans="1:3">
+    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A332" s="10" t="s">
         <v>442</v>
       </c>
@@ -6252,7 +5886,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="333" s="10" customFormat="1" spans="1:3">
+    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A333" s="10" t="s">
         <v>443</v>
       </c>
@@ -6260,7 +5894,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="334" s="10" customFormat="1" spans="1:3">
+    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="10" t="s">
         <v>444</v>
       </c>
@@ -6268,7 +5902,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="335" s="10" customFormat="1" spans="1:3">
+    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A335" s="10" t="s">
         <v>445</v>
       </c>
@@ -6276,7 +5910,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="336" s="10" customFormat="1" spans="1:3">
+    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A336" s="10" t="s">
         <v>447</v>
       </c>
@@ -6284,7 +5918,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="337" s="10" customFormat="1" spans="1:3">
+    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337" s="10" t="s">
         <v>448</v>
       </c>
@@ -6292,7 +5926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" s="10" customFormat="1" spans="1:3">
+    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338" s="10" t="s">
         <v>449</v>
       </c>
@@ -6300,7 +5934,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="339" s="10" customFormat="1" spans="1:3">
+    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="10" t="s">
         <v>450</v>
       </c>
@@ -6308,7 +5942,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="340" s="10" customFormat="1" spans="1:3">
+    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A340" s="10" t="s">
         <v>451</v>
       </c>
@@ -6316,7 +5950,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="341" s="10" customFormat="1" spans="1:3">
+    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="10" t="s">
         <v>452</v>
       </c>
@@ -6324,7 +5958,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="1" spans="1:3">
+    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="10" t="s">
         <v>454</v>
       </c>
@@ -6332,7 +5966,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="1" spans="1:3">
+    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="10" t="s">
         <v>455</v>
       </c>
@@ -6340,7 +5974,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="344" s="10" customFormat="1" spans="1:3">
+    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344" s="10" t="s">
         <v>456</v>
       </c>
@@ -6348,7 +5982,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="345" s="10" customFormat="1" spans="1:3">
+    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A345" s="10" t="s">
         <v>457</v>
       </c>
@@ -6356,7 +5990,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="346" s="10" customFormat="1" spans="1:3">
+    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="10" t="s">
         <v>458</v>
       </c>
@@ -6364,7 +5998,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="347" s="10" customFormat="1" spans="1:3">
+    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="10" t="s">
         <v>459</v>
       </c>
@@ -6372,7 +6006,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="1" spans="1:3">
+    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="10" t="s">
         <v>461</v>
       </c>
@@ -6380,7 +6014,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="349" s="10" customFormat="1" spans="1:3">
+    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="10" t="s">
         <v>462</v>
       </c>
@@ -6388,7 +6022,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="350" s="10" customFormat="1" spans="1:3">
+    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350" s="10" t="s">
         <v>463</v>
       </c>
@@ -6396,7 +6030,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="351" s="10" customFormat="1" spans="1:3">
+    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351" s="10" t="s">
         <v>464</v>
       </c>
@@ -6404,7 +6038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="352" s="10" customFormat="1" spans="1:3">
+    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="10" t="s">
         <v>465</v>
       </c>
@@ -6412,7 +6046,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="353" s="10" customFormat="1" spans="1:3">
+    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="10" t="s">
         <v>466</v>
       </c>
@@ -6420,7 +6054,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="354" s="10" customFormat="1" spans="1:3">
+    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A354" s="10" t="s">
         <v>468</v>
       </c>
@@ -6428,7 +6062,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="355" s="10" customFormat="1" spans="1:3">
+    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="10" t="s">
         <v>469</v>
       </c>
@@ -6436,7 +6070,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="356" s="10" customFormat="1" spans="1:3">
+    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A356" s="10" t="s">
         <v>470</v>
       </c>
@@ -6444,7 +6078,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="357" s="10" customFormat="1" spans="1:3">
+    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="10" t="s">
         <v>471</v>
       </c>
@@ -6452,7 +6086,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="358" s="10" customFormat="1" spans="1:3">
+    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="10" t="s">
         <v>472</v>
       </c>
@@ -6460,7 +6094,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="359" s="10" customFormat="1" spans="1:3">
+    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A359" s="10" t="s">
         <v>473</v>
       </c>
@@ -6468,7 +6102,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="360" s="10" customFormat="1" spans="1:3">
+    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A360" s="10" t="s">
         <v>475</v>
       </c>
@@ -6476,7 +6110,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="361" s="10" customFormat="1" spans="1:3">
+    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361" s="10" t="s">
         <v>476</v>
       </c>
@@ -6484,7 +6118,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" s="10" customFormat="1" spans="1:3">
+    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A362" s="10" t="s">
         <v>477</v>
       </c>
@@ -6492,7 +6126,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="363" s="10" customFormat="1" spans="1:3">
+    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A363" s="10" t="s">
         <v>478</v>
       </c>
@@ -6500,7 +6134,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="364" s="10" customFormat="1" spans="1:3">
+    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A364" s="10" t="s">
         <v>479</v>
       </c>
@@ -6508,7 +6142,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="365" s="10" customFormat="1" spans="1:3">
+    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A365" s="10" t="s">
         <v>480</v>
       </c>
@@ -6516,7 +6150,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="366" s="10" customFormat="1" spans="1:3">
+    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="10" t="s">
         <v>481</v>
       </c>
@@ -6524,7 +6158,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="367" s="10" customFormat="1" spans="1:3">
+    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A367" s="10" t="s">
         <v>482</v>
       </c>
@@ -6532,7 +6166,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="368" s="10" customFormat="1" spans="1:3">
+    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A368" s="10" t="s">
         <v>483</v>
       </c>
@@ -6540,7 +6174,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="369" s="10" customFormat="1" spans="1:3">
+    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="10" t="s">
         <v>484</v>
       </c>
@@ -6548,7 +6182,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="370" s="10" customFormat="1" spans="1:3">
+    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="10" t="s">
         <v>486</v>
       </c>
@@ -6556,7 +6190,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="371" s="10" customFormat="1" spans="1:3">
+    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="10" t="s">
         <v>487</v>
       </c>
@@ -6564,7 +6198,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="372" s="10" customFormat="1" spans="1:3">
+    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A372" s="10" t="s">
         <v>488</v>
       </c>
@@ -6572,7 +6206,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="373" s="10" customFormat="1" spans="1:3">
+    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="10" t="s">
         <v>489</v>
       </c>
@@ -6580,7 +6214,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="374" s="10" customFormat="1" spans="1:3">
+    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="10" t="s">
         <v>490</v>
       </c>
@@ -6588,7 +6222,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="375" s="10" customFormat="1" spans="1:3">
+    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A375" s="10" t="s">
         <v>492</v>
       </c>
@@ -6596,7 +6230,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="376" s="10" customFormat="1" spans="1:3">
+    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="10" t="s">
         <v>493</v>
       </c>
@@ -6604,7 +6238,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="377" s="10" customFormat="1" spans="1:3">
+    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A377" s="10" t="s">
         <v>494</v>
       </c>
@@ -6612,7 +6246,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="378" s="10" customFormat="1" spans="1:3">
+    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A378" s="10" t="s">
         <v>495</v>
       </c>
@@ -6620,7 +6254,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="379" s="10" customFormat="1" spans="1:3">
+    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A379" s="10" t="s">
         <v>496</v>
       </c>
@@ -6628,7 +6262,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="380" s="10" customFormat="1" spans="1:3">
+    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="10" t="s">
         <v>497</v>
       </c>
@@ -6636,7 +6270,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="381" s="10" customFormat="1" spans="1:3">
+    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A381" s="10" t="s">
         <v>498</v>
       </c>
@@ -6644,7 +6278,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="382" s="10" customFormat="1" spans="1:3">
+    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A382" s="10" t="s">
         <v>499</v>
       </c>
@@ -6652,7 +6286,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="383" s="10" customFormat="1" spans="1:3">
+    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A383" s="10" t="s">
         <v>500</v>
       </c>
@@ -6660,7 +6294,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="384" s="10" customFormat="1" spans="1:3">
+    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="10" t="s">
         <v>501</v>
       </c>
@@ -6668,7 +6302,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="385" s="10" customFormat="1" spans="1:3">
+    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A385" s="10" t="s">
         <v>503</v>
       </c>
@@ -6676,7 +6310,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="386" s="10" customFormat="1" spans="1:3">
+    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A386" s="10" t="s">
         <v>504</v>
       </c>
@@ -6684,7 +6318,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="387" s="10" customFormat="1" spans="1:3">
+    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A387" s="10" t="s">
         <v>505</v>
       </c>
@@ -6692,7 +6326,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="388" s="10" customFormat="1" spans="1:3">
+    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="10" t="s">
         <v>506</v>
       </c>
@@ -6700,7 +6334,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="389" s="10" customFormat="1" spans="1:3">
+    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="10" t="s">
         <v>507</v>
       </c>
@@ -6708,7 +6342,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="390" s="10" customFormat="1" spans="1:3">
+    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A390" s="10" t="s">
         <v>508</v>
       </c>
@@ -6716,7 +6350,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="391" s="10" customFormat="1" spans="1:3">
+    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A391" s="10" t="s">
         <v>509</v>
       </c>
@@ -6724,7 +6358,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="392" s="10" customFormat="1" spans="1:3">
+    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="10" t="s">
         <v>510</v>
       </c>
@@ -6732,7 +6366,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="393" s="10" customFormat="1" spans="1:3">
+    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A393" s="10" t="s">
         <v>511</v>
       </c>
@@ -6740,7 +6374,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="394" s="10" customFormat="1" spans="1:3">
+    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="10" t="s">
         <v>512</v>
       </c>
@@ -6748,7 +6382,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="395" s="10" customFormat="1" spans="1:3">
+    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="10" t="s">
         <v>514</v>
       </c>
@@ -6756,7 +6390,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="396" s="10" customFormat="1" spans="1:3">
+    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A396" s="10" t="s">
         <v>515</v>
       </c>
@@ -6764,7 +6398,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="397" s="10" customFormat="1" spans="1:3">
+    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A397" s="10" t="s">
         <v>516</v>
       </c>
@@ -6772,7 +6406,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="398" s="10" customFormat="1" spans="1:3">
+    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A398" s="10" t="s">
         <v>517</v>
       </c>
@@ -6780,7 +6414,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="399" s="10" customFormat="1" spans="1:3">
+    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A399" s="10" t="s">
         <v>518</v>
       </c>
@@ -6788,7 +6422,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="400" s="10" customFormat="1" spans="1:3">
+    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A400" s="10" t="s">
         <v>519</v>
       </c>
@@ -6796,7 +6430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="401" s="10" customFormat="1" spans="1:3">
+    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A401" s="10" t="s">
         <v>520</v>
       </c>
@@ -6804,7 +6438,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="402" s="10" customFormat="1" spans="1:3">
+    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="10" t="s">
         <v>521</v>
       </c>
@@ -6812,7 +6446,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="403" s="10" customFormat="1" spans="1:3">
+    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A403" s="10" t="s">
         <v>522</v>
       </c>
@@ -6820,7 +6454,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="404" s="10" customFormat="1" spans="1:3">
+    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A404" s="10" t="s">
         <v>523</v>
       </c>
@@ -6828,7 +6462,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="405" s="10" customFormat="1" spans="1:3">
+    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A405" s="10" t="s">
         <v>525</v>
       </c>
@@ -6836,7 +6470,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="406" s="10" customFormat="1" spans="1:3">
+    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="10" t="s">
         <v>526</v>
       </c>
@@ -6844,7 +6478,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="407" s="10" customFormat="1" spans="1:3">
+    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="10" t="s">
         <v>527</v>
       </c>
@@ -6852,7 +6486,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="408" s="10" customFormat="1" spans="1:3">
+    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A408" s="10" t="s">
         <v>528</v>
       </c>
@@ -6860,7 +6494,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="409" s="10" customFormat="1" spans="1:3">
+    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A409" s="10" t="s">
         <v>529</v>
       </c>
@@ -6868,7 +6502,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="410" s="10" customFormat="1" spans="1:3">
+    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A410" s="10" t="s">
         <v>530</v>
       </c>
@@ -6876,7 +6510,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="411" s="10" customFormat="1" spans="1:3">
+    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A411" s="10" t="s">
         <v>531</v>
       </c>
@@ -6884,7 +6518,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="412" s="10" customFormat="1" spans="1:3">
+    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A412" s="10" t="s">
         <v>532</v>
       </c>
@@ -6892,7 +6526,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="413" s="10" customFormat="1" spans="1:3">
+    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A413" s="10" t="s">
         <v>533</v>
       </c>
@@ -6900,7 +6534,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="414" s="10" customFormat="1" spans="1:3">
+    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A414" s="10" t="s">
         <v>534</v>
       </c>
@@ -6908,7 +6542,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="415" s="10" customFormat="1" spans="1:3">
+    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A415" s="10" t="s">
         <v>536</v>
       </c>
@@ -6916,7 +6550,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="416" s="10" customFormat="1" spans="1:3">
+    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A416" s="10" t="s">
         <v>537</v>
       </c>
@@ -6924,7 +6558,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="417" s="10" customFormat="1" spans="1:3">
+    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A417" s="10" t="s">
         <v>538</v>
       </c>
@@ -6932,7 +6566,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="418" s="10" customFormat="1" spans="1:3">
+    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A418" s="10" t="s">
         <v>539</v>
       </c>
@@ -6940,7 +6574,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="419" s="10" customFormat="1" spans="1:3">
+    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A419" s="10" t="s">
         <v>540</v>
       </c>
@@ -6948,7 +6582,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="420" s="10" customFormat="1" spans="1:3">
+    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A420" s="10" t="s">
         <v>541</v>
       </c>
@@ -6956,7 +6590,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="421" s="10" customFormat="1" spans="1:3">
+    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A421" s="10" t="s">
         <v>542</v>
       </c>
@@ -6964,7 +6598,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="422" s="10" customFormat="1" spans="1:3">
+    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A422" s="10" t="s">
         <v>543</v>
       </c>
@@ -6972,7 +6606,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="423" s="10" customFormat="1" spans="1:3">
+    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A423" s="10" t="s">
         <v>544</v>
       </c>
@@ -6980,7 +6614,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="424" s="10" customFormat="1" spans="1:3">
+    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A424" s="10" t="s">
         <v>545</v>
       </c>
@@ -6988,7 +6622,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="425" s="10" customFormat="1" spans="1:3">
+    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A425" s="10" t="s">
         <v>547</v>
       </c>
@@ -6996,7 +6630,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="426" s="10" customFormat="1" spans="1:3">
+    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A426" s="10" t="s">
         <v>548</v>
       </c>
@@ -7004,7 +6638,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="427" s="10" customFormat="1" spans="1:3">
+    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A427" s="10" t="s">
         <v>549</v>
       </c>
@@ -7012,7 +6646,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="428" s="10" customFormat="1" spans="1:3">
+    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A428" s="10" t="s">
         <v>550</v>
       </c>
@@ -7020,7 +6654,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="429" s="10" customFormat="1" spans="1:3">
+    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A429" s="10" t="s">
         <v>551</v>
       </c>
@@ -7028,7 +6662,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="430" s="10" customFormat="1" spans="1:3">
+    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A430" s="10" t="s">
         <v>552</v>
       </c>
@@ -7036,7 +6670,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="431" s="10" customFormat="1" spans="1:3">
+    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A431" s="10" t="s">
         <v>553</v>
       </c>
@@ -7044,7 +6678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="432" s="10" customFormat="1" spans="1:3">
+    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A432" s="10" t="s">
         <v>554</v>
       </c>
@@ -7052,7 +6686,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="433" s="10" customFormat="1" spans="1:3">
+    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A433" s="10" t="s">
         <v>555</v>
       </c>
@@ -7060,7 +6694,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="434" s="10" customFormat="1" spans="1:3">
+    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A434" s="10" t="s">
         <v>556</v>
       </c>
@@ -7068,7 +6702,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="435" s="10" customFormat="1" spans="1:3">
+    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A435" s="10" t="s">
         <v>558</v>
       </c>
@@ -7076,7 +6710,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="436" s="10" customFormat="1" spans="1:3">
+    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A436" s="10" t="s">
         <v>559</v>
       </c>
@@ -7084,7 +6718,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="437" s="10" customFormat="1" spans="1:3">
+    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A437" s="10" t="s">
         <v>560</v>
       </c>
@@ -7092,7 +6726,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="438" s="10" customFormat="1" spans="1:3">
+    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A438" s="10" t="s">
         <v>561</v>
       </c>
@@ -7100,7 +6734,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="439" s="10" customFormat="1" spans="1:3">
+    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A439" s="10" t="s">
         <v>562</v>
       </c>
@@ -7108,7 +6742,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="440" s="10" customFormat="1" spans="1:3">
+    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A440" s="10" t="s">
         <v>563</v>
       </c>
@@ -7116,7 +6750,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="441" s="10" customFormat="1" spans="1:3">
+    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A441" s="10" t="s">
         <v>564</v>
       </c>
@@ -7124,7 +6758,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="442" s="10" customFormat="1" spans="1:3">
+    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A442" s="10" t="s">
         <v>565</v>
       </c>
@@ -7132,7 +6766,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="443" s="10" customFormat="1" spans="1:3">
+    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A443" s="10" t="s">
         <v>566</v>
       </c>
@@ -7140,7 +6774,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="444" s="10" customFormat="1" spans="1:3">
+    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A444" s="10" t="s">
         <v>567</v>
       </c>
@@ -7148,7 +6782,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="445" s="10" customFormat="1" spans="1:3">
+    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A445" s="10" t="s">
         <v>569</v>
       </c>
@@ -7156,7 +6790,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="446" s="10" customFormat="1" spans="1:3">
+    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A446" s="10" t="s">
         <v>570</v>
       </c>
@@ -7164,7 +6798,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="447" s="10" customFormat="1" spans="1:3">
+    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A447" s="10" t="s">
         <v>571</v>
       </c>
@@ -7172,7 +6806,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="448" s="10" customFormat="1" spans="1:3">
+    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A448" s="10" t="s">
         <v>572</v>
       </c>
@@ -7180,7 +6814,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="449" s="10" customFormat="1" spans="1:3">
+    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A449" s="10" t="s">
         <v>573</v>
       </c>
@@ -7188,7 +6822,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="450" s="10" customFormat="1" spans="1:3">
+    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="10" t="s">
         <v>574</v>
       </c>
@@ -7196,7 +6830,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="451" s="10" customFormat="1" spans="1:3">
+    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A451" s="10" t="s">
         <v>576</v>
       </c>
@@ -7204,7 +6838,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="452" s="10" customFormat="1" spans="1:3">
+    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A452" s="10" t="s">
         <v>577</v>
       </c>
@@ -7212,7 +6846,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="453" s="10" customFormat="1" spans="1:3">
+    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A453" s="10" t="s">
         <v>578</v>
       </c>
@@ -7220,7 +6854,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="454" s="10" customFormat="1" spans="1:3">
+    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A454" s="10" t="s">
         <v>579</v>
       </c>
@@ -7228,7 +6862,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="455" s="10" customFormat="1" spans="1:3">
+    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A455" s="10" t="s">
         <v>580</v>
       </c>
@@ -7236,7 +6870,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="456" s="10" customFormat="1" spans="1:3">
+    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A456" s="10" t="s">
         <v>581</v>
       </c>
@@ -7244,7 +6878,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="457" s="10" customFormat="1" spans="1:3">
+    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A457" s="10" t="s">
         <v>582</v>
       </c>
@@ -7252,7 +6886,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="458" s="10" customFormat="1" spans="1:3">
+    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A458" s="10" t="s">
         <v>583</v>
       </c>
@@ -7260,7 +6894,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="459" s="10" customFormat="1" spans="1:3">
+    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A459" s="10" t="s">
         <v>584</v>
       </c>
@@ -7268,7 +6902,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="460" s="10" customFormat="1" spans="1:3">
+    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A460" s="10" t="s">
         <v>585</v>
       </c>
@@ -7276,7 +6910,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="461" s="10" customFormat="1" spans="1:3">
+    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A461" s="10" t="s">
         <v>586</v>
       </c>
@@ -7284,7 +6918,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="462" s="10" customFormat="1" spans="1:3">
+    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A462" s="10" t="s">
         <v>587</v>
       </c>
@@ -7292,7 +6926,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="463" s="10" customFormat="1" spans="1:3">
+    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A463" s="10" t="s">
         <v>588</v>
       </c>
@@ -7300,7 +6934,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="464" s="10" customFormat="1" spans="1:3">
+    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A464" s="10" t="s">
         <v>589</v>
       </c>
@@ -7308,7 +6942,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="465" s="10" customFormat="1" spans="1:3">
+    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A465" s="10" t="s">
         <v>590</v>
       </c>
@@ -7316,7 +6950,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="466" s="10" customFormat="1" spans="1:3">
+    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A466" s="10" t="s">
         <v>591</v>
       </c>
@@ -7324,7 +6958,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="467" s="10" customFormat="1" spans="1:3">
+    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A467" s="10" t="s">
         <v>592</v>
       </c>
@@ -7332,7 +6966,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="468" s="10" customFormat="1" spans="1:3">
+    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A468" s="10" t="s">
         <v>593</v>
       </c>
@@ -7340,7 +6974,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="469" s="10" customFormat="1" spans="1:3">
+    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A469" s="10" t="s">
         <v>594</v>
       </c>
@@ -7348,7 +6982,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="470" s="10" customFormat="1" spans="1:3">
+    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A470" s="10" t="s">
         <v>595</v>
       </c>
@@ -7356,7 +6990,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" s="10" customFormat="1" spans="1:3">
+    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A471" s="10" t="s">
         <v>596</v>
       </c>
@@ -7364,7 +6998,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="472" s="10" customFormat="1" spans="1:3">
+    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A472" s="10" t="s">
         <v>597</v>
       </c>
@@ -7372,7 +7006,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="473" s="10" customFormat="1" spans="1:3">
+    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A473" s="10" t="s">
         <v>598</v>
       </c>
@@ -7380,7 +7014,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="474" s="10" customFormat="1" spans="1:3">
+    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A474" s="10" t="s">
         <v>599</v>
       </c>
@@ -7388,7 +7022,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="475" s="10" customFormat="1" spans="1:3">
+    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A475" s="10" t="s">
         <v>600</v>
       </c>
@@ -7396,7 +7030,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="476" s="10" customFormat="1" spans="1:3">
+    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A476" s="10" t="s">
         <v>601</v>
       </c>
@@ -7404,7 +7038,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="477" s="10" customFormat="1" spans="1:3">
+    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A477" s="10" t="s">
         <v>602</v>
       </c>
@@ -7412,7 +7046,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="478" s="10" customFormat="1" spans="1:3">
+    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A478" s="10" t="s">
         <v>603</v>
       </c>
@@ -7420,7 +7054,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="479" s="10" customFormat="1" spans="1:3">
+    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A479" s="10" t="s">
         <v>604</v>
       </c>
@@ -7428,7 +7062,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="480" s="10" customFormat="1" spans="1:3">
+    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A480" s="10" t="s">
         <v>605</v>
       </c>
@@ -7436,7 +7070,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="481" s="10" customFormat="1" spans="1:3">
+    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A481" s="10" t="s">
         <v>607</v>
       </c>
@@ -7444,7 +7078,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="482" s="10" customFormat="1" spans="1:3">
+    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A482" s="10" t="s">
         <v>608</v>
       </c>
@@ -7452,7 +7086,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="483" s="10" customFormat="1" spans="1:3">
+    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A483" s="10" t="s">
         <v>609</v>
       </c>
@@ -7460,7 +7094,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="484" s="10" customFormat="1" spans="1:3">
+    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A484" s="10" t="s">
         <v>610</v>
       </c>
@@ -7468,7 +7102,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="485" s="10" customFormat="1" spans="1:3">
+    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A485" s="10" t="s">
         <v>611</v>
       </c>
@@ -7476,7 +7110,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="486" s="10" customFormat="1" spans="1:3">
+    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A486" s="10" t="s">
         <v>612</v>
       </c>
@@ -7484,7 +7118,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="487" s="10" customFormat="1" spans="1:3">
+    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A487" s="10" t="s">
         <v>613</v>
       </c>
@@ -7492,7 +7126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="488" s="10" customFormat="1" spans="1:3">
+    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A488" s="10" t="s">
         <v>614</v>
       </c>
@@ -7500,7 +7134,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="489" s="10" customFormat="1" spans="1:3">
+    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A489" s="10" t="s">
         <v>615</v>
       </c>
@@ -7508,7 +7142,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="490" s="10" customFormat="1" spans="1:3">
+    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A490" s="10" t="s">
         <v>616</v>
       </c>
@@ -7516,7 +7150,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="491" s="10" customFormat="1" spans="1:3">
+    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A491" s="10" t="s">
         <v>617</v>
       </c>
@@ -7524,7 +7158,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="492" s="10" customFormat="1" spans="1:3">
+    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A492" s="10" t="s">
         <v>618</v>
       </c>
@@ -7532,7 +7166,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="493" s="10" customFormat="1" spans="1:3">
+    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A493" s="10" t="s">
         <v>619</v>
       </c>
@@ -7540,7 +7174,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="494" s="10" customFormat="1" spans="1:3">
+    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A494" s="10" t="s">
         <v>620</v>
       </c>
@@ -7548,7 +7182,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="495" s="10" customFormat="1" spans="1:3">
+    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A495" s="10" t="s">
         <v>621</v>
       </c>
@@ -7556,7 +7190,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="496" s="10" customFormat="1" spans="1:3">
+    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A496" s="10" t="s">
         <v>622</v>
       </c>
@@ -7564,7 +7198,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="497" s="10" customFormat="1" spans="1:3">
+    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A497" s="10" t="s">
         <v>623</v>
       </c>
@@ -7572,7 +7206,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="498" s="10" customFormat="1" spans="1:3">
+    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A498" s="10" t="s">
         <v>624</v>
       </c>
@@ -7580,7 +7214,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="499" s="10" customFormat="1" spans="1:3">
+    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A499" s="10" t="s">
         <v>625</v>
       </c>
@@ -7588,7 +7222,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="500" s="10" customFormat="1" spans="1:3">
+    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A500" s="10" t="s">
         <v>626</v>
       </c>
@@ -7596,7 +7230,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="501" s="10" customFormat="1" spans="1:3">
+    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A501" s="10" t="s">
         <v>627</v>
       </c>
@@ -7604,7 +7238,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="502" s="10" customFormat="1" spans="1:3">
+    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A502" s="10" t="s">
         <v>628</v>
       </c>
@@ -7612,7 +7246,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="503" s="10" customFormat="1" spans="1:3">
+    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A503" s="10" t="s">
         <v>629</v>
       </c>
@@ -7620,7 +7254,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="504" s="10" customFormat="1" spans="1:3">
+    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A504" s="10" t="s">
         <v>630</v>
       </c>
@@ -7628,7 +7262,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="505" s="10" customFormat="1" spans="1:3">
+    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A505" s="10" t="s">
         <v>631</v>
       </c>
@@ -7636,7 +7270,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="506" s="10" customFormat="1" spans="1:3">
+    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A506" s="10" t="s">
         <v>632</v>
       </c>
@@ -7644,7 +7278,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="507" s="10" customFormat="1" spans="1:3">
+    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A507" s="10" t="s">
         <v>633</v>
       </c>
@@ -7652,7 +7286,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="508" s="10" customFormat="1" spans="1:3">
+    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A508" s="10" t="s">
         <v>634</v>
       </c>
@@ -7660,7 +7294,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="509" s="10" customFormat="1" spans="1:3">
+    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A509" s="10" t="s">
         <v>635</v>
       </c>
@@ -7668,7 +7302,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="510" s="10" customFormat="1" spans="1:3">
+    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A510" s="10" t="s">
         <v>636</v>
       </c>
@@ -7676,7 +7310,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="511" s="10" customFormat="1" spans="1:3">
+    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A511" s="10" t="s">
         <v>638</v>
       </c>
@@ -7684,7 +7318,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="512" s="10" customFormat="1" spans="1:3">
+    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A512" s="10" t="s">
         <v>639</v>
       </c>
@@ -7692,7 +7326,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="513" s="10" customFormat="1" spans="1:3">
+    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A513" s="10" t="s">
         <v>640</v>
       </c>
@@ -7700,7 +7334,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="514" s="10" customFormat="1" spans="1:3">
+    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A514" s="10" t="s">
         <v>641</v>
       </c>
@@ -7708,7 +7342,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="515" s="10" customFormat="1" spans="1:3">
+    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A515" s="10" t="s">
         <v>642</v>
       </c>
@@ -7716,7 +7350,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="516" s="10" customFormat="1" spans="1:3">
+    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A516" s="10" t="s">
         <v>643</v>
       </c>
@@ -7724,7 +7358,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="517" s="10" customFormat="1" spans="1:3">
+    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A517" s="10" t="s">
         <v>644</v>
       </c>
@@ -7732,7 +7366,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="518" s="10" customFormat="1" spans="1:3">
+    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A518" s="10" t="s">
         <v>645</v>
       </c>
@@ -7740,7 +7374,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="519" s="10" customFormat="1" spans="1:3">
+    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A519" s="10" t="s">
         <v>646</v>
       </c>
@@ -7748,7 +7382,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="520" s="10" customFormat="1" spans="1:3">
+    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A520" s="10" t="s">
         <v>647</v>
       </c>
@@ -7756,7 +7390,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="521" s="10" customFormat="1" spans="1:3">
+    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A521" s="10" t="s">
         <v>648</v>
       </c>
@@ -7764,7 +7398,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="522" s="10" customFormat="1" spans="1:3">
+    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A522" s="10" t="s">
         <v>649</v>
       </c>
@@ -7772,7 +7406,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="523" s="10" customFormat="1" spans="1:3">
+    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A523" s="10" t="s">
         <v>650</v>
       </c>
@@ -7780,7 +7414,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="524" s="10" customFormat="1" spans="1:3">
+    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A524" s="10" t="s">
         <v>651</v>
       </c>
@@ -7788,7 +7422,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="525" s="10" customFormat="1" spans="1:3">
+    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A525" s="10" t="s">
         <v>652</v>
       </c>
@@ -7796,7 +7430,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="526" s="10" customFormat="1" spans="1:3">
+    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A526" s="10" t="s">
         <v>653</v>
       </c>
@@ -7804,7 +7438,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="527" s="10" customFormat="1" spans="1:3">
+    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A527" s="10" t="s">
         <v>654</v>
       </c>
@@ -7812,7 +7446,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="528" s="10" customFormat="1" spans="1:3">
+    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A528" s="10" t="s">
         <v>655</v>
       </c>
@@ -7820,7 +7454,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="529" s="10" customFormat="1" spans="1:3">
+    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A529" s="10" t="s">
         <v>656</v>
       </c>
@@ -7828,7 +7462,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="530" s="10" customFormat="1" spans="1:3">
+    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A530" s="10" t="s">
         <v>657</v>
       </c>
@@ -7836,7 +7470,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="531" s="10" customFormat="1" spans="1:3">
+    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A531" s="10" t="s">
         <v>658</v>
       </c>
@@ -7844,7 +7478,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="532" s="10" customFormat="1" spans="1:3">
+    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A532" s="10" t="s">
         <v>659</v>
       </c>
@@ -7852,7 +7486,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="533" s="10" customFormat="1" spans="1:3">
+    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A533" s="10" t="s">
         <v>660</v>
       </c>
@@ -7860,7 +7494,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="534" s="10" customFormat="1" spans="1:3">
+    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A534" s="10" t="s">
         <v>661</v>
       </c>
@@ -7868,7 +7502,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="535" s="10" customFormat="1" spans="1:3">
+    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A535" s="10" t="s">
         <v>662</v>
       </c>
@@ -7876,7 +7510,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="536" s="10" customFormat="1" spans="1:3">
+    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A536" s="10" t="s">
         <v>663</v>
       </c>
@@ -7884,7 +7518,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="537" s="10" customFormat="1" spans="1:3">
+    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A537" s="10" t="s">
         <v>664</v>
       </c>
@@ -7892,7 +7526,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="538" s="10" customFormat="1" spans="1:3">
+    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A538" s="10" t="s">
         <v>665</v>
       </c>
@@ -7900,7 +7534,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="539" s="10" customFormat="1" spans="1:3">
+    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A539" s="10" t="s">
         <v>666</v>
       </c>
@@ -7908,7 +7542,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="540" s="10" customFormat="1" spans="1:3">
+    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A540" s="10" t="s">
         <v>667</v>
       </c>
@@ -7916,7 +7550,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="541" s="10" customFormat="1" spans="1:3">
+    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A541" s="10" t="s">
         <v>669</v>
       </c>
@@ -7924,7 +7558,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="542" s="10" customFormat="1" spans="1:3">
+    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A542" s="10" t="s">
         <v>670</v>
       </c>
@@ -7932,7 +7566,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="543" s="10" customFormat="1" spans="1:3">
+    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A543" s="10" t="s">
         <v>671</v>
       </c>
@@ -7940,7 +7574,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="544" s="10" customFormat="1" spans="1:3">
+    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A544" s="10" t="s">
         <v>672</v>
       </c>
@@ -7948,7 +7582,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="545" s="10" customFormat="1" spans="1:3">
+    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A545" s="10" t="s">
         <v>673</v>
       </c>
@@ -7956,7 +7590,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="546" s="10" customFormat="1" spans="1:3">
+    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A546" s="10" t="s">
         <v>674</v>
       </c>
@@ -7964,7 +7598,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="547" s="10" customFormat="1" spans="1:3">
+    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A547" s="10" t="s">
         <v>675</v>
       </c>
@@ -7972,7 +7606,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="548" s="10" customFormat="1" spans="1:3">
+    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A548" s="10" t="s">
         <v>676</v>
       </c>
@@ -7980,7 +7614,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="549" s="10" customFormat="1" spans="1:3">
+    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A549" s="10" t="s">
         <v>677</v>
       </c>
@@ -7988,7 +7622,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="550" s="10" customFormat="1" spans="1:3">
+    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A550" s="10" t="s">
         <v>678</v>
       </c>
@@ -7996,7 +7630,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="551" s="10" customFormat="1" spans="1:3">
+    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A551" s="10" t="s">
         <v>679</v>
       </c>
@@ -8004,7 +7638,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="552" s="10" customFormat="1" spans="1:3">
+    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A552" s="10" t="s">
         <v>680</v>
       </c>
@@ -8012,7 +7646,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="553" s="10" customFormat="1" spans="1:3">
+    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A553" s="10" t="s">
         <v>681</v>
       </c>
@@ -8020,7 +7654,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="554" s="10" customFormat="1" spans="1:3">
+    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A554" s="10" t="s">
         <v>682</v>
       </c>
@@ -8028,7 +7662,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="555" s="10" customFormat="1" spans="1:3">
+    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A555" s="10" t="s">
         <v>683</v>
       </c>
@@ -8036,7 +7670,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="556" s="10" customFormat="1" spans="1:3">
+    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A556" s="10" t="s">
         <v>684</v>
       </c>
@@ -8044,7 +7678,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="557" s="10" customFormat="1" spans="1:3">
+    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A557" s="10" t="s">
         <v>685</v>
       </c>
@@ -8052,7 +7686,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="558" s="10" customFormat="1" spans="1:3">
+    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A558" s="10" t="s">
         <v>686</v>
       </c>
@@ -8060,7 +7694,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="559" s="10" customFormat="1" spans="1:3">
+    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A559" s="10" t="s">
         <v>687</v>
       </c>
@@ -8068,7 +7702,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="560" s="10" customFormat="1" spans="1:3">
+    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A560" s="10" t="s">
         <v>688</v>
       </c>
@@ -8076,7 +7710,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="561" s="10" customFormat="1" spans="1:3">
+    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A561" s="10" t="s">
         <v>689</v>
       </c>
@@ -8084,7 +7718,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="562" s="10" customFormat="1" spans="1:3">
+    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A562" s="10" t="s">
         <v>690</v>
       </c>
@@ -8092,7 +7726,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="563" s="10" customFormat="1" spans="1:3">
+    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A563" s="10" t="s">
         <v>691</v>
       </c>
@@ -8100,7 +7734,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="564" s="10" customFormat="1" spans="1:3">
+    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A564" s="10" t="s">
         <v>692</v>
       </c>
@@ -8108,7 +7742,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="565" s="10" customFormat="1" spans="1:3">
+    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A565" s="10" t="s">
         <v>693</v>
       </c>
@@ -8116,7 +7750,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="566" s="10" customFormat="1" spans="1:3">
+    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A566" s="10" t="s">
         <v>694</v>
       </c>
@@ -8124,7 +7758,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="567" s="10" customFormat="1" spans="1:3">
+    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A567" s="10" t="s">
         <v>695</v>
       </c>
@@ -8132,7 +7766,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="568" s="10" customFormat="1" spans="1:3">
+    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A568" s="10" t="s">
         <v>696</v>
       </c>
@@ -8140,7 +7774,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="569" s="10" customFormat="1" spans="1:3">
+    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A569" s="10" t="s">
         <v>697</v>
       </c>
@@ -8148,7 +7782,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="570" s="10" customFormat="1" spans="1:3">
+    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A570" s="10" t="s">
         <v>698</v>
       </c>
@@ -8156,7 +7790,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="571" s="10" customFormat="1" spans="1:3">
+    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A571" s="10" t="s">
         <v>700</v>
       </c>
@@ -8164,7 +7798,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="572" s="10" customFormat="1" spans="1:3">
+    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A572" s="10" t="s">
         <v>701</v>
       </c>
@@ -8172,7 +7806,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="573" s="10" customFormat="1" spans="1:3">
+    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A573" s="10" t="s">
         <v>702</v>
       </c>
@@ -8180,7 +7814,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="574" s="10" customFormat="1" spans="1:3">
+    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A574" s="10" t="s">
         <v>703</v>
       </c>
@@ -8188,7 +7822,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="575" s="10" customFormat="1" spans="1:3">
+    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A575" s="10" t="s">
         <v>704</v>
       </c>
@@ -8196,7 +7830,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="576" s="10" customFormat="1" spans="1:3">
+    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A576" s="10" t="s">
         <v>705</v>
       </c>
@@ -8204,7 +7838,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="577" s="10" customFormat="1" spans="1:3">
+    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A577" s="10" t="s">
         <v>706</v>
       </c>
@@ -8212,7 +7846,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="578" s="10" customFormat="1" spans="1:3">
+    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A578" s="10" t="s">
         <v>707</v>
       </c>
@@ -8220,7 +7854,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="579" s="10" customFormat="1" spans="1:3">
+    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A579" s="10" t="s">
         <v>708</v>
       </c>
@@ -8228,7 +7862,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="580" s="10" customFormat="1" spans="1:3">
+    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A580" s="10" t="s">
         <v>709</v>
       </c>
@@ -8236,7 +7870,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="581" s="10" customFormat="1" spans="1:3">
+    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A581" s="10" t="s">
         <v>710</v>
       </c>
@@ -8244,7 +7878,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="582" s="10" customFormat="1" spans="1:3">
+    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A582" s="10" t="s">
         <v>711</v>
       </c>
@@ -8252,7 +7886,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="583" s="10" customFormat="1" spans="1:3">
+    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A583" s="10" t="s">
         <v>712</v>
       </c>
@@ -8260,7 +7894,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="584" s="10" customFormat="1" spans="1:3">
+    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A584" s="10" t="s">
         <v>713</v>
       </c>
@@ -8268,7 +7902,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="585" s="10" customFormat="1" spans="1:3">
+    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A585" s="10" t="s">
         <v>714</v>
       </c>
@@ -8276,7 +7910,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="586" s="10" customFormat="1" spans="1:3">
+    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A586" s="10" t="s">
         <v>715</v>
       </c>
@@ -8284,7 +7918,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="587" s="10" customFormat="1" spans="1:3">
+    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A587" s="10" t="s">
         <v>716</v>
       </c>
@@ -8292,7 +7926,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="588" s="10" customFormat="1" spans="1:3">
+    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A588" s="10" t="s">
         <v>717</v>
       </c>
@@ -8300,7 +7934,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="589" s="10" customFormat="1" spans="1:3">
+    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A589" s="10" t="s">
         <v>718</v>
       </c>
@@ -8308,7 +7942,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="590" s="10" customFormat="1" spans="1:3">
+    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A590" s="10" t="s">
         <v>719</v>
       </c>
@@ -8316,7 +7950,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="591" s="10" customFormat="1" spans="1:3">
+    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A591" s="10" t="s">
         <v>720</v>
       </c>
@@ -8324,7 +7958,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="592" s="10" customFormat="1" spans="1:3">
+    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A592" s="10" t="s">
         <v>721</v>
       </c>
@@ -8332,7 +7966,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="593" s="10" customFormat="1" spans="1:3">
+    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A593" s="10" t="s">
         <v>722</v>
       </c>
@@ -8340,7 +7974,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="594" s="10" customFormat="1" spans="1:3">
+    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A594" s="10" t="s">
         <v>723</v>
       </c>
@@ -8348,7 +7982,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="595" s="10" customFormat="1" spans="1:3">
+    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A595" s="10" t="s">
         <v>724</v>
       </c>
@@ -8356,7 +7990,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="596" s="10" customFormat="1" spans="1:3">
+    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A596" s="10" t="s">
         <v>725</v>
       </c>
@@ -8364,7 +7998,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="597" s="10" customFormat="1" spans="1:3">
+    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A597" s="10" t="s">
         <v>726</v>
       </c>
@@ -8372,7 +8006,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="598" s="10" customFormat="1" spans="1:3">
+    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A598" s="10" t="s">
         <v>727</v>
       </c>
@@ -8380,7 +8014,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="599" s="10" customFormat="1" spans="1:3">
+    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A599" s="10" t="s">
         <v>728</v>
       </c>
@@ -8388,7 +8022,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="600" s="10" customFormat="1" spans="1:3">
+    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A600" s="10" t="s">
         <v>729</v>
       </c>
@@ -8396,7 +8030,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="601" s="10" customFormat="1" spans="1:3">
+    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A601" s="10" t="s">
         <v>731</v>
       </c>
@@ -8404,7 +8038,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="602" s="10" customFormat="1" spans="1:3">
+    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A602" s="10" t="s">
         <v>732</v>
       </c>
@@ -8412,7 +8046,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="603" s="10" customFormat="1" spans="1:3">
+    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A603" s="10" t="s">
         <v>733</v>
       </c>
@@ -8420,7 +8054,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="604" s="10" customFormat="1" spans="1:3">
+    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A604" s="10" t="s">
         <v>734</v>
       </c>
@@ -8428,7 +8062,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="605" s="10" customFormat="1" spans="1:3">
+    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A605" s="10" t="s">
         <v>735</v>
       </c>
@@ -8436,7 +8070,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="606" s="10" customFormat="1" spans="1:3">
+    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A606" s="10" t="s">
         <v>736</v>
       </c>
@@ -8444,7 +8078,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="607" s="10" customFormat="1" spans="1:3">
+    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A607" s="10" t="s">
         <v>737</v>
       </c>
@@ -8452,7 +8086,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="608" s="10" customFormat="1" spans="1:3">
+    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A608" s="10" t="s">
         <v>738</v>
       </c>
@@ -8460,7 +8094,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="609" s="10" customFormat="1" spans="1:3">
+    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A609" s="10" t="s">
         <v>739</v>
       </c>
@@ -8468,7 +8102,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="610" s="10" customFormat="1" spans="1:3">
+    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A610" s="10" t="s">
         <v>740</v>
       </c>
@@ -8476,7 +8110,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="611" s="10" customFormat="1" spans="1:3">
+    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A611" s="10" t="s">
         <v>741</v>
       </c>
@@ -8484,7 +8118,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="612" s="10" customFormat="1" spans="1:3">
+    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A612" s="10" t="s">
         <v>742</v>
       </c>
@@ -8492,7 +8126,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="613" s="10" customFormat="1" spans="1:3">
+    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A613" s="10" t="s">
         <v>743</v>
       </c>
@@ -8500,7 +8134,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="614" s="10" customFormat="1" spans="1:3">
+    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A614" s="10" t="s">
         <v>744</v>
       </c>
@@ -8508,7 +8142,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="615" s="10" customFormat="1" spans="1:3">
+    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A615" s="10" t="s">
         <v>745</v>
       </c>
@@ -8516,7 +8150,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="616" s="10" customFormat="1" spans="1:3">
+    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A616" s="10" t="s">
         <v>746</v>
       </c>
@@ -8524,7 +8158,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="617" s="10" customFormat="1" spans="1:3">
+    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A617" s="10" t="s">
         <v>747</v>
       </c>
@@ -8532,7 +8166,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="618" s="10" customFormat="1" spans="1:3">
+    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A618" s="10" t="s">
         <v>748</v>
       </c>
@@ -8540,7 +8174,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="619" s="10" customFormat="1" spans="1:3">
+    <row r="619" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A619" s="10" t="s">
         <v>749</v>
       </c>
@@ -8548,7 +8182,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="620" s="10" customFormat="1" spans="1:3">
+    <row r="620" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A620" s="10" t="s">
         <v>750</v>
       </c>
@@ -8556,7 +8190,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="621" s="10" customFormat="1" spans="1:3">
+    <row r="621" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A621" s="10" t="s">
         <v>751</v>
       </c>
@@ -8564,7 +8198,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="622" s="10" customFormat="1" spans="1:3">
+    <row r="622" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A622" s="10" t="s">
         <v>752</v>
       </c>
@@ -8572,7 +8206,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="623" s="10" customFormat="1" spans="1:3">
+    <row r="623" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A623" s="10" t="s">
         <v>753</v>
       </c>
@@ -8580,7 +8214,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="624" s="10" customFormat="1" spans="1:3">
+    <row r="624" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A624" s="10" t="s">
         <v>754</v>
       </c>
@@ -8588,7 +8222,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="625" s="10" customFormat="1" spans="1:3">
+    <row r="625" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A625" s="10" t="s">
         <v>755</v>
       </c>
@@ -8596,7 +8230,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="626" s="10" customFormat="1" spans="1:3">
+    <row r="626" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A626" s="10" t="s">
         <v>756</v>
       </c>
@@ -8604,7 +8238,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="627" s="10" customFormat="1" spans="1:3">
+    <row r="627" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A627" s="10" t="s">
         <v>757</v>
       </c>
@@ -8612,7 +8246,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="628" s="10" customFormat="1" spans="1:3">
+    <row r="628" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A628" s="10" t="s">
         <v>758</v>
       </c>
@@ -8620,7 +8254,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="629" s="10" customFormat="1" spans="1:3">
+    <row r="629" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A629" s="10" t="s">
         <v>759</v>
       </c>
@@ -8635,8 +8269,449 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="98.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C8">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="17540" activeTab="1"/>
+    <workbookView windowWidth="24582" windowHeight="12368" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847">
   <si>
     <t>Id</t>
   </si>
@@ -2318,254 +2305,278 @@
     <t>NameID_Hero_BOOT_30</t>
   </si>
   <si>
+    <t>LPID_SUCKBLOOD</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>LPID_REFLECTDAMAGE</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>LPID_CRITICAL</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>LPID_MAXHP</t>
+  </si>
+  <si>
+    <t>生命上限</t>
+  </si>
+  <si>
+    <t>LPID_MAXMP</t>
+  </si>
+  <si>
+    <t>法力上限</t>
+  </si>
+  <si>
+    <t>LPID_MAXSP</t>
+  </si>
+  <si>
+    <t>体力上限</t>
+  </si>
+  <si>
+    <t>LPID_HP</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>LPID_MP</t>
+  </si>
+  <si>
+    <t>法力</t>
+  </si>
+  <si>
+    <t>LPID_SP</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>LPID_HPREGEN</t>
+  </si>
+  <si>
     <t>Langage_7</t>
   </si>
   <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>LPID_SPREGEN</t>
+  </si>
+  <si>
     <t>Langage_8</t>
   </si>
   <si>
+    <t>体力回复</t>
+  </si>
+  <si>
+    <t>LPID_MPREGEN</t>
+  </si>
+  <si>
     <t>Langage_9</t>
   </si>
   <si>
+    <t>魔法回复</t>
+  </si>
+  <si>
+    <t>LPID_ATK_VALUE</t>
+  </si>
+  <si>
     <t>Langage_10</t>
   </si>
   <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>LPID_DEF_VALUE</t>
+  </si>
+  <si>
     <t>Langage_11</t>
   </si>
   <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_SPEED</t>
+  </si>
+  <si>
     <t>Langage_12</t>
   </si>
   <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>LPID_ATK_SPEED</t>
+  </si>
+  <si>
     <t>Langage_13</t>
   </si>
   <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>LPID_ATK_FIRE</t>
+  </si>
+  <si>
     <t>Langage_14</t>
   </si>
   <si>
+    <t>火攻</t>
+  </si>
+  <si>
+    <t>LPID_ATK_LIGHT</t>
+  </si>
+  <si>
     <t>Langage_15</t>
   </si>
   <si>
+    <t>雷攻</t>
+  </si>
+  <si>
+    <t>LPID_ATK_WIND</t>
+  </si>
+  <si>
     <t>Langage_16</t>
   </si>
   <si>
+    <t>土攻</t>
+  </si>
+  <si>
+    <t>LPID_ATK_ICE</t>
+  </si>
+  <si>
     <t>Langage_17</t>
   </si>
   <si>
+    <t>冰攻</t>
+  </si>
+  <si>
+    <t>LPID_ATK_POISON</t>
+  </si>
+  <si>
     <t>Langage_18</t>
   </si>
   <si>
+    <t>毒攻</t>
+  </si>
+  <si>
+    <t>LPID_DEF_FIRE</t>
+  </si>
+  <si>
     <t>Langage_19</t>
   </si>
   <si>
+    <t>火防</t>
+  </si>
+  <si>
+    <t>LPID_DEF_LIGHT</t>
+  </si>
+  <si>
     <t>Langage_20</t>
   </si>
   <si>
+    <t>雷防</t>
+  </si>
+  <si>
+    <t>LPID_DEF_WIND</t>
+  </si>
+  <si>
     <t>Langage_21</t>
   </si>
   <si>
+    <t>土防</t>
+  </si>
+  <si>
+    <t>LPID_DEF_ICE</t>
+  </si>
+  <si>
     <t>Langage_22</t>
   </si>
   <si>
+    <t>冰防</t>
+  </si>
+  <si>
+    <t>LPID_DEF_POISON</t>
+  </si>
+  <si>
     <t>Langage_23</t>
   </si>
   <si>
+    <t>毒防</t>
+  </si>
+  <si>
+    <t>LPID_DIZZY_GATE</t>
+  </si>
+  <si>
     <t>Langage_24</t>
   </si>
   <si>
+    <t>眩晕开关</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_GATE</t>
+  </si>
+  <si>
     <t>Langage_25</t>
   </si>
   <si>
+    <t>移动开关</t>
+  </si>
+  <si>
+    <t>LPID_SKILL_GATE</t>
+  </si>
+  <si>
     <t>Langage_26</t>
   </si>
   <si>
+    <t>技能开关</t>
+  </si>
+  <si>
+    <t>LPID_PHYSICAL_GATE</t>
+  </si>
+  <si>
     <t>Langage_27</t>
   </si>
   <si>
+    <t>物理免疫开关</t>
+  </si>
+  <si>
+    <t>LPID_MAGIC_GATE</t>
+  </si>
+  <si>
     <t>Langage_28</t>
   </si>
   <si>
+    <t>魔法免疫开关</t>
+  </si>
+  <si>
+    <t>LPID_BUFF_GATE</t>
+  </si>
+  <si>
     <t>Langage_29</t>
   </si>
   <si>
     <t>BUFF免疫开关</t>
-  </si>
-  <si>
-    <t>魔法免疫开关</t>
-  </si>
-  <si>
-    <t>物理免疫开关</t>
-  </si>
-  <si>
-    <t>技能开关</t>
-  </si>
-  <si>
-    <t>移动开关</t>
-  </si>
-  <si>
-    <t>眩晕开关</t>
-  </si>
-  <si>
-    <t>体力回复</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>暴击</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>法力</t>
-  </si>
-  <si>
-    <t>生命回复</t>
-  </si>
-  <si>
-    <t>魔法回复</t>
-  </si>
-  <si>
-    <t>物理攻击</t>
-  </si>
-  <si>
-    <t>物理防御</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>火攻</t>
-  </si>
-  <si>
-    <t>雷攻</t>
-  </si>
-  <si>
-    <t>土攻</t>
-  </si>
-  <si>
-    <t>冰攻</t>
-  </si>
-  <si>
-    <t>毒攻</t>
-  </si>
-  <si>
-    <t>火防</t>
-  </si>
-  <si>
-    <t>雷防</t>
-  </si>
-  <si>
-    <t>土防</t>
-  </si>
-  <si>
-    <t>冰防</t>
-  </si>
-  <si>
-    <t>毒防</t>
-  </si>
-  <si>
-    <t>LPID_SUCKBLOOD</t>
-  </si>
-  <si>
-    <t>LPID_REFLECTDAMAGE</t>
-  </si>
-  <si>
-    <t>LPID_CRITICAL</t>
-  </si>
-  <si>
-    <t>LPID_MAXHP</t>
-  </si>
-  <si>
-    <t>LPID_MAXMP</t>
-  </si>
-  <si>
-    <t>LPID_MAXSP</t>
-  </si>
-  <si>
-    <t>LPID_HPREGEN</t>
-  </si>
-  <si>
-    <t>LPID_SPREGEN</t>
-  </si>
-  <si>
-    <t>LPID_MPREGEN</t>
-  </si>
-  <si>
-    <t>LPID_ATK_VALUE</t>
-  </si>
-  <si>
-    <t>LPID_DEF_VALUE</t>
-  </si>
-  <si>
-    <t>LPID_MOVE_SPEED</t>
-  </si>
-  <si>
-    <t>LPID_ATK_SPEED</t>
-  </si>
-  <si>
-    <t>LPID_ATK_FIRE</t>
-  </si>
-  <si>
-    <t>LPID_ATK_LIGHT</t>
-  </si>
-  <si>
-    <t>LPID_ATK_WIND</t>
-  </si>
-  <si>
-    <t>LPID_ATK_ICE</t>
-  </si>
-  <si>
-    <t>LPID_ATK_POISON</t>
-  </si>
-  <si>
-    <t>LPID_DEF_FIRE</t>
-  </si>
-  <si>
-    <t>LPID_DEF_LIGHT</t>
-  </si>
-  <si>
-    <t>LPID_DEF_WIND</t>
-  </si>
-  <si>
-    <t>LPID_DEF_ICE</t>
-  </si>
-  <si>
-    <t>LPID_DEF_POISON</t>
-  </si>
-  <si>
-    <t>LPID_DIZZY_GATE</t>
-  </si>
-  <si>
-    <t>LPID_MOVE_GATE</t>
-  </si>
-  <si>
-    <t>LPID_SKILL_GATE</t>
-  </si>
-  <si>
-    <t>LPID_PHYSICAL_GATE</t>
-  </si>
-  <si>
-    <t>LPID_MAGIC_GATE</t>
-  </si>
-  <si>
-    <t>LPID_BUFF_GATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2579,13 +2590,170 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2601,24 +2769,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2633,9 +2981,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2657,48 +3003,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2741,6 +3061,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2755,9 +3103,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2765,31 +3355,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2798,50 +3415,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -3168,5097 +3800,5098 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD15"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="31.8288288288288" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24.5045045045045" style="20" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    <row r="7" s="9" customFormat="1" ht="14.15" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="C7" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+    <row r="8" s="9" customFormat="1" ht="14.15" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+    <row r="9" s="13" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:3">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="16" customFormat="1" spans="1:3">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="17" customFormat="1" spans="1:3">
+      <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="17" customFormat="1" spans="1:3">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="17" customFormat="1" spans="1:3">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="17" customFormat="1" spans="1:3">
+      <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="17" customFormat="1" spans="1:3">
+      <c r="A21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="17" customFormat="1" spans="1:3">
+      <c r="A22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="23" s="17" customFormat="1" spans="1:3">
+      <c r="A23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+    <row r="24" s="17" customFormat="1" spans="1:3">
+      <c r="A24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="17" customFormat="1" spans="1:3">
+      <c r="A25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="17" customFormat="1" spans="1:3">
+      <c r="A26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="17" customFormat="1" spans="1:3">
+      <c r="A27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="17" customFormat="1" spans="1:3">
+      <c r="A28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="17" customFormat="1" spans="1:3">
+      <c r="A29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="17" customFormat="1" spans="1:3">
+      <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="17" customFormat="1" spans="1:3">
+      <c r="A31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="32" s="17" customFormat="1" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+    <row r="33" s="17" customFormat="1" spans="1:3">
+      <c r="A33" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="34" s="17" customFormat="1" spans="1:3">
+      <c r="A34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+    <row r="35" s="17" customFormat="1" spans="1:3">
+      <c r="A35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="36" s="17" customFormat="1" spans="1:3">
+      <c r="A36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="37" s="17" customFormat="1" spans="1:3">
+      <c r="A37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+    <row r="38" s="17" customFormat="1" spans="1:3">
+      <c r="A38" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+    <row r="39" s="17" customFormat="1" spans="1:3">
+      <c r="A39" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+    <row r="40" s="17" customFormat="1" spans="1:3">
+      <c r="A40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="41" s="17" customFormat="1" spans="1:3">
+      <c r="A41" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+    <row r="42" s="17" customFormat="1" spans="1:3">
+      <c r="A42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+    <row r="43" s="17" customFormat="1" spans="1:3">
+      <c r="A43" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+    <row r="44" s="17" customFormat="1" spans="1:3">
+      <c r="A44" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+    <row r="45" s="17" customFormat="1" spans="1:3">
+      <c r="A45" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+    <row r="46" s="17" customFormat="1" spans="1:3">
+      <c r="A46" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+    <row r="47" s="17" customFormat="1" spans="1:3">
+      <c r="A47" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="48" s="17" customFormat="1" spans="1:3">
+      <c r="A48" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+    <row r="49" s="17" customFormat="1" spans="1:3">
+      <c r="A49" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+    <row r="50" s="17" customFormat="1" spans="1:3">
+      <c r="A50" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+    <row r="51" s="17" customFormat="1" spans="1:3">
+      <c r="A51" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+    <row r="52" s="17" customFormat="1" spans="1:3">
+      <c r="A52" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+    <row r="53" s="17" customFormat="1" spans="1:3">
+      <c r="A53" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+    <row r="54" s="17" customFormat="1" spans="1:3">
+      <c r="A54" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
+    <row r="55" s="17" customFormat="1" spans="1:3">
+      <c r="A55" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+    <row r="56" s="17" customFormat="1" spans="1:3">
+      <c r="A56" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+    <row r="57" s="17" customFormat="1" spans="1:3">
+      <c r="A57" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+    <row r="58" s="17" customFormat="1" spans="1:3">
+      <c r="A58" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+    <row r="59" s="17" customFormat="1" spans="1:3">
+      <c r="A59" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+    <row r="60" s="17" customFormat="1" spans="1:3">
+      <c r="A60" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+    <row r="61" s="17" customFormat="1" spans="1:3">
+      <c r="A61" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+    <row r="62" s="17" customFormat="1" spans="1:3">
+      <c r="A62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+    <row r="63" s="17" customFormat="1" spans="1:3">
+      <c r="A63" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+    <row r="64" s="17" customFormat="1" spans="1:3">
+      <c r="A64" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+    <row r="65" s="17" customFormat="1" spans="1:3">
+      <c r="A65" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+    <row r="66" s="17" customFormat="1" spans="1:3">
+      <c r="A66" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+    <row r="67" s="17" customFormat="1" spans="1:3">
+      <c r="A67" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+    <row r="68" s="17" customFormat="1" spans="1:3">
+      <c r="A68" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+    <row r="69" s="17" customFormat="1" spans="1:3">
+      <c r="A69" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+    <row r="70" s="17" customFormat="1" spans="1:3">
+      <c r="A70" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+    <row r="71" s="17" customFormat="1" spans="1:3">
+      <c r="A71" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+    <row r="72" s="17" customFormat="1" spans="1:3">
+      <c r="A72" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+    <row r="73" s="17" customFormat="1" spans="1:3">
+      <c r="A73" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+    <row r="74" s="17" customFormat="1" spans="1:3">
+      <c r="A74" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+    <row r="75" s="17" customFormat="1" spans="1:3">
+      <c r="A75" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+    <row r="76" s="17" customFormat="1" spans="1:3">
+      <c r="A76" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+    <row r="77" s="17" customFormat="1" spans="1:3">
+      <c r="A77" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+    <row r="78" s="17" customFormat="1" spans="1:3">
+      <c r="A78" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+    <row r="79" s="17" customFormat="1" spans="1:3">
+      <c r="A79" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+    <row r="80" s="17" customFormat="1" spans="1:3">
+      <c r="A80" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+    <row r="81" s="17" customFormat="1" spans="1:3">
+      <c r="A81" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+    <row r="82" s="17" customFormat="1" spans="1:3">
+      <c r="A82" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+    <row r="83" s="17" customFormat="1" spans="1:3">
+      <c r="A83" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+    <row r="84" s="17" customFormat="1" spans="1:3">
+      <c r="A84" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+    <row r="85" s="17" customFormat="1" spans="1:3">
+      <c r="A85" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+    <row r="86" s="17" customFormat="1" spans="1:3">
+      <c r="A86" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+    <row r="87" s="17" customFormat="1" spans="1:3">
+      <c r="A87" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+    <row r="88" s="17" customFormat="1" spans="1:3">
+      <c r="A88" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+    <row r="89" s="17" customFormat="1" spans="1:3">
+      <c r="A89" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+    <row r="90" s="17" customFormat="1" spans="1:3">
+      <c r="A90" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    <row r="91" s="17" customFormat="1" spans="1:3">
+      <c r="A91" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+    <row r="92" s="17" customFormat="1" spans="1:3">
+      <c r="A92" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
+    <row r="93" s="17" customFormat="1" spans="1:3">
+      <c r="A93" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
+    <row r="94" s="17" customFormat="1" spans="1:3">
+      <c r="A94" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+    <row r="95" s="17" customFormat="1" spans="1:3">
+      <c r="A95" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
+    <row r="96" s="17" customFormat="1" spans="1:3">
+      <c r="A96" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
+    <row r="97" s="17" customFormat="1" spans="1:3">
+      <c r="A97" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="8" t="s">
+    <row r="98" s="17" customFormat="1" spans="1:3">
+      <c r="A98" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+    <row r="99" s="17" customFormat="1" spans="1:3">
+      <c r="A99" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+    <row r="100" s="17" customFormat="1" spans="1:3">
+      <c r="A100" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="8" t="s">
+    <row r="101" s="17" customFormat="1" spans="1:3">
+      <c r="A101" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+    <row r="102" s="17" customFormat="1" spans="1:3">
+      <c r="A102" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="8" t="s">
+    <row r="103" s="17" customFormat="1" spans="1:3">
+      <c r="A103" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="8" t="s">
+    <row r="104" s="17" customFormat="1" spans="1:3">
+      <c r="A104" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+    <row r="105" s="17" customFormat="1" spans="1:3">
+      <c r="A105" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="8" t="s">
+    <row r="106" s="17" customFormat="1" spans="1:3">
+      <c r="A106" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="8" t="s">
+    <row r="107" s="17" customFormat="1" spans="1:3">
+      <c r="A107" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="8" t="s">
+    <row r="108" s="17" customFormat="1" spans="1:3">
+      <c r="A108" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="8" t="s">
+    <row r="109" s="17" customFormat="1" spans="1:3">
+      <c r="A109" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="8" t="s">
+    <row r="110" s="17" customFormat="1" spans="1:3">
+      <c r="A110" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+    <row r="111" s="17" customFormat="1" spans="1:3">
+      <c r="A111" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="8" t="s">
+    <row r="112" s="17" customFormat="1" spans="1:3">
+      <c r="A112" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="8" t="s">
+    <row r="113" s="17" customFormat="1" spans="1:3">
+      <c r="A113" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="8" t="s">
+    <row r="114" s="17" customFormat="1" spans="1:3">
+      <c r="A114" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="8" t="s">
+    <row r="115" s="17" customFormat="1" spans="1:3">
+      <c r="A115" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="8" t="s">
+    <row r="116" s="17" customFormat="1" spans="1:3">
+      <c r="A116" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="8" t="s">
+    <row r="117" s="17" customFormat="1" spans="1:3">
+      <c r="A117" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+    <row r="118" s="17" customFormat="1" spans="1:3">
+      <c r="A118" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
+    <row r="119" s="17" customFormat="1" spans="1:3">
+      <c r="A119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="8" t="s">
+    <row r="120" s="17" customFormat="1" spans="1:3">
+      <c r="A120" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="8" t="s">
+    <row r="121" s="17" customFormat="1" spans="1:3">
+      <c r="A121" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="8" t="s">
+    <row r="122" s="17" customFormat="1" spans="1:3">
+      <c r="A122" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="8" t="s">
+    <row r="123" s="17" customFormat="1" spans="1:3">
+      <c r="A123" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
+    <row r="124" s="17" customFormat="1" spans="1:3">
+      <c r="A124" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="8" t="s">
+    <row r="125" s="17" customFormat="1" spans="1:3">
+      <c r="A125" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+    <row r="126" s="17" customFormat="1" spans="1:3">
+      <c r="A126" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="8" t="s">
+    <row r="127" s="17" customFormat="1" spans="1:3">
+      <c r="A127" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="8" t="s">
+    <row r="128" s="17" customFormat="1" spans="1:3">
+      <c r="A128" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="8" t="s">
+    <row r="129" s="17" customFormat="1" spans="1:3">
+      <c r="A129" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
+    <row r="130" s="17" customFormat="1" spans="1:3">
+      <c r="A130" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
+    <row r="131" s="17" customFormat="1" spans="1:3">
+      <c r="A131" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
+    <row r="132" s="17" customFormat="1" spans="1:3">
+      <c r="A132" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="8" t="s">
+    <row r="133" s="17" customFormat="1" spans="1:3">
+      <c r="A133" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="8" t="s">
+    <row r="134" s="17" customFormat="1" spans="1:3">
+      <c r="A134" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
+    <row r="135" s="17" customFormat="1" spans="1:3">
+      <c r="A135" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="8" t="s">
+    <row r="136" s="17" customFormat="1" spans="1:3">
+      <c r="A136" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="8" t="s">
+    <row r="137" s="17" customFormat="1" spans="1:3">
+      <c r="A137" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="8" t="s">
+    <row r="138" s="17" customFormat="1" spans="1:3">
+      <c r="A138" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="8" t="s">
+    <row r="139" s="17" customFormat="1" spans="1:3">
+      <c r="A139" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="8" t="s">
+    <row r="140" s="17" customFormat="1" spans="1:3">
+      <c r="A140" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="8" t="s">
+    <row r="141" s="17" customFormat="1" spans="1:3">
+      <c r="A141" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="8" t="s">
+    <row r="142" s="17" customFormat="1" spans="1:3">
+      <c r="A142" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="8" t="s">
+    <row r="143" s="17" customFormat="1" spans="1:3">
+      <c r="A143" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="8" t="s">
+    <row r="144" s="17" customFormat="1" spans="1:3">
+      <c r="A144" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="8" t="s">
+    <row r="145" s="17" customFormat="1" spans="1:3">
+      <c r="A145" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="8" t="s">
+    <row r="146" s="17" customFormat="1" spans="1:3">
+      <c r="A146" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="8" t="s">
+    <row r="147" s="17" customFormat="1" spans="1:3">
+      <c r="A147" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="8" t="s">
+    <row r="148" s="17" customFormat="1" spans="1:3">
+      <c r="A148" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="8" t="s">
+    <row r="149" s="17" customFormat="1" spans="1:3">
+      <c r="A149" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="8" t="s">
+    <row r="150" s="17" customFormat="1" spans="1:3">
+      <c r="A150" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="8" t="s">
+    <row r="151" s="17" customFormat="1" spans="1:3">
+      <c r="A151" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="8" t="s">
+    <row r="152" s="17" customFormat="1" spans="1:3">
+      <c r="A152" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
+    <row r="153" s="17" customFormat="1" spans="1:3">
+      <c r="A153" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="8" t="s">
+    <row r="154" s="17" customFormat="1" spans="1:3">
+      <c r="A154" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="8" t="s">
+    <row r="155" s="17" customFormat="1" spans="1:3">
+      <c r="A155" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="8" t="s">
+    <row r="156" s="17" customFormat="1" spans="1:3">
+      <c r="A156" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="8" t="s">
+    <row r="157" s="17" customFormat="1" spans="1:3">
+      <c r="A157" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="8" t="s">
+    <row r="158" s="17" customFormat="1" spans="1:3">
+      <c r="A158" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="8" t="s">
+    <row r="159" s="17" customFormat="1" spans="1:3">
+      <c r="A159" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="8" t="s">
+    <row r="160" s="17" customFormat="1" spans="1:3">
+      <c r="A160" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="8" t="s">
+    <row r="161" s="17" customFormat="1" spans="1:3">
+      <c r="A161" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
+    <row r="162" s="17" customFormat="1" spans="1:3">
+      <c r="A162" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="8" t="s">
+    <row r="163" s="17" customFormat="1" spans="1:3">
+      <c r="A163" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="8" t="s">
+    <row r="164" s="17" customFormat="1" spans="1:3">
+      <c r="A164" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="8" t="s">
+    <row r="165" s="17" customFormat="1" spans="1:3">
+      <c r="A165" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="8" t="s">
+    <row r="166" s="17" customFormat="1" spans="1:3">
+      <c r="A166" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="8" t="s">
+    <row r="167" s="17" customFormat="1" spans="1:3">
+      <c r="A167" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="8" t="s">
+    <row r="168" s="17" customFormat="1" spans="1:3">
+      <c r="A168" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="8" t="s">
+    <row r="169" s="17" customFormat="1" spans="1:3">
+      <c r="A169" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="8" t="s">
+    <row r="170" s="17" customFormat="1" spans="1:3">
+      <c r="A170" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="8" t="s">
+    <row r="171" s="17" customFormat="1" spans="1:3">
+      <c r="A171" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="8" t="s">
+    <row r="172" s="17" customFormat="1" spans="1:3">
+      <c r="A172" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="8" t="s">
+    <row r="173" s="17" customFormat="1" spans="1:3">
+      <c r="A173" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="8" t="s">
+    <row r="174" s="17" customFormat="1" spans="1:3">
+      <c r="A174" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="8" t="s">
+    <row r="175" s="17" customFormat="1" spans="1:3">
+      <c r="A175" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="8" t="s">
+    <row r="176" s="17" customFormat="1" spans="1:3">
+      <c r="A176" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="8" t="s">
+    <row r="177" s="17" customFormat="1" spans="1:3">
+      <c r="A177" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="8" t="s">
+    <row r="178" s="17" customFormat="1" spans="1:3">
+      <c r="A178" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="8" t="s">
+    <row r="179" s="17" customFormat="1" spans="1:3">
+      <c r="A179" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="8" t="s">
+    <row r="180" s="17" customFormat="1" spans="1:3">
+      <c r="A180" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="8" t="s">
+    <row r="181" s="17" customFormat="1" spans="1:3">
+      <c r="A181" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="8" t="s">
+    <row r="182" s="17" customFormat="1" spans="1:3">
+      <c r="A182" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="8" t="s">
+    <row r="183" s="17" customFormat="1" spans="1:3">
+      <c r="A183" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="8" t="s">
+    <row r="184" s="17" customFormat="1" spans="1:3">
+      <c r="A184" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="8" t="s">
+    <row r="185" s="17" customFormat="1" spans="1:3">
+      <c r="A185" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="8" t="s">
+    <row r="186" s="17" customFormat="1" spans="1:3">
+      <c r="A186" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="8" t="s">
+    <row r="187" s="17" customFormat="1" spans="1:3">
+      <c r="A187" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="8" t="s">
+    <row r="188" s="17" customFormat="1" spans="1:3">
+      <c r="A188" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="8" t="s">
+    <row r="189" s="17" customFormat="1" spans="1:3">
+      <c r="A189" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="8" t="s">
+    <row r="190" s="17" customFormat="1" spans="1:3">
+      <c r="A190" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="8" t="s">
+    <row r="191" s="17" customFormat="1" spans="1:3">
+      <c r="A191" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="8" t="s">
+    <row r="192" s="17" customFormat="1" spans="1:3">
+      <c r="A192" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="8" t="s">
+    <row r="193" s="17" customFormat="1" spans="1:3">
+      <c r="A193" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="8" t="s">
+    <row r="194" s="17" customFormat="1" spans="1:3">
+      <c r="A194" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="8" t="s">
+    <row r="195" s="17" customFormat="1" spans="1:3">
+      <c r="A195" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="8" t="s">
+    <row r="196" s="17" customFormat="1" spans="1:3">
+      <c r="A196" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="8" t="s">
+    <row r="197" s="17" customFormat="1" spans="1:3">
+      <c r="A197" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="8" t="s">
+    <row r="198" s="17" customFormat="1" spans="1:3">
+      <c r="A198" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="8" t="s">
+    <row r="199" s="17" customFormat="1" spans="1:3">
+      <c r="A199" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="8" t="s">
+    <row r="200" s="17" customFormat="1" spans="1:3">
+      <c r="A200" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="8" t="s">
+    <row r="201" s="17" customFormat="1" spans="1:3">
+      <c r="A201" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="8" t="s">
+    <row r="202" s="17" customFormat="1" spans="1:3">
+      <c r="A202" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="8" t="s">
+    <row r="203" s="17" customFormat="1" spans="1:3">
+      <c r="A203" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="8" t="s">
+    <row r="204" s="17" customFormat="1" spans="1:3">
+      <c r="A204" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="8" t="s">
+    <row r="205" s="17" customFormat="1" spans="1:3">
+      <c r="A205" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="8" t="s">
+    <row r="206" s="17" customFormat="1" spans="1:3">
+      <c r="A206" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="8" t="s">
+    <row r="207" s="17" customFormat="1" spans="1:3">
+      <c r="A207" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="8" t="s">
+    <row r="208" s="17" customFormat="1" spans="1:3">
+      <c r="A208" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="8" t="s">
+    <row r="209" s="17" customFormat="1" spans="1:3">
+      <c r="A209" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="8" t="s">
+    <row r="210" s="17" customFormat="1" spans="1:3">
+      <c r="A210" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="8" t="s">
+    <row r="211" s="17" customFormat="1" spans="1:3">
+      <c r="A211" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="8" t="s">
+    <row r="212" s="17" customFormat="1" spans="1:3">
+      <c r="A212" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="8" t="s">
+    <row r="213" s="17" customFormat="1" spans="1:3">
+      <c r="A213" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="8" t="s">
+    <row r="214" s="17" customFormat="1" spans="1:3">
+      <c r="A214" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="8" t="s">
+    <row r="215" s="17" customFormat="1" spans="1:3">
+      <c r="A215" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="8" t="s">
+    <row r="216" s="17" customFormat="1" spans="1:3">
+      <c r="A216" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="8" t="s">
+    <row r="217" s="17" customFormat="1" spans="1:3">
+      <c r="A217" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="8" t="s">
+    <row r="218" s="17" customFormat="1" spans="1:3">
+      <c r="A218" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="8" t="s">
+    <row r="219" s="17" customFormat="1" spans="1:3">
+      <c r="A219" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="8" t="s">
+    <row r="220" s="17" customFormat="1" spans="1:3">
+      <c r="A220" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="8" t="s">
+    <row r="221" s="17" customFormat="1" spans="1:3">
+      <c r="A221" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="8" t="s">
+    <row r="222" s="17" customFormat="1" spans="1:3">
+      <c r="A222" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="8" t="s">
+    <row r="223" s="17" customFormat="1" spans="1:3">
+      <c r="A223" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="8" t="s">
+    <row r="224" s="17" customFormat="1" spans="1:3">
+      <c r="A224" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="8" t="s">
+    <row r="225" s="17" customFormat="1" spans="1:3">
+      <c r="A225" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="8" t="s">
+    <row r="226" s="17" customFormat="1" spans="1:3">
+      <c r="A226" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="8" t="s">
+    <row r="227" s="17" customFormat="1" spans="1:3">
+      <c r="A227" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="8" t="s">
+    <row r="228" s="17" customFormat="1" spans="1:3">
+      <c r="A228" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="8" t="s">
+    <row r="229" s="17" customFormat="1" spans="1:3">
+      <c r="A229" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="8" t="s">
+    <row r="230" s="17" customFormat="1" spans="1:3">
+      <c r="A230" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="8" t="s">
+    <row r="231" s="17" customFormat="1" spans="1:3">
+      <c r="A231" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="8" t="s">
+    <row r="232" s="17" customFormat="1" spans="1:3">
+      <c r="A232" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="8" t="s">
+    <row r="233" s="17" customFormat="1" spans="1:3">
+      <c r="A233" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="234" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="8" t="s">
+    <row r="234" s="17" customFormat="1" spans="1:3">
+      <c r="A234" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="8" t="s">
+    <row r="235" s="17" customFormat="1" spans="1:3">
+      <c r="A235" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="8" t="s">
+    <row r="236" s="17" customFormat="1" spans="1:3">
+      <c r="A236" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="8" t="s">
+    <row r="237" s="17" customFormat="1" spans="1:3">
+      <c r="A237" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="8" t="s">
+    <row r="238" s="17" customFormat="1" spans="1:3">
+      <c r="A238" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="8" t="s">
+    <row r="239" s="17" customFormat="1" spans="1:3">
+      <c r="A239" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="8" t="s">
+    <row r="240" s="17" customFormat="1" spans="1:3">
+      <c r="A240" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="8" t="s">
+    <row r="241" s="17" customFormat="1" spans="1:3">
+      <c r="A241" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="8" t="s">
+    <row r="242" s="17" customFormat="1" spans="1:3">
+      <c r="A242" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="8" t="s">
+    <row r="243" s="17" customFormat="1" spans="1:3">
+      <c r="A243" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="8" t="s">
+    <row r="244" s="17" customFormat="1" spans="1:3">
+      <c r="A244" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="8" t="s">
+    <row r="245" s="17" customFormat="1" spans="1:3">
+      <c r="A245" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="8" t="s">
+    <row r="246" s="17" customFormat="1" spans="1:3">
+      <c r="A246" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="8" t="s">
+    <row r="247" s="17" customFormat="1" spans="1:3">
+      <c r="A247" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="8" t="s">
+    <row r="248" s="17" customFormat="1" spans="1:3">
+      <c r="A248" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="8" t="s">
+    <row r="249" s="17" customFormat="1" spans="1:3">
+      <c r="A249" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="8" t="s">
+    <row r="250" s="17" customFormat="1" spans="1:3">
+      <c r="A250" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="8" t="s">
+    <row r="251" s="17" customFormat="1" spans="1:3">
+      <c r="A251" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="8" t="s">
+    <row r="252" s="17" customFormat="1" spans="1:3">
+      <c r="A252" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="8" t="s">
+    <row r="253" s="17" customFormat="1" spans="1:3">
+      <c r="A253" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="254" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="8" t="s">
+    <row r="254" s="17" customFormat="1" spans="1:3">
+      <c r="A254" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="8" t="s">
+    <row r="255" s="17" customFormat="1" spans="1:3">
+      <c r="A255" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="256" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="8" t="s">
+    <row r="256" s="17" customFormat="1" spans="1:3">
+      <c r="A256" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="8" t="s">
+    <row r="257" s="17" customFormat="1" spans="1:3">
+      <c r="A257" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="258" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="8" t="s">
+    <row r="258" s="17" customFormat="1" spans="1:3">
+      <c r="A258" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="8" t="s">
+    <row r="259" s="17" customFormat="1" spans="1:3">
+      <c r="A259" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="8" t="s">
+    <row r="260" s="17" customFormat="1" spans="1:3">
+      <c r="A260" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="8" t="s">
+    <row r="261" s="17" customFormat="1" spans="1:3">
+      <c r="A261" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="8" t="s">
+    <row r="262" s="17" customFormat="1" spans="1:3">
+      <c r="A262" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="8" t="s">
+    <row r="263" s="17" customFormat="1" spans="1:3">
+      <c r="A263" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="8" t="s">
+    <row r="264" s="17" customFormat="1" spans="1:3">
+      <c r="A264" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="8" t="s">
+    <row r="265" s="17" customFormat="1" spans="1:3">
+      <c r="A265" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="8" t="s">
+    <row r="266" s="17" customFormat="1" spans="1:3">
+      <c r="A266" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="8" t="s">
+    <row r="267" s="17" customFormat="1" spans="1:3">
+      <c r="A267" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="8" t="s">
+    <row r="268" s="17" customFormat="1" spans="1:3">
+      <c r="A268" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="8" t="s">
+    <row r="269" s="17" customFormat="1" spans="1:3">
+      <c r="A269" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="8" t="s">
+    <row r="270" s="17" customFormat="1" spans="1:3">
+      <c r="A270" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="8" t="s">
+    <row r="271" s="17" customFormat="1" spans="1:3">
+      <c r="A271" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="8" t="s">
+    <row r="272" s="17" customFormat="1" spans="1:3">
+      <c r="A272" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="8" t="s">
+    <row r="273" s="17" customFormat="1" spans="1:3">
+      <c r="A273" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="8" t="s">
+    <row r="274" s="17" customFormat="1" spans="1:3">
+      <c r="A274" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="8" t="s">
+    <row r="275" s="17" customFormat="1" spans="1:3">
+      <c r="A275" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="8" t="s">
+    <row r="276" s="17" customFormat="1" spans="1:3">
+      <c r="A276" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="8" t="s">
+    <row r="277" s="17" customFormat="1" spans="1:3">
+      <c r="A277" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="8" t="s">
+    <row r="278" s="17" customFormat="1" spans="1:3">
+      <c r="A278" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="8" t="s">
+    <row r="279" s="17" customFormat="1" spans="1:3">
+      <c r="A279" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="8" t="s">
+    <row r="280" s="17" customFormat="1" spans="1:3">
+      <c r="A280" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="8" t="s">
+    <row r="281" s="17" customFormat="1" spans="1:3">
+      <c r="A281" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="8" t="s">
+    <row r="282" s="17" customFormat="1" spans="1:3">
+      <c r="A282" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="8" t="s">
+    <row r="283" s="17" customFormat="1" spans="1:3">
+      <c r="A283" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="8" t="s">
+    <row r="284" s="17" customFormat="1" spans="1:3">
+      <c r="A284" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="8" t="s">
+    <row r="285" s="17" customFormat="1" spans="1:3">
+      <c r="A285" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="8" t="s">
+    <row r="286" s="17" customFormat="1" spans="1:3">
+      <c r="A286" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="8" t="s">
+    <row r="287" s="17" customFormat="1" spans="1:3">
+      <c r="A287" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="8" t="s">
+    <row r="288" s="17" customFormat="1" spans="1:3">
+      <c r="A288" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="8" t="s">
+    <row r="289" s="17" customFormat="1" spans="1:3">
+      <c r="A289" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="8" t="s">
+    <row r="290" s="17" customFormat="1" spans="1:3">
+      <c r="A290" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="8" t="s">
+    <row r="291" s="17" customFormat="1" spans="1:3">
+      <c r="A291" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="8" t="s">
+    <row r="292" s="17" customFormat="1" spans="1:3">
+      <c r="A292" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="8" t="s">
+    <row r="293" s="17" customFormat="1" spans="1:3">
+      <c r="A293" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="8" t="s">
+    <row r="294" s="17" customFormat="1" spans="1:3">
+      <c r="A294" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="8" t="s">
+    <row r="295" s="17" customFormat="1" spans="1:3">
+      <c r="A295" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="8" t="s">
+    <row r="296" s="17" customFormat="1" spans="1:3">
+      <c r="A296" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="8" t="s">
+    <row r="297" s="17" customFormat="1" spans="1:3">
+      <c r="A297" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="8" t="s">
+    <row r="298" s="17" customFormat="1" spans="1:3">
+      <c r="A298" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="8" t="s">
+    <row r="299" s="17" customFormat="1" spans="1:3">
+      <c r="A299" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="8" t="s">
+    <row r="300" s="17" customFormat="1" spans="1:3">
+      <c r="A300" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="8" t="s">
+    <row r="301" s="17" customFormat="1" spans="1:3">
+      <c r="A301" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="8" t="s">
+    <row r="302" s="17" customFormat="1" spans="1:3">
+      <c r="A302" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="8" t="s">
+    <row r="303" s="17" customFormat="1" spans="1:3">
+      <c r="A303" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="8" t="s">
+    <row r="304" s="17" customFormat="1" spans="1:3">
+      <c r="A304" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="8" t="s">
+    <row r="305" s="17" customFormat="1" spans="1:3">
+      <c r="A305" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="8" t="s">
+    <row r="306" s="17" customFormat="1" spans="1:3">
+      <c r="A306" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="8" t="s">
+    <row r="307" s="17" customFormat="1" spans="1:3">
+      <c r="A307" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="8" t="s">
+    <row r="308" s="17" customFormat="1" spans="1:3">
+      <c r="A308" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="8" t="s">
+    <row r="309" s="17" customFormat="1" spans="1:3">
+      <c r="A309" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="8" t="s">
+    <row r="310" s="17" customFormat="1" spans="1:3">
+      <c r="A310" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C310" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="8" t="s">
+    <row r="311" s="17" customFormat="1" spans="1:3">
+      <c r="A311" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="8" t="s">
+    <row r="312" s="17" customFormat="1" spans="1:3">
+      <c r="A312" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="8" t="s">
+    <row r="313" s="17" customFormat="1" spans="1:3">
+      <c r="A313" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="8" t="s">
+    <row r="314" s="17" customFormat="1" spans="1:3">
+      <c r="A314" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="C314" s="8" t="s">
+      <c r="C314" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="315" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="8" t="s">
+    <row r="315" s="17" customFormat="1" spans="1:3">
+      <c r="A315" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="8" t="s">
+    <row r="316" s="17" customFormat="1" spans="1:3">
+      <c r="A316" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="8" t="s">
+    <row r="317" s="17" customFormat="1" spans="1:3">
+      <c r="A317" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="318" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="8" t="s">
+    <row r="318" s="17" customFormat="1" spans="1:3">
+      <c r="A318" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="8" t="s">
+    <row r="319" s="17" customFormat="1" spans="1:3">
+      <c r="A319" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="8" t="s">
+    <row r="320" s="17" customFormat="1" spans="1:3">
+      <c r="A320" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="8" t="s">
+    <row r="321" s="17" customFormat="1" spans="1:3">
+      <c r="A321" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C321" s="8" t="s">
+      <c r="C321" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="9" t="s">
+    <row r="322" s="18" customFormat="1" spans="1:3">
+      <c r="A322" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="10" t="s">
+    <row r="323" s="19" customFormat="1" spans="1:3">
+      <c r="A323" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="C323" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="10" t="s">
+    <row r="324" s="19" customFormat="1" spans="1:3">
+      <c r="A324" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C324" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="10" t="s">
+    <row r="325" s="19" customFormat="1" spans="1:3">
+      <c r="A325" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="10" t="s">
+    <row r="326" s="19" customFormat="1" spans="1:3">
+      <c r="A326" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C326" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="10" t="s">
+    <row r="327" s="19" customFormat="1" spans="1:3">
+      <c r="A327" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="C327" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="10" t="s">
+    <row r="328" s="19" customFormat="1" spans="1:3">
+      <c r="A328" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="C328" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="10" t="s">
+    <row r="329" s="19" customFormat="1" spans="1:3">
+      <c r="A329" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="C329" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="10" t="s">
+    <row r="330" s="19" customFormat="1" spans="1:3">
+      <c r="A330" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="C330" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="10" t="s">
+    <row r="331" s="19" customFormat="1" spans="1:3">
+      <c r="A331" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C331" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="10" t="s">
+    <row r="332" s="19" customFormat="1" spans="1:3">
+      <c r="A332" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="C332" s="10" t="s">
+      <c r="C332" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="10" t="s">
+    <row r="333" s="19" customFormat="1" spans="1:3">
+      <c r="A333" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C333" s="10" t="s">
+      <c r="C333" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="10" t="s">
+    <row r="334" s="19" customFormat="1" spans="1:3">
+      <c r="A334" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="C334" s="10" t="s">
+      <c r="C334" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="10" t="s">
+    <row r="335" s="19" customFormat="1" spans="1:3">
+      <c r="A335" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="C335" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="10" t="s">
+    <row r="336" s="19" customFormat="1" spans="1:3">
+      <c r="A336" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="C336" s="10" t="s">
+      <c r="C336" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="10" t="s">
+    <row r="337" s="19" customFormat="1" spans="1:3">
+      <c r="A337" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="C337" s="10" t="s">
+      <c r="C337" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="10" t="s">
+    <row r="338" s="19" customFormat="1" spans="1:3">
+      <c r="A338" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C338" s="10" t="s">
+      <c r="C338" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="10" t="s">
+    <row r="339" s="19" customFormat="1" spans="1:3">
+      <c r="A339" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C339" s="10" t="s">
+      <c r="C339" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="10" t="s">
+    <row r="340" s="19" customFormat="1" spans="1:3">
+      <c r="A340" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="C340" s="10" t="s">
+      <c r="C340" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="10" t="s">
+    <row r="341" s="19" customFormat="1" spans="1:3">
+      <c r="A341" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C341" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="10" t="s">
+    <row r="342" s="19" customFormat="1" spans="1:3">
+      <c r="A342" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="C342" s="10" t="s">
+      <c r="C342" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="10" t="s">
+    <row r="343" s="19" customFormat="1" spans="1:3">
+      <c r="A343" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C343" s="10" t="s">
+      <c r="C343" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="10" t="s">
+    <row r="344" s="19" customFormat="1" spans="1:3">
+      <c r="A344" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="C344" s="10" t="s">
+      <c r="C344" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="10" t="s">
+    <row r="345" s="19" customFormat="1" spans="1:3">
+      <c r="A345" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C345" s="10" t="s">
+      <c r="C345" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="10" t="s">
+    <row r="346" s="19" customFormat="1" spans="1:3">
+      <c r="A346" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C346" s="10" t="s">
+      <c r="C346" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="10" t="s">
+    <row r="347" s="19" customFormat="1" spans="1:3">
+      <c r="A347" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="C347" s="10" t="s">
+      <c r="C347" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="10" t="s">
+    <row r="348" s="19" customFormat="1" spans="1:3">
+      <c r="A348" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C348" s="10" t="s">
+      <c r="C348" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="10" t="s">
+    <row r="349" s="19" customFormat="1" spans="1:3">
+      <c r="A349" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="C349" s="10" t="s">
+      <c r="C349" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="10" t="s">
+    <row r="350" s="19" customFormat="1" spans="1:3">
+      <c r="A350" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="C350" s="10" t="s">
+      <c r="C350" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="351" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="10" t="s">
+    <row r="351" s="19" customFormat="1" spans="1:3">
+      <c r="A351" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="C351" s="10" t="s">
+      <c r="C351" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="10" t="s">
+    <row r="352" s="19" customFormat="1" spans="1:3">
+      <c r="A352" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C352" s="10" t="s">
+      <c r="C352" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="10" t="s">
+    <row r="353" s="19" customFormat="1" spans="1:3">
+      <c r="A353" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C353" s="10" t="s">
+      <c r="C353" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="354" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="10" t="s">
+    <row r="354" s="19" customFormat="1" spans="1:3">
+      <c r="A354" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="C354" s="10" t="s">
+      <c r="C354" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="10" t="s">
+    <row r="355" s="19" customFormat="1" spans="1:3">
+      <c r="A355" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C355" s="10" t="s">
+      <c r="C355" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="356" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="10" t="s">
+    <row r="356" s="19" customFormat="1" spans="1:3">
+      <c r="A356" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="C356" s="10" t="s">
+      <c r="C356" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="10" t="s">
+    <row r="357" s="19" customFormat="1" spans="1:3">
+      <c r="A357" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="C357" s="10" t="s">
+      <c r="C357" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="358" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="10" t="s">
+    <row r="358" s="19" customFormat="1" spans="1:3">
+      <c r="A358" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C358" s="10" t="s">
+      <c r="C358" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="359" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="10" t="s">
+    <row r="359" s="19" customFormat="1" spans="1:3">
+      <c r="A359" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C359" s="10" t="s">
+      <c r="C359" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="10" t="s">
+    <row r="360" s="19" customFormat="1" spans="1:3">
+      <c r="A360" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C360" s="10" t="s">
+      <c r="C360" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="10" t="s">
+    <row r="361" s="19" customFormat="1" spans="1:3">
+      <c r="A361" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="C361" s="10" t="s">
+      <c r="C361" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="10" t="s">
+    <row r="362" s="19" customFormat="1" spans="1:3">
+      <c r="A362" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C362" s="10" t="s">
+      <c r="C362" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="10" t="s">
+    <row r="363" s="19" customFormat="1" spans="1:3">
+      <c r="A363" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="C363" s="10" t="s">
+      <c r="C363" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="364" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="10" t="s">
+    <row r="364" s="19" customFormat="1" spans="1:3">
+      <c r="A364" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="C364" s="10" t="s">
+      <c r="C364" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="365" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="10" t="s">
+    <row r="365" s="19" customFormat="1" spans="1:3">
+      <c r="A365" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="C365" s="10" t="s">
+      <c r="C365" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="366" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="10" t="s">
+    <row r="366" s="19" customFormat="1" spans="1:3">
+      <c r="A366" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C366" s="10" t="s">
+      <c r="C366" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="367" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="10" t="s">
+    <row r="367" s="19" customFormat="1" spans="1:3">
+      <c r="A367" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="C367" s="10" t="s">
+      <c r="C367" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="368" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="10" t="s">
+    <row r="368" s="19" customFormat="1" spans="1:3">
+      <c r="A368" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="C368" s="10" t="s">
+      <c r="C368" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="10" t="s">
+    <row r="369" s="19" customFormat="1" spans="1:3">
+      <c r="A369" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="C369" s="10" t="s">
+      <c r="C369" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="370" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="10" t="s">
+    <row r="370" s="19" customFormat="1" spans="1:3">
+      <c r="A370" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="C370" s="10" t="s">
+      <c r="C370" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="371" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="10" t="s">
+    <row r="371" s="19" customFormat="1" spans="1:3">
+      <c r="A371" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="C371" s="10" t="s">
+      <c r="C371" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="372" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="10" t="s">
+    <row r="372" s="19" customFormat="1" spans="1:3">
+      <c r="A372" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="C372" s="10" t="s">
+      <c r="C372" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="373" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="10" t="s">
+    <row r="373" s="19" customFormat="1" spans="1:3">
+      <c r="A373" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="C373" s="10" t="s">
+      <c r="C373" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="374" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="10" t="s">
+    <row r="374" s="19" customFormat="1" spans="1:3">
+      <c r="A374" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="C374" s="10" t="s">
+      <c r="C374" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="375" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="10" t="s">
+    <row r="375" s="19" customFormat="1" spans="1:3">
+      <c r="A375" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C375" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="376" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="10" t="s">
+    <row r="376" s="19" customFormat="1" spans="1:3">
+      <c r="A376" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C376" s="10" t="s">
+      <c r="C376" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="377" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="10" t="s">
+    <row r="377" s="19" customFormat="1" spans="1:3">
+      <c r="A377" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="C377" s="10" t="s">
+      <c r="C377" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="378" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="10" t="s">
+    <row r="378" s="19" customFormat="1" spans="1:3">
+      <c r="A378" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="C378" s="10" t="s">
+      <c r="C378" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="379" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="10" t="s">
+    <row r="379" s="19" customFormat="1" spans="1:3">
+      <c r="A379" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="C379" s="10" t="s">
+      <c r="C379" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="380" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="10" t="s">
+    <row r="380" s="19" customFormat="1" spans="1:3">
+      <c r="A380" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C380" s="10" t="s">
+      <c r="C380" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="381" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="10" t="s">
+    <row r="381" s="19" customFormat="1" spans="1:3">
+      <c r="A381" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="C381" s="10" t="s">
+      <c r="C381" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="382" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="10" t="s">
+    <row r="382" s="19" customFormat="1" spans="1:3">
+      <c r="A382" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C382" s="10" t="s">
+      <c r="C382" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="10" t="s">
+    <row r="383" s="19" customFormat="1" spans="1:3">
+      <c r="A383" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="C383" s="10" t="s">
+      <c r="C383" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="384" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="10" t="s">
+    <row r="384" s="19" customFormat="1" spans="1:3">
+      <c r="A384" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="C384" s="10" t="s">
+      <c r="C384" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="10" t="s">
+    <row r="385" s="19" customFormat="1" spans="1:3">
+      <c r="A385" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="C385" s="10" t="s">
+      <c r="C385" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="10" t="s">
+    <row r="386" s="19" customFormat="1" spans="1:3">
+      <c r="A386" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C386" s="10" t="s">
+      <c r="C386" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="10" t="s">
+    <row r="387" s="19" customFormat="1" spans="1:3">
+      <c r="A387" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C387" s="10" t="s">
+      <c r="C387" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="10" t="s">
+    <row r="388" s="19" customFormat="1" spans="1:3">
+      <c r="A388" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C388" s="10" t="s">
+      <c r="C388" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="10" t="s">
+    <row r="389" s="19" customFormat="1" spans="1:3">
+      <c r="A389" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="C389" s="10" t="s">
+      <c r="C389" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="10" t="s">
+    <row r="390" s="19" customFormat="1" spans="1:3">
+      <c r="A390" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="C390" s="10" t="s">
+      <c r="C390" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="10" t="s">
+    <row r="391" s="19" customFormat="1" spans="1:3">
+      <c r="A391" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="C391" s="10" t="s">
+      <c r="C391" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="10" t="s">
+    <row r="392" s="19" customFormat="1" spans="1:3">
+      <c r="A392" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="C392" s="10" t="s">
+      <c r="C392" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="10" t="s">
+    <row r="393" s="19" customFormat="1" spans="1:3">
+      <c r="A393" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="C393" s="10" t="s">
+      <c r="C393" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="394" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="10" t="s">
+    <row r="394" s="19" customFormat="1" spans="1:3">
+      <c r="A394" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="10" t="s">
+      <c r="C394" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="395" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="10" t="s">
+    <row r="395" s="19" customFormat="1" spans="1:3">
+      <c r="A395" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C395" s="10" t="s">
+      <c r="C395" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="396" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="10" t="s">
+    <row r="396" s="19" customFormat="1" spans="1:3">
+      <c r="A396" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C396" s="10" t="s">
+      <c r="C396" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="10" t="s">
+    <row r="397" s="19" customFormat="1" spans="1:3">
+      <c r="A397" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="C397" s="10" t="s">
+      <c r="C397" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="10" t="s">
+    <row r="398" s="19" customFormat="1" spans="1:3">
+      <c r="A398" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C398" s="10" t="s">
+      <c r="C398" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="10" t="s">
+    <row r="399" s="19" customFormat="1" spans="1:3">
+      <c r="A399" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C399" s="10" t="s">
+      <c r="C399" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="10" t="s">
+    <row r="400" s="19" customFormat="1" spans="1:3">
+      <c r="A400" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="C400" s="10" t="s">
+      <c r="C400" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="10" t="s">
+    <row r="401" s="19" customFormat="1" spans="1:3">
+      <c r="A401" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="C401" s="10" t="s">
+      <c r="C401" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="10" t="s">
+    <row r="402" s="19" customFormat="1" spans="1:3">
+      <c r="A402" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C402" s="10" t="s">
+      <c r="C402" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="10" t="s">
+    <row r="403" s="19" customFormat="1" spans="1:3">
+      <c r="A403" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="C403" s="10" t="s">
+      <c r="C403" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="10" t="s">
+    <row r="404" s="19" customFormat="1" spans="1:3">
+      <c r="A404" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C404" s="10" t="s">
+      <c r="C404" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="10" t="s">
+    <row r="405" s="19" customFormat="1" spans="1:3">
+      <c r="A405" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="C405" s="10" t="s">
+      <c r="C405" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="10" t="s">
+    <row r="406" s="19" customFormat="1" spans="1:3">
+      <c r="A406" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="C406" s="10" t="s">
+      <c r="C406" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="10" t="s">
+    <row r="407" s="19" customFormat="1" spans="1:3">
+      <c r="A407" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="C407" s="10" t="s">
+      <c r="C407" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="10" t="s">
+    <row r="408" s="19" customFormat="1" spans="1:3">
+      <c r="A408" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="C408" s="10" t="s">
+      <c r="C408" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="10" t="s">
+    <row r="409" s="19" customFormat="1" spans="1:3">
+      <c r="A409" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C409" s="10" t="s">
+      <c r="C409" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="10" t="s">
+    <row r="410" s="19" customFormat="1" spans="1:3">
+      <c r="A410" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C410" s="10" t="s">
+      <c r="C410" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="10" t="s">
+    <row r="411" s="19" customFormat="1" spans="1:3">
+      <c r="A411" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="C411" s="10" t="s">
+      <c r="C411" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="412" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="10" t="s">
+    <row r="412" s="19" customFormat="1" spans="1:3">
+      <c r="A412" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="C412" s="10" t="s">
+      <c r="C412" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="10" t="s">
+    <row r="413" s="19" customFormat="1" spans="1:3">
+      <c r="A413" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C413" s="10" t="s">
+      <c r="C413" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="414" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="10" t="s">
+    <row r="414" s="19" customFormat="1" spans="1:3">
+      <c r="A414" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C414" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="10" t="s">
+    <row r="415" s="19" customFormat="1" spans="1:3">
+      <c r="A415" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="C415" s="10" t="s">
+      <c r="C415" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="10" t="s">
+    <row r="416" s="19" customFormat="1" spans="1:3">
+      <c r="A416" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C416" s="10" t="s">
+      <c r="C416" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="10" t="s">
+    <row r="417" s="19" customFormat="1" spans="1:3">
+      <c r="A417" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="C417" s="10" t="s">
+      <c r="C417" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="418" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="10" t="s">
+    <row r="418" s="19" customFormat="1" spans="1:3">
+      <c r="A418" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="C418" s="10" t="s">
+      <c r="C418" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="10" t="s">
+    <row r="419" s="19" customFormat="1" spans="1:3">
+      <c r="A419" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C419" s="10" t="s">
+      <c r="C419" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="420" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="10" t="s">
+    <row r="420" s="19" customFormat="1" spans="1:3">
+      <c r="A420" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="C420" s="10" t="s">
+      <c r="C420" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="10" t="s">
+    <row r="421" s="19" customFormat="1" spans="1:3">
+      <c r="A421" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C421" s="10" t="s">
+      <c r="C421" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="10" t="s">
+    <row r="422" s="19" customFormat="1" spans="1:3">
+      <c r="A422" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="C422" s="10" t="s">
+      <c r="C422" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="10" t="s">
+    <row r="423" s="19" customFormat="1" spans="1:3">
+      <c r="A423" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C423" s="10" t="s">
+      <c r="C423" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="424" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="10" t="s">
+    <row r="424" s="19" customFormat="1" spans="1:3">
+      <c r="A424" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C424" s="10" t="s">
+      <c r="C424" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="10" t="s">
+    <row r="425" s="19" customFormat="1" spans="1:3">
+      <c r="A425" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="C425" s="10" t="s">
+      <c r="C425" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="10" t="s">
+    <row r="426" s="19" customFormat="1" spans="1:3">
+      <c r="A426" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="C426" s="10" t="s">
+      <c r="C426" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="10" t="s">
+    <row r="427" s="19" customFormat="1" spans="1:3">
+      <c r="A427" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C427" s="10" t="s">
+      <c r="C427" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="10" t="s">
+    <row r="428" s="19" customFormat="1" spans="1:3">
+      <c r="A428" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="C428" s="10" t="s">
+      <c r="C428" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="429" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="10" t="s">
+    <row r="429" s="19" customFormat="1" spans="1:3">
+      <c r="A429" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C429" s="10" t="s">
+      <c r="C429" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="430" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="10" t="s">
+    <row r="430" s="19" customFormat="1" spans="1:3">
+      <c r="A430" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="C430" s="10" t="s">
+      <c r="C430" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="431" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="10" t="s">
+    <row r="431" s="19" customFormat="1" spans="1:3">
+      <c r="A431" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="C431" s="10" t="s">
+      <c r="C431" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="432" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="10" t="s">
+    <row r="432" s="19" customFormat="1" spans="1:3">
+      <c r="A432" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="C432" s="10" t="s">
+      <c r="C432" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="433" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="10" t="s">
+    <row r="433" s="19" customFormat="1" spans="1:3">
+      <c r="A433" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="C433" s="10" t="s">
+      <c r="C433" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="434" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="10" t="s">
+    <row r="434" s="19" customFormat="1" spans="1:3">
+      <c r="A434" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="C434" s="10" t="s">
+      <c r="C434" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="435" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="10" t="s">
+    <row r="435" s="19" customFormat="1" spans="1:3">
+      <c r="A435" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="C435" s="10" t="s">
+      <c r="C435" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="10" t="s">
+    <row r="436" s="19" customFormat="1" spans="1:3">
+      <c r="A436" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C436" s="10" t="s">
+      <c r="C436" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="10" t="s">
+    <row r="437" s="19" customFormat="1" spans="1:3">
+      <c r="A437" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="C437" s="10" t="s">
+      <c r="C437" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="438" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="10" t="s">
+    <row r="438" s="19" customFormat="1" spans="1:3">
+      <c r="A438" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="C438" s="10" t="s">
+      <c r="C438" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="10" t="s">
+    <row r="439" s="19" customFormat="1" spans="1:3">
+      <c r="A439" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="C439" s="10" t="s">
+      <c r="C439" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="440" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="10" t="s">
+    <row r="440" s="19" customFormat="1" spans="1:3">
+      <c r="A440" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="C440" s="10" t="s">
+      <c r="C440" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="10" t="s">
+    <row r="441" s="19" customFormat="1" spans="1:3">
+      <c r="A441" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="C441" s="10" t="s">
+      <c r="C441" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="10" t="s">
+    <row r="442" s="19" customFormat="1" spans="1:3">
+      <c r="A442" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="C442" s="10" t="s">
+      <c r="C442" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="10" t="s">
+    <row r="443" s="19" customFormat="1" spans="1:3">
+      <c r="A443" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="C443" s="10" t="s">
+      <c r="C443" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="10" t="s">
+    <row r="444" s="19" customFormat="1" spans="1:3">
+      <c r="A444" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="C444" s="10" t="s">
+      <c r="C444" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="10" t="s">
+    <row r="445" s="19" customFormat="1" spans="1:3">
+      <c r="A445" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C445" s="10" t="s">
+      <c r="C445" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="10" t="s">
+    <row r="446" s="19" customFormat="1" spans="1:3">
+      <c r="A446" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="C446" s="10" t="s">
+      <c r="C446" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="10" t="s">
+    <row r="447" s="19" customFormat="1" spans="1:3">
+      <c r="A447" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="C447" s="10" t="s">
+      <c r="C447" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="448" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="10" t="s">
+    <row r="448" s="19" customFormat="1" spans="1:3">
+      <c r="A448" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="C448" s="10" t="s">
+      <c r="C448" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="449" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="10" t="s">
+    <row r="449" s="19" customFormat="1" spans="1:3">
+      <c r="A449" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="C449" s="10" t="s">
+      <c r="C449" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="10" t="s">
+    <row r="450" s="19" customFormat="1" spans="1:3">
+      <c r="A450" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="C450" s="10" t="s">
+      <c r="C450" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="10" t="s">
+    <row r="451" s="19" customFormat="1" spans="1:3">
+      <c r="A451" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C451" s="10" t="s">
+      <c r="C451" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="452" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="10" t="s">
+    <row r="452" s="19" customFormat="1" spans="1:3">
+      <c r="A452" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="C452" s="10" t="s">
+      <c r="C452" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="453" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="10" t="s">
+    <row r="453" s="19" customFormat="1" spans="1:3">
+      <c r="A453" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="C453" s="10" t="s">
+      <c r="C453" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="454" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="10" t="s">
+    <row r="454" s="19" customFormat="1" spans="1:3">
+      <c r="A454" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="C454" s="10" t="s">
+      <c r="C454" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="10" t="s">
+    <row r="455" s="19" customFormat="1" spans="1:3">
+      <c r="A455" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="C455" s="10" t="s">
+      <c r="C455" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="456" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="10" t="s">
+    <row r="456" s="19" customFormat="1" spans="1:3">
+      <c r="A456" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="C456" s="10" t="s">
+      <c r="C456" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="457" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="10" t="s">
+    <row r="457" s="19" customFormat="1" spans="1:3">
+      <c r="A457" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C457" s="10" t="s">
+      <c r="C457" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="458" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="10" t="s">
+    <row r="458" s="19" customFormat="1" spans="1:3">
+      <c r="A458" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="C458" s="10" t="s">
+      <c r="C458" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="10" t="s">
+    <row r="459" s="19" customFormat="1" spans="1:3">
+      <c r="A459" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="C459" s="10" t="s">
+      <c r="C459" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="460" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="10" t="s">
+    <row r="460" s="19" customFormat="1" spans="1:3">
+      <c r="A460" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="C460" s="10" t="s">
+      <c r="C460" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="461" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="10" t="s">
+    <row r="461" s="19" customFormat="1" spans="1:3">
+      <c r="A461" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="C461" s="10" t="s">
+      <c r="C461" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="462" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="10" t="s">
+    <row r="462" s="19" customFormat="1" spans="1:3">
+      <c r="A462" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="C462" s="10" t="s">
+      <c r="C462" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="463" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="10" t="s">
+    <row r="463" s="19" customFormat="1" spans="1:3">
+      <c r="A463" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="C463" s="10" t="s">
+      <c r="C463" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="464" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="10" t="s">
+    <row r="464" s="19" customFormat="1" spans="1:3">
+      <c r="A464" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="C464" s="10" t="s">
+      <c r="C464" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="465" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="10" t="s">
+    <row r="465" s="19" customFormat="1" spans="1:3">
+      <c r="A465" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="C465" s="10" t="s">
+      <c r="C465" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="10" t="s">
+    <row r="466" s="19" customFormat="1" spans="1:3">
+      <c r="A466" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="C466" s="10" t="s">
+      <c r="C466" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="467" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="10" t="s">
+    <row r="467" s="19" customFormat="1" spans="1:3">
+      <c r="A467" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="C467" s="10" t="s">
+      <c r="C467" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="10" t="s">
+    <row r="468" s="19" customFormat="1" spans="1:3">
+      <c r="A468" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="C468" s="10" t="s">
+      <c r="C468" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="10" t="s">
+    <row r="469" s="19" customFormat="1" spans="1:3">
+      <c r="A469" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="C469" s="10" t="s">
+      <c r="C469" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="470" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="10" t="s">
+    <row r="470" s="19" customFormat="1" spans="1:3">
+      <c r="A470" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="C470" s="10" t="s">
+      <c r="C470" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="10" t="s">
+    <row r="471" s="19" customFormat="1" spans="1:3">
+      <c r="A471" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="C471" s="10" t="s">
+      <c r="C471" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="472" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="10" t="s">
+    <row r="472" s="19" customFormat="1" spans="1:3">
+      <c r="A472" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="C472" s="10" t="s">
+      <c r="C472" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="473" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="10" t="s">
+    <row r="473" s="19" customFormat="1" spans="1:3">
+      <c r="A473" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="C473" s="10" t="s">
+      <c r="C473" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="474" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="10" t="s">
+    <row r="474" s="19" customFormat="1" spans="1:3">
+      <c r="A474" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C474" s="10" t="s">
+      <c r="C474" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="10" t="s">
+    <row r="475" s="19" customFormat="1" spans="1:3">
+      <c r="A475" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="C475" s="10" t="s">
+      <c r="C475" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="476" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="10" t="s">
+    <row r="476" s="19" customFormat="1" spans="1:3">
+      <c r="A476" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="C476" s="10" t="s">
+      <c r="C476" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="477" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="10" t="s">
+    <row r="477" s="19" customFormat="1" spans="1:3">
+      <c r="A477" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="C477" s="10" t="s">
+      <c r="C477" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="478" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="10" t="s">
+    <row r="478" s="19" customFormat="1" spans="1:3">
+      <c r="A478" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="C478" s="10" t="s">
+      <c r="C478" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="479" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="10" t="s">
+    <row r="479" s="19" customFormat="1" spans="1:3">
+      <c r="A479" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="C479" s="10" t="s">
+      <c r="C479" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="480" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="10" t="s">
+    <row r="480" s="19" customFormat="1" spans="1:3">
+      <c r="A480" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="C480" s="10" t="s">
+      <c r="C480" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="481" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="10" t="s">
+    <row r="481" s="19" customFormat="1" spans="1:3">
+      <c r="A481" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="C481" s="10" t="s">
+      <c r="C481" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="10" t="s">
+    <row r="482" s="19" customFormat="1" spans="1:3">
+      <c r="A482" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="C482" s="10" t="s">
+      <c r="C482" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="10" t="s">
+    <row r="483" s="19" customFormat="1" spans="1:3">
+      <c r="A483" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="C483" s="10" t="s">
+      <c r="C483" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="10" t="s">
+    <row r="484" s="19" customFormat="1" spans="1:3">
+      <c r="A484" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="C484" s="10" t="s">
+      <c r="C484" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="485" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="10" t="s">
+    <row r="485" s="19" customFormat="1" spans="1:3">
+      <c r="A485" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="C485" s="10" t="s">
+      <c r="C485" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="486" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="10" t="s">
+    <row r="486" s="19" customFormat="1" spans="1:3">
+      <c r="A486" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C486" s="10" t="s">
+      <c r="C486" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="487" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="10" t="s">
+    <row r="487" s="19" customFormat="1" spans="1:3">
+      <c r="A487" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="C487" s="10" t="s">
+      <c r="C487" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="488" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="10" t="s">
+    <row r="488" s="19" customFormat="1" spans="1:3">
+      <c r="A488" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="C488" s="10" t="s">
+      <c r="C488" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="489" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="10" t="s">
+    <row r="489" s="19" customFormat="1" spans="1:3">
+      <c r="A489" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C489" s="10" t="s">
+      <c r="C489" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="490" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="10" t="s">
+    <row r="490" s="19" customFormat="1" spans="1:3">
+      <c r="A490" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="C490" s="10" t="s">
+      <c r="C490" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="491" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="10" t="s">
+    <row r="491" s="19" customFormat="1" spans="1:3">
+      <c r="A491" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="C491" s="10" t="s">
+      <c r="C491" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="492" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="10" t="s">
+    <row r="492" s="19" customFormat="1" spans="1:3">
+      <c r="A492" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="C492" s="10" t="s">
+      <c r="C492" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="10" t="s">
+    <row r="493" s="19" customFormat="1" spans="1:3">
+      <c r="A493" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="C493" s="10" t="s">
+      <c r="C493" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="10" t="s">
+    <row r="494" s="19" customFormat="1" spans="1:3">
+      <c r="A494" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C494" s="10" t="s">
+      <c r="C494" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="10" t="s">
+    <row r="495" s="19" customFormat="1" spans="1:3">
+      <c r="A495" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="C495" s="10" t="s">
+      <c r="C495" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="10" t="s">
+    <row r="496" s="19" customFormat="1" spans="1:3">
+      <c r="A496" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="C496" s="10" t="s">
+      <c r="C496" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="497" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="10" t="s">
+    <row r="497" s="19" customFormat="1" spans="1:3">
+      <c r="A497" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C497" s="10" t="s">
+      <c r="C497" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="10" t="s">
+    <row r="498" s="19" customFormat="1" spans="1:3">
+      <c r="A498" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="C498" s="10" t="s">
+      <c r="C498" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="499" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="10" t="s">
+    <row r="499" s="19" customFormat="1" spans="1:3">
+      <c r="A499" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="C499" s="10" t="s">
+      <c r="C499" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="500" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="10" t="s">
+    <row r="500" s="19" customFormat="1" spans="1:3">
+      <c r="A500" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="C500" s="10" t="s">
+      <c r="C500" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="501" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="10" t="s">
+    <row r="501" s="19" customFormat="1" spans="1:3">
+      <c r="A501" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="C501" s="10" t="s">
+      <c r="C501" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="10" t="s">
+    <row r="502" s="19" customFormat="1" spans="1:3">
+      <c r="A502" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="C502" s="10" t="s">
+      <c r="C502" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="503" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="10" t="s">
+    <row r="503" s="19" customFormat="1" spans="1:3">
+      <c r="A503" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C503" s="10" t="s">
+      <c r="C503" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="504" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="10" t="s">
+    <row r="504" s="19" customFormat="1" spans="1:3">
+      <c r="A504" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="C504" s="10" t="s">
+      <c r="C504" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="505" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="10" t="s">
+    <row r="505" s="19" customFormat="1" spans="1:3">
+      <c r="A505" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="C505" s="10" t="s">
+      <c r="C505" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="10" t="s">
+    <row r="506" s="19" customFormat="1" spans="1:3">
+      <c r="A506" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="C506" s="10" t="s">
+      <c r="C506" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="507" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="10" t="s">
+    <row r="507" s="19" customFormat="1" spans="1:3">
+      <c r="A507" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="C507" s="10" t="s">
+      <c r="C507" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="508" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="10" t="s">
+    <row r="508" s="19" customFormat="1" spans="1:3">
+      <c r="A508" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="C508" s="10" t="s">
+      <c r="C508" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="10" t="s">
+    <row r="509" s="19" customFormat="1" spans="1:3">
+      <c r="A509" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="C509" s="10" t="s">
+      <c r="C509" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="510" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="10" t="s">
+    <row r="510" s="19" customFormat="1" spans="1:3">
+      <c r="A510" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C510" s="10" t="s">
+      <c r="C510" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="511" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="10" t="s">
+    <row r="511" s="19" customFormat="1" spans="1:3">
+      <c r="A511" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C511" s="10" t="s">
+      <c r="C511" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="512" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="10" t="s">
+    <row r="512" s="19" customFormat="1" spans="1:3">
+      <c r="A512" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="C512" s="10" t="s">
+      <c r="C512" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="513" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="10" t="s">
+    <row r="513" s="19" customFormat="1" spans="1:3">
+      <c r="A513" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="C513" s="10" t="s">
+      <c r="C513" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="514" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="10" t="s">
+    <row r="514" s="19" customFormat="1" spans="1:3">
+      <c r="A514" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C514" s="10" t="s">
+      <c r="C514" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="515" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="10" t="s">
+    <row r="515" s="19" customFormat="1" spans="1:3">
+      <c r="A515" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C515" s="10" t="s">
+      <c r="C515" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="516" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="10" t="s">
+    <row r="516" s="19" customFormat="1" spans="1:3">
+      <c r="A516" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="C516" s="10" t="s">
+      <c r="C516" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="517" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="10" t="s">
+    <row r="517" s="19" customFormat="1" spans="1:3">
+      <c r="A517" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C517" s="10" t="s">
+      <c r="C517" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="518" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="10" t="s">
+    <row r="518" s="19" customFormat="1" spans="1:3">
+      <c r="A518" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="C518" s="10" t="s">
+      <c r="C518" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="519" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="10" t="s">
+    <row r="519" s="19" customFormat="1" spans="1:3">
+      <c r="A519" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="C519" s="10" t="s">
+      <c r="C519" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="520" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="10" t="s">
+    <row r="520" s="19" customFormat="1" spans="1:3">
+      <c r="A520" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="C520" s="10" t="s">
+      <c r="C520" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="521" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="10" t="s">
+    <row r="521" s="19" customFormat="1" spans="1:3">
+      <c r="A521" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C521" s="10" t="s">
+      <c r="C521" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="522" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="10" t="s">
+    <row r="522" s="19" customFormat="1" spans="1:3">
+      <c r="A522" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C522" s="10" t="s">
+      <c r="C522" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="523" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="10" t="s">
+    <row r="523" s="19" customFormat="1" spans="1:3">
+      <c r="A523" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="C523" s="10" t="s">
+      <c r="C523" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="524" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="10" t="s">
+    <row r="524" s="19" customFormat="1" spans="1:3">
+      <c r="A524" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="C524" s="10" t="s">
+      <c r="C524" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="525" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="10" t="s">
+    <row r="525" s="19" customFormat="1" spans="1:3">
+      <c r="A525" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="C525" s="10" t="s">
+      <c r="C525" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="526" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="10" t="s">
+    <row r="526" s="19" customFormat="1" spans="1:3">
+      <c r="A526" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="C526" s="10" t="s">
+      <c r="C526" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="527" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="10" t="s">
+    <row r="527" s="19" customFormat="1" spans="1:3">
+      <c r="A527" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="C527" s="10" t="s">
+      <c r="C527" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="528" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="10" t="s">
+    <row r="528" s="19" customFormat="1" spans="1:3">
+      <c r="A528" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="C528" s="10" t="s">
+      <c r="C528" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="10" t="s">
+    <row r="529" s="19" customFormat="1" spans="1:3">
+      <c r="A529" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="C529" s="10" t="s">
+      <c r="C529" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="530" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="10" t="s">
+    <row r="530" s="19" customFormat="1" spans="1:3">
+      <c r="A530" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="C530" s="10" t="s">
+      <c r="C530" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="531" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="10" t="s">
+    <row r="531" s="19" customFormat="1" spans="1:3">
+      <c r="A531" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="C531" s="10" t="s">
+      <c r="C531" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="532" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="10" t="s">
+    <row r="532" s="19" customFormat="1" spans="1:3">
+      <c r="A532" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="C532" s="10" t="s">
+      <c r="C532" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="533" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="10" t="s">
+    <row r="533" s="19" customFormat="1" spans="1:3">
+      <c r="A533" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C533" s="10" t="s">
+      <c r="C533" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="534" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="10" t="s">
+    <row r="534" s="19" customFormat="1" spans="1:3">
+      <c r="A534" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="C534" s="10" t="s">
+      <c r="C534" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="535" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="10" t="s">
+    <row r="535" s="19" customFormat="1" spans="1:3">
+      <c r="A535" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="C535" s="10" t="s">
+      <c r="C535" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="10" t="s">
+    <row r="536" s="19" customFormat="1" spans="1:3">
+      <c r="A536" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="C536" s="10" t="s">
+      <c r="C536" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="537" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="10" t="s">
+    <row r="537" s="19" customFormat="1" spans="1:3">
+      <c r="A537" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="C537" s="10" t="s">
+      <c r="C537" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="538" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="10" t="s">
+    <row r="538" s="19" customFormat="1" spans="1:3">
+      <c r="A538" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="C538" s="10" t="s">
+      <c r="C538" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="539" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="10" t="s">
+    <row r="539" s="19" customFormat="1" spans="1:3">
+      <c r="A539" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="C539" s="10" t="s">
+      <c r="C539" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="540" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="10" t="s">
+    <row r="540" s="19" customFormat="1" spans="1:3">
+      <c r="A540" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="C540" s="10" t="s">
+      <c r="C540" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="541" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="10" t="s">
+    <row r="541" s="19" customFormat="1" spans="1:3">
+      <c r="A541" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="C541" s="10" t="s">
+      <c r="C541" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="542" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="10" t="s">
+    <row r="542" s="19" customFormat="1" spans="1:3">
+      <c r="A542" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C542" s="10" t="s">
+      <c r="C542" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="543" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="10" t="s">
+    <row r="543" s="19" customFormat="1" spans="1:3">
+      <c r="A543" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="C543" s="10" t="s">
+      <c r="C543" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="544" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="10" t="s">
+    <row r="544" s="19" customFormat="1" spans="1:3">
+      <c r="A544" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="C544" s="10" t="s">
+      <c r="C544" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="545" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="10" t="s">
+    <row r="545" s="19" customFormat="1" spans="1:3">
+      <c r="A545" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="C545" s="10" t="s">
+      <c r="C545" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="546" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="10" t="s">
+    <row r="546" s="19" customFormat="1" spans="1:3">
+      <c r="A546" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="C546" s="10" t="s">
+      <c r="C546" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="547" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="10" t="s">
+    <row r="547" s="19" customFormat="1" spans="1:3">
+      <c r="A547" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="C547" s="10" t="s">
+      <c r="C547" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="548" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="10" t="s">
+    <row r="548" s="19" customFormat="1" spans="1:3">
+      <c r="A548" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="C548" s="10" t="s">
+      <c r="C548" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="549" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="10" t="s">
+    <row r="549" s="19" customFormat="1" spans="1:3">
+      <c r="A549" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="C549" s="10" t="s">
+      <c r="C549" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="550" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="10" t="s">
+    <row r="550" s="19" customFormat="1" spans="1:3">
+      <c r="A550" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="C550" s="10" t="s">
+      <c r="C550" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="551" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="10" t="s">
+    <row r="551" s="19" customFormat="1" spans="1:3">
+      <c r="A551" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="C551" s="10" t="s">
+      <c r="C551" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="10" t="s">
+    <row r="552" s="19" customFormat="1" spans="1:3">
+      <c r="A552" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="C552" s="10" t="s">
+      <c r="C552" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="553" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A553" s="10" t="s">
+    <row r="553" s="19" customFormat="1" spans="1:3">
+      <c r="A553" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="C553" s="10" t="s">
+      <c r="C553" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="554" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A554" s="10" t="s">
+    <row r="554" s="19" customFormat="1" spans="1:3">
+      <c r="A554" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="C554" s="10" t="s">
+      <c r="C554" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="555" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A555" s="10" t="s">
+    <row r="555" s="19" customFormat="1" spans="1:3">
+      <c r="A555" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="C555" s="10" t="s">
+      <c r="C555" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="556" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A556" s="10" t="s">
+    <row r="556" s="19" customFormat="1" spans="1:3">
+      <c r="A556" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="C556" s="10" t="s">
+      <c r="C556" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="557" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A557" s="10" t="s">
+    <row r="557" s="19" customFormat="1" spans="1:3">
+      <c r="A557" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="C557" s="10" t="s">
+      <c r="C557" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="558" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A558" s="10" t="s">
+    <row r="558" s="19" customFormat="1" spans="1:3">
+      <c r="A558" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="C558" s="10" t="s">
+      <c r="C558" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="559" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A559" s="10" t="s">
+    <row r="559" s="19" customFormat="1" spans="1:3">
+      <c r="A559" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="C559" s="10" t="s">
+      <c r="C559" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="560" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="10" t="s">
+    <row r="560" s="19" customFormat="1" spans="1:3">
+      <c r="A560" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="C560" s="10" t="s">
+      <c r="C560" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="561" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A561" s="10" t="s">
+    <row r="561" s="19" customFormat="1" spans="1:3">
+      <c r="A561" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="C561" s="10" t="s">
+      <c r="C561" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="562" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A562" s="10" t="s">
+    <row r="562" s="19" customFormat="1" spans="1:3">
+      <c r="A562" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="C562" s="10" t="s">
+      <c r="C562" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="563" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="10" t="s">
+    <row r="563" s="19" customFormat="1" spans="1:3">
+      <c r="A563" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="C563" s="10" t="s">
+      <c r="C563" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="564" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="10" t="s">
+    <row r="564" s="19" customFormat="1" spans="1:3">
+      <c r="A564" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="C564" s="10" t="s">
+      <c r="C564" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="565" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="10" t="s">
+    <row r="565" s="19" customFormat="1" spans="1:3">
+      <c r="A565" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="C565" s="10" t="s">
+      <c r="C565" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="566" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A566" s="10" t="s">
+    <row r="566" s="19" customFormat="1" spans="1:3">
+      <c r="A566" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="C566" s="10" t="s">
+      <c r="C566" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="567" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="10" t="s">
+    <row r="567" s="19" customFormat="1" spans="1:3">
+      <c r="A567" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C567" s="10" t="s">
+      <c r="C567" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="568" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="10" t="s">
+    <row r="568" s="19" customFormat="1" spans="1:3">
+      <c r="A568" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="C568" s="10" t="s">
+      <c r="C568" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="569" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A569" s="10" t="s">
+    <row r="569" s="19" customFormat="1" spans="1:3">
+      <c r="A569" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="C569" s="10" t="s">
+      <c r="C569" s="19" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="570" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A570" s="10" t="s">
+    <row r="570" s="19" customFormat="1" spans="1:3">
+      <c r="A570" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="C570" s="10" t="s">
+      <c r="C570" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="571" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A571" s="10" t="s">
+    <row r="571" s="19" customFormat="1" spans="1:3">
+      <c r="A571" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="C571" s="10" t="s">
+      <c r="C571" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="572" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A572" s="10" t="s">
+    <row r="572" s="19" customFormat="1" spans="1:3">
+      <c r="A572" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="C572" s="10" t="s">
+      <c r="C572" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="573" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A573" s="10" t="s">
+    <row r="573" s="19" customFormat="1" spans="1:3">
+      <c r="A573" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="C573" s="10" t="s">
+      <c r="C573" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="574" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="10" t="s">
+    <row r="574" s="19" customFormat="1" spans="1:3">
+      <c r="A574" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="C574" s="10" t="s">
+      <c r="C574" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="575" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A575" s="10" t="s">
+    <row r="575" s="19" customFormat="1" spans="1:3">
+      <c r="A575" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="C575" s="10" t="s">
+      <c r="C575" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="576" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A576" s="10" t="s">
+    <row r="576" s="19" customFormat="1" spans="1:3">
+      <c r="A576" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="C576" s="10" t="s">
+      <c r="C576" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="577" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A577" s="10" t="s">
+    <row r="577" s="19" customFormat="1" spans="1:3">
+      <c r="A577" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="C577" s="10" t="s">
+      <c r="C577" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="578" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A578" s="10" t="s">
+    <row r="578" s="19" customFormat="1" spans="1:3">
+      <c r="A578" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="C578" s="10" t="s">
+      <c r="C578" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="579" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A579" s="10" t="s">
+    <row r="579" s="19" customFormat="1" spans="1:3">
+      <c r="A579" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="C579" s="10" t="s">
+      <c r="C579" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="580" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A580" s="10" t="s">
+    <row r="580" s="19" customFormat="1" spans="1:3">
+      <c r="A580" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="C580" s="10" t="s">
+      <c r="C580" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="581" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A581" s="10" t="s">
+    <row r="581" s="19" customFormat="1" spans="1:3">
+      <c r="A581" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C581" s="10" t="s">
+      <c r="C581" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="582" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="10" t="s">
+    <row r="582" s="19" customFormat="1" spans="1:3">
+      <c r="A582" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="C582" s="10" t="s">
+      <c r="C582" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="583" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="10" t="s">
+    <row r="583" s="19" customFormat="1" spans="1:3">
+      <c r="A583" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C583" s="10" t="s">
+      <c r="C583" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="584" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="10" t="s">
+    <row r="584" s="19" customFormat="1" spans="1:3">
+      <c r="A584" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="C584" s="10" t="s">
+      <c r="C584" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="585" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="10" t="s">
+    <row r="585" s="19" customFormat="1" spans="1:3">
+      <c r="A585" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="C585" s="10" t="s">
+      <c r="C585" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="10" t="s">
+    <row r="586" s="19" customFormat="1" spans="1:3">
+      <c r="A586" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="C586" s="10" t="s">
+      <c r="C586" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="587" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="10" t="s">
+    <row r="587" s="19" customFormat="1" spans="1:3">
+      <c r="A587" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="C587" s="10" t="s">
+      <c r="C587" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="588" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="10" t="s">
+    <row r="588" s="19" customFormat="1" spans="1:3">
+      <c r="A588" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="C588" s="10" t="s">
+      <c r="C588" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="589" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="10" t="s">
+    <row r="589" s="19" customFormat="1" spans="1:3">
+      <c r="A589" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="C589" s="10" t="s">
+      <c r="C589" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="590" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="10" t="s">
+    <row r="590" s="19" customFormat="1" spans="1:3">
+      <c r="A590" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="C590" s="10" t="s">
+      <c r="C590" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="591" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="10" t="s">
+    <row r="591" s="19" customFormat="1" spans="1:3">
+      <c r="A591" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="C591" s="10" t="s">
+      <c r="C591" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="592" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="10" t="s">
+    <row r="592" s="19" customFormat="1" spans="1:3">
+      <c r="A592" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="C592" s="10" t="s">
+      <c r="C592" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="593" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="10" t="s">
+    <row r="593" s="19" customFormat="1" spans="1:3">
+      <c r="A593" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="C593" s="10" t="s">
+      <c r="C593" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="594" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="10" t="s">
+    <row r="594" s="19" customFormat="1" spans="1:3">
+      <c r="A594" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="C594" s="10" t="s">
+      <c r="C594" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="595" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="10" t="s">
+    <row r="595" s="19" customFormat="1" spans="1:3">
+      <c r="A595" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="C595" s="10" t="s">
+      <c r="C595" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="596" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="10" t="s">
+    <row r="596" s="19" customFormat="1" spans="1:3">
+      <c r="A596" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C596" s="10" t="s">
+      <c r="C596" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="597" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="10" t="s">
+    <row r="597" s="19" customFormat="1" spans="1:3">
+      <c r="A597" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="C597" s="10" t="s">
+      <c r="C597" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="598" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="10" t="s">
+    <row r="598" s="19" customFormat="1" spans="1:3">
+      <c r="A598" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="C598" s="10" t="s">
+      <c r="C598" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="599" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="10" t="s">
+    <row r="599" s="19" customFormat="1" spans="1:3">
+      <c r="A599" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="C599" s="10" t="s">
+      <c r="C599" s="19" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="600" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="10" t="s">
+    <row r="600" s="19" customFormat="1" spans="1:3">
+      <c r="A600" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="C600" s="10" t="s">
+      <c r="C600" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="601" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="10" t="s">
+    <row r="601" s="19" customFormat="1" spans="1:3">
+      <c r="A601" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="C601" s="10" t="s">
+      <c r="C601" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="602" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="10" t="s">
+    <row r="602" s="19" customFormat="1" spans="1:3">
+      <c r="A602" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="C602" s="10" t="s">
+      <c r="C602" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="603" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="10" t="s">
+    <row r="603" s="19" customFormat="1" spans="1:3">
+      <c r="A603" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="C603" s="10" t="s">
+      <c r="C603" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="604" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="10" t="s">
+    <row r="604" s="19" customFormat="1" spans="1:3">
+      <c r="A604" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="C604" s="10" t="s">
+      <c r="C604" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="605" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="10" t="s">
+    <row r="605" s="19" customFormat="1" spans="1:3">
+      <c r="A605" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="C605" s="10" t="s">
+      <c r="C605" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="606" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="10" t="s">
+    <row r="606" s="19" customFormat="1" spans="1:3">
+      <c r="A606" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="C606" s="10" t="s">
+      <c r="C606" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="607" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="10" t="s">
+    <row r="607" s="19" customFormat="1" spans="1:3">
+      <c r="A607" s="19" t="s">
         <v>737</v>
       </c>
-      <c r="C607" s="10" t="s">
+      <c r="C607" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="608" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="10" t="s">
+    <row r="608" s="19" customFormat="1" spans="1:3">
+      <c r="A608" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="C608" s="10" t="s">
+      <c r="C608" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="609" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="10" t="s">
+    <row r="609" s="19" customFormat="1" spans="1:3">
+      <c r="A609" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="C609" s="10" t="s">
+      <c r="C609" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="610" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="10" t="s">
+    <row r="610" s="19" customFormat="1" spans="1:3">
+      <c r="A610" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="C610" s="10" t="s">
+      <c r="C610" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="611" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="10" t="s">
+    <row r="611" s="19" customFormat="1" spans="1:3">
+      <c r="A611" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="C611" s="10" t="s">
+      <c r="C611" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="612" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="10" t="s">
+    <row r="612" s="19" customFormat="1" spans="1:3">
+      <c r="A612" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="C612" s="10" t="s">
+      <c r="C612" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="613" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="10" t="s">
+    <row r="613" s="19" customFormat="1" spans="1:3">
+      <c r="A613" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="C613" s="10" t="s">
+      <c r="C613" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="614" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="10" t="s">
+    <row r="614" s="19" customFormat="1" spans="1:3">
+      <c r="A614" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="C614" s="10" t="s">
+      <c r="C614" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="615" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="10" t="s">
+    <row r="615" s="19" customFormat="1" spans="1:3">
+      <c r="A615" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="C615" s="10" t="s">
+      <c r="C615" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="616" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="10" t="s">
+    <row r="616" s="19" customFormat="1" spans="1:3">
+      <c r="A616" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="C616" s="10" t="s">
+      <c r="C616" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="617" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="10" t="s">
+    <row r="617" s="19" customFormat="1" spans="1:3">
+      <c r="A617" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="C617" s="10" t="s">
+      <c r="C617" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="618" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="10" t="s">
+    <row r="618" s="19" customFormat="1" spans="1:3">
+      <c r="A618" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="C618" s="10" t="s">
+      <c r="C618" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="619" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="10" t="s">
+    <row r="619" s="19" customFormat="1" spans="1:3">
+      <c r="A619" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="C619" s="10" t="s">
+      <c r="C619" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="620" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="10" t="s">
+    <row r="620" s="19" customFormat="1" spans="1:3">
+      <c r="A620" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C620" s="10" t="s">
+      <c r="C620" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="621" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="10" t="s">
+    <row r="621" s="19" customFormat="1" spans="1:3">
+      <c r="A621" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="C621" s="10" t="s">
+      <c r="C621" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="622" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="10" t="s">
+    <row r="622" s="19" customFormat="1" spans="1:3">
+      <c r="A622" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="C622" s="10" t="s">
+      <c r="C622" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="623" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="10" t="s">
+    <row r="623" s="19" customFormat="1" spans="1:3">
+      <c r="A623" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="C623" s="10" t="s">
+      <c r="C623" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="624" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="10" t="s">
+    <row r="624" s="19" customFormat="1" spans="1:3">
+      <c r="A624" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="C624" s="10" t="s">
+      <c r="C624" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="625" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="10" t="s">
+    <row r="625" s="19" customFormat="1" spans="1:3">
+      <c r="A625" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C625" s="10" t="s">
+      <c r="C625" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="626" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="10" t="s">
+    <row r="626" s="19" customFormat="1" spans="1:3">
+      <c r="A626" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="C626" s="10" t="s">
+      <c r="C626" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="627" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="10" t="s">
+    <row r="627" s="19" customFormat="1" spans="1:3">
+      <c r="A627" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="C627" s="10" t="s">
+      <c r="C627" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="628" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="10" t="s">
+    <row r="628" s="19" customFormat="1" spans="1:3">
+      <c r="A628" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="C628" s="10" t="s">
+      <c r="C628" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="629" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="10" t="s">
+    <row r="629" s="19" customFormat="1" spans="1:3">
+      <c r="A629" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="C629" s="10" t="s">
+      <c r="C629" s="19" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8269,439 +8902,473 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="98.5" customWidth="1"/>
+    <col min="1" max="1" width="51.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="98.5045045045045" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    <row r="7" ht="14.15" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="C7" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+    <row r="8" ht="14.15" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A12" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A16" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A17" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" ht="14.85" spans="1:3">
+      <c r="A19" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" ht="14.85" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="21" ht="14.85" spans="1:3">
+      <c r="A21" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" ht="14.85" spans="1:3">
+      <c r="A22" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" ht="14.85" spans="1:3">
+      <c r="A23" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" ht="14.85" spans="1:3">
+      <c r="A24" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" ht="14.85" spans="1:3">
+      <c r="A25" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="26" ht="14.85" spans="1:3">
+      <c r="A26" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="27" ht="14.85" spans="1:3">
+      <c r="A27" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="28" ht="14.85" spans="1:3">
+      <c r="A28" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" ht="14.85" spans="1:3">
+      <c r="A29" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" ht="14.85" spans="1:3">
+      <c r="A30" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="C30" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    </row>
+    <row r="31" ht="14.85" spans="1:3">
+      <c r="A31" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="B31" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="C31" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    </row>
+    <row r="32" ht="14.85" spans="1:3">
+      <c r="A32" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="C32" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    </row>
+    <row r="33" ht="14.85" spans="1:3">
+      <c r="A33" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="B33" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="C33" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="34" ht="14.85" spans="1:3">
+      <c r="A34" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="B34" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="C34" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    </row>
+    <row r="35" ht="14.85" spans="1:3">
+      <c r="A35" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="B35" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="C35" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    </row>
+    <row r="36" ht="14.85" spans="1:3">
+      <c r="A36" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="B36" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>772</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="C36" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    </row>
+    <row r="37" ht="14.85" spans="1:3">
+      <c r="A37" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="B37" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="C37" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    </row>
+    <row r="38" ht="14.85" spans="1:3">
+      <c r="A38" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="B38" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="C38" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    </row>
+    <row r="39" ht="14.85" spans="1:3">
+      <c r="A39" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="B39" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
+      <c r="C39" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>783</v>
+    </row>
+    <row r="40" ht="14.85" spans="1:3">
+      <c r="A40" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +9378,8 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Language.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24582" windowHeight="12368" activeTab="1"/>
+    <workbookView windowWidth="24582" windowHeight="12368"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Property2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -2571,10 +2570,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2599,7 +2598,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2613,22 +2643,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -2636,48 +2650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2692,36 +2666,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2734,26 +2710,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2764,6 +2757,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,7 +2780,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,19 +2864,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2817,19 +2924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,55 +2936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2901,67 +2948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,7 +2974,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3003,22 +2998,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -3061,34 +3082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -3113,13 +3106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3139,32 +3136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3193,11 +3169,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3206,207 +3199,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,10 +3381,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3806,5093 +3793,5445 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:C661"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B633" sqref="B633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.8288288288288" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.5045045045045" style="20" customWidth="1"/>
-    <col min="3" max="3" width="31.6666666666667" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="31.8288288288288" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5045045045045" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="b">
+      <c r="B3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="b">
+      <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="b">
+      <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="b">
+      <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="b">
+      <c r="B5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="b">
+      <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="b">
+      <c r="B6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="b">
+      <c r="C6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.15" spans="1:3">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.15" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="b">
+      <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="b">
+      <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.15" spans="1:3">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="3" customFormat="1" ht="14.15" spans="1:3">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="b">
+      <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="b">
+      <c r="C8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" ht="14.85" spans="1:3">
-      <c r="A9" s="21" t="s">
+    <row r="9" s="4" customFormat="1" ht="14.85" spans="1:3">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:3">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="6" customFormat="1" spans="1:3">
+      <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="6" customFormat="1" spans="1:3">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="6" customFormat="1" spans="1:3">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="6" customFormat="1" spans="1:3">
+      <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="6" customFormat="1" spans="1:3">
+      <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="16" customFormat="1" spans="1:3">
-      <c r="A16" s="16" t="s">
+    <row r="16" s="7" customFormat="1" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" spans="1:3">
-      <c r="A17" s="17" t="s">
+    <row r="17" s="8" customFormat="1" spans="1:3">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="1:3">
-      <c r="A18" s="17" t="s">
+    <row r="18" s="8" customFormat="1" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" spans="1:3">
-      <c r="A19" s="17" t="s">
+    <row r="19" s="8" customFormat="1" spans="1:3">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:3">
-      <c r="A20" s="17" t="s">
+    <row r="20" s="8" customFormat="1" spans="1:3">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" spans="1:3">
-      <c r="A21" s="17" t="s">
+    <row r="21" s="8" customFormat="1" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" spans="1:3">
-      <c r="A22" s="17" t="s">
+    <row r="22" s="8" customFormat="1" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" spans="1:3">
-      <c r="A23" s="17" t="s">
+    <row r="23" s="8" customFormat="1" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" spans="1:3">
-      <c r="A24" s="17" t="s">
+    <row r="24" s="8" customFormat="1" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" spans="1:3">
-      <c r="A25" s="17" t="s">
+    <row r="25" s="8" customFormat="1" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" spans="1:3">
-      <c r="A26" s="17" t="s">
+    <row r="26" s="8" customFormat="1" spans="1:3">
+      <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" spans="1:3">
-      <c r="A27" s="17" t="s">
+    <row r="27" s="8" customFormat="1" spans="1:3">
+      <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" spans="1:3">
-      <c r="A28" s="17" t="s">
+    <row r="28" s="8" customFormat="1" spans="1:3">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" spans="1:3">
-      <c r="A29" s="17" t="s">
+    <row r="29" s="8" customFormat="1" spans="1:3">
+      <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" spans="1:3">
-      <c r="A30" s="17" t="s">
+    <row r="30" s="8" customFormat="1" spans="1:3">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" spans="1:3">
-      <c r="A31" s="17" t="s">
+    <row r="31" s="8" customFormat="1" spans="1:3">
+      <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" spans="1:3">
-      <c r="A32" s="17" t="s">
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" s="17" customFormat="1" spans="1:3">
-      <c r="A33" s="17" t="s">
+    <row r="33" s="8" customFormat="1" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" spans="1:3">
-      <c r="A34" s="17" t="s">
+    <row r="34" s="8" customFormat="1" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" spans="1:3">
-      <c r="A35" s="17" t="s">
+    <row r="35" s="8" customFormat="1" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="17" customFormat="1" spans="1:3">
-      <c r="A36" s="17" t="s">
+    <row r="36" s="8" customFormat="1" spans="1:3">
+      <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" s="17" customFormat="1" spans="1:3">
-      <c r="A37" s="17" t="s">
+    <row r="37" s="8" customFormat="1" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="1" spans="1:3">
-      <c r="A38" s="17" t="s">
+    <row r="38" s="8" customFormat="1" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" spans="1:3">
-      <c r="A39" s="17" t="s">
+    <row r="39" s="8" customFormat="1" spans="1:3">
+      <c r="A39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:3">
-      <c r="A40" s="17" t="s">
+    <row r="40" s="8" customFormat="1" spans="1:3">
+      <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" spans="1:3">
-      <c r="A41" s="17" t="s">
+    <row r="41" s="8" customFormat="1" spans="1:3">
+      <c r="A41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:3">
-      <c r="A42" s="17" t="s">
+    <row r="42" s="8" customFormat="1" spans="1:3">
+      <c r="A42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" spans="1:3">
-      <c r="A43" s="17" t="s">
+    <row r="43" s="8" customFormat="1" spans="1:3">
+      <c r="A43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" spans="1:3">
-      <c r="A44" s="17" t="s">
+    <row r="44" s="8" customFormat="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:3">
-      <c r="A45" s="17" t="s">
+    <row r="45" s="8" customFormat="1" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:3">
-      <c r="A46" s="17" t="s">
+    <row r="46" s="8" customFormat="1" spans="1:3">
+      <c r="A46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" s="17" customFormat="1" spans="1:3">
-      <c r="A47" s="17" t="s">
+    <row r="47" s="8" customFormat="1" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:3">
-      <c r="A48" s="17" t="s">
+    <row r="48" s="8" customFormat="1" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="17" customFormat="1" spans="1:3">
-      <c r="A49" s="17" t="s">
+    <row r="49" s="8" customFormat="1" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="17" customFormat="1" spans="1:3">
-      <c r="A50" s="17" t="s">
+    <row r="50" s="8" customFormat="1" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" s="17" customFormat="1" spans="1:3">
-      <c r="A51" s="17" t="s">
+    <row r="51" s="8" customFormat="1" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" spans="1:3">
-      <c r="A52" s="17" t="s">
+    <row r="52" s="8" customFormat="1" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" s="17" customFormat="1" spans="1:3">
-      <c r="A53" s="17" t="s">
+    <row r="53" s="8" customFormat="1" spans="1:3">
+      <c r="A53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" s="17" customFormat="1" spans="1:3">
-      <c r="A54" s="17" t="s">
+    <row r="54" s="8" customFormat="1" spans="1:3">
+      <c r="A54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" s="17" customFormat="1" spans="1:3">
-      <c r="A55" s="17" t="s">
+    <row r="55" s="8" customFormat="1" spans="1:3">
+      <c r="A55" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:3">
-      <c r="A56" s="17" t="s">
+    <row r="56" s="8" customFormat="1" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" spans="1:3">
-      <c r="A57" s="17" t="s">
+    <row r="57" s="8" customFormat="1" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" s="17" customFormat="1" spans="1:3">
-      <c r="A58" s="17" t="s">
+    <row r="58" s="8" customFormat="1" spans="1:3">
+      <c r="A58" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" s="17" customFormat="1" spans="1:3">
-      <c r="A59" s="17" t="s">
+    <row r="59" s="8" customFormat="1" spans="1:3">
+      <c r="A59" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" s="17" customFormat="1" spans="1:3">
-      <c r="A60" s="17" t="s">
+    <row r="60" s="8" customFormat="1" spans="1:3">
+      <c r="A60" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="1" spans="1:3">
-      <c r="A61" s="17" t="s">
+    <row r="61" s="8" customFormat="1" spans="1:3">
+      <c r="A61" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" s="17" customFormat="1" spans="1:3">
-      <c r="A62" s="17" t="s">
+    <row r="62" s="8" customFormat="1" spans="1:3">
+      <c r="A62" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="1" spans="1:3">
-      <c r="A63" s="17" t="s">
+    <row r="63" s="8" customFormat="1" spans="1:3">
+      <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" s="17" customFormat="1" spans="1:3">
-      <c r="A64" s="17" t="s">
+    <row r="64" s="8" customFormat="1" spans="1:3">
+      <c r="A64" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" s="17" customFormat="1" spans="1:3">
-      <c r="A65" s="17" t="s">
+    <row r="65" s="8" customFormat="1" spans="1:3">
+      <c r="A65" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" s="17" customFormat="1" spans="1:3">
-      <c r="A66" s="17" t="s">
+    <row r="66" s="8" customFormat="1" spans="1:3">
+      <c r="A66" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" s="17" customFormat="1" spans="1:3">
-      <c r="A67" s="17" t="s">
+    <row r="67" s="8" customFormat="1" spans="1:3">
+      <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" s="17" customFormat="1" spans="1:3">
-      <c r="A68" s="17" t="s">
+    <row r="68" s="8" customFormat="1" spans="1:3">
+      <c r="A68" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" s="17" customFormat="1" spans="1:3">
-      <c r="A69" s="17" t="s">
+    <row r="69" s="8" customFormat="1" spans="1:3">
+      <c r="A69" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" s="17" customFormat="1" spans="1:3">
-      <c r="A70" s="17" t="s">
+    <row r="70" s="8" customFormat="1" spans="1:3">
+      <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" s="17" customFormat="1" spans="1:3">
-      <c r="A71" s="17" t="s">
+    <row r="71" s="8" customFormat="1" spans="1:3">
+      <c r="A71" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" s="17" customFormat="1" spans="1:3">
-      <c r="A72" s="17" t="s">
+    <row r="72" s="8" customFormat="1" spans="1:3">
+      <c r="A72" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" s="17" customFormat="1" spans="1:3">
-      <c r="A73" s="17" t="s">
+    <row r="73" s="8" customFormat="1" spans="1:3">
+      <c r="A73" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" s="17" customFormat="1" spans="1:3">
-      <c r="A74" s="17" t="s">
+    <row r="74" s="8" customFormat="1" spans="1:3">
+      <c r="A74" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" s="17" customFormat="1" spans="1:3">
-      <c r="A75" s="17" t="s">
+    <row r="75" s="8" customFormat="1" spans="1:3">
+      <c r="A75" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" s="17" customFormat="1" spans="1:3">
-      <c r="A76" s="17" t="s">
+    <row r="76" s="8" customFormat="1" spans="1:3">
+      <c r="A76" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" s="17" customFormat="1" spans="1:3">
-      <c r="A77" s="17" t="s">
+    <row r="77" s="8" customFormat="1" spans="1:3">
+      <c r="A77" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" s="17" customFormat="1" spans="1:3">
-      <c r="A78" s="17" t="s">
+    <row r="78" s="8" customFormat="1" spans="1:3">
+      <c r="A78" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" s="17" customFormat="1" spans="1:3">
-      <c r="A79" s="17" t="s">
+    <row r="79" s="8" customFormat="1" spans="1:3">
+      <c r="A79" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" s="17" customFormat="1" spans="1:3">
-      <c r="A80" s="17" t="s">
+    <row r="80" s="8" customFormat="1" spans="1:3">
+      <c r="A80" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" s="17" customFormat="1" spans="1:3">
-      <c r="A81" s="17" t="s">
+    <row r="81" s="8" customFormat="1" spans="1:3">
+      <c r="A81" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" s="17" customFormat="1" spans="1:3">
-      <c r="A82" s="17" t="s">
+    <row r="82" s="8" customFormat="1" spans="1:3">
+      <c r="A82" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" s="17" customFormat="1" spans="1:3">
-      <c r="A83" s="17" t="s">
+    <row r="83" s="8" customFormat="1" spans="1:3">
+      <c r="A83" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" s="17" customFormat="1" spans="1:3">
-      <c r="A84" s="17" t="s">
+    <row r="84" s="8" customFormat="1" spans="1:3">
+      <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" s="17" customFormat="1" spans="1:3">
-      <c r="A85" s="17" t="s">
+    <row r="85" s="8" customFormat="1" spans="1:3">
+      <c r="A85" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" s="17" customFormat="1" spans="1:3">
-      <c r="A86" s="17" t="s">
+    <row r="86" s="8" customFormat="1" spans="1:3">
+      <c r="A86" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" s="17" customFormat="1" spans="1:3">
-      <c r="A87" s="17" t="s">
+    <row r="87" s="8" customFormat="1" spans="1:3">
+      <c r="A87" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" s="17" customFormat="1" spans="1:3">
-      <c r="A88" s="17" t="s">
+    <row r="88" s="8" customFormat="1" spans="1:3">
+      <c r="A88" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" s="17" customFormat="1" spans="1:3">
-      <c r="A89" s="17" t="s">
+    <row r="89" s="8" customFormat="1" spans="1:3">
+      <c r="A89" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" s="17" customFormat="1" spans="1:3">
-      <c r="A90" s="17" t="s">
+    <row r="90" s="8" customFormat="1" spans="1:3">
+      <c r="A90" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" s="17" customFormat="1" spans="1:3">
-      <c r="A91" s="17" t="s">
+    <row r="91" s="8" customFormat="1" spans="1:3">
+      <c r="A91" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" s="17" customFormat="1" spans="1:3">
-      <c r="A92" s="17" t="s">
+    <row r="92" s="8" customFormat="1" spans="1:3">
+      <c r="A92" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" s="17" customFormat="1" spans="1:3">
-      <c r="A93" s="17" t="s">
+    <row r="93" s="8" customFormat="1" spans="1:3">
+      <c r="A93" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" s="17" customFormat="1" spans="1:3">
-      <c r="A94" s="17" t="s">
+    <row r="94" s="8" customFormat="1" spans="1:3">
+      <c r="A94" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" s="17" customFormat="1" spans="1:3">
-      <c r="A95" s="17" t="s">
+    <row r="95" s="8" customFormat="1" spans="1:3">
+      <c r="A95" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96" s="17" customFormat="1" spans="1:3">
-      <c r="A96" s="17" t="s">
+    <row r="96" s="8" customFormat="1" spans="1:3">
+      <c r="A96" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" s="17" customFormat="1" spans="1:3">
-      <c r="A97" s="17" t="s">
+    <row r="97" s="8" customFormat="1" spans="1:3">
+      <c r="A97" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" s="17" customFormat="1" spans="1:3">
-      <c r="A98" s="17" t="s">
+    <row r="98" s="8" customFormat="1" spans="1:3">
+      <c r="A98" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" s="17" customFormat="1" spans="1:3">
-      <c r="A99" s="17" t="s">
+    <row r="99" s="8" customFormat="1" spans="1:3">
+      <c r="A99" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" s="17" customFormat="1" spans="1:3">
-      <c r="A100" s="17" t="s">
+    <row r="100" s="8" customFormat="1" spans="1:3">
+      <c r="A100" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" s="17" customFormat="1" spans="1:3">
-      <c r="A101" s="17" t="s">
+    <row r="101" s="8" customFormat="1" spans="1:3">
+      <c r="A101" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="102" s="17" customFormat="1" spans="1:3">
-      <c r="A102" s="17" t="s">
+    <row r="102" s="8" customFormat="1" spans="1:3">
+      <c r="A102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" s="17" customFormat="1" spans="1:3">
-      <c r="A103" s="17" t="s">
+    <row r="103" s="8" customFormat="1" spans="1:3">
+      <c r="A103" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="104" s="17" customFormat="1" spans="1:3">
-      <c r="A104" s="17" t="s">
+    <row r="104" s="8" customFormat="1" spans="1:3">
+      <c r="A104" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" s="17" customFormat="1" spans="1:3">
-      <c r="A105" s="17" t="s">
+    <row r="105" s="8" customFormat="1" spans="1:3">
+      <c r="A105" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" s="17" customFormat="1" spans="1:3">
-      <c r="A106" s="17" t="s">
+    <row r="106" s="8" customFormat="1" spans="1:3">
+      <c r="A106" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="107" s="17" customFormat="1" spans="1:3">
-      <c r="A107" s="17" t="s">
+    <row r="107" s="8" customFormat="1" spans="1:3">
+      <c r="A107" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" s="17" customFormat="1" spans="1:3">
-      <c r="A108" s="17" t="s">
+    <row r="108" s="8" customFormat="1" spans="1:3">
+      <c r="A108" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" s="17" customFormat="1" spans="1:3">
-      <c r="A109" s="17" t="s">
+    <row r="109" s="8" customFormat="1" spans="1:3">
+      <c r="A109" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" s="17" customFormat="1" spans="1:3">
-      <c r="A110" s="17" t="s">
+    <row r="110" s="8" customFormat="1" spans="1:3">
+      <c r="A110" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="111" s="17" customFormat="1" spans="1:3">
-      <c r="A111" s="17" t="s">
+    <row r="111" s="8" customFormat="1" spans="1:3">
+      <c r="A111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="112" s="17" customFormat="1" spans="1:3">
-      <c r="A112" s="17" t="s">
+    <row r="112" s="8" customFormat="1" spans="1:3">
+      <c r="A112" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="113" s="17" customFormat="1" spans="1:3">
-      <c r="A113" s="17" t="s">
+    <row r="113" s="8" customFormat="1" spans="1:3">
+      <c r="A113" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" s="17" customFormat="1" spans="1:3">
-      <c r="A114" s="17" t="s">
+    <row r="114" s="8" customFormat="1" spans="1:3">
+      <c r="A114" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" s="17" customFormat="1" spans="1:3">
-      <c r="A115" s="17" t="s">
+    <row r="115" s="8" customFormat="1" spans="1:3">
+      <c r="A115" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="116" s="17" customFormat="1" spans="1:3">
-      <c r="A116" s="17" t="s">
+    <row r="116" s="8" customFormat="1" spans="1:3">
+      <c r="A116" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" s="17" customFormat="1" spans="1:3">
-      <c r="A117" s="17" t="s">
+    <row r="117" s="8" customFormat="1" spans="1:3">
+      <c r="A117" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="118" s="17" customFormat="1" spans="1:3">
-      <c r="A118" s="17" t="s">
+    <row r="118" s="8" customFormat="1" spans="1:3">
+      <c r="A118" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="119" s="17" customFormat="1" spans="1:3">
-      <c r="A119" s="17" t="s">
+    <row r="119" s="8" customFormat="1" spans="1:3">
+      <c r="A119" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" s="17" customFormat="1" spans="1:3">
-      <c r="A120" s="17" t="s">
+    <row r="120" s="8" customFormat="1" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="121" s="17" customFormat="1" spans="1:3">
-      <c r="A121" s="17" t="s">
+    <row r="121" s="8" customFormat="1" spans="1:3">
+      <c r="A121" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="122" s="17" customFormat="1" spans="1:3">
-      <c r="A122" s="17" t="s">
+    <row r="122" s="8" customFormat="1" spans="1:3">
+      <c r="A122" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="123" s="17" customFormat="1" spans="1:3">
-      <c r="A123" s="17" t="s">
+    <row r="123" s="8" customFormat="1" spans="1:3">
+      <c r="A123" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" s="17" customFormat="1" spans="1:3">
-      <c r="A124" s="17" t="s">
+    <row r="124" s="8" customFormat="1" spans="1:3">
+      <c r="A124" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="125" s="17" customFormat="1" spans="1:3">
-      <c r="A125" s="17" t="s">
+    <row r="125" s="8" customFormat="1" spans="1:3">
+      <c r="A125" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="126" s="17" customFormat="1" spans="1:3">
-      <c r="A126" s="17" t="s">
+    <row r="126" s="8" customFormat="1" spans="1:3">
+      <c r="A126" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="127" s="17" customFormat="1" spans="1:3">
-      <c r="A127" s="17" t="s">
+    <row r="127" s="8" customFormat="1" spans="1:3">
+      <c r="A127" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" s="17" customFormat="1" spans="1:3">
-      <c r="A128" s="17" t="s">
+    <row r="128" s="8" customFormat="1" spans="1:3">
+      <c r="A128" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="129" s="17" customFormat="1" spans="1:3">
-      <c r="A129" s="17" t="s">
+    <row r="129" s="8" customFormat="1" spans="1:3">
+      <c r="A129" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="130" s="17" customFormat="1" spans="1:3">
-      <c r="A130" s="17" t="s">
+    <row r="130" s="8" customFormat="1" spans="1:3">
+      <c r="A130" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="131" s="17" customFormat="1" spans="1:3">
-      <c r="A131" s="17" t="s">
+    <row r="131" s="8" customFormat="1" spans="1:3">
+      <c r="A131" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="132" s="17" customFormat="1" spans="1:3">
-      <c r="A132" s="17" t="s">
+    <row r="132" s="8" customFormat="1" spans="1:3">
+      <c r="A132" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="133" s="17" customFormat="1" spans="1:3">
-      <c r="A133" s="17" t="s">
+    <row r="133" s="8" customFormat="1" spans="1:3">
+      <c r="A133" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="134" s="17" customFormat="1" spans="1:3">
-      <c r="A134" s="17" t="s">
+    <row r="134" s="8" customFormat="1" spans="1:3">
+      <c r="A134" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="135" s="17" customFormat="1" spans="1:3">
-      <c r="A135" s="17" t="s">
+    <row r="135" s="8" customFormat="1" spans="1:3">
+      <c r="A135" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="136" s="17" customFormat="1" spans="1:3">
-      <c r="A136" s="17" t="s">
+    <row r="136" s="8" customFormat="1" spans="1:3">
+      <c r="A136" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="137" s="17" customFormat="1" spans="1:3">
-      <c r="A137" s="17" t="s">
+    <row r="137" s="8" customFormat="1" spans="1:3">
+      <c r="A137" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" s="17" customFormat="1" spans="1:3">
-      <c r="A138" s="17" t="s">
+    <row r="138" s="8" customFormat="1" spans="1:3">
+      <c r="A138" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" s="17" customFormat="1" spans="1:3">
-      <c r="A139" s="17" t="s">
+    <row r="139" s="8" customFormat="1" spans="1:3">
+      <c r="A139" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" s="17" customFormat="1" spans="1:3">
-      <c r="A140" s="17" t="s">
+    <row r="140" s="8" customFormat="1" spans="1:3">
+      <c r="A140" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="141" s="17" customFormat="1" spans="1:3">
-      <c r="A141" s="17" t="s">
+    <row r="141" s="8" customFormat="1" spans="1:3">
+      <c r="A141" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="142" s="17" customFormat="1" spans="1:3">
-      <c r="A142" s="17" t="s">
+    <row r="142" s="8" customFormat="1" spans="1:3">
+      <c r="A142" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="143" s="17" customFormat="1" spans="1:3">
-      <c r="A143" s="17" t="s">
+    <row r="143" s="8" customFormat="1" spans="1:3">
+      <c r="A143" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="144" s="17" customFormat="1" spans="1:3">
-      <c r="A144" s="17" t="s">
+    <row r="144" s="8" customFormat="1" spans="1:3">
+      <c r="A144" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="145" s="17" customFormat="1" spans="1:3">
-      <c r="A145" s="17" t="s">
+    <row r="145" s="8" customFormat="1" spans="1:3">
+      <c r="A145" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="146" s="17" customFormat="1" spans="1:3">
-      <c r="A146" s="17" t="s">
+    <row r="146" s="8" customFormat="1" spans="1:3">
+      <c r="A146" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="147" s="17" customFormat="1" spans="1:3">
-      <c r="A147" s="17" t="s">
+    <row r="147" s="8" customFormat="1" spans="1:3">
+      <c r="A147" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="148" s="17" customFormat="1" spans="1:3">
-      <c r="A148" s="17" t="s">
+    <row r="148" s="8" customFormat="1" spans="1:3">
+      <c r="A148" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="149" s="17" customFormat="1" spans="1:3">
-      <c r="A149" s="17" t="s">
+    <row r="149" s="8" customFormat="1" spans="1:3">
+      <c r="A149" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="150" s="17" customFormat="1" spans="1:3">
-      <c r="A150" s="17" t="s">
+    <row r="150" s="8" customFormat="1" spans="1:3">
+      <c r="A150" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="151" s="17" customFormat="1" spans="1:3">
-      <c r="A151" s="17" t="s">
+    <row r="151" s="8" customFormat="1" spans="1:3">
+      <c r="A151" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="152" s="17" customFormat="1" spans="1:3">
-      <c r="A152" s="17" t="s">
+    <row r="152" s="8" customFormat="1" spans="1:3">
+      <c r="A152" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="153" s="17" customFormat="1" spans="1:3">
-      <c r="A153" s="17" t="s">
+    <row r="153" s="8" customFormat="1" spans="1:3">
+      <c r="A153" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" s="17" customFormat="1" spans="1:3">
-      <c r="A154" s="17" t="s">
+    <row r="154" s="8" customFormat="1" spans="1:3">
+      <c r="A154" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="155" s="17" customFormat="1" spans="1:3">
-      <c r="A155" s="17" t="s">
+    <row r="155" s="8" customFormat="1" spans="1:3">
+      <c r="A155" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="156" s="17" customFormat="1" spans="1:3">
-      <c r="A156" s="17" t="s">
+    <row r="156" s="8" customFormat="1" spans="1:3">
+      <c r="A156" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="157" s="17" customFormat="1" spans="1:3">
-      <c r="A157" s="17" t="s">
+    <row r="157" s="8" customFormat="1" spans="1:3">
+      <c r="A157" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" s="17" customFormat="1" spans="1:3">
-      <c r="A158" s="17" t="s">
+    <row r="158" s="8" customFormat="1" spans="1:3">
+      <c r="A158" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="159" s="17" customFormat="1" spans="1:3">
-      <c r="A159" s="17" t="s">
+    <row r="159" s="8" customFormat="1" spans="1:3">
+      <c r="A159" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="160" s="17" customFormat="1" spans="1:3">
-      <c r="A160" s="17" t="s">
+    <row r="160" s="8" customFormat="1" spans="1:3">
+      <c r="A160" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="161" s="17" customFormat="1" spans="1:3">
-      <c r="A161" s="17" t="s">
+    <row r="161" s="8" customFormat="1" spans="1:3">
+      <c r="A161" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="162" s="17" customFormat="1" spans="1:3">
-      <c r="A162" s="17" t="s">
+    <row r="162" s="8" customFormat="1" spans="1:3">
+      <c r="A162" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="163" s="17" customFormat="1" spans="1:3">
-      <c r="A163" s="17" t="s">
+    <row r="163" s="8" customFormat="1" spans="1:3">
+      <c r="A163" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="164" s="17" customFormat="1" spans="1:3">
-      <c r="A164" s="17" t="s">
+    <row r="164" s="8" customFormat="1" spans="1:3">
+      <c r="A164" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="165" s="17" customFormat="1" spans="1:3">
-      <c r="A165" s="17" t="s">
+    <row r="165" s="8" customFormat="1" spans="1:3">
+      <c r="A165" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="166" s="17" customFormat="1" spans="1:3">
-      <c r="A166" s="17" t="s">
+    <row r="166" s="8" customFormat="1" spans="1:3">
+      <c r="A166" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" s="17" customFormat="1" spans="1:3">
-      <c r="A167" s="17" t="s">
+    <row r="167" s="8" customFormat="1" spans="1:3">
+      <c r="A167" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="168" s="17" customFormat="1" spans="1:3">
-      <c r="A168" s="17" t="s">
+    <row r="168" s="8" customFormat="1" spans="1:3">
+      <c r="A168" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="169" s="17" customFormat="1" spans="1:3">
-      <c r="A169" s="17" t="s">
+    <row r="169" s="8" customFormat="1" spans="1:3">
+      <c r="A169" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="170" s="17" customFormat="1" spans="1:3">
-      <c r="A170" s="17" t="s">
+    <row r="170" s="8" customFormat="1" spans="1:3">
+      <c r="A170" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="171" s="17" customFormat="1" spans="1:3">
-      <c r="A171" s="17" t="s">
+    <row r="171" s="8" customFormat="1" spans="1:3">
+      <c r="A171" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="172" s="17" customFormat="1" spans="1:3">
-      <c r="A172" s="17" t="s">
+    <row r="172" s="8" customFormat="1" spans="1:3">
+      <c r="A172" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="173" s="17" customFormat="1" spans="1:3">
-      <c r="A173" s="17" t="s">
+    <row r="173" s="8" customFormat="1" spans="1:3">
+      <c r="A173" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="174" s="17" customFormat="1" spans="1:3">
-      <c r="A174" s="17" t="s">
+    <row r="174" s="8" customFormat="1" spans="1:3">
+      <c r="A174" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="175" s="17" customFormat="1" spans="1:3">
-      <c r="A175" s="17" t="s">
+    <row r="175" s="8" customFormat="1" spans="1:3">
+      <c r="A175" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="176" s="17" customFormat="1" spans="1:3">
-      <c r="A176" s="17" t="s">
+    <row r="176" s="8" customFormat="1" spans="1:3">
+      <c r="A176" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="177" s="17" customFormat="1" spans="1:3">
-      <c r="A177" s="17" t="s">
+    <row r="177" s="8" customFormat="1" spans="1:3">
+      <c r="A177" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="178" s="17" customFormat="1" spans="1:3">
-      <c r="A178" s="17" t="s">
+    <row r="178" s="8" customFormat="1" spans="1:3">
+      <c r="A178" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" s="17" customFormat="1" spans="1:3">
-      <c r="A179" s="17" t="s">
+    <row r="179" s="8" customFormat="1" spans="1:3">
+      <c r="A179" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="180" s="17" customFormat="1" spans="1:3">
-      <c r="A180" s="17" t="s">
+    <row r="180" s="8" customFormat="1" spans="1:3">
+      <c r="A180" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="181" s="17" customFormat="1" spans="1:3">
-      <c r="A181" s="17" t="s">
+    <row r="181" s="8" customFormat="1" spans="1:3">
+      <c r="A181" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="182" s="17" customFormat="1" spans="1:3">
-      <c r="A182" s="17" t="s">
+    <row r="182" s="8" customFormat="1" spans="1:3">
+      <c r="A182" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="183" s="17" customFormat="1" spans="1:3">
-      <c r="A183" s="17" t="s">
+    <row r="183" s="8" customFormat="1" spans="1:3">
+      <c r="A183" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="184" s="17" customFormat="1" spans="1:3">
-      <c r="A184" s="17" t="s">
+    <row r="184" s="8" customFormat="1" spans="1:3">
+      <c r="A184" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="185" s="17" customFormat="1" spans="1:3">
-      <c r="A185" s="17" t="s">
+    <row r="185" s="8" customFormat="1" spans="1:3">
+      <c r="A185" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="186" s="17" customFormat="1" spans="1:3">
-      <c r="A186" s="17" t="s">
+    <row r="186" s="8" customFormat="1" spans="1:3">
+      <c r="A186" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="187" s="17" customFormat="1" spans="1:3">
-      <c r="A187" s="17" t="s">
+    <row r="187" s="8" customFormat="1" spans="1:3">
+      <c r="A187" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="188" s="17" customFormat="1" spans="1:3">
-      <c r="A188" s="17" t="s">
+    <row r="188" s="8" customFormat="1" spans="1:3">
+      <c r="A188" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="189" s="17" customFormat="1" spans="1:3">
-      <c r="A189" s="17" t="s">
+    <row r="189" s="8" customFormat="1" spans="1:3">
+      <c r="A189" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="190" s="17" customFormat="1" spans="1:3">
-      <c r="A190" s="17" t="s">
+    <row r="190" s="8" customFormat="1" spans="1:3">
+      <c r="A190" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="191" s="17" customFormat="1" spans="1:3">
-      <c r="A191" s="17" t="s">
+    <row r="191" s="8" customFormat="1" spans="1:3">
+      <c r="A191" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="192" s="17" customFormat="1" spans="1:3">
-      <c r="A192" s="17" t="s">
+    <row r="192" s="8" customFormat="1" spans="1:3">
+      <c r="A192" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="193" s="17" customFormat="1" spans="1:3">
-      <c r="A193" s="17" t="s">
+    <row r="193" s="8" customFormat="1" spans="1:3">
+      <c r="A193" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="194" s="17" customFormat="1" spans="1:3">
-      <c r="A194" s="17" t="s">
+    <row r="194" s="8" customFormat="1" spans="1:3">
+      <c r="A194" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="195" s="17" customFormat="1" spans="1:3">
-      <c r="A195" s="17" t="s">
+    <row r="195" s="8" customFormat="1" spans="1:3">
+      <c r="A195" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="196" s="17" customFormat="1" spans="1:3">
-      <c r="A196" s="17" t="s">
+    <row r="196" s="8" customFormat="1" spans="1:3">
+      <c r="A196" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="197" s="17" customFormat="1" spans="1:3">
-      <c r="A197" s="17" t="s">
+    <row r="197" s="8" customFormat="1" spans="1:3">
+      <c r="A197" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="198" s="17" customFormat="1" spans="1:3">
-      <c r="A198" s="17" t="s">
+    <row r="198" s="8" customFormat="1" spans="1:3">
+      <c r="A198" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="199" s="17" customFormat="1" spans="1:3">
-      <c r="A199" s="17" t="s">
+    <row r="199" s="8" customFormat="1" spans="1:3">
+      <c r="A199" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="200" s="17" customFormat="1" spans="1:3">
-      <c r="A200" s="17" t="s">
+    <row r="200" s="8" customFormat="1" spans="1:3">
+      <c r="A200" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="201" s="17" customFormat="1" spans="1:3">
-      <c r="A201" s="17" t="s">
+    <row r="201" s="8" customFormat="1" spans="1:3">
+      <c r="A201" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="202" s="17" customFormat="1" spans="1:3">
-      <c r="A202" s="17" t="s">
+    <row r="202" s="8" customFormat="1" spans="1:3">
+      <c r="A202" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="203" s="17" customFormat="1" spans="1:3">
-      <c r="A203" s="17" t="s">
+    <row r="203" s="8" customFormat="1" spans="1:3">
+      <c r="A203" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="204" s="17" customFormat="1" spans="1:3">
-      <c r="A204" s="17" t="s">
+    <row r="204" s="8" customFormat="1" spans="1:3">
+      <c r="A204" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="205" s="17" customFormat="1" spans="1:3">
-      <c r="A205" s="17" t="s">
+    <row r="205" s="8" customFormat="1" spans="1:3">
+      <c r="A205" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="206" s="17" customFormat="1" spans="1:3">
-      <c r="A206" s="17" t="s">
+    <row r="206" s="8" customFormat="1" spans="1:3">
+      <c r="A206" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="207" s="17" customFormat="1" spans="1:3">
-      <c r="A207" s="17" t="s">
+    <row r="207" s="8" customFormat="1" spans="1:3">
+      <c r="A207" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="208" s="17" customFormat="1" spans="1:3">
-      <c r="A208" s="17" t="s">
+    <row r="208" s="8" customFormat="1" spans="1:3">
+      <c r="A208" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="209" s="17" customFormat="1" spans="1:3">
-      <c r="A209" s="17" t="s">
+    <row r="209" s="8" customFormat="1" spans="1:3">
+      <c r="A209" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="210" s="17" customFormat="1" spans="1:3">
-      <c r="A210" s="17" t="s">
+    <row r="210" s="8" customFormat="1" spans="1:3">
+      <c r="A210" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="211" s="17" customFormat="1" spans="1:3">
-      <c r="A211" s="17" t="s">
+    <row r="211" s="8" customFormat="1" spans="1:3">
+      <c r="A211" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="212" s="17" customFormat="1" spans="1:3">
-      <c r="A212" s="17" t="s">
+    <row r="212" s="8" customFormat="1" spans="1:3">
+      <c r="A212" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="213" s="17" customFormat="1" spans="1:3">
-      <c r="A213" s="17" t="s">
+    <row r="213" s="8" customFormat="1" spans="1:3">
+      <c r="A213" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="214" s="17" customFormat="1" spans="1:3">
-      <c r="A214" s="17" t="s">
+    <row r="214" s="8" customFormat="1" spans="1:3">
+      <c r="A214" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="215" s="17" customFormat="1" spans="1:3">
-      <c r="A215" s="17" t="s">
+    <row r="215" s="8" customFormat="1" spans="1:3">
+      <c r="A215" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="216" s="17" customFormat="1" spans="1:3">
-      <c r="A216" s="17" t="s">
+    <row r="216" s="8" customFormat="1" spans="1:3">
+      <c r="A216" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="217" s="17" customFormat="1" spans="1:3">
-      <c r="A217" s="17" t="s">
+    <row r="217" s="8" customFormat="1" spans="1:3">
+      <c r="A217" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="218" s="17" customFormat="1" spans="1:3">
-      <c r="A218" s="17" t="s">
+    <row r="218" s="8" customFormat="1" spans="1:3">
+      <c r="A218" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="219" s="17" customFormat="1" spans="1:3">
-      <c r="A219" s="17" t="s">
+    <row r="219" s="8" customFormat="1" spans="1:3">
+      <c r="A219" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="220" s="17" customFormat="1" spans="1:3">
-      <c r="A220" s="17" t="s">
+    <row r="220" s="8" customFormat="1" spans="1:3">
+      <c r="A220" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="221" s="17" customFormat="1" spans="1:3">
-      <c r="A221" s="17" t="s">
+    <row r="221" s="8" customFormat="1" spans="1:3">
+      <c r="A221" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="222" s="17" customFormat="1" spans="1:3">
-      <c r="A222" s="17" t="s">
+    <row r="222" s="8" customFormat="1" spans="1:3">
+      <c r="A222" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="223" s="17" customFormat="1" spans="1:3">
-      <c r="A223" s="17" t="s">
+    <row r="223" s="8" customFormat="1" spans="1:3">
+      <c r="A223" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="224" s="17" customFormat="1" spans="1:3">
-      <c r="A224" s="17" t="s">
+    <row r="224" s="8" customFormat="1" spans="1:3">
+      <c r="A224" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="225" s="17" customFormat="1" spans="1:3">
-      <c r="A225" s="17" t="s">
+    <row r="225" s="8" customFormat="1" spans="1:3">
+      <c r="A225" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="226" s="17" customFormat="1" spans="1:3">
-      <c r="A226" s="17" t="s">
+    <row r="226" s="8" customFormat="1" spans="1:3">
+      <c r="A226" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="227" s="17" customFormat="1" spans="1:3">
-      <c r="A227" s="17" t="s">
+    <row r="227" s="8" customFormat="1" spans="1:3">
+      <c r="A227" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="228" s="17" customFormat="1" spans="1:3">
-      <c r="A228" s="17" t="s">
+    <row r="228" s="8" customFormat="1" spans="1:3">
+      <c r="A228" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="229" s="17" customFormat="1" spans="1:3">
-      <c r="A229" s="17" t="s">
+    <row r="229" s="8" customFormat="1" spans="1:3">
+      <c r="A229" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="230" s="17" customFormat="1" spans="1:3">
-      <c r="A230" s="17" t="s">
+    <row r="230" s="8" customFormat="1" spans="1:3">
+      <c r="A230" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="231" s="17" customFormat="1" spans="1:3">
-      <c r="A231" s="17" t="s">
+    <row r="231" s="8" customFormat="1" spans="1:3">
+      <c r="A231" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" s="17" customFormat="1" spans="1:3">
-      <c r="A232" s="17" t="s">
+    <row r="232" s="8" customFormat="1" spans="1:3">
+      <c r="A232" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="233" s="17" customFormat="1" spans="1:3">
-      <c r="A233" s="17" t="s">
+    <row r="233" s="8" customFormat="1" spans="1:3">
+      <c r="A233" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="234" s="17" customFormat="1" spans="1:3">
-      <c r="A234" s="17" t="s">
+    <row r="234" s="8" customFormat="1" spans="1:3">
+      <c r="A234" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="235" s="17" customFormat="1" spans="1:3">
-      <c r="A235" s="17" t="s">
+    <row r="235" s="8" customFormat="1" spans="1:3">
+      <c r="A235" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="236" s="17" customFormat="1" spans="1:3">
-      <c r="A236" s="17" t="s">
+    <row r="236" s="8" customFormat="1" spans="1:3">
+      <c r="A236" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="237" s="17" customFormat="1" spans="1:3">
-      <c r="A237" s="17" t="s">
+    <row r="237" s="8" customFormat="1" spans="1:3">
+      <c r="A237" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="238" s="17" customFormat="1" spans="1:3">
-      <c r="A238" s="17" t="s">
+    <row r="238" s="8" customFormat="1" spans="1:3">
+      <c r="A238" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C238" s="17" t="s">
+      <c r="C238" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="239" s="17" customFormat="1" spans="1:3">
-      <c r="A239" s="17" t="s">
+    <row r="239" s="8" customFormat="1" spans="1:3">
+      <c r="A239" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C239" s="17" t="s">
+      <c r="C239" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="240" s="17" customFormat="1" spans="1:3">
-      <c r="A240" s="17" t="s">
+    <row r="240" s="8" customFormat="1" spans="1:3">
+      <c r="A240" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C240" s="17" t="s">
+      <c r="C240" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="241" s="17" customFormat="1" spans="1:3">
-      <c r="A241" s="17" t="s">
+    <row r="241" s="8" customFormat="1" spans="1:3">
+      <c r="A241" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C241" s="17" t="s">
+      <c r="C241" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="242" s="17" customFormat="1" spans="1:3">
-      <c r="A242" s="17" t="s">
+    <row r="242" s="8" customFormat="1" spans="1:3">
+      <c r="A242" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="243" s="17" customFormat="1" spans="1:3">
-      <c r="A243" s="17" t="s">
+    <row r="243" s="8" customFormat="1" spans="1:3">
+      <c r="A243" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C243" s="17" t="s">
+      <c r="C243" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="244" s="17" customFormat="1" spans="1:3">
-      <c r="A244" s="17" t="s">
+    <row r="244" s="8" customFormat="1" spans="1:3">
+      <c r="A244" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="245" s="17" customFormat="1" spans="1:3">
-      <c r="A245" s="17" t="s">
+    <row r="245" s="8" customFormat="1" spans="1:3">
+      <c r="A245" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="246" s="17" customFormat="1" spans="1:3">
-      <c r="A246" s="17" t="s">
+    <row r="246" s="8" customFormat="1" spans="1:3">
+      <c r="A246" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C246" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="247" s="17" customFormat="1" spans="1:3">
-      <c r="A247" s="17" t="s">
+    <row r="247" s="8" customFormat="1" spans="1:3">
+      <c r="A247" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C247" s="17" t="s">
+      <c r="C247" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="248" s="17" customFormat="1" spans="1:3">
-      <c r="A248" s="17" t="s">
+    <row r="248" s="8" customFormat="1" spans="1:3">
+      <c r="A248" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C248" s="17" t="s">
+      <c r="C248" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="249" s="17" customFormat="1" spans="1:3">
-      <c r="A249" s="17" t="s">
+    <row r="249" s="8" customFormat="1" spans="1:3">
+      <c r="A249" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C249" s="17" t="s">
+      <c r="C249" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="250" s="17" customFormat="1" spans="1:3">
-      <c r="A250" s="17" t="s">
+    <row r="250" s="8" customFormat="1" spans="1:3">
+      <c r="A250" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C250" s="17" t="s">
+      <c r="C250" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="251" s="17" customFormat="1" spans="1:3">
-      <c r="A251" s="17" t="s">
+    <row r="251" s="8" customFormat="1" spans="1:3">
+      <c r="A251" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="252" s="17" customFormat="1" spans="1:3">
-      <c r="A252" s="17" t="s">
+    <row r="252" s="8" customFormat="1" spans="1:3">
+      <c r="A252" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="253" s="17" customFormat="1" spans="1:3">
-      <c r="A253" s="17" t="s">
+    <row r="253" s="8" customFormat="1" spans="1:3">
+      <c r="A253" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C253" s="17" t="s">
+      <c r="C253" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="254" s="17" customFormat="1" spans="1:3">
-      <c r="A254" s="17" t="s">
+    <row r="254" s="8" customFormat="1" spans="1:3">
+      <c r="A254" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="255" s="17" customFormat="1" spans="1:3">
-      <c r="A255" s="17" t="s">
+    <row r="255" s="8" customFormat="1" spans="1:3">
+      <c r="A255" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="256" s="17" customFormat="1" spans="1:3">
-      <c r="A256" s="17" t="s">
+    <row r="256" s="8" customFormat="1" spans="1:3">
+      <c r="A256" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="257" s="17" customFormat="1" spans="1:3">
-      <c r="A257" s="17" t="s">
+    <row r="257" s="8" customFormat="1" spans="1:3">
+      <c r="A257" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="258" s="17" customFormat="1" spans="1:3">
-      <c r="A258" s="17" t="s">
+    <row r="258" s="8" customFormat="1" spans="1:3">
+      <c r="A258" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="259" s="17" customFormat="1" spans="1:3">
-      <c r="A259" s="17" t="s">
+    <row r="259" s="8" customFormat="1" spans="1:3">
+      <c r="A259" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="260" s="17" customFormat="1" spans="1:3">
-      <c r="A260" s="17" t="s">
+    <row r="260" s="8" customFormat="1" spans="1:3">
+      <c r="A260" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="261" s="17" customFormat="1" spans="1:3">
-      <c r="A261" s="17" t="s">
+    <row r="261" s="8" customFormat="1" spans="1:3">
+      <c r="A261" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="262" s="17" customFormat="1" spans="1:3">
-      <c r="A262" s="17" t="s">
+    <row r="262" s="8" customFormat="1" spans="1:3">
+      <c r="A262" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="263" s="17" customFormat="1" spans="1:3">
-      <c r="A263" s="17" t="s">
+    <row r="263" s="8" customFormat="1" spans="1:3">
+      <c r="A263" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="264" s="17" customFormat="1" spans="1:3">
-      <c r="A264" s="17" t="s">
+    <row r="264" s="8" customFormat="1" spans="1:3">
+      <c r="A264" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="265" s="17" customFormat="1" spans="1:3">
-      <c r="A265" s="17" t="s">
+    <row r="265" s="8" customFormat="1" spans="1:3">
+      <c r="A265" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="266" s="17" customFormat="1" spans="1:3">
-      <c r="A266" s="17" t="s">
+    <row r="266" s="8" customFormat="1" spans="1:3">
+      <c r="A266" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="267" s="17" customFormat="1" spans="1:3">
-      <c r="A267" s="17" t="s">
+    <row r="267" s="8" customFormat="1" spans="1:3">
+      <c r="A267" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="268" s="17" customFormat="1" spans="1:3">
-      <c r="A268" s="17" t="s">
+    <row r="268" s="8" customFormat="1" spans="1:3">
+      <c r="A268" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="269" s="17" customFormat="1" spans="1:3">
-      <c r="A269" s="17" t="s">
+    <row r="269" s="8" customFormat="1" spans="1:3">
+      <c r="A269" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="270" s="17" customFormat="1" spans="1:3">
-      <c r="A270" s="17" t="s">
+    <row r="270" s="8" customFormat="1" spans="1:3">
+      <c r="A270" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="271" s="17" customFormat="1" spans="1:3">
-      <c r="A271" s="17" t="s">
+    <row r="271" s="8" customFormat="1" spans="1:3">
+      <c r="A271" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="272" s="17" customFormat="1" spans="1:3">
-      <c r="A272" s="17" t="s">
+    <row r="272" s="8" customFormat="1" spans="1:3">
+      <c r="A272" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="273" s="17" customFormat="1" spans="1:3">
-      <c r="A273" s="17" t="s">
+    <row r="273" s="8" customFormat="1" spans="1:3">
+      <c r="A273" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="274" s="17" customFormat="1" spans="1:3">
-      <c r="A274" s="17" t="s">
+    <row r="274" s="8" customFormat="1" spans="1:3">
+      <c r="A274" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="8" t="s">
         <v>370</v>
      